--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.7580781044003323</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.03790390522001662</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06064624835202659</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06023405440940448</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.02107603107429938</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01065247798812232</v>
+        <v>0.02193773338645172</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>-0.0005887975231031253</v>
+        <v>0.001343896262228694</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007398022965102953</v>
+        <v>0.000821915210647356</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001425673777492108</v>
+        <v>0.004367888141211279</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008212073287716029</v>
+        <v>0.0008132576993114154</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003495287942206438</v>
+        <v>0.005857305043344752</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007624673299412593</v>
+        <v>0.0008046577626772541</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006393946864297062</v>
+        <v>0.001343896262228694</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007641093742467432</v>
+        <v>0.000821915210647356</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.001760700670017559</v>
+        <v>0.003354256106550706</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001479604593020591</v>
+        <v>0.001643830421294712</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002836672697849103</v>
+        <v>0.009820611398847462</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001642414657543206</v>
+        <v>0.001626515398622831</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008104574187271396</v>
+        <v>0.01225450747877538</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001524934659882519</v>
+        <v>0.001609315525354508</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01530167557403755</v>
+        <v>0.003354256106550706</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001528218748493486</v>
+        <v>0.001643830421294712</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003986790295585858</v>
+        <v>0.005018333901967348</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002219406889530886</v>
+        <v>0.002465745631942068</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004106694431422878</v>
+        <v>0.01441815044495365</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002463621986314809</v>
+        <v>0.002439773097934246</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01193208618365066</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002287401989823778</v>
+        <v>0.002473391089108913</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02216252334506608</v>
+        <v>0.005018333901967348</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00229232812274023</v>
+        <v>0.002465745631942068</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005027767069825564</v>
+        <v>0.006323384017479887</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.002959209186041181</v>
+        <v>0.003287660842589424</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005809436648565376</v>
+        <v>0.01902048595157466</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003284829315086412</v>
+        <v>0.003253030797245661</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01499999999999999</v>
+        <v>0.02331767564248943</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.0029183703271028</v>
+        <v>0.003218631050709016</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02961582739322732</v>
+        <v>0.006323384017479887</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003056437496986973</v>
+        <v>0.003287660842589424</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003550825996040773</v>
+        <v>0.009992500000000001</v>
       </c>
       <c r="B70" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.016</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.008156660822089601</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003550825996040773</v>
+        <v>0.00410957605323678</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.007218597019628507</v>
+        <v>0.02228759859075552</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004106036643858014</v>
+        <v>0.004066288496557077</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01720342269671851</v>
+        <v>0.02785738326067322</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003812336649706297</v>
+        <v>0.004023288813386271</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.0371009249343659</v>
+        <v>0.008156660822089601</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003820546871233716</v>
+        <v>0.00410957605323678</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006473328858302818</v>
+        <v>0.009705418684797761</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004438813779061771</v>
+        <v>0.004931491263884136</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008407873214964209</v>
+        <v>0.02717946903454113</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004927243972629618</v>
+        <v>0.004879546195868493</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02058994639315745</v>
+        <v>0.03237435263630045</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004574803979647556</v>
+        <v>0.004827946576063524</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04305715318432646</v>
+        <v>0.009705418684797761</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004584656245480459</v>
+        <v>0.004931491263884136</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.005041714166066205</v>
+        <v>0.01095691197460565</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005178616075572067</v>
+        <v>0.005753406474531492</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009450962904924379</v>
+        <v>0.03035607795497647</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005748451301401221</v>
+        <v>0.005692803895179907</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02287833042414572</v>
+        <v>0.03648526908384225</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005337271309588815</v>
+        <v>0.005632604338740778</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.04882384935895367</v>
+        <v>0.01095691197460565</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005348765619727203</v>
+        <v>0.005753406474531492</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.005545967042198334</v>
+        <v>0.01189839506051455</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.005918418372082362</v>
+        <v>0.006575321685178848</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.03387740602410647</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006245312499999997</v>
+        <v>0.006506061594491323</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02459509408984506</v>
+        <v>0.04020681791777003</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006099738639530074</v>
+        <v>0.006437262101418033</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05434035067409204</v>
+        <v>0.01189839506051455</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006112874993973946</v>
+        <v>0.006575321685178848</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.007000867112012102</v>
+        <v>0.01321712231152572</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006658220668592657</v>
+        <v>0.007397236895826204</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01108707894587026</v>
+        <v>0.03690343391397607</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007390865958944426</v>
+        <v>0.007319319293802739</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02686675669041691</v>
+        <v>0.0435556844525547</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006862205969471334</v>
+        <v>0.007241919864095287</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05854599434558633</v>
+        <v>0.01321712231152572</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006876984368220689</v>
+        <v>0.007397236895826204</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.008421194000820413</v>
+        <v>0.01430034809664046</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007398022965102953</v>
+        <v>0.00821915210647356</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01155371652668482</v>
+        <v>0.03919414229663018</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008212073287716028</v>
+        <v>0.008132576993114154</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02791983752602295</v>
+        <v>0.04864855400266765</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007624673299412593</v>
+        <v>0.008046577626772541</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06408011758928112</v>
+        <v>0.01430034809664046</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007641093742467432</v>
+        <v>0.00821915210647356</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.008821727333936193</v>
+        <v>0.01483532678486005</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.00813782526161325</v>
+        <v>0.009041067317120916</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01214080982594232</v>
+        <v>0.04130951184411377</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009033280616487631</v>
+        <v>0.00894583469242557</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0296808558968247</v>
+        <v>0.05080211188258005</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008387140629353852</v>
+        <v>0.008851235389449796</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.0668820576210209</v>
+        <v>0.01483532678486005</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008405203116714175</v>
+        <v>0.009041067317120916</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.007217246736672331</v>
+        <v>0.016</v>
       </c>
       <c r="G77" t="n">
-        <v>0.008877627558123543</v>
+        <v>0.009992500000000001</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01246119787846815</v>
+        <v>0.04299999999999998</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009854487945259236</v>
+        <v>0.009625392025089599</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03207633110298377</v>
+        <v>0.0538330434067632</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009149607959295113</v>
+        <v>0.009655893152127048</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07100000000000001</v>
+        <v>0.016</v>
       </c>
       <c r="O77" t="n">
-        <v>0.00943440824468085</v>
+        <v>0.009992500000000001</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.009622531834341752</v>
+        <v>0.01634750184317019</v>
       </c>
       <c r="G78" t="n">
-        <v>0.00961742985463384</v>
+        <v>0.01068489773841563</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01302771971908771</v>
+        <v>0.04380384396839479</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01067569527403084</v>
+        <v>0.0105723500910484</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03343278244466172</v>
+        <v>0.05815803388968821</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009912075289236372</v>
+        <v>0.0104605509148043</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07095619624052174</v>
+        <v>0.01634750184317019</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00993342186520766</v>
+        <v>0.01068489773841563</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.01651736822956971</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01065247798812232</v>
+        <v>0.01150681294906298</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01375321438262636</v>
+        <v>0.04542071850202672</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01149690260280244</v>
+        <v>0.01138560779035981</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03477672922202002</v>
+        <v>0.06069376864582632</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01067454261917763</v>
+        <v>0.01126520867748156</v>
       </c>
       <c r="N79" t="n">
-        <v>0.0729466107650778</v>
+        <v>0.01651736822956971</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01069753123945441</v>
+        <v>0.01150681294906298</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01052001834177829</v>
+        <v>0.01722960586077944</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01109703444765443</v>
+        <v>0.01232872815971034</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01405052090390949</v>
+        <v>0.04609473597350053</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01231810993157404</v>
+        <v>0.01219886548967123</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03693469073522043</v>
+        <v>0.06355693298964871</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01143700994911889</v>
+        <v>0.01206986644015881</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07335555824032602</v>
+        <v>0.01722960586077944</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01146164061370115</v>
+        <v>0.01232872815971034</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01102521981675943</v>
+        <v>0.01769367300830153</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01183683674416472</v>
+        <v>0.0131506433703577</v>
       </c>
       <c r="J81" t="n">
-        <v>0.0141324783177625</v>
+        <v>0.04675582324394773</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01313931726034565</v>
+        <v>0.01301212318898265</v>
       </c>
       <c r="L81" t="n">
-        <v>0.03833318628442448</v>
+        <v>0.06706421223562675</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01219947727906015</v>
+        <v>0.01287452420283607</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07434782719022304</v>
+        <v>0.01769367300830153</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01222574998794789</v>
+        <v>0.0131506433703577</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01156176498426138</v>
+        <v>0.01771902794363808</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01257663904067502</v>
+        <v>0.01397255858100505</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01481192565901078</v>
+        <v>0.04683390717449995</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01396052458911725</v>
+        <v>0.01382538088829406</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03989873516979367</v>
+        <v>0.07073229169823148</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01296194460900141</v>
+        <v>0.01367918196551332</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07648820613872537</v>
+        <v>0.01771902794363808</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01298985936219463</v>
+        <v>0.01397255858100505</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01212355933889016</v>
+        <v>0.01811512893829115</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01331644133718531</v>
+        <v>0.01479447379165241</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01490170196247967</v>
+        <v>0.04795891462628879</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01478173191788885</v>
+        <v>0.01463863858760548</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04235785669148964</v>
+        <v>0.07217785669193416</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01372441193894267</v>
+        <v>0.01448383972819057</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07744148360978936</v>
+        <v>0.01811512893829115</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01375396873644138</v>
+        <v>0.01479447379165241</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01270450837525185</v>
+        <v>0.0183914342637629</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01405624363369561</v>
+        <v>0.01561638900229977</v>
       </c>
       <c r="J84" t="n">
-        <v>0.0154146462629946</v>
+        <v>0.04836077246044582</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01560293924666046</v>
+        <v>0.01545189628691689</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04363707014967397</v>
+        <v>0.076417592531206</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01448687926888393</v>
+        <v>0.01528849749086783</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07657244812737168</v>
+        <v>0.0183914342637629</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01451807811068812</v>
+        <v>0.01561638900229977</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01229851758795252</v>
+        <v>0.01855740219155541</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01479604593020591</v>
+        <v>0.01643830421294712</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01596359759538091</v>
+        <v>0.04866940753810256</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01642414657543206</v>
+        <v>0.01626515398622831</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04626289484450816</v>
+        <v>0.07846818453051835</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01524934659882519</v>
+        <v>0.01609315525354508</v>
       </c>
       <c r="N85" t="n">
-        <v>0.07834588821542865</v>
+        <v>0.01855740219155541</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01528218748493486</v>
+        <v>0.01643830421294712</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.0138994924715982</v>
+        <v>0.01902249099317076</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0155358482267162</v>
+        <v>0.01726021942359448</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01666139499446402</v>
+        <v>0.05001474672039069</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01724535390420366</v>
+        <v>0.01707841168553972</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04816185007615387</v>
+        <v>0.08204631800434214</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01601181392876645</v>
+        <v>0.01689781301622233</v>
       </c>
       <c r="N86" t="n">
-        <v>0.07832659239791684</v>
+        <v>0.01902249099317076</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01604629685918161</v>
+        <v>0.01726021942359448</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01350133852079497</v>
+        <v>0.01899615894011107</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0162756505232265</v>
+        <v>0.01808213463424183</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01702087749506931</v>
+        <v>0.04992671686844175</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01806656123297526</v>
+        <v>0.01789166938485114</v>
       </c>
       <c r="L87" t="n">
-        <v>0.05056045514477267</v>
+        <v>0.0849010892564076</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0167742812587077</v>
+        <v>0.01749946646853657</v>
       </c>
       <c r="N87" t="n">
-        <v>0.07977934919879281</v>
+        <v>0.01899615894011107</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01681040623342835</v>
+        <v>0.01808213463424183</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01509796123014889</v>
+        <v>0.01938786430387843</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01701545281973679</v>
+        <v>0.01890404984488919</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01765488413202217</v>
+        <v>0.05113524484338727</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01888776856174687</v>
+        <v>0.01870492708416256</v>
       </c>
       <c r="L88" t="n">
-        <v>0.0529885601653535</v>
+        <v>0.08828730872249491</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01718224907360769</v>
+        <v>0.01850712854157684</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08216894714201306</v>
+        <v>0.01938786430387843</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01757451560767509</v>
+        <v>0.01890404984488919</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.013683266094266</v>
+        <v>0.01970706535597495</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01775525511624709</v>
+        <v>0.01972596505553654</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01847625394014796</v>
+        <v>0.0529885601653535</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01970897589051847</v>
+        <v>0.01976882420296799</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05696341763096846</v>
+        <v>0.09070214547083022</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01829921591859023</v>
+        <v>0.0193117863042541</v>
       </c>
       <c r="N89" t="n">
-        <v>0.08286017475153384</v>
+        <v>0.01970706535597495</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01833862498192184</v>
+        <v>0.01972596505553654</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01525115860775238</v>
+        <v>0.01996322036790274</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01849505741275738</v>
+        <v>0.0205478802661839</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01919782595427207</v>
+        <v>0.05317455618672751</v>
       </c>
       <c r="K90" t="n">
-        <v>0.02053018321929008</v>
+        <v>0.02033144248278539</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06228036256898253</v>
+        <v>0.09460199536880998</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01906168324853148</v>
+        <v>0.02011644406693135</v>
       </c>
       <c r="N90" t="n">
-        <v>0.0849010892564076</v>
+        <v>0.01996322036790274</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01880261822683184</v>
+        <v>0.0205478802661839</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01479554426521407</v>
+        <v>0.02066578761116389</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01923485970926768</v>
+        <v>0.02136979547683126</v>
       </c>
       <c r="J91" t="n">
-        <v>0.0203324392092199</v>
+        <v>0.05439340260140563</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02135139054806168</v>
+        <v>0.0211447001820968</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06662097343736742</v>
+        <v>0.09847391592077515</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01982415057847274</v>
+        <v>0.02092110182960861</v>
       </c>
       <c r="N91" t="n">
-        <v>0.08926217601276049</v>
+        <v>0.02066578761116389</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01986684373041532</v>
+        <v>0.02136979547683126</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01731032856125715</v>
+        <v>0.02107603107429938</v>
       </c>
       <c r="G92" t="n">
-        <v>0.01997466200577798</v>
+        <v>0.02193773338645172</v>
       </c>
       <c r="J92" t="n">
+        <v>0.05611175255982664</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.02195795788140822</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.1007049646310667</v>
+      </c>
+      <c r="M92" t="n">
+        <v>0.02172575959228586</v>
+      </c>
+      <c r="N92" t="n">
         <v>0.02107603107429938</v>
       </c>
-      <c r="K92" t="n">
+      <c r="O92" t="n">
         <v>0.02193773338645172</v>
-      </c>
-      <c r="L92" t="n">
-        <v>0.07229164617604622</v>
-      </c>
-      <c r="M92" t="n">
-        <v>0.020586617908414</v>
-      </c>
-      <c r="N92" t="n">
-        <v>0.09773687736968123</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0.02063095310466207</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01578941699048766</v>
+        <v>0.02158430447298287</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02071446430228827</v>
+        <v>0.02301362589812597</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02372136164444494</v>
+        <v>0.05751124235807303</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02299380520560488</v>
+        <v>0.02277121558071963</v>
       </c>
       <c r="L93" t="n">
-        <v>0.07669877672494224</v>
+        <v>0.1045821990040254</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02134908523835526</v>
+        <v>0.02253041735496311</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1052980456777811</v>
+        <v>0.02158430447298287</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02139506247890881</v>
+        <v>0.02301362589812597</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01622671504751166</v>
+        <v>0.02214219772130081</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02145426659879856</v>
+        <v>0.02383554110877333</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0271562086598916</v>
+        <v>0.06017350829222734</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02381501253437648</v>
+        <v>0.02358447328003105</v>
       </c>
       <c r="L94" t="n">
-        <v>0.0828487610239787</v>
+        <v>0.1086926765439923</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02211155256829652</v>
+        <v>0.02333507511764037</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1160797855292693</v>
+        <v>0.02214219772130081</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02215917185315555</v>
+        <v>0.02383554110877333</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01661612822693522</v>
+        <v>0.02299019044213779</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02219406889530886</v>
+        <v>0.02465745631942068</v>
       </c>
       <c r="J95" t="n">
-        <v>0.03151142121076794</v>
+        <v>0.06158018665837212</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02463621986314809</v>
+        <v>0.02439773097934246</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08784799501307874</v>
+        <v>0.1124234547553085</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02287401989823778</v>
+        <v>0.02413973288031762</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1262162015163556</v>
+        <v>0.02299019044213779</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0229232812274023</v>
+        <v>0.02465745631942068</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.01795156202336439</v>
+        <v>0.02371823401046394</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02293387119181916</v>
+        <v>0.02547937153006804</v>
       </c>
       <c r="J96" t="n">
-        <v>0.03552601875415583</v>
+        <v>0.06421291375258992</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02545742719191969</v>
+        <v>0.02521098867865388</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09150287463216566</v>
+        <v>0.1147615911423148</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02363648722817904</v>
+        <v>0.02494439064299488</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1361413982312493</v>
+        <v>0.02371823401046394</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02368739060164904</v>
+        <v>0.02547937153006804</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.01722692193140523</v>
+        <v>0.02461627980124932</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02367367348832945</v>
+        <v>0.02630128674071539</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0388390207471371</v>
+        <v>0.06655332587096324</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02627863452069129</v>
+        <v>0.02602424637796529</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09601979582116257</v>
+        <v>0.1194941432093522</v>
       </c>
       <c r="M97" t="n">
-        <v>0.0243989545581203</v>
+        <v>0.02574904840567213</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1470894802661598</v>
+        <v>0.02461627980124932</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02445149997589578</v>
+        <v>0.02630128674071539</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0194361134456638</v>
+        <v>0.02547427918946407</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02441347578483975</v>
+        <v>0.02712320195136275</v>
       </c>
       <c r="J98" t="n">
-        <v>0.04058944664679361</v>
+        <v>0.06798305930957463</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0270998418494629</v>
+        <v>0.02683750407727671</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09870515451999282</v>
+        <v>0.1230081684607616</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02516142188806156</v>
+        <v>0.02655370616834938</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1534945522132966</v>
+        <v>0.02547427918946407</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02521560935014253</v>
+        <v>0.02712320195136275</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01857304206074617</v>
+        <v>0.02668218355007829</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02515327808135004</v>
+        <v>0.0279451171620101</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04082254065690927</v>
+        <v>0.07098375036450669</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0279210491782345</v>
+        <v>0.02765076177658812</v>
       </c>
       <c r="L99" t="n">
-        <v>0.1011653466685795</v>
+        <v>0.1265907244008839</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02592388921800282</v>
+        <v>0.02735836393102663</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1597907186648689</v>
+        <v>0.02668218355007829</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02597971872438927</v>
+        <v>0.0279451171620101</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01863161327125837</v>
+        <v>0.02792994425806208</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02589308037786034</v>
+        <v>0.02876703237265746</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04065992159077417</v>
+        <v>0.07343703533184187</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0287422565070061</v>
+        <v>0.02846401947589954</v>
       </c>
       <c r="L100" t="n">
-        <v>0.102106768206846</v>
+        <v>0.1287288685340602</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02668635654794407</v>
+        <v>0.02816302169370389</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1629120842130866</v>
+        <v>0.02792994425806208</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02674382809863601</v>
+        <v>0.02876703237265746</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.01862356299599796</v>
+        <v>0.0287075126883856</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02663288267437063</v>
+        <v>0.02958894758330482</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04054770685306307</v>
+        <v>0.07542455050766272</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02956346383577771</v>
+        <v>0.02927727717521096</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1017615142454426</v>
+        <v>0.1322096583646313</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02744882387788533</v>
+        <v>0.02896767945638115</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1629423359128107</v>
+        <v>0.0287075126883856</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02750793747288276</v>
+        <v>0.02958894758330482</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.01758472922135656</v>
+        <v>0.02980484021601888</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02737268497088093</v>
+        <v>0.03041086279395218</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04049088051925866</v>
+        <v>0.07782793218805184</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03038467116454931</v>
+        <v>0.03009053487452237</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1011727586912568</v>
+        <v>0.1354201513969384</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02821129120782659</v>
+        <v>0.0297723372190584</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1625637529820159</v>
+        <v>0.02980484021601888</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0282720468471295</v>
+        <v>0.03041086279395218</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01751876795906056</v>
+        <v>0.0309118782159321</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02811248726739122</v>
+        <v>0.03123277800459953</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04029442666484363</v>
+        <v>0.08072881666909176</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03120587849332091</v>
+        <v>0.03090379257383379</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1007612755186486</v>
+        <v>0.1385474051353221</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02897375853776785</v>
+        <v>0.03057699498173565</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1627713829218806</v>
+        <v>0.0309118782159321</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02903615622137624</v>
+        <v>0.03123277800459953</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01842822306193911</v>
+        <v>0.0319185780630953</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02885228956390152</v>
+        <v>0.03205469321524688</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0396633293653007</v>
+        <v>0.08360884024686496</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03202708582209252</v>
+        <v>0.0317170502731452</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1013389670019979</v>
+        <v>0.1416784770841236</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02973622586770911</v>
+        <v>0.03138165274441291</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1613860968925782</v>
+        <v>0.0319185780630953</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02980026559562298</v>
+        <v>0.03205469321524688</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01931563838282139</v>
+        <v>0.03301489113247863</v>
       </c>
       <c r="G105" t="n">
-        <v>0.02959209186041181</v>
+        <v>0.03287660842589424</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03950257269611254</v>
+        <v>0.08524963921745402</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03284829315086411</v>
+        <v>0.03253030797245662</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1007177354156846</v>
+        <v>0.1460004247476838</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03049869319765037</v>
+        <v>0.03218631050709016</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1612287660542824</v>
+        <v>0.03301489113247863</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03056437496986973</v>
+        <v>0.03287660842589424</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01818355777453654</v>
+        <v>0.0341907687990522</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03033189415692211</v>
+        <v>0.0336985236365416</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03921714073276185</v>
+        <v>0.08793284987694142</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03366950047963572</v>
+        <v>0.03334356567176803</v>
       </c>
       <c r="L106" t="n">
-        <v>0.09960948303408851</v>
+        <v>0.1476003056303435</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03126116052759163</v>
+        <v>0.03299096826976742</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1593202615671667</v>
+        <v>0.0341907687990522</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03132848434411647</v>
+        <v>0.0336985236365416</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.01903452508991373</v>
+        <v>0.0355361624377861</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03107169645343241</v>
+        <v>0.03452043884718895</v>
       </c>
       <c r="J107" t="n">
-        <v>0.03901201755073132</v>
+        <v>0.09064010852140977</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03449070780840732</v>
+        <v>0.03415682337107945</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09882611213158971</v>
+        <v>0.1514651772364438</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03202362785753289</v>
+        <v>0.03379562603244467</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1588814545914043</v>
+        <v>0.0355361624377861</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03209259371836321</v>
+        <v>0.03452043884718895</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01687108418178212</v>
+        <v>0.03624102342365045</v>
       </c>
       <c r="G108" t="n">
-        <v>0.0318114987499427</v>
+        <v>0.03534235405783631</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03859218722550369</v>
+        <v>0.0929530514469416</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03531191513717893</v>
+        <v>0.03497008107039086</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09787952498256805</v>
+        <v>0.1540820970703256</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03278609518747415</v>
+        <v>0.03460028379512192</v>
       </c>
       <c r="N108" t="n">
-        <v>0.156833216287169</v>
+        <v>0.03624102342365045</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03285670309260996</v>
+        <v>0.03534235405783631</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01669577890297087</v>
+        <v>0.03719530313161537</v>
       </c>
       <c r="G109" t="n">
-        <v>0.032551301046453</v>
+        <v>0.03616426926848366</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03816263383256158</v>
+        <v>0.09425331494961936</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03613312246595052</v>
+        <v>0.03578333876970228</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09698162386140355</v>
+        <v>0.1555381226363298</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03354856251741541</v>
+        <v>0.03540494155779918</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1556964178146342</v>
+        <v>0.03719530313161537</v>
       </c>
       <c r="O109" t="n">
-        <v>0.0336208124668567</v>
+        <v>0.03616426926848366</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01651115310630913</v>
+        <v>0.03808895293665095</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03329110334296329</v>
+        <v>0.03698618447913102</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03782834144738773</v>
+        <v>0.09632253532552573</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03695432979472213</v>
+        <v>0.03659659646901369</v>
       </c>
       <c r="L110" t="n">
-        <v>0.09644431104247611</v>
+        <v>0.1578203114387975</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03431102984735666</v>
+        <v>0.03620959932047643</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1548919303339732</v>
+        <v>0.03808895293665095</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03438492184110344</v>
+        <v>0.03698618447913102</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01731975064462606</v>
+        <v>0.0388119242137273</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03403090563947359</v>
+        <v>0.03780809968977838</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03769429414546484</v>
+        <v>0.09894234887074319</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03777553712349373</v>
+        <v>0.03740985416832511</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09537948880016558</v>
+        <v>0.1601157209820696</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03507349717729793</v>
+        <v>0.03701425708315369</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1530406250053597</v>
+        <v>0.0388119242137273</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03514903121535019</v>
+        <v>0.03780809968977838</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01712411537075084</v>
+        <v>0.03965416833781454</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03477070793598388</v>
+        <v>0.03863001490042573</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03736547600227559</v>
+        <v>0.1003943918813542</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03859674445226533</v>
+        <v>0.03822311186763652</v>
       </c>
       <c r="L112" t="n">
-        <v>0.09529905940885203</v>
+        <v>0.1632114087704869</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03583596450723919</v>
+        <v>0.03781891484583094</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1522633729889671</v>
+        <v>0.03965416833781454</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03591314058959693</v>
+        <v>0.03863001490042573</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.01592679113751261</v>
+        <v>0.04030563668388278</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03551051023249417</v>
+        <v>0.03945193011107308</v>
       </c>
       <c r="J113" t="n">
-        <v>0.03684687109330269</v>
+        <v>0.1011603006534413</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03941795178103694</v>
+        <v>0.03903636956694794</v>
       </c>
       <c r="L113" t="n">
-        <v>0.09381492514291526</v>
+        <v>0.1642944323083905</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03659843183718045</v>
+        <v>0.03862357260850819</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1507810454449689</v>
+        <v>0.04030563668388278</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03667724996384367</v>
+        <v>0.03945193011107308</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01573032179774053</v>
+        <v>0.04115628062690209</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03625031252900447</v>
+        <v>0.04027384532172044</v>
       </c>
       <c r="J114" t="n">
-        <v>0.03674346349402884</v>
+        <v>0.1025217114830872</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04023915910980855</v>
+        <v>0.03984962726625935</v>
       </c>
       <c r="L114" t="n">
-        <v>0.09333898827673529</v>
+        <v>0.1662518491001213</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03736089916712171</v>
+        <v>0.03942823037118545</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1484145135335386</v>
+        <v>0.04115628062690209</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03744135933809042</v>
+        <v>0.04027384532172044</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01753725120426378</v>
+        <v>0.04149605154184263</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03699011482551477</v>
+        <v>0.0410957605323678</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03636023727993672</v>
+        <v>0.1043602606663744</v>
       </c>
       <c r="K115" t="n">
-        <v>0.04106036643858015</v>
+        <v>0.04066288496557077</v>
       </c>
       <c r="L115" t="n">
-        <v>0.09268315108469199</v>
+        <v>0.1661707166500202</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03812336649706297</v>
+        <v>0.0402328881338627</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1464846484148496</v>
+        <v>0.04149605154184263</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03820546871233715</v>
+        <v>0.0410957605323678</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01735012320991149</v>
+        <v>0.0416149008036745</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03772991712202506</v>
+        <v>0.04191767574301516</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03640217652650901</v>
+        <v>0.1043575844993852</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04188157376735175</v>
+        <v>0.04147614266488218</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09125931584116528</v>
+        <v>0.1670380924624282</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03888583382700422</v>
+        <v>0.04103754589653996</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1464123212490755</v>
+        <v>0.0416149008036745</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0389695780865839</v>
+        <v>0.04191767574301516</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01517148166751284</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03846971941853536</v>
+        <v>0.04273959095366251</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03577426530922845</v>
+        <v>0.1047953192782023</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04270278109612335</v>
+        <v>0.0422894003641936</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09017938482053522</v>
+        <v>0.1677410340416863</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03964830115694549</v>
+        <v>0.04184220365921721</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1438184031963898</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03973368746083064</v>
+        <v>0.04273959095366251</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01600387042989698</v>
+        <v>0.04175182048822981</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03920952171504565</v>
+        <v>0.04356150616430987</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03578148770357768</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04352398842489496</v>
+        <v>0.04310265806350502</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09045526029718157</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04041076848688675</v>
+        <v>0.04264686142189446</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1433237654169658</v>
+        <v>0.04175182048822981</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04049779683507739</v>
+        <v>0.04356150616430987</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01684983334989308</v>
+        <v>0.0420418141275178</v>
       </c>
       <c r="G119" t="n">
-        <v>0.03994932401155595</v>
+        <v>0.04438342137495722</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03552882778503946</v>
+        <v>0.1053732807515145</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04434519575366656</v>
+        <v>0.04391591576281643</v>
       </c>
       <c r="L119" t="n">
-        <v>0.0887988445454844</v>
+        <v>0.1696021276262494</v>
       </c>
       <c r="M119" t="n">
-        <v>0.041173235816828</v>
+        <v>0.04345151918457172</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1417492790709771</v>
+        <v>0.0420418141275178</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04126190620932414</v>
+        <v>0.04438342137495722</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01671191428033029</v>
+        <v>0.0421176163651299</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04068912630806625</v>
+        <v>0.04520533658560458</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03552126962909644</v>
+        <v>0.1058510194914873</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04516640308243816</v>
+        <v>0.04472917346212785</v>
       </c>
       <c r="L120" t="n">
-        <v>0.08842203983982358</v>
+        <v>0.1688771844795626</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04193570314676926</v>
+        <v>0.04425617694724897</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1416158153185972</v>
+        <v>0.0421176163651299</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04202601558357087</v>
+        <v>0.04520533658560458</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01659265707403777</v>
+        <v>0.04197990565974689</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04142892860457654</v>
+        <v>0.04602725179625194</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03566379731123133</v>
+        <v>0.1059094096066128</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04598761041120977</v>
+        <v>0.04554243116143926</v>
       </c>
       <c r="L121" t="n">
-        <v>0.08813674845457906</v>
+        <v>0.1686077648350214</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04269817047671052</v>
+        <v>0.04506083470992622</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1409442453199997</v>
+        <v>0.04197990565974689</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04279012495781762</v>
+        <v>0.04602725179625194</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01549460558384469</v>
+        <v>0.04162936047004957</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04216873090108684</v>
+        <v>0.04684916700689929</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03556631985709056</v>
+        <v>0.1052490110436331</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04680881773998137</v>
+        <v>0.04635568886075068</v>
       </c>
       <c r="L122" t="n">
-        <v>0.0880548726641307</v>
+        <v>0.1679954840492289</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04346063780665178</v>
+        <v>0.04586549247260348</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1394554402353578</v>
+        <v>0.04162936047004957</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04355423433206436</v>
+        <v>0.04684916700689929</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01442030366258019</v>
+        <v>0.04176665925471869</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04290853319759712</v>
+        <v>0.04767108221754665</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03556369955858416</v>
+        <v>0.1047703837492907</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04763002506875297</v>
+        <v>0.04716894656006209</v>
       </c>
       <c r="L123" t="n">
-        <v>0.08748831474285854</v>
+        <v>0.1692419574787883</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04422310513659304</v>
+        <v>0.04667015023528074</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1394702712248452</v>
+        <v>0.04176665925471869</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0443183437063111</v>
+        <v>0.04767108221754665</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01437229516307346</v>
+        <v>0.04189248047243509</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04364833549410743</v>
+        <v>0.048492997428194</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03565251199108191</v>
+        <v>0.1046740876703278</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04845123239752457</v>
+        <v>0.04798220425937351</v>
       </c>
       <c r="L124" t="n">
-        <v>0.08724897696514242</v>
+        <v>0.167848800480303</v>
       </c>
       <c r="M124" t="n">
-        <v>0.0449855724665343</v>
+        <v>0.04747480799795799</v>
       </c>
       <c r="N124" t="n">
-        <v>0.1391096094486354</v>
+        <v>0.04189248047243509</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04508245308055785</v>
+        <v>0.048492997428194</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01635312393815363</v>
+        <v>0.04160750258187948</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04438813779061772</v>
+        <v>0.04931491263884136</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03612144470216383</v>
+        <v>0.1045606827534869</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04927243972629618</v>
+        <v>0.04879546195868492</v>
       </c>
       <c r="L125" t="n">
-        <v>0.08745793054795228</v>
+        <v>0.1674176284103763</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04574803979647556</v>
+        <v>0.04827946576063524</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1388363602532442</v>
+        <v>0.04160750258187948</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04584656245480459</v>
+        <v>0.04931491263884136</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01637035644200617</v>
+        <v>0.04151240404173269</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04512794008712801</v>
+        <v>0.05013682784948872</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03645918523940996</v>
+        <v>0.1049307289455102</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05009364705506778</v>
+        <v>0.04960871965799634</v>
       </c>
       <c r="L126" t="n">
-        <v>0.0876711193239253</v>
+        <v>0.1671500566256113</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04651050712641682</v>
+        <v>0.0490841235233125</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1403172109126121</v>
+        <v>0.04151240404173269</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04661067182905133</v>
+        <v>0.05013682784948872</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01543062217426589</v>
+        <v>0.04150786331067548</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04586774238363831</v>
+        <v>0.05095874306013607</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03655442115040038</v>
+        <v>0.1042847861931401</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05091485438383938</v>
+        <v>0.05042197735730775</v>
       </c>
       <c r="L127" t="n">
-        <v>0.08847897234333191</v>
+        <v>0.1682477004826114</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04727297445635808</v>
+        <v>0.04988878128598975</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1416181544751797</v>
+        <v>0.04150786331067548</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04737478120329808</v>
+        <v>0.05095874306013607</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01552997556763862</v>
+        <v>0.04139455884738866</v>
       </c>
       <c r="G128" t="n">
-        <v>0.0466075446801486</v>
+        <v>0.05178065827078343</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03729583998271507</v>
+        <v>0.1045234144431188</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05173606171261098</v>
+        <v>0.05123523505661917</v>
       </c>
       <c r="L128" t="n">
-        <v>0.08816100703566121</v>
+        <v>0.1679121753379799</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04803544178629934</v>
+        <v>0.05069343904866701</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1426032101502956</v>
+        <v>0.04139455884738866</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04813889057754481</v>
+        <v>0.05178065827078343</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.01466435390004373</v>
+        <v>0.04117316911055299</v>
       </c>
       <c r="G129" t="n">
-        <v>0.0473473469766589</v>
+        <v>0.05260257348143078</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03767212928393411</v>
+        <v>0.1046471736421887</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05255726904138259</v>
+        <v>0.05204849275593058</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08949674083040229</v>
+        <v>0.1668450965483199</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04879790911624059</v>
+        <v>0.05149809681134426</v>
       </c>
       <c r="N129" t="n">
-        <v>0.143436397147308</v>
+        <v>0.04117316911055299</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04890299995179156</v>
+        <v>0.05260257348143078</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01682969444940063</v>
+        <v>0.04104437255884927</v>
       </c>
       <c r="G130" t="n">
-        <v>0.0480871492731692</v>
+        <v>0.05342448869207814</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03827197660163754</v>
+        <v>0.1042566237370923</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05337847637015419</v>
+        <v>0.052861750455242</v>
       </c>
       <c r="L130" t="n">
-        <v>0.09046569115704439</v>
+        <v>0.1669480794702348</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04956037644618185</v>
+        <v>0.05230275457402151</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1440817346755653</v>
+        <v>0.04104437255884927</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04966710932603831</v>
+        <v>0.05342448869207814</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.01702193449362872</v>
+        <v>0.04090884765095826</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04882695156967949</v>
+        <v>0.05424640390272549</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03878406948340538</v>
+        <v>0.1040523246745716</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05419968369892579</v>
+        <v>0.05367500815455341</v>
       </c>
       <c r="L131" t="n">
-        <v>0.0915473754450766</v>
+        <v>0.1669227394603279</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05032284377612312</v>
+        <v>0.05310741233669877</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1462032419444156</v>
+        <v>0.04090884765095826</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05043121870028505</v>
+        <v>0.05424640390272549</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01523701131064738</v>
+        <v>0.04066727284556076</v>
       </c>
       <c r="G132" t="n">
-        <v>0.04956675386618978</v>
+        <v>0.05506831911337285</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03909709547681768</v>
+        <v>0.1039348364013692</v>
       </c>
       <c r="K132" t="n">
-        <v>0.0550208910276974</v>
+        <v>0.05448826585386483</v>
       </c>
       <c r="L132" t="n">
-        <v>0.09182131112398803</v>
+        <v>0.1662706918752024</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05108531110606437</v>
+        <v>0.05391207009937602</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1490649381632075</v>
+        <v>0.04066727284556076</v>
       </c>
       <c r="O132" t="n">
-        <v>0.0511953280745318</v>
+        <v>0.05506831911337285</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01647086217837602</v>
+        <v>0.04072032660133754</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05030655616270008</v>
+        <v>0.0558902343240202</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03949974212945448</v>
+        <v>0.1035047188642274</v>
       </c>
       <c r="K133" t="n">
-        <v>0.055842098356469</v>
+        <v>0.05530152355317625</v>
       </c>
       <c r="L133" t="n">
-        <v>0.09356701562326783</v>
+        <v>0.1657935520714616</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05184777843600563</v>
+        <v>0.05471672786205327</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1496308425412892</v>
+        <v>0.04072032660133754</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05195943744877853</v>
+        <v>0.0558902343240202</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01571942437473403</v>
+        <v>0.04056868737696939</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05104635845921038</v>
+        <v>0.05671214953466756</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04028069698889579</v>
+        <v>0.1037625320098883</v>
       </c>
       <c r="K134" t="n">
-        <v>0.0566633056852406</v>
+        <v>0.05611478125248766</v>
       </c>
       <c r="L134" t="n">
-        <v>0.09516400637240521</v>
+        <v>0.1647929354057087</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05261024576594689</v>
+        <v>0.05552138562473054</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1516649742880091</v>
+        <v>0.04056868737696939</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05272354682302528</v>
+        <v>0.05671214953466756</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0159786351776408</v>
+        <v>0.0403130336311371</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05178616075572068</v>
+        <v>0.05753406474531492</v>
       </c>
       <c r="J135" t="n">
-        <v>0.04052864760272169</v>
+        <v>0.1032088357850944</v>
       </c>
       <c r="K135" t="n">
-        <v>0.0574845130140122</v>
+        <v>0.05692803895179908</v>
       </c>
       <c r="L135" t="n">
-        <v>0.09629180080088925</v>
+        <v>0.1645704572345471</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05337271309588815</v>
+        <v>0.05632604338740779</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1546313526127154</v>
+        <v>0.0403130336311371</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05348765619727202</v>
+        <v>0.05753406474531492</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01724443186501573</v>
+        <v>0.04025404382252144</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05252596305223096</v>
+        <v>0.05835597995596228</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04093228151851222</v>
+        <v>0.1024441901365881</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05830572034278381</v>
+        <v>0.05774129665111049</v>
       </c>
       <c r="L136" t="n">
-        <v>0.096629916338209</v>
+        <v>0.16332773291458</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05413518042582941</v>
+        <v>0.05713070115008504</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1561939967247565</v>
+        <v>0.04025404382252144</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05425176557151876</v>
+        <v>0.05835597995596228</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01751275171477822</v>
+        <v>0.0397923964098032</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05326576534874126</v>
+        <v>0.05917789516660963</v>
       </c>
       <c r="J137" t="n">
-        <v>0.04138028628384736</v>
+        <v>0.1024691550111116</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05912692767155541</v>
+        <v>0.05855455435042192</v>
       </c>
       <c r="L137" t="n">
-        <v>0.09795787041385376</v>
+        <v>0.1625663778024106</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05489764775577067</v>
+        <v>0.0579353589127623</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1578169258334807</v>
+        <v>0.0397923964098032</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05501587494576551</v>
+        <v>0.05917789516660963</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01877953200484767</v>
+        <v>0.03982876985166316</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05400556764525156</v>
+        <v>0.05999981037725699</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04146134944630722</v>
+        <v>0.1027842903554074</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05994813500032702</v>
+        <v>0.05936781204973332</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0992551804573126</v>
+        <v>0.1632880072546424</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05566011508571193</v>
+        <v>0.05874001667543954</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1605641591482365</v>
+        <v>0.03982876985166316</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05577998432001224</v>
+        <v>0.05999981037725699</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01904071001314347</v>
+        <v>0.0396638426067821</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05474536994176185</v>
+        <v>0.06082172558790435</v>
       </c>
       <c r="J139" t="n">
-        <v>0.0419641585534718</v>
+        <v>0.1018901561162176</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06076934232909861</v>
+        <v>0.06018106974904475</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1005013638980746</v>
+        <v>0.1623942366278784</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05642258241565318</v>
+        <v>0.0595446744381168</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1627997158783719</v>
+        <v>0.0396638426067821</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05654409369425899</v>
+        <v>0.06082172558790435</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01929222301758501</v>
+        <v>0.03949829313384082</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05548517223827215</v>
+        <v>0.0616436407985517</v>
       </c>
       <c r="J140" t="n">
-        <v>0.04215206214859875</v>
+        <v>0.1016873122402845</v>
       </c>
       <c r="K140" t="n">
-        <v>0.06159054965787022</v>
+        <v>0.06099432744835615</v>
       </c>
       <c r="L140" t="n">
-        <v>0.101575938165629</v>
+        <v>0.160486681278722</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05718504974559444</v>
+        <v>0.06034933220079405</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1644876152332355</v>
+        <v>0.03949829313384082</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05730820306850574</v>
+        <v>0.0616436407985517</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01853000829609169</v>
+        <v>0.03943279989152008</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05622497453478244</v>
+        <v>0.06246555600919906</v>
       </c>
       <c r="J141" t="n">
-        <v>0.04207620482699416</v>
+        <v>0.1009763186743508</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06241175698664182</v>
+        <v>0.06180758514766758</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1026584206894648</v>
+        <v>0.1600669565637765</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05794751707553571</v>
+        <v>0.0611539899634713</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1654918764221756</v>
+        <v>0.03943279989152008</v>
       </c>
       <c r="O141" t="n">
-        <v>0.05807231244275248</v>
+        <v>0.06246555600919906</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01875000312658291</v>
+        <v>0.03906804133850067</v>
       </c>
       <c r="G142" t="n">
-        <v>0.05696477683129273</v>
+        <v>0.06328747121984642</v>
       </c>
       <c r="J142" t="n">
-        <v>0.04206788950472916</v>
+        <v>0.1013577353651585</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06323296431541343</v>
+        <v>0.06262084284697898</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1041283288990713</v>
+        <v>0.160036677839645</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05870998440547696</v>
+        <v>0.06195864772614856</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1668765186545405</v>
+        <v>0.03906804133850067</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05883642181699923</v>
+        <v>0.06328747121984642</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01794814478697805</v>
+        <v>0.03900469593346337</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05770457912780304</v>
+        <v>0.06410938643049377</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0422572109423624</v>
+        <v>0.10073212225945</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06405417164418503</v>
+        <v>0.06343410054629041</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1040651802239376</v>
+        <v>0.158697460462931</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05947245173541822</v>
+        <v>0.06276330548882582</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1683055611396784</v>
+        <v>0.03900469593346337</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05960053119124596</v>
+        <v>0.06410938643049377</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02012037055519653</v>
+        <v>0.03864344213508897</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05844438142431332</v>
+        <v>0.06493130164114112</v>
       </c>
       <c r="J144" t="n">
-        <v>0.04234414774658869</v>
+        <v>0.1000000393039677</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06487537897295663</v>
+        <v>0.06424735824560182</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1048484920935527</v>
+        <v>0.1586509197902377</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06023491906535948</v>
+        <v>0.06356796325150307</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1683430230869378</v>
+        <v>0.03864344213508897</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06036464056549271</v>
+        <v>0.06493130164114112</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02026261770915772</v>
+        <v>0.03858495840205826</v>
       </c>
       <c r="G145" t="n">
-        <v>0.05918418372082362</v>
+        <v>0.06575321685178848</v>
       </c>
       <c r="J145" t="n">
-        <v>0.04222867852410274</v>
+        <v>0.1000620464454539</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06569658630172823</v>
+        <v>0.06506061594491323</v>
       </c>
       <c r="L145" t="n">
-        <v>0.105977120330707</v>
+        <v>0.1586986711781683</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06099738639530074</v>
+        <v>0.06437262101418033</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1698021785128152</v>
+        <v>0.03858495840205826</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06112874993973946</v>
+        <v>0.06575321685178848</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01837082352678106</v>
+        <v>0.038629923193052</v>
       </c>
       <c r="G146" t="n">
-        <v>0.05992398601733392</v>
+        <v>0.06657513206243583</v>
       </c>
       <c r="J146" t="n">
-        <v>0.04251078188159929</v>
+        <v>0.1001187036306508</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06651779363049984</v>
+        <v>0.06587387364422465</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1052044504467914</v>
+        <v>0.1576423299833261</v>
       </c>
       <c r="M146" t="n">
-        <v>0.061759853725242</v>
+        <v>0.06517727877685758</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1683011253193192</v>
+        <v>0.038629923193052</v>
       </c>
       <c r="O146" t="n">
-        <v>0.0618928593139862</v>
+        <v>0.06657513206243583</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01944092528598589</v>
+        <v>0.03817901496675098</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06066378831384422</v>
+        <v>0.0673970472730832</v>
       </c>
       <c r="J147" t="n">
-        <v>0.04269043642577307</v>
+        <v>0.09987057080630088</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06733900095927144</v>
+        <v>0.06668713134353606</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1056272391616377</v>
+        <v>0.1562835115623143</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06252232105518325</v>
+        <v>0.06598193653953484</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1692322278773581</v>
+        <v>0.03817901496675098</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06265696868823294</v>
+        <v>0.0673970472730832</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.038232912181836</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06140359061035451</v>
+        <v>0.06821896248373055</v>
       </c>
       <c r="J148" t="n">
-        <v>0.04276762076331883</v>
+        <v>0.09861820791914644</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06816020828804305</v>
+        <v>0.06750038904284748</v>
       </c>
       <c r="L148" t="n">
-        <v>0.1057448761456222</v>
+        <v>0.1569238312717364</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06328478838512452</v>
+        <v>0.06678659430221208</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1697591568654658</v>
+        <v>0.038232912181836</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06342107806247968</v>
+        <v>0.06821896248373055</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.0194788636755064</v>
+        <v>0.03799229329698783</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06214339290686481</v>
+        <v>0.0690408776943779</v>
       </c>
       <c r="J149" t="n">
-        <v>0.04254231350093134</v>
+        <v>0.09876217491592978</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06898141561681465</v>
+        <v>0.0683136467421589</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1059572986149919</v>
+        <v>0.1552649044681954</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06404725571506578</v>
+        <v>0.06759125206488933</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1692819346869193</v>
+        <v>0.03799229329698783</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06418518743672642</v>
+        <v>0.0690408776943779</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01948835084565718</v>
+        <v>0.03805783677088724</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0628831952033751</v>
+        <v>0.06986279290502526</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0427144932453053</v>
+        <v>0.09840303174339329</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06980262294558626</v>
+        <v>0.06912690444147031</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1064644437859941</v>
+        <v>0.1548083465082948</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06480972304500704</v>
+        <v>0.06839590982756659</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1691005837449954</v>
+        <v>0.03805783677088724</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06494929681097317</v>
+        <v>0.06986279290502526</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01849753950285625</v>
+        <v>0.03783022106221504</v>
       </c>
       <c r="G151" t="n">
-        <v>0.0636229974998854</v>
+        <v>0.07068470811567262</v>
       </c>
       <c r="J151" t="n">
-        <v>0.04278413860313544</v>
+        <v>0.09784133834827924</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07062383027435785</v>
+        <v>0.06994016214078172</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1071662488748758</v>
+        <v>0.1535557727486376</v>
       </c>
       <c r="M151" t="n">
-        <v>0.0655721903749483</v>
+        <v>0.06920056759024384</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1689151264429712</v>
+        <v>0.03783022106221504</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06571340618521992</v>
+        <v>0.07068470811567262</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01850643195909789</v>
+        <v>0.03771002075626211</v>
       </c>
       <c r="G152" t="n">
-        <v>0.0643627997963957</v>
+        <v>0.07150662332631998</v>
       </c>
       <c r="J152" t="n">
-        <v>0.04305122818111655</v>
+        <v>0.09757765467732993</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07144503760312945</v>
+        <v>0.07075341984009315</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1071626510978839</v>
+        <v>0.1528087985458274</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06633465770488955</v>
+        <v>0.07000522535292111</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1704255851841235</v>
+        <v>0.03771002075626211</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06647751555946665</v>
+        <v>0.07150662332631998</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.0185150305263764</v>
+        <v>0.03749369255093116</v>
       </c>
       <c r="G153" t="n">
-        <v>0.065102602092906</v>
+        <v>0.07232853853696733</v>
       </c>
       <c r="J153" t="n">
-        <v>0.04311574058594334</v>
+        <v>0.09681254067728776</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07226624493190105</v>
+        <v>0.07156667753940456</v>
       </c>
       <c r="L153" t="n">
-        <v>0.1068535876712655</v>
+        <v>0.1526690392564672</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06709712503483081</v>
+        <v>0.07080988311559837</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1706319823717293</v>
+        <v>0.03749369255093116</v>
       </c>
       <c r="O153" t="n">
-        <v>0.0672416249337134</v>
+        <v>0.07232853853696733</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01852333751668608</v>
+        <v>0.03727912322569106</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06584240438941628</v>
+        <v>0.07315045374761468</v>
       </c>
       <c r="J154" t="n">
-        <v>0.04317765442431055</v>
+        <v>0.09714655629489505</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07308745226067266</v>
+        <v>0.07237993523871597</v>
       </c>
       <c r="L154" t="n">
-        <v>0.1077389958112677</v>
+        <v>0.1523296599181497</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06785959236477207</v>
+        <v>0.07161454087827561</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1707343404090655</v>
+        <v>0.03727912322569106</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06800573430796014</v>
+        <v>0.07315045374761468</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02053135524202121</v>
+        <v>0.03726618272319623</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06658220668592657</v>
+        <v>0.07397236895826205</v>
       </c>
       <c r="J155" t="n">
-        <v>0.04333694830291293</v>
+        <v>0.09638026147689407</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07390865958944426</v>
+        <v>0.07319319293802738</v>
       </c>
       <c r="L155" t="n">
-        <v>0.1071188127341376</v>
+        <v>0.1514664111112741</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06862205969471333</v>
+        <v>0.07241919864095286</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1709326816994091</v>
+        <v>0.03726618272319623</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06876984368220689</v>
+        <v>0.07397236895826205</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0205390860143761</v>
+        <v>0.0372547409861011</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06732200898243687</v>
+        <v>0.0747942841689094</v>
       </c>
       <c r="J156" t="n">
-        <v>0.0431936008284452</v>
+        <v>0.09641421617002721</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07472986691821587</v>
+        <v>0.07400645063733881</v>
       </c>
       <c r="L156" t="n">
-        <v>0.1080929756561221</v>
+        <v>0.1505782657073461</v>
       </c>
       <c r="M156" t="n">
-        <v>0.06938452702465459</v>
+        <v>0.07322385640363012</v>
       </c>
       <c r="N156" t="n">
-        <v>0.169827028646037</v>
+        <v>0.0372547409861011</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06953395305645363</v>
+        <v>0.0747942841689094</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01854653214574501</v>
+        <v>0.03704466795706017</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06806181127894717</v>
+        <v>0.07561619937955676</v>
       </c>
       <c r="J157" t="n">
-        <v>0.04344759060760213</v>
+        <v>0.09554898032103676</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07555107424698747</v>
+        <v>0.07481970833665022</v>
       </c>
       <c r="L157" t="n">
-        <v>0.1079614217934683</v>
+        <v>0.1499659012564386</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07014699435459586</v>
+        <v>0.07402851416630737</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1698174036522261</v>
+        <v>0.03704466795706017</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07029806243070037</v>
+        <v>0.07561619937955676</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02055369594812227</v>
+        <v>0.03693583357872779</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06880161357545747</v>
+        <v>0.07643811459020411</v>
       </c>
       <c r="J158" t="n">
-        <v>0.04349889624707844</v>
+        <v>0.09558511387666507</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07637228157575908</v>
+        <v>0.07563296603596163</v>
       </c>
       <c r="L158" t="n">
-        <v>0.1079240883624234</v>
+        <v>0.1488299953086243</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07090946168453711</v>
+        <v>0.07483317192898463</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1705038291212535</v>
+        <v>0.03693583357872779</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07106217180494712</v>
+        <v>0.07643811459020411</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02056057973350214</v>
+        <v>0.03702810779375848</v>
       </c>
       <c r="G159" t="n">
-        <v>0.06954141587196776</v>
+        <v>0.07726002980085146</v>
       </c>
       <c r="J159" t="n">
-        <v>0.04344749635356888</v>
+        <v>0.09482317678365448</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07719348890453066</v>
+        <v>0.07644622373527304</v>
       </c>
       <c r="L159" t="n">
-        <v>0.1084809125792343</v>
+        <v>0.1487712254139765</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07167192901447837</v>
+        <v>0.07563782969166188</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1703863274563959</v>
+        <v>0.03702810779375848</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07182628117919386</v>
+        <v>0.07726002980085146</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01856718581387894</v>
+        <v>0.03682136054480664</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07028121816847806</v>
+        <v>0.07808194501149882</v>
       </c>
       <c r="J160" t="n">
-        <v>0.04319336953376819</v>
+        <v>0.09436372898874729</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07801469623330227</v>
+        <v>0.07725948143458447</v>
       </c>
       <c r="L160" t="n">
-        <v>0.1081318316601481</v>
+        <v>0.1475902691225679</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07243439634441963</v>
+        <v>0.07644248745433913</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1706649210609305</v>
+        <v>0.03682136054480664</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07259039055344059</v>
+        <v>0.07808194501149882</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01857351650124696</v>
+        <v>0.03691546177452672</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07102102046498834</v>
+        <v>0.07890386022214617</v>
       </c>
       <c r="J161" t="n">
-        <v>0.04343649439437108</v>
+        <v>0.09470733043868587</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07883590356207389</v>
+        <v>0.07807273913389588</v>
       </c>
       <c r="L161" t="n">
-        <v>0.1082767828214117</v>
+        <v>0.1467878039844715</v>
       </c>
       <c r="M161" t="n">
-        <v>0.0731968636743609</v>
+        <v>0.07724714521701638</v>
       </c>
       <c r="N161" t="n">
-        <v>0.171039632338134</v>
+        <v>0.03691546177452672</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07335449992768735</v>
+        <v>0.07890386022214617</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01957957410760048</v>
+        <v>0.03661028142557317</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07176082276149864</v>
+        <v>0.07972577543279354</v>
       </c>
       <c r="J162" t="n">
-        <v>0.04367684954207236</v>
+        <v>0.09365454108021251</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07965711089084548</v>
+        <v>0.07888599683320729</v>
       </c>
       <c r="L162" t="n">
-        <v>0.1081157032792724</v>
+        <v>0.1465645075497603</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07395933100430216</v>
+        <v>0.07805180297969365</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1708104836912835</v>
+        <v>0.03661028142557317</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07411860930193409</v>
+        <v>0.07972577543279354</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.0185853609449338</v>
+        <v>0.03640568944060042</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07250062505800894</v>
+        <v>0.08054769064344089</v>
       </c>
       <c r="J163" t="n">
-        <v>0.04341441358356671</v>
+        <v>0.09350592086006956</v>
       </c>
       <c r="K163" t="n">
-        <v>0.0804783182196171</v>
+        <v>0.07969925453251871</v>
       </c>
       <c r="L163" t="n">
-        <v>0.1085485302499771</v>
+        <v>0.1458210573685071</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07472179833424342</v>
+        <v>0.0788564607423709</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1704774975236559</v>
+        <v>0.03640568944060042</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07488271867618083</v>
+        <v>0.08054769064344089</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01859087932524121</v>
+        <v>0.03620155576226293</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07324042735451924</v>
+        <v>0.08136960585408824</v>
       </c>
       <c r="J164" t="n">
-        <v>0.04334916512554887</v>
+        <v>0.09356202972499927</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08129952554838869</v>
+        <v>0.08051251223183012</v>
       </c>
       <c r="L164" t="n">
-        <v>0.1084752009497729</v>
+        <v>0.1440581309907851</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07548426566418467</v>
+        <v>0.07966111850504816</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1711406962385281</v>
+        <v>0.03620155576226293</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07564682805042758</v>
+        <v>0.08136960585408824</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02059613156051701</v>
+        <v>0.03639775033321509</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07398022965102953</v>
+        <v>0.0821915210647356</v>
       </c>
       <c r="J165" t="n">
-        <v>0.04338108277471363</v>
+        <v>0.09312174563117043</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0821207328771603</v>
+        <v>0.08132576993114154</v>
       </c>
       <c r="L165" t="n">
-        <v>0.1089956525949068</v>
+        <v>0.143076405966667</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07624673299412593</v>
+        <v>0.0804657762677254</v>
       </c>
       <c r="N165" t="n">
-        <v>0.171700102239177</v>
+        <v>0.03639775033321509</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07641093742467431</v>
+        <v>0.0821915210647356</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02060111996275548</v>
+        <v>0.03599414309611139</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07472003194753983</v>
+        <v>0.08301343627538296</v>
       </c>
       <c r="J166" t="n">
-        <v>0.04351014513775568</v>
+        <v>0.09207099694827242</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08294194020593189</v>
+        <v>0.08213902763045296</v>
       </c>
       <c r="L166" t="n">
-        <v>0.1090098224016259</v>
+        <v>0.141976559846226</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07700920032406719</v>
+        <v>0.08127043403040266</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1709557379288797</v>
+        <v>0.03599414309611139</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07717504679892107</v>
+        <v>0.08301343627538296</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01960584684395093</v>
+        <v>0.03619060399360625</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07545983424405012</v>
+        <v>0.08383535148603032</v>
       </c>
       <c r="J167" t="n">
-        <v>0.04383633082136977</v>
+        <v>0.09210715231777694</v>
       </c>
       <c r="K167" t="n">
-        <v>0.0837631475347035</v>
+        <v>0.08295228532976437</v>
       </c>
       <c r="L167" t="n">
-        <v>0.1095176475861772</v>
+        <v>0.1421592701795348</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07777166765400845</v>
+        <v>0.08207509179307991</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1717076257109131</v>
+        <v>0.03619060399360625</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07793915617316781</v>
+        <v>0.08383535148603032</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02061031451609763</v>
+        <v>0.03578700296835413</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07619963654056042</v>
+        <v>0.08465726669667767</v>
       </c>
       <c r="J168" t="n">
-        <v>0.04365961843225066</v>
+        <v>0.09233102293844439</v>
       </c>
       <c r="K168" t="n">
-        <v>0.0845843548634751</v>
+        <v>0.08376554302907578</v>
       </c>
       <c r="L168" t="n">
-        <v>0.1093190653648078</v>
+        <v>0.1416252145166664</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07853413498394972</v>
+        <v>0.08287974955575717</v>
       </c>
       <c r="N168" t="n">
-        <v>0.170755787988554</v>
+        <v>0.03578700296835413</v>
       </c>
       <c r="O168" t="n">
-        <v>0.07870326554741455</v>
+        <v>0.08465726669667767</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.0206145252911899</v>
+        <v>0.03578320996300945</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07693943883707072</v>
+        <v>0.08547918190732502</v>
       </c>
       <c r="J169" t="n">
-        <v>0.04347998657709309</v>
+        <v>0.09164342000903547</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08540556219224671</v>
+        <v>0.08457880072838721</v>
       </c>
       <c r="L169" t="n">
-        <v>0.1097140129537647</v>
+        <v>0.1404750704076939</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07929660231389098</v>
+        <v>0.08368440731843442</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1703002471650794</v>
+        <v>0.03578320996300945</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07946737492166128</v>
+        <v>0.08547918190732502</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01961848148122202</v>
+        <v>0.03567909492022667</v>
       </c>
       <c r="G170" t="n">
-        <v>0.077679241133581</v>
+        <v>0.08630109711797239</v>
       </c>
       <c r="J170" t="n">
-        <v>0.04389741386259179</v>
+        <v>0.09114515472831058</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08622676952101831</v>
+        <v>0.08539205842769862</v>
       </c>
       <c r="L170" t="n">
-        <v>0.109002427569295</v>
+        <v>0.13980951540269</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08005906964383223</v>
+        <v>0.08448906508111168</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1717410256437664</v>
+        <v>0.03567909492022667</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08023148429590803</v>
+        <v>0.08630109711797239</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02062218539818828</v>
+        <v>0.03587452778266019</v>
       </c>
       <c r="G171" t="n">
-        <v>0.0784190434300913</v>
+        <v>0.08712301232861974</v>
       </c>
       <c r="J171" t="n">
-        <v>0.04351187889544149</v>
+        <v>0.09013703829503036</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08704797684978992</v>
+        <v>0.08620531612701003</v>
       </c>
       <c r="L171" t="n">
-        <v>0.1097842464276458</v>
+        <v>0.137229227051728</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08082153697377349</v>
+        <v>0.08529372284378893</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1705781458278917</v>
+        <v>0.03587452778266019</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08099559367015478</v>
+        <v>0.08712301232861974</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02062563935408297</v>
+        <v>0.03576937849296449</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07915884572660159</v>
+        <v>0.08794492753926708</v>
       </c>
       <c r="J172" t="n">
-        <v>0.04352336028233696</v>
+        <v>0.09061988190795531</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08786918417856152</v>
+        <v>0.08701857382632144</v>
       </c>
       <c r="L172" t="n">
-        <v>0.109659406745064</v>
+        <v>0.1377348829048805</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08158400430371475</v>
+        <v>0.08609838060646618</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1706116301207324</v>
+        <v>0.03576937849296449</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08175970304440153</v>
+        <v>0.08794492753926708</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.0206288456609004</v>
+        <v>0.035663516993794</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0798986480231119</v>
+        <v>0.08876684274991445</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04363183662997293</v>
+        <v>0.09029449676584583</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08869039150733311</v>
+        <v>0.08783183152563287</v>
       </c>
       <c r="L173" t="n">
-        <v>0.1101278457377968</v>
+        <v>0.1352271605122206</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08234647163365601</v>
+        <v>0.08690303836914344</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1715415009255654</v>
+        <v>0.035663516993794</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08252381241864827</v>
+        <v>0.08876684274991445</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01863180663063484</v>
+        <v>0.03545681322780316</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08063845031962219</v>
+        <v>0.0895887579605618</v>
       </c>
       <c r="J174" t="n">
-        <v>0.0438372865450441</v>
+        <v>0.08886169406746264</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08951159883610471</v>
+        <v>0.08864508922494428</v>
       </c>
       <c r="L174" t="n">
-        <v>0.1092895006220911</v>
+        <v>0.1356067374238212</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08310893896359726</v>
+        <v>0.08770769613182069</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1710677806456675</v>
+        <v>0.03545681322780316</v>
       </c>
       <c r="O174" t="n">
-        <v>0.083287921792895</v>
+        <v>0.0895887579605618</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.0196345245752806</v>
+        <v>0.03534913713764641</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08137825261613249</v>
+        <v>0.09041067317120915</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04353968863424525</v>
+        <v>0.08932228501156617</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09033280616487632</v>
+        <v>0.08945834692425569</v>
       </c>
       <c r="L175" t="n">
-        <v>0.1099443086141941</v>
+        <v>0.1333742911897552</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08387140629353852</v>
+        <v>0.08851235389449795</v>
       </c>
       <c r="N175" t="n">
-        <v>0.171890491684316</v>
+        <v>0.03534913713764641</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08405203116714174</v>
+        <v>0.09041067317120915</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02063700180683196</v>
+        <v>0.03524035866597817</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08211805491264278</v>
+        <v>0.09123258838185651</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04363459378604044</v>
+        <v>0.08807708079691692</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09115401349364792</v>
+        <v>0.09027160462356711</v>
       </c>
       <c r="L176" t="n">
-        <v>0.1097922069303527</v>
+        <v>0.1322304993600958</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08463387362347978</v>
+        <v>0.0893170116571752</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1714096564447875</v>
+        <v>0.03524035866597817</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08481614054138849</v>
+        <v>0.09123258838185651</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02063924063728324</v>
+        <v>0.03483034775545295</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08285785720915308</v>
+        <v>0.09205450359250388</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0436102740081665</v>
+        <v>0.08822689262227557</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09197522082241953</v>
+        <v>0.09108486232287852</v>
       </c>
       <c r="L177" t="n">
-        <v>0.1102331327868142</v>
+        <v>0.1324760394849157</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08539634095342104</v>
+        <v>0.09012166941985245</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1713252973303589</v>
+        <v>0.03483034775545295</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08558024991563525</v>
+        <v>0.09205450359250388</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01864124337862871</v>
+        <v>0.0351189743487251</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08359765950566338</v>
+        <v>0.09287641880315123</v>
       </c>
       <c r="J178" t="n">
-        <v>0.0435668641818605</v>
+        <v>0.08717253168640243</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09279642815119113</v>
+        <v>0.09189812002218994</v>
       </c>
       <c r="L178" t="n">
-        <v>0.1094670233998253</v>
+        <v>0.1307115891142879</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08615880828336231</v>
+        <v>0.0909263271825297</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1710374367443075</v>
+        <v>0.0351189743487251</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08634435928988198</v>
+        <v>0.09287641880315123</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01964301234286266</v>
+        <v>0.03500610838844913</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08433746180217368</v>
+        <v>0.09369833401379858</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04350520405477261</v>
+        <v>0.08691480918805827</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09361763547996274</v>
+        <v>0.09271137772150136</v>
       </c>
       <c r="L179" t="n">
-        <v>0.1102938159856333</v>
+        <v>0.1302378257982853</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08692127561330357</v>
+        <v>0.09173098494520696</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1713460970899098</v>
+        <v>0.03500610838844913</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08710846866412872</v>
+        <v>0.09369833401379858</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02064454984197938</v>
+        <v>0.03459161981727944</v>
       </c>
       <c r="G180" t="n">
-        <v>0.08507726409868396</v>
+        <v>0.09452024922444595</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04352613337455304</v>
+        <v>0.08615453632600339</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09443884280873434</v>
+        <v>0.09352463542081277</v>
       </c>
       <c r="L180" t="n">
-        <v>0.1103134477604852</v>
+        <v>0.1293554270869811</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08768374294324482</v>
+        <v>0.09253564270788422</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1711513007704432</v>
+        <v>0.03459161981727944</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08787257803837546</v>
+        <v>0.09452024922444595</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02064585818797319</v>
+        <v>0.03437537857787047</v>
       </c>
       <c r="G181" t="n">
-        <v>0.08581706639519425</v>
+        <v>0.0953421644350933</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04353049188885201</v>
+        <v>0.08569252429899851</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09526005013750594</v>
+        <v>0.09433789312012418</v>
       </c>
       <c r="L181" t="n">
-        <v>0.109725855940628</v>
+        <v>0.1279650705304479</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08844621027318608</v>
+        <v>0.09334030047056148</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1715530701891844</v>
+        <v>0.03437537857787047</v>
       </c>
       <c r="O181" t="n">
-        <v>0.08863668741262221</v>
+        <v>0.0953421644350933</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01964693969283835</v>
+        <v>0.03465725461287671</v>
       </c>
       <c r="G182" t="n">
-        <v>0.08655686869170455</v>
+        <v>0.09616407964574065</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04331911934531971</v>
+        <v>0.08582958430580406</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09608125746627753</v>
+        <v>0.09515115081943561</v>
       </c>
       <c r="L182" t="n">
-        <v>0.1099309777423088</v>
+        <v>0.1256674336787589</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08920867760312734</v>
+        <v>0.09414495823323872</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1721229623171482</v>
+        <v>0.03465725461287671</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08940079678686895</v>
+        <v>0.09616407964574065</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01864779666856918</v>
+        <v>0.03413711786495255</v>
       </c>
       <c r="G183" t="n">
-        <v>0.08729667098821485</v>
+        <v>0.09698599485638801</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04309285549160634</v>
+        <v>0.08496652754518061</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09690246479504915</v>
+        <v>0.09596440851874702</v>
       </c>
       <c r="L183" t="n">
-        <v>0.1095018504465123</v>
+        <v>0.1261631940819868</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0899711449330686</v>
+        <v>0.09494961599591598</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1714320891329828</v>
+        <v>0.03413711786495255</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09016490616111569</v>
+        <v>0.09698599485638801</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02064843142715996</v>
+        <v>0.03421483827675242</v>
       </c>
       <c r="G184" t="n">
-        <v>0.08803647328472515</v>
+        <v>0.09780791006703538</v>
       </c>
       <c r="J184" t="n">
-        <v>0.04325254007536208</v>
+        <v>0.08510416521588865</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09772367212382074</v>
+        <v>0.09677766621805843</v>
       </c>
       <c r="L184" t="n">
-        <v>0.1102865048243829</v>
+        <v>0.1249530292902048</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09073361226300986</v>
+        <v>0.09575427375859323</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1717828971619375</v>
+        <v>0.03421483827675242</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09092901553536244</v>
+        <v>0.09780791006703538</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01864884628060498</v>
+        <v>0.03409028579093082</v>
       </c>
       <c r="G185" t="n">
-        <v>0.08877627558123544</v>
+        <v>0.09862982527768273</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04269901284423717</v>
+        <v>0.08394330851668877</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09854487945259235</v>
+        <v>0.09759092391736984</v>
       </c>
       <c r="L185" t="n">
-        <v>0.1098891675123508</v>
+        <v>0.1228376168534857</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09149607959295111</v>
+        <v>0.09655893152127049</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1710778421003969</v>
+        <v>0.03409028579093082</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09169312490960918</v>
+        <v>0.09862982527768273</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01964904354089854</v>
+        <v>0.03386333035014215</v>
       </c>
       <c r="G186" t="n">
-        <v>0.08951607787774574</v>
+        <v>0.09945174048833007</v>
       </c>
       <c r="J186" t="n">
-        <v>0.04293311354588177</v>
+        <v>0.08368476864634145</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09936608678136395</v>
+        <v>0.09840418161668127</v>
       </c>
       <c r="L186" t="n">
-        <v>0.1094157475231685</v>
+        <v>0.1215176343219025</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09225854692289237</v>
+        <v>0.09736358928394774</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1711193796447455</v>
+        <v>0.03386333035014215</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09245723428385592</v>
+        <v>0.09945174048833007</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.01864554699654339</v>
+        <v>0.03373384189704086</v>
       </c>
       <c r="G187" t="n">
-        <v>0.09025588017425602</v>
+        <v>0.1002736556989774</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04275568192794608</v>
+        <v>0.08292935680360722</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1001872941101356</v>
+        <v>0.09921743931599268</v>
       </c>
       <c r="L187" t="n">
-        <v>0.108472153869588</v>
+        <v>0.1206937592455283</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09302101425283364</v>
+        <v>0.098168247046625</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1700099654913679</v>
+        <v>0.03373384189704086</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09322134365810267</v>
+        <v>0.1002736556989774</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02062387016044997</v>
+        <v>0.03380169037428137</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09099568247076632</v>
+        <v>0.1010955709096248</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04226755773808036</v>
+        <v>0.08267788418724664</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1010085014389072</v>
+        <v>0.1000306970153041</v>
       </c>
       <c r="L188" t="n">
-        <v>0.1086642955643619</v>
+        <v>0.1192666691744356</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0937834815827749</v>
+        <v>0.09897290480930225</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1706520553366486</v>
+        <v>0.03380169037428137</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09398545303234941</v>
+        <v>0.1010955709096248</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02058373139317742</v>
+        <v>0.03376645075210874</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09173548476727662</v>
+        <v>0.1019174861202721</v>
       </c>
       <c r="J189" t="n">
-        <v>0.04236958072393472</v>
+        <v>0.08203116199602026</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1018297087676788</v>
+        <v>0.1008439547146155</v>
       </c>
       <c r="L189" t="n">
-        <v>0.1082980816202424</v>
+        <v>0.1179370416586978</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09454594891271616</v>
+        <v>0.09977756257197951</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1687481048769723</v>
+        <v>0.03376645075210874</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09474956240659616</v>
+        <v>0.1019174861202721</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0195266494291513</v>
+        <v>0.033327216269361</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09247528706378692</v>
+        <v>0.1027394013309195</v>
       </c>
       <c r="J190" t="n">
-        <v>0.04216259063315944</v>
+        <v>0.08189000142868852</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1026509160964504</v>
+        <v>0.1016572124139269</v>
       </c>
       <c r="L190" t="n">
-        <v>0.107079421049982</v>
+        <v>0.1175055542483877</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09530841624265741</v>
+        <v>0.1005822203346568</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1697005698087234</v>
+        <v>0.033327216269361</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0955136717808429</v>
+        <v>0.1027394013309195</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01945414300279719</v>
+        <v>0.03338410253709655</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09321508936029721</v>
+        <v>0.1035613165415669</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04174742721340467</v>
+        <v>0.08125521368401206</v>
       </c>
       <c r="K191" t="n">
-        <v>0.103472123425222</v>
+        <v>0.1024704701132383</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1075142228663327</v>
+        <v>0.1159728844935783</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09607088357259867</v>
+        <v>0.101386878097334</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1683119058282866</v>
+        <v>0.03338410253709655</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09627778115508963</v>
+        <v>0.1035613165415669</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01836773084854064</v>
+        <v>0.03313729803462585</v>
       </c>
       <c r="G192" t="n">
-        <v>0.09395489165680751</v>
+        <v>0.1043832317522142</v>
       </c>
       <c r="J192" t="n">
-        <v>0.04152493021232063</v>
+        <v>0.08092689009259116</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1042933307539936</v>
+        <v>0.1032837278125498</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1063083960820472</v>
+        <v>0.1160397099443423</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09683335090253993</v>
+        <v>0.1021915358600113</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1676845686320463</v>
+        <v>0.03313729803462585</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09704189052933639</v>
+        <v>0.1043832317522142</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.0182689317008072</v>
+        <v>0.03278699124125951</v>
       </c>
       <c r="G193" t="n">
-        <v>0.0946946939533178</v>
+        <v>0.1052051469628616</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04129593937755752</v>
+        <v>0.08029837178109639</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1051145380827652</v>
+        <v>0.1040969855118612</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1061678497098776</v>
+        <v>0.1142067081507529</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09759581823248119</v>
+        <v>0.1029961936226885</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1669210139163871</v>
+        <v>0.03278699124125951</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09780599990358313</v>
+        <v>0.1052051469628616</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01815926429402244</v>
+        <v>0.03293337063630795</v>
       </c>
       <c r="G194" t="n">
-        <v>0.0954344962498281</v>
+        <v>0.1060270621735089</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04126129445676555</v>
+        <v>0.08056805421687058</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1059357454115368</v>
+        <v>0.1049102432111726</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1049984927625762</v>
+        <v>0.112674556662883</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09835828556242245</v>
+        <v>0.1038008513853658</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1672236973776938</v>
+        <v>0.03293337063630795</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09857010927782987</v>
+        <v>0.1060270621735089</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02004024736261192</v>
+        <v>0.03267662469908174</v>
       </c>
       <c r="G195" t="n">
-        <v>0.0961742985463384</v>
+        <v>0.1068489773841563</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04092183519759487</v>
+        <v>0.07953619602449896</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1067569527403084</v>
+        <v>0.105723500910484</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1042062342528955</v>
+        <v>0.1119439330308054</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0991207528923637</v>
+        <v>0.104605509148043</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1662950747123506</v>
+        <v>0.03267662469908174</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09933421865207662</v>
+        <v>0.1068489773841563</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01991339964100119</v>
+        <v>0.03261694190889135</v>
       </c>
       <c r="G196" t="n">
-        <v>0.09691410084284868</v>
+        <v>0.1076708925948036</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04037840134769576</v>
+        <v>0.07940305582856683</v>
       </c>
       <c r="K196" t="n">
-        <v>0.10757816006908</v>
+        <v>0.1065367586097954</v>
       </c>
       <c r="L196" t="n">
-        <v>0.1041969831935877</v>
+        <v>0.1100155148045933</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09988322022230496</v>
+        <v>0.1054101669107203</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1653376016167423</v>
+        <v>0.03261694190889135</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1000983280263233</v>
+        <v>0.1076708925948036</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01978023986361582</v>
+        <v>0.03225451074504729</v>
       </c>
       <c r="G197" t="n">
-        <v>0.09765390313935898</v>
+        <v>0.108492807805451</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04013183265471836</v>
+        <v>0.07896889225365947</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1083993673978516</v>
+        <v>0.1073500163091068</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1026766485974051</v>
+        <v>0.108853159809863</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1006456875522462</v>
+        <v>0.1062148246733975</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1656537337872535</v>
+        <v>0.03225451074504729</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1008624374005701</v>
+        <v>0.108492807805451</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01964228676488137</v>
+        <v>0.03198951968686009</v>
       </c>
       <c r="G198" t="n">
-        <v>0.09839370543586927</v>
+        <v>0.1093147230160983</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03998296886631288</v>
+        <v>0.0787339639243621</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1092205747266232</v>
+        <v>0.1081632740084182</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1026511394771003</v>
+        <v>0.1079175404291069</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1014081548821875</v>
+        <v>0.1070194824360748</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1638459269202684</v>
+        <v>0.03198951968686009</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1016265467748168</v>
+        <v>0.1093147230160983</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01950105907922339</v>
+        <v>0.03212215721364024</v>
       </c>
       <c r="G199" t="n">
-        <v>0.09913350773237957</v>
+        <v>0.1101366382267457</v>
       </c>
       <c r="J199" t="n">
-        <v>0.03983264973012951</v>
+        <v>0.07819852946526004</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1100417820553948</v>
+        <v>0.1089765317077297</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1010263648454253</v>
+        <v>0.1062188864462226</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1021706222121287</v>
+        <v>0.107824140198752</v>
       </c>
       <c r="N199" t="n">
-        <v>0.163816636712172</v>
+        <v>0.03212215721364024</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1023906561490636</v>
+        <v>0.1101366382267457</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01935807554106746</v>
+        <v>0.03185261180469827</v>
       </c>
       <c r="G200" t="n">
-        <v>0.09987331002888987</v>
+        <v>0.1109585534373931</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03938171499381851</v>
+        <v>0.07736284750093861</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1108629893841664</v>
+        <v>0.1097897894070411</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1010082337151325</v>
+        <v>0.1050675748987552</v>
       </c>
       <c r="M200" t="n">
-        <v>0.10293308954207</v>
+        <v>0.1086287979614293</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1623683188593486</v>
+        <v>0.03185261180469827</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1031547655233103</v>
+        <v>0.1109585534373931</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01821485488483911</v>
+        <v>0.03168107193934465</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1006131123254002</v>
+        <v>0.1117804686480404</v>
       </c>
       <c r="J201" t="n">
-        <v>0.03953100440503</v>
+        <v>0.07722717665598311</v>
       </c>
       <c r="K201" t="n">
-        <v>0.111684196712938</v>
+        <v>0.1106030471063525</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1001026550989744</v>
+        <v>0.1039739828242497</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1036955568720113</v>
+        <v>0.1094334557241065</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1615034290581829</v>
+        <v>0.03168107193934465</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1039188748975571</v>
+        <v>0.1117804686480404</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01807291584496391</v>
+        <v>0.03160772609688994</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1013529146219105</v>
+        <v>0.1126023838586878</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03928135771141425</v>
+        <v>0.07699177555497869</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1125054040417096</v>
+        <v>0.1114163048056639</v>
       </c>
       <c r="L202" t="n">
-        <v>0.09931553800970319</v>
+        <v>0.1024484872602512</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1044580242019525</v>
+        <v>0.1102381134867838</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1610244230050593</v>
+        <v>0.03160772609688994</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1046829842718038</v>
+        <v>0.1126023838586878</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01693377715586743</v>
+        <v>0.03143276275664462</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1020927169184208</v>
+        <v>0.1134242990693351</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0390336146606214</v>
+        <v>0.07635690282251079</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1133266113704812</v>
+        <v>0.1122295625049753</v>
       </c>
       <c r="L203" t="n">
-        <v>0.09925279146007118</v>
+        <v>0.1015014652443046</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1052204915318938</v>
+        <v>0.1110427712494611</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1602337563963625</v>
+        <v>0.03143276275664462</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1054470936460506</v>
+        <v>0.1134242990693351</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01779895755197523</v>
+        <v>0.03095637039791921</v>
       </c>
       <c r="G204" t="n">
-        <v>0.102832519214931</v>
+        <v>0.1142462142799825</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03878861500030169</v>
+        <v>0.07612281708316451</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1141478186992528</v>
+        <v>0.1130428202042868</v>
       </c>
       <c r="L204" t="n">
-        <v>0.09862032446283076</v>
+        <v>0.1002432938139552</v>
       </c>
       <c r="M204" t="n">
-        <v>0.105982958861835</v>
+        <v>0.1118474290121383</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1597338849284771</v>
+        <v>0.03095637039791921</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1062112030202973</v>
+        <v>0.1142462142799825</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01766997576771285</v>
+        <v>0.03097873750002419</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1035723215114414</v>
+        <v>0.1150681294906298</v>
       </c>
       <c r="J205" t="n">
-        <v>0.0383471984781053</v>
+        <v>0.0758897769615253</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1149690260280244</v>
+        <v>0.1138560779035982</v>
       </c>
       <c r="L205" t="n">
-        <v>0.09802404603073428</v>
+        <v>0.09828435000674779</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1067454261917763</v>
+        <v>0.1126520867748156</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1583272642977873</v>
+        <v>0.03097873750002419</v>
       </c>
       <c r="O205" t="n">
-        <v>0.106975312394544</v>
+        <v>0.1150681294906298</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01754835053750587</v>
+        <v>0.03060005254227012</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1043121238079516</v>
+        <v>0.1158900447012772</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03831020484168245</v>
+        <v>0.07565804108217838</v>
       </c>
       <c r="K206" t="n">
-        <v>0.115790233356796</v>
+        <v>0.1146693356029096</v>
       </c>
       <c r="L206" t="n">
-        <v>0.096669865176534</v>
+        <v>0.09663501086022758</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1075078935217176</v>
+        <v>0.1134567445374928</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1580163502006782</v>
+        <v>0.03060005254227012</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1077394217687908</v>
+        <v>0.1158900447012772</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01743560059577985</v>
+        <v>0.03062050400396746</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1050519261044619</v>
+        <v>0.1167119599119246</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03797425486892438</v>
+        <v>0.07482786806970901</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1166114406855676</v>
+        <v>0.115482593302221</v>
       </c>
       <c r="L207" t="n">
-        <v>0.09616369091298232</v>
+        <v>0.09600565341193945</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1082703608516588</v>
+        <v>0.1142614023001701</v>
       </c>
       <c r="N207" t="n">
-        <v>0.156503598333534</v>
+        <v>0.03062050400396746</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1085035311430375</v>
+        <v>0.1167119599119246</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01833324467696033</v>
+        <v>0.03034028036442676</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1057917284009722</v>
+        <v>0.1175338751225719</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0376339138291219</v>
+        <v>0.07449951654870243</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1174326480143392</v>
+        <v>0.1162958510015324</v>
       </c>
       <c r="L208" t="n">
-        <v>0.09611143225283147</v>
+        <v>0.09460665469942864</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1090328281816001</v>
+        <v>0.1150660600628473</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1556914643927393</v>
+        <v>0.03034028036442676</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1092676405172843</v>
+        <v>0.1175338751225719</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01624280151547289</v>
+        <v>0.03025957010295847</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1065315306974825</v>
+        <v>0.1183557903332193</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03728916393701827</v>
+        <v>0.07407324514374405</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1182538553431108</v>
+        <v>0.1171091087008438</v>
       </c>
       <c r="L209" t="n">
-        <v>0.09551899820883386</v>
+        <v>0.09314839176024003</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1097952955115413</v>
+        <v>0.1158707178255246</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1550824040746788</v>
+        <v>0.03025957010295847</v>
       </c>
       <c r="O209" t="n">
-        <v>0.110031749891531</v>
+        <v>0.1183557903332193</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01616578984574308</v>
+        <v>0.03007856169887317</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1072713329939928</v>
+        <v>0.1191777055438666</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03704002052991999</v>
+        <v>0.07364931247941903</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1190750626718824</v>
+        <v>0.1179223664001552</v>
       </c>
       <c r="L210" t="n">
-        <v>0.09539229779374178</v>
+        <v>0.09124124163191882</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1105577628414826</v>
+        <v>0.1166753755882018</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1549788730757369</v>
+        <v>0.03007856169887317</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1107958592657778</v>
+        <v>0.1191777055438666</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01610372840219646</v>
+        <v>0.03009744363148134</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1080111352905031</v>
+        <v>0.119999620754514</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03668649894513359</v>
+        <v>0.07272797718031271</v>
       </c>
       <c r="K211" t="n">
-        <v>0.119896270000654</v>
+        <v>0.1187356240994666</v>
       </c>
       <c r="L211" t="n">
-        <v>0.09523724002030765</v>
+        <v>0.09089558135200987</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1113202301714239</v>
+        <v>0.1174800333508791</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1531833270922983</v>
+        <v>0.03009744363148134</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1115599686400245</v>
+        <v>0.119999620754514</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01605813591925859</v>
+        <v>0.02981640438009348</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1087509375870134</v>
+        <v>0.1208215359651613</v>
       </c>
       <c r="J212" t="n">
-        <v>0.03642861451996561</v>
+        <v>0.0725094978710103</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1207174773294256</v>
+        <v>0.1195488817987781</v>
       </c>
       <c r="L212" t="n">
-        <v>0.09445973390128365</v>
+        <v>0.08982178795805834</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1120826975013651</v>
+        <v>0.1182846911135564</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1528982218207474</v>
+        <v>0.02981640438009348</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1123240780142712</v>
+        <v>0.1208215359651613</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01603053113135503</v>
+        <v>0.02963563242402009</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1094907398835237</v>
+        <v>0.1216434511758087</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03656638259172258</v>
+        <v>0.07229413317609715</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1215386846581972</v>
+        <v>0.1203621394980895</v>
       </c>
       <c r="L213" t="n">
-        <v>0.09426568844942224</v>
+        <v>0.08833023848760924</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1128451648313064</v>
+        <v>0.1190893488762336</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1524260129574689</v>
+        <v>0.02963563242402009</v>
       </c>
       <c r="O213" t="n">
-        <v>0.113088187388518</v>
+        <v>0.1216434511758087</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01602232392149848</v>
+        <v>0.02915531624257171</v>
       </c>
       <c r="G214" t="n">
-        <v>0.110230542180034</v>
+        <v>0.1224653663864561</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03619981849771102</v>
+        <v>0.07218214172015858</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1223598919869688</v>
+        <v>0.1211753971974009</v>
       </c>
       <c r="L214" t="n">
-        <v>0.09485167957565316</v>
+        <v>0.08713130997820773</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1136076321612476</v>
+        <v>0.1198940066389109</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1510691561988474</v>
+        <v>0.02915531624257171</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1138522967627647</v>
+        <v>0.1224653663864561</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01602262684600015</v>
+        <v>0.02937564431505882</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1109703444765443</v>
+        <v>0.1232872815971034</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03602893757523745</v>
+        <v>0.07117378212777972</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1231810993157404</v>
+        <v>0.1219886548967123</v>
       </c>
       <c r="L215" t="n">
-        <v>0.09525169891489504</v>
+        <v>0.0859353794673986</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1143700994911889</v>
+        <v>0.1206986644015881</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1504233339566944</v>
+        <v>0.02937564431505882</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1146164061370115</v>
+        <v>0.1232872815971034</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01702350646330669</v>
+        <v>0.02899680512079196</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1117101467730546</v>
+        <v>0.1241091968077508</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03565375516160843</v>
+        <v>0.07116931302354601</v>
       </c>
       <c r="K216" t="n">
-        <v>0.124002306644512</v>
+        <v>0.1228019125960237</v>
       </c>
       <c r="L216" t="n">
-        <v>0.09445177537149754</v>
+        <v>0.08535149225840932</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1151325668211302</v>
+        <v>0.1215033221642654</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1505670317280758</v>
+        <v>0.02899680512079196</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1153805155112582</v>
+        <v>0.1241091968077508</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01802506444184925</v>
+        <v>0.02871898713908161</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1124499490695649</v>
+        <v>0.1249311120183981</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03507428659413046</v>
+        <v>0.07006899303204261</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1248235139732836</v>
+        <v>0.1236151702953352</v>
       </c>
       <c r="L217" t="n">
-        <v>0.09495194842444948</v>
+        <v>0.08511230899202954</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1158950341510714</v>
+        <v>0.1223079799269426</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1500984914172923</v>
+        <v>0.02871898713908161</v>
       </c>
       <c r="O217" t="n">
-        <v>0.116144624885505</v>
+        <v>0.1249311120183981</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01602740245005901</v>
+        <v>0.02864237884923829</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1131897513660752</v>
+        <v>0.1257530272290455</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03479054721011006</v>
+        <v>0.0703730807778549</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1256447213020552</v>
+        <v>0.1244284279946466</v>
       </c>
       <c r="L218" t="n">
-        <v>0.09465225755273976</v>
+        <v>0.08467586132319749</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1166575014810127</v>
+        <v>0.1231126376896199</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1490177773884191</v>
+        <v>0.02864237884923829</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1169087342597517</v>
+        <v>0.1257530272290455</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01703062215636713</v>
+        <v>0.02846716873057251</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1139295536625855</v>
+        <v>0.1265749424396928</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03450255234685376</v>
+        <v>0.06938183488556807</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1264659286308269</v>
+        <v>0.125241685693958</v>
       </c>
       <c r="L219" t="n">
-        <v>0.09495274223535718</v>
+        <v>0.08384270093532642</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1174199688109539</v>
+        <v>0.1239172954522971</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1478249540055316</v>
+        <v>0.02846716873057251</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1176728436339985</v>
+        <v>0.1265749424396928</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.0170348252292048</v>
+        <v>0.02809354526239478</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1146693559590958</v>
+        <v>0.1273968576503402</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0342103173416681</v>
+        <v>0.06929551397976749</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1272871359595985</v>
+        <v>0.1260549433932694</v>
       </c>
       <c r="L220" t="n">
-        <v>0.09455344195129059</v>
+        <v>0.08291337951182975</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1181824361408952</v>
+        <v>0.1247219532149744</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1462200856327049</v>
+        <v>0.02809354526239478</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1184369530082452</v>
+        <v>0.1273968576503402</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01704011333700314</v>
+        <v>0.02802169692401561</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1154091582556061</v>
+        <v>0.1282187728609875</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03411385753185961</v>
+        <v>0.06871419376838991</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1281083432883701</v>
+        <v>0.1268682010925808</v>
       </c>
       <c r="L221" t="n">
-        <v>0.0948543961795289</v>
+        <v>0.08168844873612097</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1189449034708364</v>
+        <v>0.1255266109776516</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1464032366340143</v>
+        <v>0.02802169692401561</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1192010623824919</v>
+        <v>0.1282187728609875</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01804658814819336</v>
+        <v>0.02805181219474549</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1161489605521164</v>
+        <v>0.1290406880716349</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03381318825473478</v>
+        <v>0.06903519221344406</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1289295506171416</v>
+        <v>0.1276814587918922</v>
       </c>
       <c r="L222" t="n">
-        <v>0.09505564439906092</v>
+        <v>0.08176846029161339</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1197073708007777</v>
+        <v>0.1263312687403289</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1458744713735351</v>
+        <v>0.02805181219474549</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1199651717567387</v>
+        <v>0.1290406880716349</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.0170543513312066</v>
+        <v>0.02798407955389497</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1168887628486266</v>
+        <v>0.1298626032822822</v>
       </c>
       <c r="J223" t="n">
-        <v>0.0335083248476002</v>
+        <v>0.06805756749399675</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1297507579459133</v>
+        <v>0.1284947164912036</v>
       </c>
       <c r="L223" t="n">
-        <v>0.0951572260888755</v>
+        <v>0.07955396586172048</v>
       </c>
       <c r="M223" t="n">
-        <v>0.120469838130719</v>
+        <v>0.1271359265030061</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1446338542153425</v>
+        <v>0.02798407955389497</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1207292811309854</v>
+        <v>0.1298626032822822</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01706350455447403</v>
+        <v>0.02751868748077452</v>
       </c>
       <c r="G224" t="n">
-        <v>0.117628565145137</v>
+        <v>0.1306845184929296</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03339928264776235</v>
+        <v>0.06768134979255563</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1305719652746849</v>
+        <v>0.129307974190515</v>
       </c>
       <c r="L224" t="n">
-        <v>0.0947591807279615</v>
+        <v>0.0798455171298556</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1212323054606602</v>
+        <v>0.1279405842656834</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1431814495235118</v>
+        <v>0.02751868748077452</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1214933905052322</v>
+        <v>0.1306845184929296</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01807414948642682</v>
+        <v>0.02725581996197005</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1183683674416472</v>
+        <v>0.131506433703577</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03308607699252777</v>
+        <v>0.06720656929162849</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1313931726034565</v>
+        <v>0.1301212318898265</v>
       </c>
       <c r="L225" t="n">
-        <v>0.09446154779530774</v>
+        <v>0.07904366577943206</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1219947727906015</v>
+        <v>0.1287452420283607</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1426173216621182</v>
+        <v>0.02725581996197005</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1222574998794789</v>
+        <v>0.131506433703577</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01708638779549612</v>
+        <v>0.02739430393323852</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1191081697381575</v>
+        <v>0.1323283489142243</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03266872321920299</v>
+        <v>0.06723325617372297</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1322143799322281</v>
+        <v>0.1309344895891379</v>
       </c>
       <c r="L226" t="n">
-        <v>0.09496436676990308</v>
+        <v>0.07894896349386349</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1227572401205427</v>
+        <v>0.1295498997910379</v>
       </c>
       <c r="N226" t="n">
-        <v>0.142341534995237</v>
+        <v>0.02739430393323852</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1230216092537256</v>
+        <v>0.1323283489142243</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01610032115011312</v>
+        <v>0.02703312106330369</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1198479720346678</v>
+        <v>0.1331502641248717</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03224723666509452</v>
+        <v>0.06726144062134687</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1330355872609997</v>
+        <v>0.1317477472884493</v>
       </c>
       <c r="L227" t="n">
-        <v>0.0946676771307364</v>
+        <v>0.07766196195656311</v>
       </c>
       <c r="M227" t="n">
-        <v>0.123519707450484</v>
+        <v>0.1303545575537152</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1403541538869434</v>
+        <v>0.02703312106330369</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1237857186279724</v>
+        <v>0.1331502641248717</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01811605121870898</v>
+        <v>0.02717227321420644</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1205877743311781</v>
+        <v>0.133972179335519</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03192163266750893</v>
+        <v>0.06639115281700783</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1338567945897713</v>
+        <v>0.1325610049877607</v>
       </c>
       <c r="L228" t="n">
-        <v>0.09477151835679648</v>
+        <v>0.07688321285094446</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1242821747804253</v>
+        <v>0.1311592153163924</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1394552427013128</v>
+        <v>0.02717227321420644</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1245498280022191</v>
+        <v>0.133972179335519</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01713367966971485</v>
+        <v>0.02671176224798774</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1213275766276884</v>
+        <v>0.1347940945461664</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03149192656375271</v>
+        <v>0.06582242294321367</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1346780019185429</v>
+        <v>0.1333742626870721</v>
       </c>
       <c r="L229" t="n">
-        <v>0.09477592992707226</v>
+        <v>0.07621326786042076</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1250446421103665</v>
+        <v>0.1319638730790697</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1395448658024203</v>
+        <v>0.02671176224798774</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1253139373764659</v>
+        <v>0.1347940945461664</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.0181533081715619</v>
+        <v>0.02645159002668851</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1220673789241987</v>
+        <v>0.1356160097568137</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03135813369113238</v>
+        <v>0.06575528118247198</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1354992092473145</v>
+        <v>0.1341875203863835</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0950809513205525</v>
+        <v>0.07615267866840553</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1258071094403078</v>
+        <v>0.1327685308417469</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1382230875543411</v>
+        <v>0.02645159002668851</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1260780467507126</v>
+        <v>0.1356160097568137</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01817503839268131</v>
+        <v>0.02629175841234969</v>
       </c>
       <c r="G231" t="n">
-        <v>0.122807181220709</v>
+        <v>0.1364379249674611</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03112026938695449</v>
+        <v>0.06528975771729062</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1363204165760861</v>
+        <v>0.135000778085695</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09488662201622611</v>
+        <v>0.0742019969583122</v>
       </c>
       <c r="M231" t="n">
-        <v>0.126569576770249</v>
+        <v>0.1335731886044242</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1367899723211506</v>
+        <v>0.02629175841234969</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1268421561249594</v>
+        <v>0.1364379249674611</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01819897200150423</v>
+        <v>0.02643226926701223</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1235469835172193</v>
+        <v>0.1372598401781084</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03057834898852556</v>
+        <v>0.06472588273017721</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1371416239048577</v>
+        <v>0.1358140357850064</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09439298149308195</v>
+        <v>0.07436177441355413</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1273320441001903</v>
+        <v>0.1343778463671014</v>
       </c>
       <c r="N232" t="n">
-        <v>0.136545584466924</v>
+        <v>0.02643226926701223</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1276062654992061</v>
+        <v>0.1372598401781084</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01722521066646183</v>
+        <v>0.02637312445271704</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1242867858137296</v>
+        <v>0.1380817553887558</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03033238783315213</v>
+        <v>0.0644636864036395</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1379628312336293</v>
+        <v>0.1366272934843178</v>
       </c>
       <c r="L233" t="n">
-        <v>0.0944000692301088</v>
+        <v>0.07273256271754469</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1280945114301316</v>
+        <v>0.1351825041297787</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1354899883557366</v>
+        <v>0.02637312445271704</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1283703748734528</v>
+        <v>0.1380817553887558</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01725385605598527</v>
+        <v>0.02621432583150508</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1250265881102399</v>
+        <v>0.1389036705994032</v>
       </c>
       <c r="J234" t="n">
-        <v>0.0296824012581407</v>
+        <v>0.0647031989201852</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1387840385624009</v>
+        <v>0.1374405511836292</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09450792470629557</v>
+        <v>0.07351491355369738</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1288569787600728</v>
+        <v>0.1359871618924559</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1337232483516635</v>
+        <v>0.02621432583150508</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1291344842476996</v>
+        <v>0.1389036705994032</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01628500983850573</v>
+        <v>0.02585587526541727</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1257663904067502</v>
+        <v>0.1397255858100505</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0293284046007978</v>
+        <v>0.06384445046232204</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1396052458911725</v>
+        <v>0.1382538088829406</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09531658740063109</v>
+        <v>0.07270937860542548</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1296194460900141</v>
+        <v>0.1367918196551332</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1328454288187801</v>
+        <v>0.02585587526541727</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1298985936219463</v>
+        <v>0.1397255858100505</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01831877368245437</v>
+        <v>0.02549777461649459</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1265061927032605</v>
+        <v>0.1405475010206979</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02917041319843</v>
+        <v>0.06298747121255774</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1404264532199441</v>
+        <v>0.139067066582252</v>
       </c>
       <c r="L236" t="n">
-        <v>0.0947260967921042</v>
+        <v>0.07151650955614247</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1303819134199553</v>
+        <v>0.1375964774178104</v>
       </c>
       <c r="N236" t="n">
-        <v>0.1327565941211618</v>
+        <v>0.02549777461649459</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1306627029961931</v>
+        <v>0.1405475010206979</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01635524925626234</v>
+        <v>0.02534002574677792</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1272459949997708</v>
+        <v>0.1413694162313452</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02880844238834378</v>
+        <v>0.06263229135340004</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1412476605487157</v>
+        <v>0.1398803242815634</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09463649235970373</v>
+        <v>0.07143685808926176</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1311443807498966</v>
+        <v>0.1384011351804877</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1319568086228834</v>
+        <v>0.02534002574677792</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1314268123704398</v>
+        <v>0.1413694162313452</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01639453822836082</v>
+        <v>0.02518263051830821</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1279857972962811</v>
+        <v>0.1421913314419926</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02854250750784568</v>
+        <v>0.06327894106735657</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1420688678774873</v>
+        <v>0.1406935819808749</v>
       </c>
       <c r="L238" t="n">
-        <v>0.09534781358241859</v>
+        <v>0.07007097588819661</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1319068480798379</v>
+        <v>0.139205792943165</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1307461366880205</v>
+        <v>0.02518263051830821</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1321909217446866</v>
+        <v>0.1421913314419926</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01643674226718098</v>
+        <v>0.02502559079312643</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1287255995927914</v>
+        <v>0.14301324665264</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02787262389424223</v>
+        <v>0.06252745053693515</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1428900752062589</v>
+        <v>0.1415068396801863</v>
       </c>
       <c r="L239" t="n">
-        <v>0.09526009993923759</v>
+        <v>0.06971941463636067</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1326693154097791</v>
+        <v>0.1400104507058422</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1296246426806484</v>
+        <v>0.02502559079312643</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1329550311189333</v>
+        <v>0.14301324665264</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01848196304115398</v>
+        <v>0.02496890843327348</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1294654018893017</v>
+        <v>0.1438351618632873</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02769880688483997</v>
+        <v>0.06187784994464349</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1437112825350305</v>
+        <v>0.1423200973794977</v>
       </c>
       <c r="L240" t="n">
-        <v>0.09507339090914957</v>
+        <v>0.06998272601716715</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1334317827397204</v>
+        <v>0.1408151084685195</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1290923909648421</v>
+        <v>0.02496890843327348</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1337191404931801</v>
+        <v>0.1438351618632873</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01653030221871098</v>
+        <v>0.02481258530079031</v>
       </c>
       <c r="G241" t="n">
-        <v>0.130205204185812</v>
+        <v>0.1446570770739347</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02752107181694541</v>
+        <v>0.06173016947298923</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1445324898638021</v>
+        <v>0.1431333550788091</v>
       </c>
       <c r="L241" t="n">
-        <v>0.09478772597114338</v>
+        <v>0.0684614617140295</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1341942500696616</v>
+        <v>0.1416197662311967</v>
       </c>
       <c r="N241" t="n">
-        <v>0.127849445904677</v>
+        <v>0.02481258530079031</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1344832498674268</v>
+        <v>0.1446570770739347</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01858186146828315</v>
+        <v>0.02475662325771785</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1309450064823223</v>
+        <v>0.145478992284582</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02693943402786506</v>
+        <v>0.06088443930448018</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1453536971925737</v>
+        <v>0.1439466127781205</v>
       </c>
       <c r="L242" t="n">
-        <v>0.09530314460420788</v>
+        <v>0.06815617341036123</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1349567173996029</v>
+        <v>0.142424423993874</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1264958718642284</v>
+        <v>0.02475662325771785</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1352473592416735</v>
+        <v>0.145478992284582</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01763674245830165</v>
+        <v>0.02470102416609705</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1316848087788326</v>
+        <v>0.1463009074952294</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02665390885490548</v>
+        <v>0.06124068962162396</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1461749045213453</v>
+        <v>0.1447598704774319</v>
       </c>
       <c r="L243" t="n">
-        <v>0.09541968628733194</v>
+        <v>0.06846741278957558</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1357191847295441</v>
+        <v>0.1432290817565512</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1247317332075714</v>
+        <v>0.02470102416609705</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1360114686159203</v>
+        <v>0.1463009074952294</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01869504685719766</v>
+        <v>0.02454578988796885</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1324246110753429</v>
+        <v>0.1471228227058767</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02596451163537321</v>
+        <v>0.0603989506069284</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1469961118501169</v>
+        <v>0.1455731281767434</v>
       </c>
       <c r="L244" t="n">
-        <v>0.09483739049950438</v>
+        <v>0.06769573153508601</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1364816520594854</v>
+        <v>0.1440337395192285</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1247570942987813</v>
+        <v>0.02454578988796885</v>
       </c>
       <c r="O244" t="n">
-        <v>0.136775577990167</v>
+        <v>0.1471228227058767</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01875687633340233</v>
+        <v>0.02439092228537415</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1331644133718531</v>
+        <v>0.1479447379165241</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02577125770657472</v>
+        <v>0.05995925244290115</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1478173191788885</v>
+        <v>0.1463863858760548</v>
       </c>
       <c r="L245" t="n">
-        <v>0.09525629671971403</v>
+        <v>0.066241681330306</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1372441193894267</v>
+        <v>0.1448383972819057</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1232720195019336</v>
+        <v>0.02439092228537415</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1375396873644138</v>
+        <v>0.1479447379165241</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01682233255534683</v>
+        <v>0.02403642322035394</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1339042156683635</v>
+        <v>0.1487666531271714</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02537416240581658</v>
+        <v>0.06042162531204998</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1486385265076601</v>
+        <v>0.1471996435753662</v>
       </c>
       <c r="L246" t="n">
-        <v>0.0944764444269498</v>
+        <v>0.06610581385864878</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1380065867193679</v>
+        <v>0.145643055044583</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1213765731811032</v>
+        <v>0.02403642322035394</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1383037967386605</v>
+        <v>0.1487666531271714</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01689151719146232</v>
+        <v>0.02388229455494914</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1346440179648737</v>
+        <v>0.1495885683378188</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02487324107040532</v>
+        <v>0.05978609939688251</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1494597338364317</v>
+        <v>0.1480129012746776</v>
       </c>
       <c r="L247" t="n">
-        <v>0.09529787310020049</v>
+        <v>0.06548868080352788</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1387690540493092</v>
+        <v>0.1464477128072602</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1210708197003655</v>
+        <v>0.02388229455494914</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1390679061129073</v>
+        <v>0.1495885683378188</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01896453191017998</v>
+        <v>0.02402853815120064</v>
       </c>
       <c r="G248" t="n">
-        <v>0.135383820261384</v>
+        <v>0.1504104835484662</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02476850903764745</v>
+        <v>0.05895270487990656</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1502809411652033</v>
+        <v>0.148826158973989</v>
       </c>
       <c r="L248" t="n">
-        <v>0.09452062221845495</v>
+        <v>0.06579083384835671</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1395315213792505</v>
+        <v>0.1472523705699375</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1202548234237958</v>
+        <v>0.02402853815120064</v>
       </c>
       <c r="O248" t="n">
-        <v>0.139832015487154</v>
+        <v>0.1504104835484662</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01804147837993098</v>
+        <v>0.02347515587114943</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1361236225578943</v>
+        <v>0.1512323987591135</v>
       </c>
       <c r="J249" t="n">
-        <v>0.0240599816448495</v>
+        <v>0.05952147194362978</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1511021484939749</v>
+        <v>0.1496394166733004</v>
       </c>
       <c r="L249" t="n">
-        <v>0.09494473126070208</v>
+        <v>0.06561282467654872</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1402939887091917</v>
+        <v>0.1480570283326147</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1180286487154694</v>
+        <v>0.02347515587114943</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1405961248614007</v>
+        <v>0.1512323987591135</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01912245826914645</v>
+        <v>0.02342214957683644</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1368634248544046</v>
+        <v>0.1520543139697609</v>
       </c>
       <c r="J250" t="n">
-        <v>0.023647674229318</v>
+        <v>0.05859243077055998</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1519233558227465</v>
+        <v>0.1504526743726118</v>
       </c>
       <c r="L250" t="n">
-        <v>0.09547023970593066</v>
+        <v>0.06525520497151716</v>
       </c>
       <c r="M250" t="n">
-        <v>0.141056456039133</v>
+        <v>0.148861686095292</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1180923599394612</v>
+        <v>0.02342214957683644</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1413602342356475</v>
+        <v>0.1520543139697609</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01720757324625759</v>
+        <v>0.02356952113030257</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1376032271509149</v>
+        <v>0.1528762291804082</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02343160212835947</v>
+        <v>0.05846561154320473</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1527445631515182</v>
+        <v>0.1512659320719233</v>
       </c>
       <c r="L251" t="n">
-        <v>0.09509718703312955</v>
+        <v>0.06551852641667549</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1418189233690742</v>
+        <v>0.1496663438579693</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1159460214598469</v>
+        <v>0.02356952113030257</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1421243436098942</v>
+        <v>0.1528762291804082</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01829692497969555</v>
+        <v>0.02301727239358881</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1383430294474252</v>
+        <v>0.1536981443910556</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02301178067928045</v>
+        <v>0.05814104444407192</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1535657704802897</v>
+        <v>0.1520791897712347</v>
       </c>
       <c r="L252" t="n">
-        <v>0.09552561272128768</v>
+        <v>0.06390334069543713</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1425813906990155</v>
+        <v>0.1504710016206465</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1153896976407016</v>
+        <v>0.02301727239358881</v>
       </c>
       <c r="O252" t="n">
-        <v>0.142888452984141</v>
+        <v>0.1536981443910556</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.0183906151378915</v>
+        <v>0.02326540522873605</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1390828317439355</v>
+        <v>0.1545200596017029</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02268822521938745</v>
+        <v>0.0574187596556692</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1543869778090613</v>
+        <v>0.1528924474705461</v>
       </c>
       <c r="L253" t="n">
-        <v>0.09475555624939377</v>
+        <v>0.06411019949121549</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1433438580289567</v>
+        <v>0.1512756593833238</v>
       </c>
       <c r="N253" t="n">
-        <v>0.1144234528461004</v>
+        <v>0.02326540522873605</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1436525623583877</v>
+        <v>0.1545200596017029</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.0184887453892766</v>
+        <v>0.02311392149778525</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1398226340404458</v>
+        <v>0.1553419748123503</v>
       </c>
       <c r="J254" t="n">
-        <v>0.021860951085987</v>
+        <v>0.05729878736050426</v>
       </c>
       <c r="K254" t="n">
-        <v>0.155208185137833</v>
+        <v>0.1537057051698575</v>
       </c>
       <c r="L254" t="n">
-        <v>0.09568705709643677</v>
+        <v>0.06323965448742402</v>
       </c>
       <c r="M254" t="n">
-        <v>0.144106325358898</v>
+        <v>0.152080317146001</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1123473514401188</v>
+        <v>0.02311392149778525</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1444166717326344</v>
+        <v>0.1553419748123503</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01959141740228203</v>
+        <v>0.02286282306277734</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1405624363369561</v>
+        <v>0.1561638900229976</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02162997361638565</v>
+        <v>0.05748115774108481</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1560293924666045</v>
+        <v>0.1545189628691689</v>
       </c>
       <c r="L255" t="n">
-        <v>0.09552015474140549</v>
+        <v>0.06339225736747606</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1448687926888393</v>
+        <v>0.1528849749086783</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1124614577868319</v>
+        <v>0.02286282306277734</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1451807811068812</v>
+        <v>0.1561638900229976</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01869873284533894</v>
+        <v>0.02261211178575326</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1413022386334664</v>
+        <v>0.156985805233645</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02109530814788992</v>
+        <v>0.05726590097991863</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1568505997953762</v>
+        <v>0.1553322205684803</v>
       </c>
       <c r="L256" t="n">
-        <v>0.09565488866328881</v>
+        <v>0.06336855981478495</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1456312600187805</v>
+        <v>0.1536896326713555</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1113658362503149</v>
+        <v>0.02261211178575326</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1459448904811279</v>
+        <v>0.156985805233645</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01781079338687851</v>
+        <v>0.02246178952875395</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1420420409299767</v>
+        <v>0.1578077204442923</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02065697001780631</v>
+        <v>0.05615304725951334</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1576718071241478</v>
+        <v>0.1561454782677918</v>
       </c>
       <c r="L257" t="n">
-        <v>0.09479129834107552</v>
+        <v>0.06326911351276426</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1463937273487218</v>
+        <v>0.1544942904340328</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1090605511946431</v>
+        <v>0.02246178952875395</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1467089998553747</v>
+        <v>0.1578077204442923</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01892770069533188</v>
+        <v>0.02251185815382035</v>
       </c>
       <c r="G258" t="n">
-        <v>0.142781843226487</v>
+        <v>0.1586296356549397</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02011497456344136</v>
+        <v>0.05664262676237677</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1584930144529194</v>
+        <v>0.1569587359671032</v>
       </c>
       <c r="L258" t="n">
-        <v>0.09532942325375451</v>
+        <v>0.06229447014482725</v>
       </c>
       <c r="M258" t="n">
-        <v>0.147156194678663</v>
+        <v>0.15529894819671</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1084456669838919</v>
+        <v>0.02251185815382035</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1474731092296215</v>
+        <v>0.1586296356549397</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01904955643913024</v>
+        <v>0.02196231952299339</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1435216455229973</v>
+        <v>0.1594515508655871</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01996933712210161</v>
+        <v>0.05593466967101657</v>
       </c>
       <c r="K259" t="n">
-        <v>0.159314221781691</v>
+        <v>0.1577719936664146</v>
       </c>
       <c r="L259" t="n">
-        <v>0.09576930288031463</v>
+        <v>0.06254518139438736</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1479186620086043</v>
+        <v>0.1561036059593873</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1066212479821364</v>
+        <v>0.02196231952299339</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1482372186038682</v>
+        <v>0.1594515508655871</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02017646228670475</v>
+        <v>0.02191317549831401</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1442614478195076</v>
+        <v>0.1602734660762344</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0192200730310936</v>
+        <v>0.05602920616794049</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1601354291104626</v>
+        <v>0.158585251365726</v>
       </c>
       <c r="L260" t="n">
-        <v>0.09511097669974472</v>
+        <v>0.06222179894485796</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1486811293385456</v>
+        <v>0.1569082637220645</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1054873585534519</v>
+        <v>0.02191317549831401</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1490013279781149</v>
+        <v>0.1602734660762344</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02030851990648657</v>
+        <v>0.02166442794182313</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1450012501160179</v>
+        <v>0.1610953812868818</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01886719762772382</v>
+        <v>0.05542626643565629</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1609566364392342</v>
+        <v>0.1593985090650374</v>
       </c>
       <c r="L261" t="n">
-        <v>0.09575448419103361</v>
+        <v>0.06202487447965266</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1494435966684868</v>
+        <v>0.1577129214847418</v>
       </c>
       <c r="N261" t="n">
-        <v>0.1052440630619136</v>
+        <v>0.02166442794182313</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1497654373523617</v>
+        <v>0.1610953812868818</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01944583096690686</v>
+        <v>0.02171607871556169</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1457410524125282</v>
+        <v>0.1619172964975291</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0186107262492988</v>
+        <v>0.05492588065667162</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1617778437680058</v>
+        <v>0.1602117667643488</v>
       </c>
       <c r="L262" t="n">
-        <v>0.09599986483317019</v>
+        <v>0.06195495968218456</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1502060639984281</v>
+        <v>0.158517579247419</v>
       </c>
       <c r="N262" t="n">
-        <v>0.1033914258715969</v>
+        <v>0.02171607871556169</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1505295467266084</v>
+        <v>0.1619172964975291</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02058849713639681</v>
+        <v>0.02136812968157067</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1464808547090385</v>
+        <v>0.1627392117081765</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01785067423312511</v>
+        <v>0.05442807901349414</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1625990510967774</v>
+        <v>0.1610250244636602</v>
       </c>
       <c r="L263" t="n">
-        <v>0.09544715810514329</v>
+        <v>0.06321260623586722</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1509685313283693</v>
+        <v>0.1593222370100963</v>
       </c>
       <c r="N263" t="n">
-        <v>0.1012295113465769</v>
+        <v>0.02136812968157067</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1512936561008552</v>
+        <v>0.1627392117081765</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02073662008338756</v>
+        <v>0.02162058270189095</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1472206570055488</v>
+        <v>0.1635611269188239</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01768705691650924</v>
+        <v>0.05483289168863173</v>
       </c>
       <c r="K264" t="n">
-        <v>0.163420258425549</v>
+        <v>0.1618382821629717</v>
       </c>
       <c r="L264" t="n">
-        <v>0.09549640348594174</v>
+        <v>0.06169836582411403</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1517309986583106</v>
+        <v>0.1601268947727736</v>
       </c>
       <c r="N264" t="n">
-        <v>0.1013583838509289</v>
+        <v>0.02162058270189095</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1520577654751019</v>
+        <v>0.1635611269188239</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.7580781044003323</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.03790390522001662</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06064624835202659</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.08474234313200997</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.02107603107429938</v>
+        <v>0.03474234313200997</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02193773338645172</v>
+        <v>0.02432671165346924</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001343896262228694</v>
+        <v>0.001374373069201233</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.000821915210647356</v>
+        <v>0.0007503960773077702</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004367888141211279</v>
+        <v>0.00132698635888593</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0008132576993114154</v>
+        <v>0.000821915210647356</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.005857305043344752</v>
+        <v>0.004460456666272927</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008046577626772541</v>
+        <v>0.0008053030470489007</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001343896262228694</v>
+        <v>0.008026586491136189</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.000821915210647356</v>
+        <v>0.0008119428007827664</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.003354256106550706</v>
+        <v>0.002729991146435164</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001643830421294712</v>
+        <v>0.00150079215461554</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009820611398847462</v>
+        <v>0.003039249838487704</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001626515398622831</v>
+        <v>0.001643830421294712</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01225450747877538</v>
+        <v>0.008535985101694704</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001609315525354508</v>
+        <v>0.001610606094097801</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.003354256106550706</v>
+        <v>0.01554440666533663</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001643830421294712</v>
+        <v>0.001623885601565533</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005018333901967348</v>
+        <v>0.00406676089606306</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002465745631942068</v>
+        <v>0.00225118823192331</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01441815044495365</v>
+        <v>0.004110420032573107</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002439773097934246</v>
+        <v>0.002465745631942068</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.01332828494466129</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002473391089108913</v>
+        <v>0.002415909141146702</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.005018333901967348</v>
+        <v>0.02378849384128506</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002465745631942068</v>
+        <v>0.002435828402348299</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.006323384017479887</v>
+        <v>0.005384588982446245</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003287660842589424</v>
+        <v>0.003001584309231081</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01902048595157466</v>
+        <v>0.005614126534909863</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003253030797245661</v>
+        <v>0.003287660842589424</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02331767564248943</v>
+        <v>0.01713905583356831</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003218631050709016</v>
+        <v>0.003221212188195603</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.006323384017479887</v>
+        <v>0.03069388133766532</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003287660842589424</v>
+        <v>0.003247771203131066</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.009992500000000001</v>
+        <v>0.0142033039841631</v>
       </c>
       <c r="B70" t="n">
-        <v>0.016</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008156660822089601</v>
+        <v>0.006683382069946002</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00410957605323678</v>
+        <v>0.00375198038653885</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02228759859075552</v>
+        <v>0.006923998939265721</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.004066288496557077</v>
+        <v>0.00410957605323678</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02785738326067322</v>
+        <v>0.02136999740681175</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004023288813386271</v>
+        <v>0.004026515235244504</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.008156660822089601</v>
+        <v>0.03779560247316111</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.00410957605323678</v>
+        <v>0.004059714003913832</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.009705418684797761</v>
+        <v>0.007963046822923633</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004931491263884136</v>
+        <v>0.004502376463846621</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02717946903454113</v>
+        <v>0.008113666839408416</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004879546195868493</v>
+        <v>0.004931491263884136</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03237435263630045</v>
+        <v>0.02532280930278727</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004827946576063524</v>
+        <v>0.004831818282293405</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.009705418684797761</v>
+        <v>0.04452869056645631</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004931491263884136</v>
+        <v>0.004871656804696599</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01095691197460565</v>
+        <v>0.009223489905740428</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005753406474531492</v>
+        <v>0.005252772541154391</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.03035607795497647</v>
+        <v>0.009056759829105726</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005692803895179907</v>
+        <v>0.005753406474531492</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03648526908384225</v>
+        <v>0.02799999999999997</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005632604338740778</v>
+        <v>0.005604767628205121</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.01095691197460565</v>
+        <v>0.0518281789362347</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005753406474531492</v>
+        <v>0.005683599605479366</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01189839506051455</v>
+        <v>0.01046461798275769</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006575321685178848</v>
+        <v>0.006003168618462161</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.03387740602410647</v>
+        <v>0.009999999999999995</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006506061594491323</v>
+        <v>0.006245312499999997</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04020681791777003</v>
+        <v>0.03046877623624544</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006437262101418033</v>
+        <v>0.006442424376391206</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.01189839506051455</v>
+        <v>0.05732910090118015</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006575321685178848</v>
+        <v>0.006495542406262132</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01321712231152572</v>
+        <v>0.01168633771833671</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007397236895826204</v>
+        <v>0.006753564695769931</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03690343391397607</v>
+        <v>0.01093265610911549</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007319319293802739</v>
+        <v>0.007397236895826204</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.0435556844525547</v>
+        <v>0.03234342913512975</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007241919864095287</v>
+        <v>0.007247727423440107</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.01321712231152572</v>
+        <v>0.0617664897799764</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007397236895826204</v>
+        <v>0.007307485207044898</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01430034809664046</v>
+        <v>0.01288855577683878</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.00821915210647356</v>
+        <v>0.0075039607730777</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03919414229663018</v>
+        <v>0.01157008929289603</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.008132576993114154</v>
+        <v>0.00821915210647356</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.04864855400266765</v>
+        <v>0.03444518813187381</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008046577626772541</v>
+        <v>0.008053030470489008</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01430034809664046</v>
+        <v>0.06637537889130724</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.00821915210647356</v>
+        <v>0.008119428007827664</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01483532678486005</v>
+        <v>0.01407117882262521</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.009041067317120916</v>
+        <v>0.008254356850385471</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.04130951184411377</v>
+        <v>0.01225536583164171</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.00894583469242557</v>
+        <v>0.009041067317120916</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05080211188258005</v>
+        <v>0.03569572406785651</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008851235389449796</v>
+        <v>0.00885833351753791</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01483532678486005</v>
+        <v>0.06969080155385637</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.009041067317120916</v>
+        <v>0.008931370808610431</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.016</v>
+        <v>0.01523411352005729</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009992500000000001</v>
+        <v>0.009004752927693241</v>
       </c>
       <c r="J77" t="n">
-        <v>0.04299999999999998</v>
+        <v>0.01319443991200166</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009625392025089599</v>
+        <v>0.009862982527768271</v>
       </c>
       <c r="L77" t="n">
-        <v>0.0538330434067632</v>
+        <v>0.03801670778445676</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009655893152127048</v>
+        <v>0.009663636564586809</v>
       </c>
       <c r="N77" t="n">
-        <v>0.016</v>
+        <v>0.07234779108630779</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009992500000000001</v>
+        <v>0.009743313609393197</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01634750184317019</v>
+        <v>0.01637726653349632</v>
       </c>
       <c r="G78" t="n">
+        <v>0.009755149005001013</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0.01379326572062504</v>
+      </c>
+      <c r="K78" t="n">
         <v>0.01068489773841563</v>
       </c>
-      <c r="J78" t="n">
-        <v>0.04380384396839479</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.0105723500910484</v>
-      </c>
       <c r="L78" t="n">
-        <v>0.05815803388968821</v>
+        <v>0.03952981012305343</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0104605509148043</v>
+        <v>0.01046893961163571</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01634750184317019</v>
+        <v>0.07400000000000001</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01068489773841563</v>
+        <v>0.01015721153846154</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01651736822956971</v>
+        <v>0.01750054452730358</v>
       </c>
       <c r="G79" t="n">
+        <v>0.01050554508230878</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0.01405779744416101</v>
+      </c>
+      <c r="K79" t="n">
         <v>0.01150681294906298</v>
       </c>
-      <c r="J79" t="n">
-        <v>0.04542071850202672</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.01138560779035981</v>
-      </c>
       <c r="L79" t="n">
-        <v>0.06069376864582632</v>
+        <v>0.04105670192502545</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01126520867748156</v>
+        <v>0.01127424265868461</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01651736822956971</v>
+        <v>0.07471592523888737</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01150681294906298</v>
+        <v>0.01136719921095873</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01722960586077944</v>
+        <v>0.01860385416584039</v>
       </c>
       <c r="G80" t="n">
+        <v>0.01125594115961655</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0.01479398926925871</v>
+      </c>
+      <c r="K80" t="n">
         <v>0.01232872815971034</v>
       </c>
-      <c r="J80" t="n">
-        <v>0.04609473597350053</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.01219886548967123</v>
-      </c>
       <c r="L80" t="n">
-        <v>0.06355693298964871</v>
+        <v>0.04221905403175169</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01206986644015881</v>
+        <v>0.01207954570573351</v>
       </c>
       <c r="N80" t="n">
-        <v>0.01722960586077944</v>
+        <v>0.07603978118618648</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01232872815971034</v>
+        <v>0.0121791420117415</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01769367300830153</v>
+        <v>0.01968710211346803</v>
       </c>
       <c r="G81" t="n">
+        <v>0.01200633723692432</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0.01540779538256733</v>
+      </c>
+      <c r="K81" t="n">
         <v>0.0131506433703577</v>
       </c>
-      <c r="J81" t="n">
-        <v>0.04675582324394773</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.01301212318898265</v>
-      </c>
       <c r="L81" t="n">
-        <v>0.06706421223562675</v>
+        <v>0.04333853728461098</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01287452420283607</v>
+        <v>0.01288484875278241</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01769367300830153</v>
+        <v>0.07668227593677779</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0131506433703577</v>
+        <v>0.01299108481252426</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01771902794363808</v>
+        <v>0.0207501950345478</v>
       </c>
       <c r="G82" t="n">
+        <v>0.01275673331423209</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.01570516997073594</v>
+      </c>
+      <c r="K82" t="n">
         <v>0.01397255858100505</v>
       </c>
-      <c r="J82" t="n">
-        <v>0.04683390717449995</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.01382538088829406</v>
-      </c>
       <c r="L82" t="n">
-        <v>0.07073229169823148</v>
+        <v>0.04473682252498232</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01367918196551332</v>
+        <v>0.01369015179983131</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01771902794363808</v>
+        <v>0.07869186049055038</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01397255858100505</v>
+        <v>0.01380302761330703</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01811512893829115</v>
+        <v>0.021793039593441</v>
       </c>
       <c r="G83" t="n">
+        <v>0.01350712939153986</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.01639206722041378</v>
+      </c>
+      <c r="K83" t="n">
         <v>0.01479447379165241</v>
       </c>
-      <c r="J83" t="n">
-        <v>0.04795891462628879</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.01463863858760548</v>
-      </c>
       <c r="L83" t="n">
-        <v>0.07217785669193416</v>
+        <v>0.04693558059424452</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01448383972819057</v>
+        <v>0.01449545484688021</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01811512893829115</v>
+        <v>0.07951698584739314</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01479447379165241</v>
+        <v>0.0146149704140898</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0183914342637629</v>
+        <v>0.02274234313200997</v>
       </c>
       <c r="G84" t="n">
+        <v>0.0142033039841631</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.01667444131824998</v>
+      </c>
+      <c r="K84" t="n">
         <v>0.01561638900229977</v>
       </c>
-      <c r="J84" t="n">
-        <v>0.04836077246044582</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.01545189628691689</v>
-      </c>
       <c r="L84" t="n">
-        <v>0.076417592531206</v>
+        <v>0.04775648233377652</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01528849749086783</v>
+        <v>0.01530075789392912</v>
       </c>
       <c r="N84" t="n">
-        <v>0.0183914342637629</v>
+        <v>0.07950610300719502</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01561638900229977</v>
+        <v>0.01542691321487256</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01855740219155541</v>
+        <v>0.02382156243875265</v>
       </c>
       <c r="G85" t="n">
+        <v>0.0150079215461554</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.01695824645089368</v>
+      </c>
+      <c r="K85" t="n">
         <v>0.01643830421294712</v>
       </c>
-      <c r="J85" t="n">
-        <v>0.04866940753810256</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.01626515398622831</v>
-      </c>
       <c r="L85" t="n">
-        <v>0.07846818453051835</v>
+        <v>0.04932119858495718</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01609315525354508</v>
+        <v>0.01610606094097802</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01855740219155541</v>
+        <v>0.08030766296984476</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01643830421294712</v>
+        <v>0.01623885601565533</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01902249099317076</v>
+        <v>0.02481314140110361</v>
       </c>
       <c r="G86" t="n">
+        <v>0.01575831762346317</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.01764943680499402</v>
+      </c>
+      <c r="K86" t="n">
         <v>0.01726021942359448</v>
       </c>
-      <c r="J86" t="n">
-        <v>0.05001474672039069</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.01707841168553972</v>
-      </c>
       <c r="L86" t="n">
-        <v>0.08204631800434214</v>
+        <v>0.05045140018916536</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01689781301622233</v>
+        <v>0.01691136398802692</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01902249099317076</v>
+        <v>0.0806701167352315</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01726021942359448</v>
+        <v>0.0170507988164381</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01899615894011107</v>
+        <v>0.02578912958592573</v>
       </c>
       <c r="G87" t="n">
+        <v>0.01650871370077094</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.01825396656720017</v>
+      </c>
+      <c r="K87" t="n">
         <v>0.01808213463424183</v>
       </c>
-      <c r="J87" t="n">
-        <v>0.04992671686844175</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.01789166938485114</v>
-      </c>
       <c r="L87" t="n">
-        <v>0.0849010892564076</v>
+        <v>0.0529885601653535</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01749946646853657</v>
+        <v>0.01767789087380792</v>
       </c>
       <c r="N87" t="n">
-        <v>0.01899615894011107</v>
+        <v>0.08194191530324402</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01808213463424183</v>
+        <v>0.01786274161722086</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01938786430387843</v>
+        <v>0.02674835835462162</v>
       </c>
       <c r="G88" t="n">
+        <v>0.01725910977807871</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.0184777899241613</v>
+      </c>
+      <c r="K88" t="n">
         <v>0.01890404984488919</v>
       </c>
-      <c r="J88" t="n">
-        <v>0.05113524484338727</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.01870492708416256</v>
-      </c>
       <c r="L88" t="n">
-        <v>0.08828730872249491</v>
+        <v>0.05388637770908344</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01850712854157684</v>
+        <v>0.01852197008212472</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01938786430387843</v>
+        <v>0.08217150967377124</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01890404984488919</v>
+        <v>0.01867468441800363</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01970706535597495</v>
+        <v>0.02768965906859387</v>
       </c>
       <c r="G89" t="n">
+        <v>0.01800950585538648</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.01942686106252653</v>
+      </c>
+      <c r="K89" t="n">
         <v>0.01972596505553654</v>
       </c>
-      <c r="J89" t="n">
-        <v>0.0529885601653535</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.01976882420296799</v>
-      </c>
       <c r="L89" t="n">
-        <v>0.09070214547083022</v>
+        <v>0.05629697931806235</v>
       </c>
       <c r="M89" t="n">
-        <v>0.0193117863042541</v>
+        <v>0.01932727312917362</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01970706535597495</v>
+        <v>0.0849010892564076</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01972596505553654</v>
+        <v>0.01942248476178235</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01996322036790274</v>
+        <v>0.02861186308924506</v>
       </c>
       <c r="G90" t="n">
+        <v>0.01875990193269425</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.01960713416894502</v>
+      </c>
+      <c r="K90" t="n">
         <v>0.0205478802661839</v>
       </c>
-      <c r="J90" t="n">
-        <v>0.05317455618672751</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.02033144248278539</v>
-      </c>
       <c r="L90" t="n">
-        <v>0.09460199536880998</v>
+        <v>0.05809084465572642</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02011644406693135</v>
+        <v>0.02013257617622252</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01996322036790274</v>
+        <v>0.08616979029853716</v>
       </c>
       <c r="O90" t="n">
-        <v>0.0205478802661839</v>
+        <v>0.02029857001956916</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02066578761116389</v>
+        <v>0.02951380177797776</v>
       </c>
       <c r="G91" t="n">
+        <v>0.01951029801000203</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.02032456343006595</v>
+      </c>
+      <c r="K91" t="n">
         <v>0.02136979547683126</v>
       </c>
-      <c r="J91" t="n">
-        <v>0.05439340260140563</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0211447001820968</v>
-      </c>
       <c r="L91" t="n">
-        <v>0.09847391592077515</v>
+        <v>0.0603582615117938</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02092110182960861</v>
+        <v>0.02093787922327142</v>
       </c>
       <c r="N91" t="n">
-        <v>0.02066578761116389</v>
+        <v>0.0881017659480568</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02136979547683126</v>
+        <v>0.02111051282035193</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
+        <v>0.03039430649619457</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.02026069408730979</v>
+      </c>
+      <c r="J92" t="n">
         <v>0.02107603107429938</v>
       </c>
-      <c r="G92" t="n">
+      <c r="K92" t="n">
         <v>0.02193773338645172</v>
       </c>
-      <c r="J92" t="n">
-        <v>0.05611175255982664</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.02195795788140822</v>
-      </c>
       <c r="L92" t="n">
-        <v>0.1007049646310667</v>
+        <v>0.06238951767598253</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02172575959228586</v>
+        <v>0.02174318227032032</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02107603107429938</v>
+        <v>0.08937342823696737</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02193773338645172</v>
+        <v>0.0219224556211347</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02158430447298287</v>
+        <v>0.03125220860529808</v>
       </c>
       <c r="G93" t="n">
+        <v>0.02101109016461756</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.02181983745732055</v>
+      </c>
+      <c r="K93" t="n">
         <v>0.02301362589812597</v>
       </c>
-      <c r="J93" t="n">
-        <v>0.05751124235807303</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.02277121558071963</v>
-      </c>
       <c r="L93" t="n">
-        <v>0.1045821990040254</v>
+        <v>0.06447490093801075</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02253041735496311</v>
+        <v>0.02254848531736922</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02158430447298287</v>
+        <v>0.09245446026142828</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02301362589812597</v>
+        <v>0.02273439842191746</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02214219772130081</v>
+        <v>0.03208633946669084</v>
       </c>
       <c r="G94" t="n">
+        <v>0.02176148624192533</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.0224248597056692</v>
+      </c>
+      <c r="K94" t="n">
         <v>0.02383554110877333</v>
       </c>
-      <c r="J94" t="n">
-        <v>0.06017350829222734</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.02358447328003105</v>
-      </c>
       <c r="L94" t="n">
-        <v>0.1086926765439923</v>
+        <v>0.06620469908759655</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02333507511764037</v>
+        <v>0.02335378836441812</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02214219772130081</v>
+        <v>0.09551454511759888</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02383554110877333</v>
+        <v>0.02354634122270023</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02299019044213779</v>
+        <v>0.03289553044177551</v>
       </c>
       <c r="G95" t="n">
+        <v>0.02251188231923311</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.02359350079649344</v>
+      </c>
+      <c r="K95" t="n">
         <v>0.02465745631942068</v>
       </c>
-      <c r="J95" t="n">
-        <v>0.06158018665837212</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.02439773097934246</v>
-      </c>
       <c r="L95" t="n">
-        <v>0.1124234547553085</v>
+        <v>0.06816919991445805</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02413973288031762</v>
+        <v>0.02415909141146702</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02299019044213779</v>
+        <v>0.09892336590163858</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02465745631942068</v>
+        <v>0.02435828402348299</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02371823401046394</v>
+        <v>0.03367861289195459</v>
       </c>
       <c r="G96" t="n">
+        <v>0.02326227839654087</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.02451746457408285</v>
+      </c>
+      <c r="K96" t="n">
         <v>0.02547937153006804</v>
       </c>
-      <c r="J96" t="n">
-        <v>0.06421291375258992</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.02521098867865388</v>
-      </c>
       <c r="L96" t="n">
-        <v>0.1147615911423148</v>
+        <v>0.07075869120831338</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02494439064299488</v>
+        <v>0.02496439445851592</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02371823401046394</v>
+        <v>0.102150605709707</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02547937153006804</v>
+        <v>0.02517022682426576</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02461627980124932</v>
+        <v>0.03474234313200997</v>
       </c>
       <c r="G97" t="n">
+        <v>0.02432671165346924</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.02558845488272697</v>
+      </c>
+      <c r="K97" t="n">
         <v>0.02630128674071539</v>
       </c>
-      <c r="J97" t="n">
-        <v>0.06655332587096324</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.02602424637796529</v>
-      </c>
       <c r="L97" t="n">
-        <v>0.1194941432093522</v>
+        <v>0.0724634607588806</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02574904840567213</v>
+        <v>0.02576969750556482</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02461627980124932</v>
+        <v>0.1059659476379633</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02630128674071539</v>
+        <v>0.02598216962504853</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02547427918946407</v>
+        <v>0.03516891530739977</v>
       </c>
       <c r="G98" t="n">
+        <v>0.02476307055115641</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.02639817556671538</v>
+      </c>
+      <c r="K98" t="n">
         <v>0.02712320195136275</v>
       </c>
-      <c r="J98" t="n">
-        <v>0.06798305930957463</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0.02683750407727671</v>
-      </c>
       <c r="L98" t="n">
-        <v>0.1230081684607616</v>
+        <v>0.0752737963558778</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02655370616834938</v>
+        <v>0.02657500055261372</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02547427918946407</v>
+        <v>0.109039074782567</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02712320195136275</v>
+        <v>0.0267941124258313</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02668218355007829</v>
+        <v>0.03591072449554952</v>
       </c>
       <c r="G99" t="n">
+        <v>0.02551346662846418</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.0276383304703376</v>
+      </c>
+      <c r="K99" t="n">
         <v>0.0279451171620101</v>
       </c>
-      <c r="J99" t="n">
-        <v>0.07098375036450669</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.02765076177658812</v>
-      </c>
       <c r="L99" t="n">
-        <v>0.1265907244008839</v>
+        <v>0.07707998578902314</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02735836393102663</v>
+        <v>0.02738030359966263</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02668218355007829</v>
+        <v>0.1123396702396775</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0279451171620101</v>
+        <v>0.02760605522661406</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02792994425806208</v>
+        <v>0.03665866453287678</v>
       </c>
       <c r="G100" t="n">
+        <v>0.02626386270577196</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.02860062343788325</v>
+      </c>
+      <c r="K100" t="n">
         <v>0.02876703237265746</v>
       </c>
-      <c r="J100" t="n">
-        <v>0.07343703533184187</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.02846401947589954</v>
-      </c>
       <c r="L100" t="n">
-        <v>0.1287288685340602</v>
+        <v>0.0788723168480347</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02816302169370389</v>
+        <v>0.02818560664671153</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02792994425806208</v>
+        <v>0.1164374171054543</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02876703237265746</v>
+        <v>0.02841799802739683</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0287075126883856</v>
+        <v>0.03740774584829276</v>
       </c>
       <c r="G101" t="n">
+        <v>0.02701425878307973</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.02967675831364185</v>
+      </c>
+      <c r="K101" t="n">
         <v>0.02958894758330482</v>
       </c>
-      <c r="J101" t="n">
-        <v>0.07542455050766272</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.02927727717521096</v>
-      </c>
       <c r="L101" t="n">
-        <v>0.1322096583646313</v>
+        <v>0.08184107732263049</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02896767945638115</v>
+        <v>0.02899090969376043</v>
       </c>
       <c r="N101" t="n">
-        <v>0.0287075126883856</v>
+        <v>0.1207019984760566</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02958894758330482</v>
+        <v>0.02922994082817959</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02980484021601888</v>
+        <v>0.03815297887070858</v>
       </c>
       <c r="G102" t="n">
+        <v>0.02776465486038749</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.03055843894190294</v>
+      </c>
+      <c r="K102" t="n">
         <v>0.03041086279395218</v>
       </c>
-      <c r="J102" t="n">
-        <v>0.07782793218805184</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0.03009053487452237</v>
-      </c>
       <c r="L102" t="n">
-        <v>0.1354201513969384</v>
+        <v>0.0831765550025288</v>
       </c>
       <c r="M102" t="n">
-        <v>0.0297723372190584</v>
+        <v>0.02979621274080933</v>
       </c>
       <c r="N102" t="n">
-        <v>0.02980484021601888</v>
+        <v>0.1251030974476441</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03041086279395218</v>
+        <v>0.03004188362896236</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.0309118782159321</v>
+        <v>0.03888937402903542</v>
       </c>
       <c r="G103" t="n">
+        <v>0.02851505093769527</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.03183736916695608</v>
+      </c>
+      <c r="K103" t="n">
         <v>0.03123277800459953</v>
       </c>
-      <c r="J103" t="n">
-        <v>0.08072881666909176</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0.03090379257383379</v>
-      </c>
       <c r="L103" t="n">
-        <v>0.1385474051353221</v>
+        <v>0.08576903767744759</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03057699498173565</v>
+        <v>0.03060151578785823</v>
       </c>
       <c r="N103" t="n">
-        <v>0.0309118782159321</v>
+        <v>0.128010397116376</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03123277800459953</v>
+        <v>0.03085382642974513</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.0319185780630953</v>
+        <v>0.03961194175218445</v>
       </c>
       <c r="G104" t="n">
+        <v>0.02926544701500303</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0.03300525283309087</v>
+      </c>
+      <c r="K104" t="n">
         <v>0.03205469321524688</v>
       </c>
-      <c r="J104" t="n">
-        <v>0.08360884024686496</v>
-      </c>
-      <c r="K104" t="n">
-        <v>0.0317170502731452</v>
-      </c>
       <c r="L104" t="n">
-        <v>0.1416784770841236</v>
+        <v>0.08790881313710502</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03138165274441291</v>
+        <v>0.03140681883490713</v>
       </c>
       <c r="N104" t="n">
-        <v>0.0319185780630953</v>
+        <v>0.1327935805784119</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03205469321524688</v>
+        <v>0.03166576923052789</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.03301489113247863</v>
+        <v>0.04031569246906681</v>
       </c>
       <c r="G105" t="n">
+        <v>0.0300158430923108</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.03375379378459682</v>
+      </c>
+      <c r="K105" t="n">
         <v>0.03287660842589424</v>
       </c>
-      <c r="J105" t="n">
-        <v>0.08524963921745402</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0.03253030797245662</v>
-      </c>
       <c r="L105" t="n">
-        <v>0.1460004247476838</v>
+        <v>0.08968616917121922</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03218631050709016</v>
+        <v>0.03221212188195603</v>
       </c>
       <c r="N105" t="n">
-        <v>0.03301489113247863</v>
+        <v>0.1365223309299111</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03287660842589424</v>
+        <v>0.03247771203131065</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.0341907687990522</v>
+        <v>0.04099563660859368</v>
       </c>
       <c r="G106" t="n">
+        <v>0.03076623916961857</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.03477469586576352</v>
+      </c>
+      <c r="K106" t="n">
         <v>0.0336985236365416</v>
       </c>
-      <c r="J106" t="n">
-        <v>0.08793284987694142</v>
-      </c>
-      <c r="K106" t="n">
-        <v>0.03334356567176803</v>
-      </c>
       <c r="L106" t="n">
-        <v>0.1476003056303435</v>
+        <v>0.0911913935695082</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03299096826976742</v>
+        <v>0.03301742492900493</v>
       </c>
       <c r="N106" t="n">
-        <v>0.0341907687990522</v>
+        <v>0.1399663312670331</v>
       </c>
       <c r="O106" t="n">
-        <v>0.0336985236365416</v>
+        <v>0.03328965483209342</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.0355361624377861</v>
+        <v>0.04164678459967623</v>
       </c>
       <c r="G107" t="n">
+        <v>0.03151663524692635</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.0360596629208805</v>
+      </c>
+      <c r="K107" t="n">
         <v>0.03452043884718895</v>
       </c>
-      <c r="J107" t="n">
-        <v>0.09064010852140977</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0.03415682337107945</v>
-      </c>
       <c r="L107" t="n">
-        <v>0.1514651772364438</v>
+        <v>0.09301477412169012</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03379562603244467</v>
+        <v>0.03382272797605383</v>
       </c>
       <c r="N107" t="n">
-        <v>0.0355361624377861</v>
+        <v>0.1434952646859372</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03452043884718895</v>
+        <v>0.03410159763287619</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.03624102342365045</v>
+        <v>0.04226414687122561</v>
       </c>
       <c r="G108" t="n">
+        <v>0.03226703132423412</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.03700039879423736</v>
+      </c>
+      <c r="K108" t="n">
         <v>0.03534235405783631</v>
       </c>
-      <c r="J108" t="n">
-        <v>0.0929530514469416</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0.03497008107039086</v>
-      </c>
       <c r="L108" t="n">
-        <v>0.1540820970703256</v>
+        <v>0.09474659861748314</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03460028379512192</v>
+        <v>0.03462803102310273</v>
       </c>
       <c r="N108" t="n">
-        <v>0.03624102342365045</v>
+        <v>0.1485788142827828</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03534235405783631</v>
+        <v>0.03491354043365896</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.03719530313161537</v>
+        <v>0.04284273385215297</v>
       </c>
       <c r="G109" t="n">
+        <v>0.03301742740154189</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.03788860733012361</v>
+      </c>
+      <c r="K109" t="n">
         <v>0.03616426926848366</v>
       </c>
-      <c r="J109" t="n">
-        <v>0.09425331494961936</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0.03578333876970228</v>
-      </c>
       <c r="L109" t="n">
-        <v>0.1555381226363298</v>
+        <v>0.09707715484660523</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03540494155779918</v>
+        <v>0.03543333407015164</v>
       </c>
       <c r="N109" t="n">
-        <v>0.03719530313161537</v>
+        <v>0.1510866631537295</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03616426926848366</v>
+        <v>0.03572548323444173</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.03808895293665095</v>
+        <v>0.04337755597136951</v>
       </c>
       <c r="G110" t="n">
+        <v>0.03376782347884966</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.03871599237282884</v>
+      </c>
+      <c r="K110" t="n">
         <v>0.03698618447913102</v>
       </c>
-      <c r="J110" t="n">
-        <v>0.09632253532552573</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0.03659659646901369</v>
-      </c>
       <c r="L110" t="n">
-        <v>0.1578203114387975</v>
+        <v>0.0981967305987746</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03620959932047643</v>
+        <v>0.03623863711720053</v>
       </c>
       <c r="N110" t="n">
-        <v>0.03808895293665095</v>
+        <v>0.1544884943949366</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03698618447913102</v>
+        <v>0.03653742603522449</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.0388119242137273</v>
+        <v>0.04386362365778636</v>
       </c>
       <c r="G111" t="n">
+        <v>0.03451821955615743</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.03927425776664259</v>
+      </c>
+      <c r="K111" t="n">
         <v>0.03780809968977838</v>
       </c>
-      <c r="J111" t="n">
-        <v>0.09894234887074319</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0.03740985416832511</v>
-      </c>
       <c r="L111" t="n">
-        <v>0.1601157209820696</v>
+        <v>0.09929561366370937</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03701425708315369</v>
+        <v>0.03704394016424944</v>
       </c>
       <c r="N111" t="n">
-        <v>0.0388119242137273</v>
+        <v>0.1579539911025634</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03780809968977838</v>
+        <v>0.03734936883600726</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.03965416833781454</v>
+        <v>0.04429594734031468</v>
       </c>
       <c r="G112" t="n">
+        <v>0.03526861563346519</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.03985510735585443</v>
+      </c>
+      <c r="K112" t="n">
         <v>0.03863001490042573</v>
       </c>
-      <c r="J112" t="n">
-        <v>0.1003943918813542</v>
-      </c>
-      <c r="K112" t="n">
-        <v>0.03822311186763652</v>
-      </c>
       <c r="L112" t="n">
-        <v>0.1632114087704869</v>
+        <v>0.1013640918311275</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03781891484583094</v>
+        <v>0.03784924321129834</v>
       </c>
       <c r="N112" t="n">
-        <v>0.03965416833781454</v>
+        <v>0.1596528363727696</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03863001490042573</v>
+        <v>0.03816131163679002</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04030563668388278</v>
+        <v>0.04466953744786568</v>
       </c>
       <c r="G113" t="n">
+        <v>0.03601901171077296</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.0405502449847539</v>
+      </c>
+      <c r="K113" t="n">
         <v>0.03945193011107308</v>
       </c>
-      <c r="J113" t="n">
-        <v>0.1011603006534413</v>
-      </c>
-      <c r="K113" t="n">
-        <v>0.03903636956694794</v>
-      </c>
       <c r="L113" t="n">
-        <v>0.1642944323083905</v>
+        <v>0.1024924528907473</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03862357260850819</v>
+        <v>0.03865454625834724</v>
       </c>
       <c r="N113" t="n">
-        <v>0.04030563668388278</v>
+        <v>0.1618547133017144</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03945193011107308</v>
+        <v>0.03897325443757279</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04115628062690209</v>
+        <v>0.04497940440935046</v>
       </c>
       <c r="G114" t="n">
+        <v>0.03676940778808074</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.04095137449763059</v>
+      </c>
+      <c r="K114" t="n">
         <v>0.04027384532172044</v>
       </c>
-      <c r="J114" t="n">
-        <v>0.1025217114830872</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0.03984962726625935</v>
-      </c>
       <c r="L114" t="n">
-        <v>0.1662518491001213</v>
+        <v>0.1030709846322867</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03942823037118545</v>
+        <v>0.03945984930539614</v>
       </c>
       <c r="N114" t="n">
-        <v>0.04115628062690209</v>
+        <v>0.1648293049855572</v>
       </c>
       <c r="O114" t="n">
-        <v>0.04027384532172044</v>
+        <v>0.03978519723835555</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04149605154184263</v>
+        <v>0.04523803132029819</v>
       </c>
       <c r="G115" t="n">
+        <v>0.0375198038653885</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0.04145019973877401</v>
+      </c>
+      <c r="K115" t="n">
         <v>0.0410957605323678</v>
       </c>
-      <c r="J115" t="n">
-        <v>0.1043602606663744</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0.04066288496557077</v>
-      </c>
       <c r="L115" t="n">
-        <v>0.1661707166500202</v>
+        <v>0.1043899748454639</v>
       </c>
       <c r="M115" t="n">
-        <v>0.0402328881338627</v>
+        <v>0.04026515235244504</v>
       </c>
       <c r="N115" t="n">
-        <v>0.04149605154184263</v>
+        <v>0.1661462945204575</v>
       </c>
       <c r="O115" t="n">
-        <v>0.0410957605323678</v>
+        <v>0.04059714003913832</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0416149008036745</v>
+        <v>0.04549045844466426</v>
       </c>
       <c r="G116" t="n">
+        <v>0.03827019994269628</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0.04163842455247375</v>
+      </c>
+      <c r="K116" t="n">
         <v>0.04191767574301516</v>
       </c>
-      <c r="J116" t="n">
-        <v>0.1043575844993852</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0.04147614266488218</v>
-      </c>
       <c r="L116" t="n">
-        <v>0.1670380924624282</v>
+        <v>0.1041397113199969</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04103754589653996</v>
+        <v>0.04107045539949394</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0416149008036745</v>
+        <v>0.1683753650025749</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04191767574301516</v>
+        <v>0.04140908283992109</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
+        <v>0.04573924815980959</v>
+      </c>
+      <c r="G117" t="n">
+        <v>0.03902059602000405</v>
+      </c>
+      <c r="J117" t="n">
         <v>0.04215206214859875</v>
       </c>
-      <c r="G117" t="n">
+      <c r="K117" t="n">
         <v>0.04273959095366251</v>
       </c>
-      <c r="J117" t="n">
-        <v>0.1047953192782023</v>
-      </c>
-      <c r="K117" t="n">
-        <v>0.0422894003641936</v>
-      </c>
       <c r="L117" t="n">
-        <v>0.1677410340416863</v>
+        <v>0.1053104818456039</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04184220365921721</v>
+        <v>0.04187575844654284</v>
       </c>
       <c r="N117" t="n">
-        <v>0.04215206214859875</v>
+        <v>0.1679861995280684</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04273959095366251</v>
+        <v>0.04222102564070386</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04175182048822981</v>
+        <v>0.04598433447287315</v>
       </c>
       <c r="G118" t="n">
+        <v>0.03977099209731182</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0.04195186999107638</v>
+      </c>
+      <c r="K118" t="n">
         <v>0.04356150616430987</v>
       </c>
-      <c r="J118" t="n">
+      <c r="L118" t="n">
         <v>0.105977120330707</v>
       </c>
-      <c r="K118" t="n">
-        <v>0.04310265806350502</v>
-      </c>
-      <c r="L118" t="n">
+      <c r="M118" t="n">
+        <v>0.04268106149359174</v>
+      </c>
+      <c r="N118" t="n">
         <v>0.1698021785128152</v>
       </c>
-      <c r="M118" t="n">
-        <v>0.04264686142189446</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0.04175182048822981</v>
-      </c>
       <c r="O118" t="n">
-        <v>0.04356150616430987</v>
+        <v>0.04303296844148662</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.0420418141275178</v>
+        <v>0.04622565139099379</v>
       </c>
       <c r="G119" t="n">
+        <v>0.04052138817461959</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0.04194388136274554</v>
+      </c>
+      <c r="K119" t="n">
         <v>0.04438342137495722</v>
       </c>
-      <c r="J119" t="n">
-        <v>0.1053732807515145</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0.04391591576281643</v>
-      </c>
       <c r="L119" t="n">
-        <v>0.1696021276262494</v>
+        <v>0.1050770408690057</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04345151918457172</v>
+        <v>0.04348636454064064</v>
       </c>
       <c r="N119" t="n">
-        <v>0.0420418141275178</v>
+        <v>0.1681937593136701</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04438342137495722</v>
+        <v>0.04384491124226939</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.0421176163651299</v>
+        <v>0.04646313292131043</v>
       </c>
       <c r="G120" t="n">
+        <v>0.04127178425192736</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0.04192445380815732</v>
+      </c>
+      <c r="K120" t="n">
         <v>0.04520533658560458</v>
       </c>
-      <c r="J120" t="n">
-        <v>0.1058510194914873</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0.04472917346212785</v>
-      </c>
       <c r="L120" t="n">
-        <v>0.1688771844795626</v>
+        <v>0.1055656194270313</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04425617694724897</v>
+        <v>0.04429166758768954</v>
       </c>
       <c r="N120" t="n">
-        <v>0.0421176163651299</v>
+        <v>0.1689330765837564</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04520533658560458</v>
+        <v>0.04465685404305215</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04197990565974689</v>
+        <v>0.04669671307096203</v>
       </c>
       <c r="G121" t="n">
+        <v>0.04202218032923512</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0.041893988792307</v>
+      </c>
+      <c r="K121" t="n">
         <v>0.04602725179625194</v>
       </c>
-      <c r="J121" t="n">
-        <v>0.1059094096066128</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0.04554243116143926</v>
-      </c>
       <c r="L121" t="n">
-        <v>0.1686077648350214</v>
+        <v>0.1055352408590985</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04506083470992622</v>
+        <v>0.04509697063473844</v>
       </c>
       <c r="N121" t="n">
-        <v>0.04197990565974689</v>
+        <v>0.1692157321263789</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04602725179625194</v>
+        <v>0.04546879684383492</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04162936047004957</v>
+        <v>0.04692632584708746</v>
       </c>
       <c r="G122" t="n">
+        <v>0.0427725764065429</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0.04175288778018993</v>
+      </c>
+      <c r="K122" t="n">
         <v>0.04684916700689929</v>
       </c>
-      <c r="J122" t="n">
-        <v>0.1052490110436331</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0.04635568886075068</v>
-      </c>
       <c r="L122" t="n">
-        <v>0.1679954840492289</v>
+        <v>0.1057864501054366</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04586549247260348</v>
+        <v>0.04590227368178734</v>
       </c>
       <c r="N122" t="n">
-        <v>0.04162936047004957</v>
+        <v>0.1683439754796248</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04684916700689929</v>
+        <v>0.04628073964461769</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04176665925471869</v>
+        <v>0.04715190525682567</v>
       </c>
       <c r="G123" t="n">
+        <v>0.04352297248385067</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0.04190155223680136</v>
+      </c>
+      <c r="K123" t="n">
         <v>0.04767108221754665</v>
       </c>
-      <c r="J123" t="n">
-        <v>0.1047703837492907</v>
-      </c>
-      <c r="K123" t="n">
-        <v>0.04716894656006209</v>
-      </c>
       <c r="L123" t="n">
-        <v>0.1692419574787883</v>
+        <v>0.1055197921062748</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04667015023528074</v>
+        <v>0.04670757672883624</v>
       </c>
       <c r="N123" t="n">
-        <v>0.04176665925471869</v>
+        <v>0.1683200561815814</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04767108221754665</v>
+        <v>0.04709268244540046</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04189248047243509</v>
+        <v>0.04737338530731554</v>
       </c>
       <c r="G124" t="n">
+        <v>0.04427336856115843</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0.04194038362713667</v>
+      </c>
+      <c r="K124" t="n">
         <v>0.048492997428194</v>
       </c>
-      <c r="J124" t="n">
-        <v>0.1046740876703278</v>
-      </c>
-      <c r="K124" t="n">
-        <v>0.04798220425937351</v>
-      </c>
       <c r="L124" t="n">
-        <v>0.167848800480303</v>
+        <v>0.1051358118018427</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04747480799795799</v>
+        <v>0.04751287977588515</v>
       </c>
       <c r="N124" t="n">
-        <v>0.04189248047243509</v>
+        <v>0.168146223770336</v>
       </c>
       <c r="O124" t="n">
-        <v>0.048492997428194</v>
+        <v>0.04790462524618322</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04160750258187948</v>
+        <v>0.04759070000569601</v>
       </c>
       <c r="G125" t="n">
+        <v>0.04502376463846621</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0.04176978341619116</v>
+      </c>
+      <c r="K125" t="n">
         <v>0.04931491263884136</v>
       </c>
-      <c r="J125" t="n">
-        <v>0.1045606827534869</v>
-      </c>
-      <c r="K125" t="n">
-        <v>0.04879546195868492</v>
-      </c>
       <c r="L125" t="n">
-        <v>0.1674176284103763</v>
+        <v>0.1046350541323695</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04827946576063524</v>
+        <v>0.04831818282293404</v>
       </c>
       <c r="N125" t="n">
-        <v>0.04160750258187948</v>
+        <v>0.1680247277839759</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04931491263884136</v>
+        <v>0.04871656804696599</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04151240404173269</v>
+        <v>0.04780378335910597</v>
       </c>
       <c r="G126" t="n">
+        <v>0.04577416071577398</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0.04179015306896008</v>
+      </c>
+      <c r="K126" t="n">
         <v>0.05013682784948872</v>
       </c>
-      <c r="J126" t="n">
-        <v>0.1049307289455102</v>
-      </c>
-      <c r="K126" t="n">
-        <v>0.04960871965799634</v>
-      </c>
       <c r="L126" t="n">
-        <v>0.1671500566256113</v>
+        <v>0.1046180640380844</v>
       </c>
       <c r="M126" t="n">
-        <v>0.0490841235233125</v>
+        <v>0.04912348586998295</v>
       </c>
       <c r="N126" t="n">
-        <v>0.04151240404173269</v>
+        <v>0.1672578177605882</v>
       </c>
       <c r="O126" t="n">
-        <v>0.05013682784948872</v>
+        <v>0.04952851084774876</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04150786331067548</v>
+        <v>0.04801256937468433</v>
       </c>
       <c r="G127" t="n">
+        <v>0.04652455679308175</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0.04140189405043881</v>
+      </c>
+      <c r="K127" t="n">
         <v>0.05095874306013607</v>
       </c>
-      <c r="J127" t="n">
-        <v>0.1042847861931401</v>
-      </c>
-      <c r="K127" t="n">
-        <v>0.05042197735730775</v>
-      </c>
       <c r="L127" t="n">
-        <v>0.1682477004826114</v>
+        <v>0.105085386459217</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04988878128598975</v>
+        <v>0.04992878891703185</v>
       </c>
       <c r="N127" t="n">
-        <v>0.04150786331067548</v>
+        <v>0.1666477432382604</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05095874306013607</v>
+        <v>0.05034045364853152</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04139455884738866</v>
+        <v>0.04821699205957004</v>
       </c>
       <c r="G128" t="n">
+        <v>0.04727495287038952</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0.04130540782562263</v>
+      </c>
+      <c r="K128" t="n">
         <v>0.05178065827078343</v>
       </c>
-      <c r="J128" t="n">
-        <v>0.1045234144431188</v>
-      </c>
-      <c r="K128" t="n">
-        <v>0.05123523505661917</v>
-      </c>
       <c r="L128" t="n">
-        <v>0.1679121753379799</v>
+        <v>0.1046375663359965</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05069343904866701</v>
+        <v>0.05073409196408075</v>
       </c>
       <c r="N128" t="n">
-        <v>0.04139455884738866</v>
+        <v>0.1660967537550795</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05178065827078343</v>
+        <v>0.05115239644931429</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.04117316911055299</v>
+        <v>0.048416985420902</v>
       </c>
       <c r="G129" t="n">
+        <v>0.04802534894769729</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0.04110109585950684</v>
+      </c>
+      <c r="K129" t="n">
         <v>0.05260257348143078</v>
       </c>
-      <c r="J129" t="n">
-        <v>0.1046471736421887</v>
-      </c>
-      <c r="K129" t="n">
-        <v>0.05204849275593058</v>
-      </c>
       <c r="L129" t="n">
-        <v>0.1668450965483199</v>
+        <v>0.1045751486086521</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05149809681134426</v>
+        <v>0.05153939501112965</v>
       </c>
       <c r="N129" t="n">
-        <v>0.04117316911055299</v>
+        <v>0.1653070988491329</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05260257348143078</v>
+        <v>0.05196433925009705</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.04104437255884927</v>
+        <v>0.0486124834658191</v>
       </c>
       <c r="G130" t="n">
+        <v>0.04877574502500506</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0.04118935961708679</v>
+      </c>
+      <c r="K130" t="n">
         <v>0.05342448869207814</v>
       </c>
-      <c r="J130" t="n">
-        <v>0.1042566237370923</v>
-      </c>
-      <c r="K130" t="n">
-        <v>0.052861750455242</v>
-      </c>
       <c r="L130" t="n">
-        <v>0.1669480794702348</v>
+        <v>0.1038986782174134</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05230275457402151</v>
+        <v>0.05234469805817855</v>
       </c>
       <c r="N130" t="n">
-        <v>0.04104437255884927</v>
+        <v>0.1661810280585079</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05342448869207814</v>
+        <v>0.05277628205087983</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04090884765095826</v>
+        <v>0.04880342020146029</v>
       </c>
       <c r="G131" t="n">
+        <v>0.04952614110231283</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0.04107060056335776</v>
+      </c>
+      <c r="K131" t="n">
         <v>0.05424640390272549</v>
       </c>
-      <c r="J131" t="n">
-        <v>0.1040523246745716</v>
-      </c>
-      <c r="K131" t="n">
-        <v>0.05367500815455341</v>
-      </c>
       <c r="L131" t="n">
-        <v>0.1669227394603279</v>
+        <v>0.1043087001025096</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05310741233669877</v>
+        <v>0.05315000110522745</v>
       </c>
       <c r="N131" t="n">
-        <v>0.04090884765095826</v>
+        <v>0.1658207909212916</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05424640390272549</v>
+        <v>0.05358822485166259</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04066727284556076</v>
+        <v>0.04898972963496447</v>
       </c>
       <c r="G132" t="n">
+        <v>0.0502765371796206</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0.0407452201633151</v>
+      </c>
+      <c r="K132" t="n">
         <v>0.05506831911337285</v>
       </c>
-      <c r="J132" t="n">
-        <v>0.1039348364013692</v>
-      </c>
-      <c r="K132" t="n">
-        <v>0.05448826585386483</v>
-      </c>
       <c r="L132" t="n">
-        <v>0.1662706918752024</v>
+        <v>0.1042057592041701</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05391207009937602</v>
+        <v>0.05395530415227636</v>
       </c>
       <c r="N132" t="n">
-        <v>0.04066727284556076</v>
+        <v>0.1638286369755715</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05506831911337285</v>
+        <v>0.05440016765244535</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04072032660133754</v>
+        <v>0.04917134577347053</v>
       </c>
       <c r="G133" t="n">
+        <v>0.05102693325692836</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0.04061361988195407</v>
+      </c>
+      <c r="K133" t="n">
         <v>0.0558902343240202</v>
       </c>
-      <c r="J133" t="n">
-        <v>0.1035047188642274</v>
-      </c>
-      <c r="K133" t="n">
-        <v>0.05530152355317625</v>
-      </c>
       <c r="L133" t="n">
-        <v>0.1657935520714616</v>
+        <v>0.1034904004626241</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05471672786205327</v>
+        <v>0.05476060719932525</v>
       </c>
       <c r="N133" t="n">
-        <v>0.04072032660133754</v>
+        <v>0.1637068157594346</v>
       </c>
       <c r="O133" t="n">
-        <v>0.0558902343240202</v>
+        <v>0.05521211045322812</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.04056868737696939</v>
+        <v>0.0493482026241174</v>
       </c>
       <c r="G134" t="n">
+        <v>0.05177732933423614</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0.04087620118427</v>
+      </c>
+      <c r="K134" t="n">
         <v>0.05671214953466756</v>
       </c>
-      <c r="J134" t="n">
-        <v>0.1037625320098883</v>
-      </c>
-      <c r="K134" t="n">
-        <v>0.05611478125248766</v>
-      </c>
       <c r="L134" t="n">
-        <v>0.1647929354057087</v>
+        <v>0.1030631688181011</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05552138562473054</v>
+        <v>0.05556591024637415</v>
       </c>
       <c r="N134" t="n">
-        <v>0.04056868737696939</v>
+        <v>0.1626575768109684</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05671214953466756</v>
+        <v>0.05602405325401089</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.0403130336311371</v>
+        <v>0.04952023419404401</v>
       </c>
       <c r="G135" t="n">
+        <v>0.05252772541154391</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0.0404333655352582</v>
+      </c>
+      <c r="K135" t="n">
         <v>0.05753406474531492</v>
       </c>
-      <c r="J135" t="n">
-        <v>0.1032088357850944</v>
-      </c>
-      <c r="K135" t="n">
-        <v>0.05692803895179908</v>
-      </c>
       <c r="L135" t="n">
-        <v>0.1645704572345471</v>
+        <v>0.1032246092108304</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05632604338740779</v>
+        <v>0.05637121329342306</v>
       </c>
       <c r="N135" t="n">
-        <v>0.0403130336311371</v>
+        <v>0.16198316966826</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05753406474531492</v>
+        <v>0.05683599605479366</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04025404382252144</v>
+        <v>0.04968737449038926</v>
       </c>
       <c r="G136" t="n">
+        <v>0.05327812148885167</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0.04028551439991401</v>
+      </c>
+      <c r="K136" t="n">
         <v>0.05835597995596228</v>
       </c>
-      <c r="J136" t="n">
-        <v>0.1024441901365881</v>
-      </c>
-      <c r="K136" t="n">
-        <v>0.05774129665111049</v>
-      </c>
       <c r="L136" t="n">
-        <v>0.16332773291458</v>
+        <v>0.1029752665810412</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05713070115008504</v>
+        <v>0.05717651634047196</v>
       </c>
       <c r="N136" t="n">
-        <v>0.04025404382252144</v>
+        <v>0.1620858438693967</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05835597995596228</v>
+        <v>0.05764793885557642</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0397923964098032</v>
+        <v>0.04984955752029205</v>
       </c>
       <c r="G137" t="n">
+        <v>0.05402851756615945</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0.0404330492432327</v>
+      </c>
+      <c r="K137" t="n">
         <v>0.05917789516660963</v>
       </c>
-      <c r="J137" t="n">
-        <v>0.1024691550111116</v>
-      </c>
-      <c r="K137" t="n">
-        <v>0.05855455435042192</v>
-      </c>
       <c r="L137" t="n">
-        <v>0.1625663778024106</v>
+        <v>0.1028156858689629</v>
       </c>
       <c r="M137" t="n">
-        <v>0.0579353589127623</v>
+        <v>0.05798181938752085</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0397923964098032</v>
+        <v>0.1612678489524659</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05917789516660963</v>
+        <v>0.05845988165635919</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.03982876985166316</v>
+        <v>0.05000671729089133</v>
       </c>
       <c r="G138" t="n">
+        <v>0.05477891364346722</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0.04017637153020959</v>
+      </c>
+      <c r="K138" t="n">
         <v>0.05999981037725699</v>
       </c>
-      <c r="J138" t="n">
-        <v>0.1027842903554074</v>
-      </c>
-      <c r="K138" t="n">
-        <v>0.05936781204973332</v>
-      </c>
       <c r="L138" t="n">
-        <v>0.1632880072546424</v>
+        <v>0.102546412014825</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05874001667543954</v>
+        <v>0.05878712243456976</v>
       </c>
       <c r="N138" t="n">
-        <v>0.03982876985166316</v>
+        <v>0.1611314344555546</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05999981037725699</v>
+        <v>0.05927182445714195</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0396638426067821</v>
+        <v>0.05015878780932599</v>
       </c>
       <c r="G139" t="n">
+        <v>0.05552930972077499</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0.04011588272584003</v>
+      </c>
+      <c r="K139" t="n">
         <v>0.06082172558790435</v>
       </c>
-      <c r="J139" t="n">
-        <v>0.1018901561162176</v>
-      </c>
-      <c r="K139" t="n">
-        <v>0.06018106974904475</v>
-      </c>
       <c r="L139" t="n">
-        <v>0.1623942366278784</v>
+        <v>0.1022679899588567</v>
       </c>
       <c r="M139" t="n">
-        <v>0.0595446744381168</v>
+        <v>0.05959242548161866</v>
       </c>
       <c r="N139" t="n">
-        <v>0.0396638426067821</v>
+        <v>0.1596788499167501</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06082172558790435</v>
+        <v>0.06008376725792472</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.03949829313384082</v>
+        <v>0.05030570308273492</v>
       </c>
       <c r="G140" t="n">
+        <v>0.05627970579808277</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0.03955198429511929</v>
+      </c>
+      <c r="K140" t="n">
         <v>0.0616436407985517</v>
       </c>
-      <c r="J140" t="n">
-        <v>0.1016873122402845</v>
-      </c>
-      <c r="K140" t="n">
-        <v>0.06099432744835615</v>
-      </c>
       <c r="L140" t="n">
-        <v>0.160486681278722</v>
+        <v>0.1015809646412872</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06034933220079405</v>
+        <v>0.06039772852866756</v>
       </c>
       <c r="N140" t="n">
-        <v>0.03949829313384082</v>
+        <v>0.15891234487414</v>
       </c>
       <c r="O140" t="n">
-        <v>0.0616436407985517</v>
+        <v>0.06089571005870748</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.03943279989152008</v>
+        <v>0.05044739711825709</v>
       </c>
       <c r="G141" t="n">
+        <v>0.05703010187539053</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0.03938507770304268</v>
+      </c>
+      <c r="K141" t="n">
         <v>0.06246555600919906</v>
       </c>
-      <c r="J141" t="n">
-        <v>0.1009763186743508</v>
-      </c>
-      <c r="K141" t="n">
-        <v>0.06180758514766758</v>
-      </c>
       <c r="L141" t="n">
-        <v>0.1600669565637765</v>
+        <v>0.1017858810023461</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0611539899634713</v>
+        <v>0.06120303157571647</v>
       </c>
       <c r="N141" t="n">
-        <v>0.03943279989152008</v>
+        <v>0.157234168865811</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06246555600919906</v>
+        <v>0.06170765285949025</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.03906804133850067</v>
+        <v>0.05058380392303138</v>
       </c>
       <c r="G142" t="n">
+        <v>0.0577804979526983</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0.03951556441460555</v>
+      </c>
+      <c r="K142" t="n">
         <v>0.06328747121984642</v>
       </c>
-      <c r="J142" t="n">
-        <v>0.1013577353651585</v>
-      </c>
-      <c r="K142" t="n">
-        <v>0.06262084284697898</v>
-      </c>
       <c r="L142" t="n">
-        <v>0.160036677839645</v>
+        <v>0.1016832839822627</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06195864772614856</v>
+        <v>0.06200833462276536</v>
       </c>
       <c r="N142" t="n">
-        <v>0.03906804133850067</v>
+        <v>0.1566465714298509</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06328747121984642</v>
+        <v>0.06251959566027301</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.03900469593346337</v>
+        <v>0.0507148575041967</v>
       </c>
       <c r="G143" t="n">
+        <v>0.05853089403000607</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0.03944384589480317</v>
+      </c>
+      <c r="K143" t="n">
         <v>0.06410938643049377</v>
       </c>
-      <c r="J143" t="n">
-        <v>0.10073212225945</v>
-      </c>
-      <c r="K143" t="n">
-        <v>0.06343410054629041</v>
-      </c>
       <c r="L143" t="n">
-        <v>0.158697460462931</v>
+        <v>0.1006737185212661</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06276330548882582</v>
+        <v>0.06281363766981425</v>
       </c>
       <c r="N143" t="n">
-        <v>0.03900469593346337</v>
+        <v>0.1560518021043467</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06410938643049377</v>
+        <v>0.06333153846105578</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.03864344213508897</v>
+        <v>0.05084049186889199</v>
       </c>
       <c r="G144" t="n">
+        <v>0.05928129010731385</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0.03897032360863088</v>
+      </c>
+      <c r="K144" t="n">
         <v>0.06493130164114112</v>
       </c>
-      <c r="J144" t="n">
-        <v>0.1000000393039677</v>
-      </c>
-      <c r="K144" t="n">
-        <v>0.06424735824560182</v>
-      </c>
       <c r="L144" t="n">
-        <v>0.1586509197902377</v>
+        <v>0.1003577295595858</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06356796325150307</v>
+        <v>0.06361894071686316</v>
       </c>
       <c r="N144" t="n">
-        <v>0.03864344213508897</v>
+        <v>0.1551521104273856</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06493130164114112</v>
+        <v>0.06414348126183855</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.03858495840205826</v>
+        <v>0.05096064102425613</v>
       </c>
       <c r="G145" t="n">
+        <v>0.0600316861846216</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0.03899539902108397</v>
+      </c>
+      <c r="K145" t="n">
         <v>0.06575321685178848</v>
       </c>
-      <c r="J145" t="n">
-        <v>0.1000620464454539</v>
-      </c>
-      <c r="K145" t="n">
-        <v>0.06506061594491323</v>
-      </c>
       <c r="L145" t="n">
-        <v>0.1586986711781683</v>
+        <v>0.1006358620374512</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06437262101418033</v>
+        <v>0.06442424376391206</v>
       </c>
       <c r="N145" t="n">
-        <v>0.03858495840205826</v>
+        <v>0.155449745937055</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06575321685178848</v>
+        <v>0.06495542406262131</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.038629923193052</v>
+        <v>0.05107523897742805</v>
       </c>
       <c r="G146" t="n">
+        <v>0.06078208226192938</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0.03851947359715777</v>
+      </c>
+      <c r="K146" t="n">
         <v>0.06657513206243583</v>
       </c>
-      <c r="J146" t="n">
-        <v>0.1001187036306508</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0.06587387364422465</v>
-      </c>
       <c r="L146" t="n">
-        <v>0.1576423299833261</v>
+        <v>0.1006086608950916</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06517727877685758</v>
+        <v>0.06522954681096096</v>
       </c>
       <c r="N146" t="n">
-        <v>0.038629923193052</v>
+        <v>0.1535469581714421</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06657513206243583</v>
+        <v>0.06576736686340408</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.03817901496675098</v>
+        <v>0.05118421973554667</v>
       </c>
       <c r="G147" t="n">
+        <v>0.06153247833923715</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0.03844294880184758</v>
+      </c>
+      <c r="K147" t="n">
         <v>0.0673970472730832</v>
       </c>
-      <c r="J147" t="n">
-        <v>0.09987057080630088</v>
-      </c>
-      <c r="K147" t="n">
-        <v>0.06668713134353606</v>
-      </c>
       <c r="L147" t="n">
-        <v>0.1562835115623143</v>
+        <v>0.0992766710727363</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06598193653953484</v>
+        <v>0.06603484985800986</v>
       </c>
       <c r="N147" t="n">
-        <v>0.03817901496675098</v>
+        <v>0.1534459966686343</v>
       </c>
       <c r="O147" t="n">
-        <v>0.0673970472730832</v>
+        <v>0.06657930966418685</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.038232912181836</v>
+        <v>0.0512875173057509</v>
       </c>
       <c r="G148" t="n">
+        <v>0.06228287441654492</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0.0385662261001487</v>
+      </c>
+      <c r="K148" t="n">
         <v>0.06821896248373055</v>
       </c>
-      <c r="J148" t="n">
-        <v>0.09861820791914644</v>
-      </c>
-      <c r="K148" t="n">
-        <v>0.06750038904284748</v>
-      </c>
       <c r="L148" t="n">
-        <v>0.1569238312717364</v>
+        <v>0.09924043751061457</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06678659430221208</v>
+        <v>0.06684015290505876</v>
       </c>
       <c r="N148" t="n">
-        <v>0.038232912181836</v>
+        <v>0.1522491109667186</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06821896248373055</v>
+        <v>0.06739125246496962</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.03799229329698783</v>
+        <v>0.05138506569517963</v>
       </c>
       <c r="G149" t="n">
+        <v>0.0630332704938527</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.03838970695705647</v>
+      </c>
+      <c r="K149" t="n">
         <v>0.0690408776943779</v>
       </c>
-      <c r="J149" t="n">
-        <v>0.09876217491592978</v>
-      </c>
-      <c r="K149" t="n">
-        <v>0.0683136467421589</v>
-      </c>
       <c r="L149" t="n">
-        <v>0.1552649044681954</v>
+        <v>0.09910050514895585</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06759125206488933</v>
+        <v>0.06764545595210766</v>
       </c>
       <c r="N149" t="n">
-        <v>0.03799229329698783</v>
+        <v>0.1514585506037824</v>
       </c>
       <c r="O149" t="n">
-        <v>0.0690408776943779</v>
+        <v>0.06820319526575239</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.03805783677088724</v>
+        <v>0.05147679891097182</v>
       </c>
       <c r="G150" t="n">
+        <v>0.06378366657116046</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0379137928375662</v>
+      </c>
+      <c r="K150" t="n">
         <v>0.06986279290502526</v>
       </c>
-      <c r="J150" t="n">
-        <v>0.09840303174339329</v>
-      </c>
-      <c r="K150" t="n">
-        <v>0.06912690444147031</v>
-      </c>
       <c r="L150" t="n">
-        <v>0.1548083465082948</v>
+        <v>0.09895741892798948</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06839590982756659</v>
+        <v>0.06845075899915658</v>
       </c>
       <c r="N150" t="n">
-        <v>0.03805783677088724</v>
+        <v>0.1512765651179129</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06986279290502526</v>
+        <v>0.06901513806653516</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.03783022106221504</v>
+        <v>0.05156265096026635</v>
       </c>
       <c r="G151" t="n">
+        <v>0.06453406264846824</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.03773888520667316</v>
+      </c>
+      <c r="K151" t="n">
         <v>0.07068470811567262</v>
       </c>
-      <c r="J151" t="n">
-        <v>0.09784133834827924</v>
-      </c>
-      <c r="K151" t="n">
-        <v>0.06994016214078172</v>
-      </c>
       <c r="L151" t="n">
-        <v>0.1535557727486376</v>
+        <v>0.09881172378794473</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06920056759024384</v>
+        <v>0.06925606204620546</v>
       </c>
       <c r="N151" t="n">
-        <v>0.03783022106221504</v>
+        <v>0.1508054040471976</v>
       </c>
       <c r="O151" t="n">
-        <v>0.07068470811567262</v>
+        <v>0.06982708086731793</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.03771002075626211</v>
+        <v>0.05164255585020215</v>
       </c>
       <c r="G152" t="n">
+        <v>0.065284458725776</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.03766538552937268</v>
+      </c>
+      <c r="K152" t="n">
         <v>0.07150662332631998</v>
       </c>
-      <c r="J152" t="n">
-        <v>0.09757765467732993</v>
-      </c>
-      <c r="K152" t="n">
-        <v>0.07075341984009315</v>
-      </c>
       <c r="L152" t="n">
-        <v>0.1528087985458274</v>
+        <v>0.09846396466905097</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07000522535292111</v>
+        <v>0.07006136509325436</v>
       </c>
       <c r="N152" t="n">
-        <v>0.03771002075626211</v>
+        <v>0.1485473169297234</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07150662332631998</v>
+        <v>0.07063902366810068</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.03749369255093116</v>
+        <v>0.05171644758791813</v>
       </c>
       <c r="G153" t="n">
+        <v>0.06603485480308377</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.03749369527066011</v>
+      </c>
+      <c r="K153" t="n">
         <v>0.07232853853696733</v>
       </c>
-      <c r="J153" t="n">
-        <v>0.09681254067728776</v>
-      </c>
-      <c r="K153" t="n">
-        <v>0.07156667753940456</v>
-      </c>
       <c r="L153" t="n">
-        <v>0.1526690392564672</v>
+        <v>0.09761468651153754</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07080988311559837</v>
+        <v>0.07086666814030328</v>
       </c>
       <c r="N153" t="n">
-        <v>0.03749369255093116</v>
+        <v>0.1485045533035779</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07232853853696733</v>
+        <v>0.07145096646888345</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.03727912322569106</v>
+        <v>0.0517842601805532</v>
       </c>
       <c r="G154" t="n">
+        <v>0.06678525088039154</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.03732421589553073</v>
+      </c>
+      <c r="K154" t="n">
         <v>0.07315045374761468</v>
       </c>
-      <c r="J154" t="n">
-        <v>0.09714655629489505</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0.07237993523871597</v>
-      </c>
       <c r="L154" t="n">
-        <v>0.1523296599181497</v>
+        <v>0.09696443425563375</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07161454087827561</v>
+        <v>0.07167197118735218</v>
       </c>
       <c r="N154" t="n">
-        <v>0.03727912322569106</v>
+        <v>0.147679362706848</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07315045374761468</v>
+        <v>0.07226290926966622</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.03726618272319623</v>
+        <v>0.05184592763524626</v>
       </c>
       <c r="G155" t="n">
+        <v>0.06753564695769931</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0.03695734886897985</v>
+      </c>
+      <c r="K155" t="n">
         <v>0.07397236895826205</v>
       </c>
-      <c r="J155" t="n">
-        <v>0.09638026147689407</v>
-      </c>
-      <c r="K155" t="n">
-        <v>0.07319319293802738</v>
-      </c>
       <c r="L155" t="n">
-        <v>0.1514664111112741</v>
+        <v>0.09701375284156896</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07241919864095286</v>
+        <v>0.07247727423440106</v>
       </c>
       <c r="N155" t="n">
-        <v>0.03726618272319623</v>
+        <v>0.1473739946776213</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07397236895826205</v>
+        <v>0.07307485207044899</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.0372547409861011</v>
+        <v>0.05190138395913625</v>
       </c>
       <c r="G156" t="n">
+        <v>0.06828604303500707</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0.03719349565600279</v>
+      </c>
+      <c r="K156" t="n">
         <v>0.0747942841689094</v>
       </c>
-      <c r="J156" t="n">
-        <v>0.09641421617002721</v>
-      </c>
-      <c r="K156" t="n">
-        <v>0.07400645063733881</v>
-      </c>
       <c r="L156" t="n">
-        <v>0.1505782657073461</v>
+        <v>0.09636318720957254</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07322385640363012</v>
+        <v>0.07328257728144998</v>
       </c>
       <c r="N156" t="n">
-        <v>0.0372547409861011</v>
+        <v>0.1461906987539849</v>
       </c>
       <c r="O156" t="n">
-        <v>0.0747942841689094</v>
+        <v>0.07388679487123175</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.03704466795706017</v>
+        <v>0.05195056315936208</v>
       </c>
       <c r="G157" t="n">
+        <v>0.06903643911231486</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0.03693305772159484</v>
+      </c>
+      <c r="K157" t="n">
         <v>0.07561619937955676</v>
       </c>
-      <c r="J157" t="n">
-        <v>0.09554898032103676</v>
-      </c>
-      <c r="K157" t="n">
-        <v>0.07481970833665022</v>
-      </c>
       <c r="L157" t="n">
-        <v>0.1499659012564386</v>
+        <v>0.0962132822998738</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07402851416630737</v>
+        <v>0.07408788032849888</v>
       </c>
       <c r="N157" t="n">
-        <v>0.03704466795706017</v>
+        <v>0.145731724474026</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07561619937955676</v>
+        <v>0.07469873767201451</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.03693583357872779</v>
+        <v>0.05199339924306265</v>
       </c>
       <c r="G158" t="n">
+        <v>0.06978683518962263</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0.0367724234407219</v>
+      </c>
+      <c r="K158" t="n">
         <v>0.07643811459020411</v>
       </c>
-      <c r="J158" t="n">
-        <v>0.09558511387666507</v>
-      </c>
-      <c r="K158" t="n">
-        <v>0.07563296603596163</v>
-      </c>
       <c r="L158" t="n">
-        <v>0.1488299953086243</v>
+        <v>0.09575117652781492</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07483317192898463</v>
+        <v>0.07489318337554778</v>
       </c>
       <c r="N158" t="n">
-        <v>0.03693583357872779</v>
+        <v>0.1447914474757404</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07643811459020411</v>
+        <v>0.07551068047279728</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.03702810779375848</v>
+        <v>0.05202982621737687</v>
       </c>
       <c r="G159" t="n">
+        <v>0.07053723126693039</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0.03650513379944685</v>
+      </c>
+      <c r="K159" t="n">
         <v>0.07726002980085146</v>
       </c>
-      <c r="J159" t="n">
-        <v>0.09482317678365448</v>
-      </c>
-      <c r="K159" t="n">
-        <v>0.07644622373527304</v>
-      </c>
       <c r="L159" t="n">
-        <v>0.1487712254139765</v>
+        <v>0.09525506531785685</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07563782969166188</v>
+        <v>0.07569848642259668</v>
       </c>
       <c r="N159" t="n">
-        <v>0.03702810779375848</v>
+        <v>0.1451573935626547</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07726002980085146</v>
+        <v>0.07632262327358004</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.03682136054480664</v>
+        <v>0.05205977808944369</v>
       </c>
       <c r="G160" t="n">
+        <v>0.07128762734423817</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0.03633148927462022</v>
+      </c>
+      <c r="K160" t="n">
         <v>0.07808194501149882</v>
       </c>
-      <c r="J160" t="n">
-        <v>0.09436372898874729</v>
-      </c>
-      <c r="K160" t="n">
-        <v>0.07725948143458447</v>
-      </c>
       <c r="L160" t="n">
-        <v>0.1475902691225679</v>
+        <v>0.09472630500609067</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07644248745433913</v>
+        <v>0.07650378946964558</v>
       </c>
       <c r="N160" t="n">
-        <v>0.03682136054480664</v>
+        <v>0.1440285803673272</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07808194501149882</v>
+        <v>0.07713456607436281</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.03691546177452672</v>
+        <v>0.05208318886640198</v>
       </c>
       <c r="G161" t="n">
+        <v>0.07203802342154593</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0.03595190729270084</v>
+      </c>
+      <c r="K161" t="n">
         <v>0.07890386022214617</v>
       </c>
-      <c r="J161" t="n">
-        <v>0.09470733043868587</v>
-      </c>
-      <c r="K161" t="n">
-        <v>0.07807273913389588</v>
-      </c>
       <c r="L161" t="n">
-        <v>0.1467878039844715</v>
+        <v>0.09456665428778524</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07724714521701638</v>
+        <v>0.07730909251669447</v>
       </c>
       <c r="N161" t="n">
-        <v>0.03691546177452672</v>
+        <v>0.1433042061449032</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07890386022214617</v>
+        <v>0.07794650887514558</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.03661028142557317</v>
+        <v>0.05209999255539068</v>
       </c>
       <c r="G162" t="n">
+        <v>0.0727884194988537</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0.03586680528014749</v>
+      </c>
+      <c r="K162" t="n">
         <v>0.07972577543279354</v>
       </c>
-      <c r="J162" t="n">
-        <v>0.09365454108021251</v>
-      </c>
-      <c r="K162" t="n">
-        <v>0.07888599683320729</v>
-      </c>
       <c r="L162" t="n">
-        <v>0.1465645075497603</v>
+        <v>0.09427787185820929</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07805180297969365</v>
+        <v>0.07811439556374337</v>
       </c>
       <c r="N162" t="n">
-        <v>0.03661028142557317</v>
+        <v>0.1430834691505281</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07972577543279354</v>
+        <v>0.07875845167592835</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.03640568944060042</v>
+        <v>0.05211012316354871</v>
       </c>
       <c r="G163" t="n">
+        <v>0.07353881557616147</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0.03577660066341896</v>
+      </c>
+      <c r="K163" t="n">
         <v>0.08054769064344089</v>
       </c>
-      <c r="J163" t="n">
-        <v>0.09350592086006956</v>
-      </c>
-      <c r="K163" t="n">
-        <v>0.07969925453251871</v>
-      </c>
       <c r="L163" t="n">
-        <v>0.1458210573685071</v>
+        <v>0.09326171641263162</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0788564607423709</v>
+        <v>0.07891969861079227</v>
       </c>
       <c r="N163" t="n">
-        <v>0.03640568944060042</v>
+        <v>0.1413655676393473</v>
       </c>
       <c r="O163" t="n">
-        <v>0.08054769064344089</v>
+        <v>0.0795703944767111</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.03620155576226293</v>
+        <v>0.05211351469801495</v>
       </c>
       <c r="G164" t="n">
+        <v>0.07428921165346924</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0.0354817108689741</v>
+      </c>
+      <c r="K164" t="n">
         <v>0.08136960585408824</v>
       </c>
-      <c r="J164" t="n">
-        <v>0.09356202972499927</v>
-      </c>
-      <c r="K164" t="n">
-        <v>0.08051251223183012</v>
-      </c>
       <c r="L164" t="n">
-        <v>0.1440581309907851</v>
+        <v>0.09321994664632097</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07966111850504816</v>
+        <v>0.07972500165784117</v>
       </c>
       <c r="N164" t="n">
-        <v>0.03620155576226293</v>
+        <v>0.1420496998665061</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08136960585408824</v>
+        <v>0.08038233727749387</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.03639775033321509</v>
+        <v>0.05211351469801495</v>
       </c>
       <c r="G165" t="n">
+        <v>0.07428921165346924</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0.03558255332327166</v>
+      </c>
+      <c r="K165" t="n">
         <v>0.0821915210647356</v>
       </c>
-      <c r="J165" t="n">
-        <v>0.09312174563117043</v>
-      </c>
-      <c r="K165" t="n">
-        <v>0.08132576993114154</v>
-      </c>
       <c r="L165" t="n">
-        <v>0.143076405966667</v>
+        <v>0.09275432125454619</v>
       </c>
       <c r="M165" t="n">
-        <v>0.0804657762677254</v>
+        <v>0.08053030470489009</v>
       </c>
       <c r="N165" t="n">
-        <v>0.03639775033321509</v>
+        <v>0.1413350640871499</v>
       </c>
       <c r="O165" t="n">
-        <v>0.0821915210647356</v>
+        <v>0.08119428007827664</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.03599414309611139</v>
+        <v>0.05124461748432679</v>
       </c>
       <c r="G166" t="n">
+        <v>0.07428894312500522</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0.03527954545277047</v>
+      </c>
+      <c r="K166" t="n">
         <v>0.08301343627538296</v>
       </c>
-      <c r="J166" t="n">
-        <v>0.09207099694827242</v>
-      </c>
-      <c r="K166" t="n">
-        <v>0.08213902763045296</v>
-      </c>
       <c r="L166" t="n">
-        <v>0.141976559846226</v>
+        <v>0.09236659893257601</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08127043403040266</v>
+        <v>0.08133560775193897</v>
       </c>
       <c r="N166" t="n">
-        <v>0.03599414309611139</v>
+        <v>0.140020858556424</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08301343627538296</v>
+        <v>0.08200622287905941</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.03619060399360625</v>
+        <v>0.05038533782207562</v>
       </c>
       <c r="G167" t="n">
+        <v>0.07428867459654122</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0.03507310468392934</v>
+      </c>
+      <c r="K167" t="n">
         <v>0.08383535148603032</v>
       </c>
-      <c r="J167" t="n">
-        <v>0.09210715231777694</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0.08295228532976437</v>
-      </c>
       <c r="L167" t="n">
-        <v>0.1421592701795348</v>
+        <v>0.09165853837567919</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08207509179307991</v>
+        <v>0.08214091079898787</v>
       </c>
       <c r="N167" t="n">
-        <v>0.03619060399360625</v>
+        <v>0.140206281529474</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08383535148603032</v>
+        <v>0.08281816567984218</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.03578700296835413</v>
+        <v>0.04953610598981963</v>
       </c>
       <c r="G168" t="n">
+        <v>0.07428840606807718</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0.03476364844320705</v>
+      </c>
+      <c r="K168" t="n">
         <v>0.08465726669667767</v>
       </c>
-      <c r="J168" t="n">
-        <v>0.09233102293844439</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0.08376554302907578</v>
-      </c>
       <c r="L168" t="n">
-        <v>0.1416252145166664</v>
+        <v>0.0910318982791245</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08287974955575717</v>
+        <v>0.08294621384603679</v>
       </c>
       <c r="N168" t="n">
-        <v>0.03578700296835413</v>
+        <v>0.1394905312614449</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08465726669667767</v>
+        <v>0.08363010848062495</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.03578320996300945</v>
+        <v>0.04869735226622772</v>
       </c>
       <c r="G169" t="n">
+        <v>0.07428813753961318</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0.03445159415706242</v>
+      </c>
+      <c r="K169" t="n">
         <v>0.08547918190732502</v>
       </c>
-      <c r="J169" t="n">
-        <v>0.09164342000903547</v>
-      </c>
-      <c r="K169" t="n">
-        <v>0.08457880072838721</v>
-      </c>
       <c r="L169" t="n">
-        <v>0.1404750704076939</v>
+        <v>0.09038843733818078</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08368440731843442</v>
+        <v>0.08375151689308569</v>
       </c>
       <c r="N169" t="n">
-        <v>0.03578320996300945</v>
+        <v>0.1376728060074825</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08547918190732502</v>
+        <v>0.08444205128140772</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.03567909492022667</v>
+        <v>0.04786950692985764</v>
       </c>
       <c r="G170" t="n">
+        <v>0.07428786901114916</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.03423735925195426</v>
+      </c>
+      <c r="K170" t="n">
         <v>0.08630109711797239</v>
       </c>
-      <c r="J170" t="n">
-        <v>0.09114515472831058</v>
-      </c>
-      <c r="K170" t="n">
-        <v>0.08539205842769862</v>
-      </c>
       <c r="L170" t="n">
-        <v>0.13980951540269</v>
+        <v>0.08952991424811677</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08448906508111168</v>
+        <v>0.08455681994013457</v>
       </c>
       <c r="N170" t="n">
-        <v>0.03567909492022667</v>
+        <v>0.137352304022732</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08630109711797239</v>
+        <v>0.08525399408219048</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.03587452778266019</v>
+        <v>0.04705300025930435</v>
       </c>
       <c r="G171" t="n">
+        <v>0.07428760048268515</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0.03422136115434134</v>
+      </c>
+      <c r="K171" t="n">
         <v>0.08712301232861974</v>
       </c>
-      <c r="J171" t="n">
-        <v>0.09013703829503036</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0.08620531612701003</v>
-      </c>
       <c r="L171" t="n">
-        <v>0.137229227051728</v>
+        <v>0.08825808770420124</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08529372284378893</v>
+        <v>0.08536212298718349</v>
       </c>
       <c r="N171" t="n">
-        <v>0.03587452778266019</v>
+        <v>0.1368282235623386</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08712301232861974</v>
+        <v>0.08606593688297325</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.03576937849296449</v>
+        <v>0.04624826253312804</v>
       </c>
       <c r="G172" t="n">
+        <v>0.07428733195422112</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.0338040172906825</v>
+      </c>
+      <c r="K172" t="n">
         <v>0.08794492753926708</v>
       </c>
-      <c r="J172" t="n">
-        <v>0.09061988190795531</v>
-      </c>
-      <c r="K172" t="n">
-        <v>0.08701857382632144</v>
-      </c>
       <c r="L172" t="n">
-        <v>0.1377348829048805</v>
+        <v>0.08847471640170299</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08609838060646618</v>
+        <v>0.08616742603423239</v>
       </c>
       <c r="N172" t="n">
-        <v>0.03576937849296449</v>
+        <v>0.1366997628814478</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08794492753926708</v>
+        <v>0.08687787968375602</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.035663516993794</v>
+        <v>0.04545572402999372</v>
       </c>
       <c r="G173" t="n">
+        <v>0.07428706342575711</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0.03368574508743649</v>
+      </c>
+      <c r="K173" t="n">
         <v>0.08876684274991445</v>
       </c>
-      <c r="J173" t="n">
-        <v>0.09029449676584583</v>
-      </c>
-      <c r="K173" t="n">
-        <v>0.08783183152563287</v>
-      </c>
       <c r="L173" t="n">
-        <v>0.1352271605122206</v>
+        <v>0.08718155903589075</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08690303836914344</v>
+        <v>0.08697272908128129</v>
       </c>
       <c r="N173" t="n">
-        <v>0.035663516993794</v>
+        <v>0.1365661202352051</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08876684274991445</v>
+        <v>0.08768982248453878</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.03545681322780316</v>
+        <v>0.04467581502846106</v>
       </c>
       <c r="G174" t="n">
+        <v>0.07428679489729309</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0.03356696197106217</v>
+      </c>
+      <c r="K174" t="n">
         <v>0.0895887579605618</v>
       </c>
-      <c r="J174" t="n">
-        <v>0.08886169406746264</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0.08864508922494428</v>
-      </c>
       <c r="L174" t="n">
-        <v>0.1356067374238212</v>
+        <v>0.08658037430203336</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08770769613182069</v>
+        <v>0.08777803212833019</v>
       </c>
       <c r="N174" t="n">
-        <v>0.03545681322780316</v>
+        <v>0.1346264938787557</v>
       </c>
       <c r="O174" t="n">
-        <v>0.0895887579605618</v>
+        <v>0.08850176528532154</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.03534913713764641</v>
+        <v>0.043908965807125</v>
       </c>
       <c r="G175" t="n">
+        <v>0.07428652636882908</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.03344808536801831</v>
+      </c>
+      <c r="K175" t="n">
         <v>0.09041067317120915</v>
       </c>
-      <c r="J175" t="n">
-        <v>0.08932228501156617</v>
-      </c>
-      <c r="K175" t="n">
-        <v>0.08945834692425569</v>
-      </c>
       <c r="L175" t="n">
-        <v>0.1333742911897552</v>
+        <v>0.08597292089539957</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08851235389449795</v>
+        <v>0.08858333517537909</v>
       </c>
       <c r="N175" t="n">
-        <v>0.03534913713764641</v>
+        <v>0.1347800820672451</v>
       </c>
       <c r="O175" t="n">
-        <v>0.09041067317120915</v>
+        <v>0.08931370808610431</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.03524035866597817</v>
+        <v>0.04315560664454801</v>
       </c>
       <c r="G176" t="n">
+        <v>0.07428625784036505</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0.03322953270476374</v>
+      </c>
+      <c r="K176" t="n">
         <v>0.09123258838185651</v>
       </c>
-      <c r="J176" t="n">
-        <v>0.08807708079691692</v>
-      </c>
-      <c r="K176" t="n">
-        <v>0.09027160462356711</v>
-      </c>
       <c r="L176" t="n">
-        <v>0.1322304993600958</v>
+        <v>0.08486095751125813</v>
       </c>
       <c r="M176" t="n">
-        <v>0.0893170116571752</v>
+        <v>0.08938863822242799</v>
       </c>
       <c r="N176" t="n">
-        <v>0.03524035866597817</v>
+        <v>0.1336260830558186</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09123258838185651</v>
+        <v>0.09012565088688708</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.03483034775545295</v>
+        <v>0.04241616781939063</v>
       </c>
       <c r="G177" t="n">
+        <v>0.07428598931190104</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.03261172140775724</v>
+      </c>
+      <c r="K177" t="n">
         <v>0.09205450359250388</v>
       </c>
-      <c r="J177" t="n">
-        <v>0.08822689262227557</v>
-      </c>
-      <c r="K177" t="n">
-        <v>0.09108486232287852</v>
-      </c>
       <c r="L177" t="n">
-        <v>0.1324760394849157</v>
+        <v>0.08434624284487788</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09012166941985245</v>
+        <v>0.09019394126947688</v>
       </c>
       <c r="N177" t="n">
-        <v>0.03483034775545295</v>
+        <v>0.1339636950996215</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09205450359250388</v>
+        <v>0.09093759368766985</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.0351189743487251</v>
+        <v>0.04169107961021472</v>
       </c>
       <c r="G178" t="n">
+        <v>0.07428572078343702</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0.03269506890345759</v>
+      </c>
+      <c r="K178" t="n">
         <v>0.09287641880315123</v>
       </c>
-      <c r="J178" t="n">
-        <v>0.08717253168640243</v>
-      </c>
-      <c r="K178" t="n">
-        <v>0.09189812002218994</v>
-      </c>
       <c r="L178" t="n">
-        <v>0.1307115891142879</v>
+        <v>0.08383053559152753</v>
       </c>
       <c r="M178" t="n">
-        <v>0.0909263271825297</v>
+        <v>0.09099924431652578</v>
       </c>
       <c r="N178" t="n">
-        <v>0.0351189743487251</v>
+        <v>0.1328921164537993</v>
       </c>
       <c r="O178" t="n">
-        <v>0.09287641880315123</v>
+        <v>0.0917495364884526</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.03500610838844913</v>
+        <v>0.04098077229561523</v>
       </c>
       <c r="G179" t="n">
+        <v>0.074285452254973</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0.03217999261832367</v>
+      </c>
+      <c r="K179" t="n">
         <v>0.09369833401379858</v>
       </c>
-      <c r="J179" t="n">
-        <v>0.08691480918805827</v>
-      </c>
-      <c r="K179" t="n">
-        <v>0.09271137772150136</v>
-      </c>
       <c r="L179" t="n">
-        <v>0.1302378257982853</v>
+        <v>0.08301559444647588</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09173098494520696</v>
+        <v>0.09180454736357468</v>
       </c>
       <c r="N179" t="n">
-        <v>0.03500610838844913</v>
+        <v>0.1326105453734974</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09369833401379858</v>
+        <v>0.09256147928923537</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.03459161981727944</v>
+        <v>0.04028567615415721</v>
       </c>
       <c r="G180" t="n">
+        <v>0.07428518372650898</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0.03236690997881421</v>
+      </c>
+      <c r="K180" t="n">
         <v>0.09452024922444595</v>
       </c>
-      <c r="J180" t="n">
-        <v>0.08615453632600339</v>
-      </c>
-      <c r="K180" t="n">
-        <v>0.09352463542081277</v>
-      </c>
       <c r="L180" t="n">
-        <v>0.1293554270869811</v>
+        <v>0.08220317810499173</v>
       </c>
       <c r="M180" t="n">
-        <v>0.09253564270788422</v>
+        <v>0.0926098504106236</v>
       </c>
       <c r="N180" t="n">
-        <v>0.03459161981727944</v>
+        <v>0.131218180113861</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09452024922444595</v>
+        <v>0.09337342209001814</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03437537857787047</v>
+        <v>0.03960622146449609</v>
       </c>
       <c r="G181" t="n">
+        <v>0.07428491519804496</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0.03195623841138803</v>
+      </c>
+      <c r="K181" t="n">
         <v>0.0953421644350933</v>
       </c>
-      <c r="J181" t="n">
-        <v>0.08569252429899851</v>
-      </c>
-      <c r="K181" t="n">
-        <v>0.09433789312012418</v>
-      </c>
       <c r="L181" t="n">
-        <v>0.1279650705304479</v>
+        <v>0.08189504526234387</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09334030047056148</v>
+        <v>0.09341515345767248</v>
       </c>
       <c r="N181" t="n">
-        <v>0.03437537857787047</v>
+        <v>0.1301142189300356</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0953421644350933</v>
+        <v>0.09418536489080091</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03465725461287671</v>
+        <v>0.03894283850519627</v>
       </c>
       <c r="G182" t="n">
+        <v>0.07428464666958096</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0.03174839534250394</v>
+      </c>
+      <c r="K182" t="n">
         <v>0.09616407964574065</v>
       </c>
-      <c r="J182" t="n">
-        <v>0.08582958430580406</v>
-      </c>
-      <c r="K182" t="n">
-        <v>0.09515115081943561</v>
-      </c>
       <c r="L182" t="n">
-        <v>0.1256674336787589</v>
+        <v>0.08129295461380098</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09414495823323872</v>
+        <v>0.09422045650472138</v>
       </c>
       <c r="N182" t="n">
-        <v>0.03465725461287671</v>
+        <v>0.1295978600771667</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09616407964574065</v>
+        <v>0.09499730769158367</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03413711786495255</v>
+        <v>0.03829595755485268</v>
       </c>
       <c r="G183" t="n">
+        <v>0.07428437814111694</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0.03134379819862075</v>
+      </c>
+      <c r="K183" t="n">
         <v>0.09698599485638801</v>
       </c>
-      <c r="J183" t="n">
-        <v>0.08496652754518061</v>
-      </c>
-      <c r="K183" t="n">
-        <v>0.09596440851874702</v>
-      </c>
       <c r="L183" t="n">
-        <v>0.1261631940819868</v>
+        <v>0.08059866485463194</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09494961599591598</v>
+        <v>0.0950257595517703</v>
       </c>
       <c r="N183" t="n">
-        <v>0.03413711786495255</v>
+        <v>0.1296683018103993</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09698599485638801</v>
+        <v>0.09580925049236644</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03421483827675242</v>
+        <v>0.03766600889203323</v>
       </c>
       <c r="G184" t="n">
+        <v>0.07428410961265292</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0.03114286440619723</v>
+      </c>
+      <c r="K184" t="n">
         <v>0.09780791006703538</v>
       </c>
-      <c r="J184" t="n">
-        <v>0.08510416521588865</v>
-      </c>
-      <c r="K184" t="n">
-        <v>0.09677766621805843</v>
-      </c>
       <c r="L184" t="n">
-        <v>0.1249530292902048</v>
+        <v>0.07971393468010551</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09575427375859323</v>
+        <v>0.0958310625988192</v>
       </c>
       <c r="N184" t="n">
-        <v>0.03421483827675242</v>
+        <v>0.1280247423848791</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09780791006703538</v>
+        <v>0.09662119329314922</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03409028579093082</v>
+        <v>0.03705342279538773</v>
       </c>
       <c r="G185" t="n">
+        <v>0.0742838410841889</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0.03134601139169223</v>
+      </c>
+      <c r="K185" t="n">
         <v>0.09862982527768273</v>
       </c>
-      <c r="J185" t="n">
-        <v>0.08394330851668877</v>
-      </c>
-      <c r="K185" t="n">
-        <v>0.09759092391736984</v>
-      </c>
       <c r="L185" t="n">
-        <v>0.1228376168534857</v>
+        <v>0.07894052278549046</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09655893152127049</v>
+        <v>0.09663636564586808</v>
       </c>
       <c r="N185" t="n">
-        <v>0.03409028579093082</v>
+        <v>0.1274663800557513</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09862982527768273</v>
+        <v>0.09743313609393198</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03386333035014215</v>
+        <v>0.03645862954348333</v>
       </c>
       <c r="G186" t="n">
+        <v>0.07428357255572489</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0.03115365658156452</v>
+      </c>
+      <c r="K186" t="n">
         <v>0.09945174048833007</v>
       </c>
-      <c r="J186" t="n">
-        <v>0.08368476864634145</v>
-      </c>
-      <c r="K186" t="n">
-        <v>0.09840418161668127</v>
-      </c>
       <c r="L186" t="n">
-        <v>0.1215176343219025</v>
+        <v>0.07878018786605551</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09736358928394774</v>
+        <v>0.097441668692917</v>
       </c>
       <c r="N186" t="n">
-        <v>0.03386333035014215</v>
+        <v>0.1267924130781614</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09945174048833007</v>
+        <v>0.09824507889471475</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.03373384189704086</v>
+        <v>0.035882059414915</v>
       </c>
       <c r="G187" t="n">
+        <v>0.07428330402726087</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0.03076621740227289</v>
+      </c>
+      <c r="K187" t="n">
         <v>0.1002736556989774</v>
       </c>
-      <c r="J187" t="n">
-        <v>0.08292935680360722</v>
-      </c>
-      <c r="K187" t="n">
-        <v>0.09921743931599268</v>
-      </c>
       <c r="L187" t="n">
-        <v>0.1206937592455283</v>
+        <v>0.07713468861706951</v>
       </c>
       <c r="M187" t="n">
-        <v>0.098168247046625</v>
+        <v>0.0982469717399659</v>
       </c>
       <c r="N187" t="n">
-        <v>0.03373384189704086</v>
+        <v>0.1262020397072548</v>
       </c>
       <c r="O187" t="n">
-        <v>0.1002736556989774</v>
+        <v>0.09905702169549752</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03380169037428137</v>
+        <v>0.03532414268825378</v>
       </c>
       <c r="G188" t="n">
+        <v>0.07428303549879685</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0.03038411128027621</v>
+      </c>
+      <c r="K188" t="n">
         <v>0.1010955709096248</v>
       </c>
-      <c r="J188" t="n">
-        <v>0.08267788418724664</v>
-      </c>
-      <c r="K188" t="n">
-        <v>0.1000306970153041</v>
-      </c>
       <c r="L188" t="n">
-        <v>0.1192666691744356</v>
+        <v>0.07720578373380124</v>
       </c>
       <c r="M188" t="n">
-        <v>0.09897290480930225</v>
+        <v>0.0990522747870148</v>
       </c>
       <c r="N188" t="n">
-        <v>0.03380169037428137</v>
+        <v>0.1245944581981767</v>
       </c>
       <c r="O188" t="n">
-        <v>0.1010955709096248</v>
+        <v>0.09986896449628029</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03376645075210874</v>
+        <v>0.03478530964214323</v>
       </c>
       <c r="G189" t="n">
+        <v>0.07428276697033283</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0.03020775564203321</v>
+      </c>
+      <c r="K189" t="n">
         <v>0.1019174861202721</v>
       </c>
-      <c r="J189" t="n">
-        <v>0.08203116199602026</v>
-      </c>
-      <c r="K189" t="n">
-        <v>0.1008439547146155</v>
-      </c>
       <c r="L189" t="n">
-        <v>0.1179370416586978</v>
+        <v>0.07689523191151942</v>
       </c>
       <c r="M189" t="n">
-        <v>0.09977756257197951</v>
+        <v>0.0998575778340637</v>
       </c>
       <c r="N189" t="n">
-        <v>0.03376645075210874</v>
+        <v>0.1240688668060725</v>
       </c>
       <c r="O189" t="n">
-        <v>0.1019174861202721</v>
+        <v>0.100680907297063</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.033327216269361</v>
+        <v>0.03426423358422435</v>
       </c>
       <c r="G190" t="n">
+        <v>0.07428249844186881</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0.03043756791400275</v>
+      </c>
+      <c r="K190" t="n">
         <v>0.1027394013309195</v>
       </c>
-      <c r="J190" t="n">
-        <v>0.08189000142868852</v>
-      </c>
-      <c r="K190" t="n">
-        <v>0.1016572124139269</v>
-      </c>
       <c r="L190" t="n">
-        <v>0.1175055542483877</v>
+        <v>0.07630479184549288</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1005822203346568</v>
+        <v>0.1006628808811126</v>
       </c>
       <c r="N190" t="n">
-        <v>0.033327216269361</v>
+        <v>0.1240244637860877</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1027394013309195</v>
+        <v>0.1014928500978458</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.03338410253709655</v>
+        <v>0.0337508029675157</v>
       </c>
       <c r="G191" t="n">
+        <v>0.0742822299134048</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0.02987396552264357</v>
+      </c>
+      <c r="K191" t="n">
         <v>0.1035613165415669</v>
       </c>
-      <c r="J191" t="n">
-        <v>0.08125521368401206</v>
-      </c>
-      <c r="K191" t="n">
-        <v>0.1024704701132383</v>
-      </c>
       <c r="L191" t="n">
-        <v>0.1159728844935783</v>
+        <v>0.07533622223099032</v>
       </c>
       <c r="M191" t="n">
-        <v>0.101386878097334</v>
+        <v>0.1014681839281615</v>
       </c>
       <c r="N191" t="n">
-        <v>0.03338410253709655</v>
+        <v>0.1225604473933677</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1035613165415669</v>
+        <v>0.1023047928986286</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03313729803462585</v>
+        <v>0.03324369109966079</v>
       </c>
       <c r="G192" t="n">
+        <v>0.07428196138494077</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0.03011736589441451</v>
+      </c>
+      <c r="K192" t="n">
         <v>0.1043832317522142</v>
       </c>
-      <c r="J192" t="n">
-        <v>0.08092689009259116</v>
-      </c>
-      <c r="K192" t="n">
-        <v>0.1032837278125498</v>
-      </c>
       <c r="L192" t="n">
-        <v>0.1160397099443423</v>
+        <v>0.0744912817632806</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1021915358600113</v>
+        <v>0.1022734869752104</v>
       </c>
       <c r="N192" t="n">
-        <v>0.03313729803462585</v>
+        <v>0.1220760158830577</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1043832317522142</v>
+        <v>0.1031167356994113</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03278699124125951</v>
+        <v>0.03274332825929868</v>
       </c>
       <c r="G193" t="n">
+        <v>0.07428169285647676</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0.02956628708289319</v>
+      </c>
+      <c r="K193" t="n">
         <v>0.1052051469628616</v>
       </c>
-      <c r="J193" t="n">
-        <v>0.08029837178109639</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0.1040969855118612</v>
-      </c>
       <c r="L193" t="n">
-        <v>0.1142067081507529</v>
+        <v>0.07445726056284419</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1029961936226885</v>
+        <v>0.1030787900222593</v>
       </c>
       <c r="N193" t="n">
-        <v>0.03278699124125951</v>
+        <v>0.1209306917297092</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1052051469628616</v>
+        <v>0.1039286785001941</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03293337063630795</v>
+        <v>0.03225014472500211</v>
       </c>
       <c r="G194" t="n">
+        <v>0.07428142432801274</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0.02941838168860479</v>
+      </c>
+      <c r="K194" t="n">
         <v>0.1060270621735089</v>
       </c>
-      <c r="J194" t="n">
-        <v>0.08056805421687058</v>
-      </c>
-      <c r="K194" t="n">
-        <v>0.1049102432111726</v>
-      </c>
       <c r="L194" t="n">
-        <v>0.112674556662883</v>
+        <v>0.0738168880907101</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1038008513853658</v>
+        <v>0.1038840930693082</v>
       </c>
       <c r="N194" t="n">
-        <v>0.03293337063630795</v>
+        <v>0.1201808189999212</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1060270621735089</v>
+        <v>0.1047406213009769</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03267662469908174</v>
+        <v>0.03176457077536607</v>
       </c>
       <c r="G195" t="n">
+        <v>0.07428115579954873</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0.02967350171501788</v>
+      </c>
+      <c r="K195" t="n">
         <v>0.1068489773841563</v>
       </c>
-      <c r="J195" t="n">
-        <v>0.07953619602449896</v>
-      </c>
-      <c r="K195" t="n">
-        <v>0.105723500910484</v>
-      </c>
       <c r="L195" t="n">
-        <v>0.1119439330308054</v>
+        <v>0.07287095357191001</v>
       </c>
       <c r="M195" t="n">
-        <v>0.104605509148043</v>
+        <v>0.1046893961163571</v>
       </c>
       <c r="N195" t="n">
-        <v>0.03267662469908174</v>
+        <v>0.1192334325459541</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1068489773841563</v>
+        <v>0.1055525641017597</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03261694190889135</v>
+        <v>0.03128703668896488</v>
       </c>
       <c r="G196" t="n">
+        <v>0.0742808872710847</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0.02953150730410817</v>
+      </c>
+      <c r="K196" t="n">
         <v>0.1076708925948036</v>
       </c>
-      <c r="J196" t="n">
-        <v>0.07940305582856683</v>
-      </c>
-      <c r="K196" t="n">
-        <v>0.1065367586097954</v>
-      </c>
       <c r="L196" t="n">
-        <v>0.1100155148045933</v>
+        <v>0.07222031231958584</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1054101669107203</v>
+        <v>0.105494699163406</v>
       </c>
       <c r="N196" t="n">
-        <v>0.03261694190889135</v>
+        <v>0.1178956741107214</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1076708925948036</v>
+        <v>0.1063645069025424</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03225451074504729</v>
+        <v>0.03081797274443508</v>
       </c>
       <c r="G197" t="n">
+        <v>0.07428061874262069</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0.02929225859785139</v>
+      </c>
+      <c r="K197" t="n">
         <v>0.108492807805451</v>
       </c>
-      <c r="J197" t="n">
-        <v>0.07896889225365947</v>
-      </c>
-      <c r="K197" t="n">
-        <v>0.1073500163091068</v>
-      </c>
       <c r="L197" t="n">
-        <v>0.108853159809863</v>
+        <v>0.07216581964687951</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1062148246733975</v>
+        <v>0.1063000022104549</v>
       </c>
       <c r="N197" t="n">
-        <v>0.03225451074504729</v>
+        <v>0.116874685437137</v>
       </c>
       <c r="O197" t="n">
-        <v>0.108492807805451</v>
+        <v>0.1071764497033252</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03198951968686009</v>
+        <v>0.03035780922035065</v>
       </c>
       <c r="G198" t="n">
+        <v>0.07428035021415667</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0.0292556157382233</v>
+      </c>
+      <c r="K198" t="n">
         <v>0.1093147230160983</v>
       </c>
-      <c r="J198" t="n">
-        <v>0.0787339639243621</v>
-      </c>
-      <c r="K198" t="n">
-        <v>0.1081632740084182</v>
-      </c>
       <c r="L198" t="n">
-        <v>0.1079175404291069</v>
+        <v>0.07100833086693298</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1070194824360748</v>
+        <v>0.1071053052575038</v>
       </c>
       <c r="N198" t="n">
-        <v>0.03198951968686009</v>
+        <v>0.1145776082681143</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1093147230160983</v>
+        <v>0.1079883925041079</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.03212215721364024</v>
+        <v>0.02990697639530657</v>
       </c>
       <c r="G199" t="n">
+        <v>0.07428008168569267</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0.02872143886719959</v>
+      </c>
+      <c r="K199" t="n">
         <v>0.1101366382267457</v>
       </c>
-      <c r="J199" t="n">
-        <v>0.07819852946526004</v>
-      </c>
-      <c r="K199" t="n">
-        <v>0.1089765317077297</v>
-      </c>
       <c r="L199" t="n">
-        <v>0.1062188864462226</v>
+        <v>0.07054870129288815</v>
       </c>
       <c r="M199" t="n">
-        <v>0.107824140198752</v>
+        <v>0.1079106083045527</v>
       </c>
       <c r="N199" t="n">
-        <v>0.03212215721364024</v>
+        <v>0.1124115843465671</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1101366382267457</v>
+        <v>0.1088003353048907</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.03185261180469827</v>
+        <v>0.02946590454787877</v>
       </c>
       <c r="G200" t="n">
+        <v>0.07427981315722863</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0.02878958812675604</v>
+      </c>
+      <c r="K200" t="n">
         <v>0.1109585534373931</v>
       </c>
-      <c r="J200" t="n">
-        <v>0.07736284750093861</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0.1097897894070411</v>
-      </c>
       <c r="L200" t="n">
-        <v>0.1050675748987552</v>
+        <v>0.06978778623788706</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1086287979614293</v>
+        <v>0.1087159113516016</v>
       </c>
       <c r="N200" t="n">
-        <v>0.03185261180469827</v>
+        <v>0.1120837554154087</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1109585534373931</v>
+        <v>0.1096122781056735</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.03168107193934465</v>
+        <v>0.02903502395670063</v>
       </c>
       <c r="G201" t="n">
+        <v>0.07427954462876463</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0.02875992365886837</v>
+      </c>
+      <c r="K201" t="n">
         <v>0.1117804686480404</v>
       </c>
-      <c r="J201" t="n">
-        <v>0.07722717665598311</v>
-      </c>
-      <c r="K201" t="n">
-        <v>0.1106030471063525</v>
-      </c>
       <c r="L201" t="n">
-        <v>0.1039739828242497</v>
+        <v>0.06922644101507158</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1094334557241065</v>
+        <v>0.1095212143986505</v>
       </c>
       <c r="N201" t="n">
-        <v>0.03168107193934465</v>
+        <v>0.110501263217553</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1117804686480404</v>
+        <v>0.1104242209064562</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.03160772609688994</v>
+        <v>0.0286147649003477</v>
       </c>
       <c r="G202" t="n">
+        <v>0.07427927610030061</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0.0285323056055123</v>
+      </c>
+      <c r="K202" t="n">
         <v>0.1126023838586878</v>
       </c>
-      <c r="J202" t="n">
-        <v>0.07699177555497869</v>
-      </c>
-      <c r="K202" t="n">
-        <v>0.1114163048056639</v>
-      </c>
       <c r="L202" t="n">
-        <v>0.1024484872602512</v>
+        <v>0.06946552093758362</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1102381134867838</v>
+        <v>0.1103265174456994</v>
       </c>
       <c r="N202" t="n">
-        <v>0.03160772609688994</v>
+        <v>0.1078712494959138</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1126023838586878</v>
+        <v>0.111236163707239</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.03143276275664462</v>
+        <v>0.02820555765741493</v>
       </c>
       <c r="G203" t="n">
+        <v>0.07427900757183659</v>
+      </c>
+      <c r="J203" t="n">
+        <v>0.0285065941086636</v>
+      </c>
+      <c r="K203" t="n">
         <v>0.1134242990693351</v>
       </c>
-      <c r="J203" t="n">
-        <v>0.07635690282251079</v>
-      </c>
-      <c r="K203" t="n">
-        <v>0.1122295625049753</v>
-      </c>
       <c r="L203" t="n">
-        <v>0.1015014652443046</v>
+        <v>0.06910588131856524</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1110427712494611</v>
+        <v>0.1111318204927483</v>
       </c>
       <c r="N203" t="n">
-        <v>0.03143276275664462</v>
+        <v>0.1073008559934043</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1134242990693351</v>
+        <v>0.1120481065080218</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.03095637039791921</v>
+        <v>0.0278078325064802</v>
       </c>
       <c r="G204" t="n">
+        <v>0.07427873904337257</v>
+      </c>
+      <c r="J204" t="n">
+        <v>0.02818264931029797</v>
+      </c>
+      <c r="K204" t="n">
         <v>0.1142462142799825</v>
       </c>
-      <c r="J204" t="n">
-        <v>0.07612281708316451</v>
-      </c>
-      <c r="K204" t="n">
-        <v>0.1130428202042868</v>
-      </c>
       <c r="L204" t="n">
-        <v>0.1002432938139552</v>
+        <v>0.06784837747115829</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1118474290121383</v>
+        <v>0.1119371235397972</v>
       </c>
       <c r="N204" t="n">
-        <v>0.03095637039791921</v>
+        <v>0.1050972244529384</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1142462142799825</v>
+        <v>0.1128600493088045</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.03097873750002419</v>
+        <v>0.02742201972617311</v>
       </c>
       <c r="G205" t="n">
+        <v>0.07427847051490855</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0.02796033135239115</v>
+      </c>
+      <c r="K205" t="n">
         <v>0.1150681294906298</v>
       </c>
-      <c r="J205" t="n">
-        <v>0.0758897769615253</v>
-      </c>
-      <c r="K205" t="n">
-        <v>0.1138560779035982</v>
-      </c>
       <c r="L205" t="n">
-        <v>0.09828435000674779</v>
+        <v>0.06699386470850471</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1126520867748156</v>
+        <v>0.1127424265868461</v>
       </c>
       <c r="N205" t="n">
-        <v>0.03097873750002419</v>
+        <v>0.1032674966174296</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1150681294906298</v>
+        <v>0.1136719921095873</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.03060005254227012</v>
+        <v>0.02704854959507103</v>
       </c>
       <c r="G206" t="n">
+        <v>0.07427820198644454</v>
+      </c>
+      <c r="J206" t="n">
+        <v>0.02813950037691888</v>
+      </c>
+      <c r="K206" t="n">
         <v>0.1158900447012772</v>
       </c>
-      <c r="J206" t="n">
-        <v>0.07565804108217838</v>
-      </c>
-      <c r="K206" t="n">
-        <v>0.1146693356029096</v>
-      </c>
       <c r="L206" t="n">
-        <v>0.09663501086022758</v>
+        <v>0.06674319834374651</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1134567445374928</v>
+        <v>0.113547729633895</v>
       </c>
       <c r="N206" t="n">
-        <v>0.03060005254227012</v>
+        <v>0.1010188142297916</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1158900447012772</v>
+        <v>0.1144839349103701</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.03062050400396746</v>
+        <v>0.02668785239176893</v>
       </c>
       <c r="G207" t="n">
+        <v>0.07427793345798052</v>
+      </c>
+      <c r="J207" t="n">
+        <v>0.02802001652585689</v>
+      </c>
+      <c r="K207" t="n">
         <v>0.1167119599119246</v>
       </c>
-      <c r="J207" t="n">
-        <v>0.07482786806970901</v>
-      </c>
-      <c r="K207" t="n">
-        <v>0.115482593302221</v>
-      </c>
       <c r="L207" t="n">
-        <v>0.09600565341193945</v>
+        <v>0.06659723369002554</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1142614023001701</v>
+        <v>0.1143530326809439</v>
       </c>
       <c r="N207" t="n">
-        <v>0.03062050400396746</v>
+        <v>0.099958319032938</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1167119599119246</v>
+        <v>0.1152958777111528</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.03034028036442676</v>
+        <v>0.02634035839484693</v>
       </c>
       <c r="G208" t="n">
+        <v>0.0742776649295165</v>
+      </c>
+      <c r="J208" t="n">
+        <v>0.02770173994118094</v>
+      </c>
+      <c r="K208" t="n">
         <v>0.1175338751225719</v>
       </c>
-      <c r="J208" t="n">
-        <v>0.07449951654870243</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0.1162958510015324</v>
-      </c>
       <c r="L208" t="n">
-        <v>0.09460665469942864</v>
+        <v>0.06535682606048385</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1150660600628473</v>
+        <v>0.1151583357279928</v>
       </c>
       <c r="N208" t="n">
-        <v>0.03034028036442676</v>
+        <v>0.09819315276978252</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1175338751225719</v>
+        <v>0.1161078205119356</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.03025957010295847</v>
+        <v>0.02600649788293023</v>
       </c>
       <c r="G209" t="n">
+        <v>0.07427739640105248</v>
+      </c>
+      <c r="J209" t="n">
+        <v>0.02788453076486674</v>
+      </c>
+      <c r="K209" t="n">
         <v>0.1183557903332193</v>
       </c>
-      <c r="J209" t="n">
-        <v>0.07407324514374405</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0.1171091087008438</v>
-      </c>
       <c r="L209" t="n">
-        <v>0.09314839176024003</v>
+        <v>0.06532283076826331</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1158707178255246</v>
+        <v>0.1159636387750417</v>
       </c>
       <c r="N209" t="n">
-        <v>0.03025957010295847</v>
+        <v>0.09563045718323854</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1183557903332193</v>
+        <v>0.1169197633127184</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.03007856169887317</v>
+        <v>0.02568670113459838</v>
       </c>
       <c r="G210" t="n">
+        <v>0.07427712787258847</v>
+      </c>
+      <c r="J210" t="n">
+        <v>0.02766824913889002</v>
+      </c>
+      <c r="K210" t="n">
         <v>0.1191777055438666</v>
       </c>
-      <c r="J210" t="n">
-        <v>0.07364931247941903</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0.1179223664001552</v>
-      </c>
       <c r="L210" t="n">
-        <v>0.09124124163191882</v>
+        <v>0.06469610312650587</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1166753755882018</v>
+        <v>0.1167689418220906</v>
       </c>
       <c r="N210" t="n">
-        <v>0.03007856169887317</v>
+        <v>0.09397737401621992</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1191777055438666</v>
+        <v>0.1177317061135011</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.03009744363148134</v>
+        <v>0.02538139842844631</v>
       </c>
       <c r="G211" t="n">
+        <v>0.07427685934412445</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0.02755275520522651</v>
+      </c>
+      <c r="K211" t="n">
         <v>0.119999620754514</v>
       </c>
-      <c r="J211" t="n">
-        <v>0.07272797718031271</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0.1187356240994666</v>
-      </c>
       <c r="L211" t="n">
-        <v>0.09089558135200987</v>
+        <v>0.06417749844835349</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1174800333508791</v>
+        <v>0.1175742448691395</v>
       </c>
       <c r="N211" t="n">
-        <v>0.03009744363148134</v>
+        <v>0.09264104501164022</v>
       </c>
       <c r="O211" t="n">
-        <v>0.119999620754514</v>
+        <v>0.1185436489142839</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02981640438009348</v>
+        <v>0.02509102004305669</v>
       </c>
       <c r="G212" t="n">
+        <v>0.07427659081566043</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0.027137909105852</v>
+      </c>
+      <c r="K212" t="n">
         <v>0.1208215359651613</v>
       </c>
-      <c r="J212" t="n">
-        <v>0.0725094978710103</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0.1195488817987781</v>
-      </c>
       <c r="L212" t="n">
-        <v>0.08982178795805834</v>
+        <v>0.0638678720469481</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1182846911135564</v>
+        <v>0.1183795479161884</v>
       </c>
       <c r="N212" t="n">
-        <v>0.02981640438009348</v>
+        <v>0.09112861191241295</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1208215359651613</v>
+        <v>0.1193555917150667</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02963563242402009</v>
+        <v>0.02481599625704975</v>
       </c>
       <c r="G213" t="n">
+        <v>0.07427632228719641</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0.02702357098274216</v>
+      </c>
+      <c r="K213" t="n">
         <v>0.1216434511758087</v>
       </c>
-      <c r="J213" t="n">
-        <v>0.07229413317609715</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0.1203621394980895</v>
-      </c>
       <c r="L213" t="n">
-        <v>0.08833023848760924</v>
+        <v>0.06356807923543167</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1190893488762336</v>
+        <v>0.1191848509632373</v>
       </c>
       <c r="N213" t="n">
-        <v>0.02963563242402009</v>
+        <v>0.08944721646145193</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1216434511758087</v>
+        <v>0.1201675345158494</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02915531624257171</v>
+        <v>0.02455675734900747</v>
       </c>
       <c r="G214" t="n">
+        <v>0.0742760537587324</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0.02700960097787275</v>
+      </c>
+      <c r="K214" t="n">
         <v>0.1224653663864561</v>
       </c>
-      <c r="J214" t="n">
-        <v>0.07218214172015858</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0.1211753971974009</v>
-      </c>
       <c r="L214" t="n">
-        <v>0.08713130997820773</v>
+        <v>0.0627789753269461</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1198940066389109</v>
+        <v>0.1199901540102862</v>
       </c>
       <c r="N214" t="n">
-        <v>0.02915531624257171</v>
+        <v>0.08700400040167067</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1224653663864561</v>
+        <v>0.1209794773166322</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02937564431505882</v>
+        <v>0.02455675734900747</v>
       </c>
       <c r="G215" t="n">
+        <v>0.0742760537587324</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0.02699585923321948</v>
+      </c>
+      <c r="K215" t="n">
         <v>0.1232872815971034</v>
       </c>
-      <c r="J215" t="n">
-        <v>0.07117378212777972</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0.1219886548967123</v>
-      </c>
       <c r="L215" t="n">
-        <v>0.0859353794673986</v>
+        <v>0.06190141563463339</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1206986644015881</v>
+        <v>0.1207954570573351</v>
       </c>
       <c r="N215" t="n">
-        <v>0.02937564431505882</v>
+        <v>0.08640610547598293</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1232872815971034</v>
+        <v>0.121791420117415</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02899680512079196</v>
+        <v>0.02394586459105918</v>
       </c>
       <c r="G216" t="n">
+        <v>0.07414855240708886</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0.02688220589075814</v>
+      </c>
+      <c r="K216" t="n">
         <v>0.1241091968077508</v>
       </c>
-      <c r="J216" t="n">
-        <v>0.07116931302354601</v>
-      </c>
-      <c r="K216" t="n">
-        <v>0.1228019125960237</v>
-      </c>
       <c r="L216" t="n">
-        <v>0.08535149225840932</v>
+        <v>0.06143625547163542</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1215033221642654</v>
+        <v>0.121600760104384</v>
       </c>
       <c r="N216" t="n">
-        <v>0.02899680512079196</v>
+        <v>0.08466067342730199</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1241091968077508</v>
+        <v>0.1226033629181977</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02871898713908161</v>
+        <v>0.02334167377442564</v>
       </c>
       <c r="G217" t="n">
+        <v>0.07402105105544531</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0.02666850109246442</v>
+      </c>
+      <c r="K217" t="n">
         <v>0.1249311120183981</v>
       </c>
-      <c r="J217" t="n">
-        <v>0.07006899303204261</v>
-      </c>
-      <c r="K217" t="n">
-        <v>0.1236151702953352</v>
-      </c>
       <c r="L217" t="n">
-        <v>0.08511230899202954</v>
+        <v>0.0608843501510942</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1223079799269426</v>
+        <v>0.1224060631514329</v>
       </c>
       <c r="N217" t="n">
-        <v>0.02871898713908161</v>
+        <v>0.08307484599854192</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1249311120183981</v>
+        <v>0.1234153057189805</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02864237884923829</v>
+        <v>0.022744474403623</v>
       </c>
       <c r="G218" t="n">
+        <v>0.07389354970380176</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0.02665460498031405</v>
+      </c>
+      <c r="K218" t="n">
         <v>0.1257530272290455</v>
       </c>
-      <c r="J218" t="n">
-        <v>0.0703730807778549</v>
-      </c>
-      <c r="K218" t="n">
-        <v>0.1244284279946466</v>
-      </c>
       <c r="L218" t="n">
-        <v>0.08467586132319749</v>
+        <v>0.06124655498615161</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1231126376896199</v>
+        <v>0.1232113661984818</v>
       </c>
       <c r="N218" t="n">
-        <v>0.02864237884923829</v>
+        <v>0.08135576493261609</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1257530272290455</v>
+        <v>0.1242272485197633</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02846716873057251</v>
+        <v>0.02215455598316752</v>
       </c>
       <c r="G219" t="n">
+        <v>0.07376604835215822</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0.0266403776962828</v>
+      </c>
+      <c r="K219" t="n">
         <v>0.1265749424396928</v>
       </c>
-      <c r="J219" t="n">
-        <v>0.06938183488556807</v>
-      </c>
-      <c r="K219" t="n">
-        <v>0.125241685693958</v>
-      </c>
       <c r="L219" t="n">
-        <v>0.08384270093532642</v>
+        <v>0.06102372528994959</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1239172954522971</v>
+        <v>0.1240166692455307</v>
       </c>
       <c r="N219" t="n">
-        <v>0.02846716873057251</v>
+        <v>0.08021057197243808</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1265749424396928</v>
+        <v>0.125039191320546</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02809354526239478</v>
+        <v>0.02157220801757539</v>
       </c>
       <c r="G220" t="n">
+        <v>0.07363854700051467</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0.0263256793823464</v>
+      </c>
+      <c r="K220" t="n">
         <v>0.1273968576503402</v>
       </c>
-      <c r="J220" t="n">
-        <v>0.06929551397976749</v>
-      </c>
-      <c r="K220" t="n">
-        <v>0.1260549433932694</v>
-      </c>
       <c r="L220" t="n">
-        <v>0.08291337951182975</v>
+        <v>0.06031671637563016</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1247219532149744</v>
+        <v>0.1248219722925796</v>
       </c>
       <c r="N220" t="n">
-        <v>0.02809354526239478</v>
+        <v>0.07994640886092164</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1273968576503402</v>
+        <v>0.1258511341213288</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02802169692401561</v>
+        <v>0.0209977200113628</v>
       </c>
       <c r="G221" t="n">
+        <v>0.07351104564887112</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0.02631037018048053</v>
+      </c>
+      <c r="K221" t="n">
         <v>0.1282187728609875</v>
       </c>
-      <c r="J221" t="n">
-        <v>0.06871419376838991</v>
-      </c>
-      <c r="K221" t="n">
-        <v>0.1268682010925808</v>
-      </c>
       <c r="L221" t="n">
-        <v>0.08168844873612097</v>
+        <v>0.05992638355633523</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1255266109776516</v>
+        <v>0.1256272753396285</v>
       </c>
       <c r="N221" t="n">
-        <v>0.02802169692401561</v>
+        <v>0.07807041734098041</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1282187728609875</v>
+        <v>0.1266630769221116</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02805181219474549</v>
+        <v>0.02043138146904599</v>
       </c>
       <c r="G222" t="n">
+        <v>0.07338354429722758</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0.026094310232661</v>
+      </c>
+      <c r="K222" t="n">
         <v>0.1290406880716349</v>
       </c>
-      <c r="J222" t="n">
-        <v>0.06903519221344406</v>
-      </c>
-      <c r="K222" t="n">
-        <v>0.1276814587918922</v>
-      </c>
       <c r="L222" t="n">
-        <v>0.08176846029161339</v>
+        <v>0.05915358214520666</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1263312687403289</v>
+        <v>0.1264325783866774</v>
       </c>
       <c r="N222" t="n">
-        <v>0.02805181219474549</v>
+        <v>0.07638973915552794</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1290406880716349</v>
+        <v>0.1274750197228944</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02798407955389497</v>
+        <v>0.01987348189514116</v>
       </c>
       <c r="G223" t="n">
+        <v>0.07325604294558404</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0.02617735968086349</v>
+      </c>
+      <c r="K223" t="n">
         <v>0.1298626032822822</v>
       </c>
-      <c r="J223" t="n">
-        <v>0.06805756749399675</v>
-      </c>
-      <c r="K223" t="n">
-        <v>0.1284947164912036</v>
-      </c>
       <c r="L223" t="n">
-        <v>0.07955396586172048</v>
+        <v>0.05939916745538651</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1271359265030061</v>
+        <v>0.1272378814337263</v>
       </c>
       <c r="N223" t="n">
-        <v>0.02798407955389497</v>
+        <v>0.0751115160474779</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1298626032822822</v>
+        <v>0.1282869625236771</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02751868748077452</v>
+        <v>0.01932431079416451</v>
       </c>
       <c r="G224" t="n">
+        <v>0.07312854159394049</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0.02575937866706376</v>
+      </c>
+      <c r="K224" t="n">
         <v>0.1306845184929296</v>
       </c>
-      <c r="J224" t="n">
-        <v>0.06768134979255563</v>
-      </c>
-      <c r="K224" t="n">
-        <v>0.129307974190515</v>
-      </c>
       <c r="L224" t="n">
-        <v>0.0798455171298556</v>
+        <v>0.05846399480001666</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1279405842656834</v>
+        <v>0.1280431844807752</v>
       </c>
       <c r="N224" t="n">
-        <v>0.02751868748077452</v>
+        <v>0.07564288975974393</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1306845184929296</v>
+        <v>0.1290989053244599</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02725581996197005</v>
+        <v>0.01878415767063224</v>
       </c>
       <c r="G225" t="n">
+        <v>0.07300104024229695</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0.02574022733323754</v>
+      </c>
+      <c r="K225" t="n">
         <v>0.131506433703577</v>
       </c>
-      <c r="J225" t="n">
-        <v>0.06720656929162849</v>
-      </c>
-      <c r="K225" t="n">
-        <v>0.1301212318898265</v>
-      </c>
       <c r="L225" t="n">
-        <v>0.07904366577943206</v>
+        <v>0.05804891949223906</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1287452420283607</v>
+        <v>0.1288484875278241</v>
       </c>
       <c r="N225" t="n">
-        <v>0.02725581996197005</v>
+        <v>0.07469100203523954</v>
       </c>
       <c r="O225" t="n">
-        <v>0.131506433703577</v>
+        <v>0.1299108481252426</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02739430393323852</v>
+        <v>0.01825331202906059</v>
       </c>
       <c r="G226" t="n">
+        <v>0.0728735388906534</v>
+      </c>
+      <c r="J226" t="n">
+        <v>0.02571976582136055</v>
+      </c>
+      <c r="K226" t="n">
         <v>0.1323283489142243</v>
       </c>
-      <c r="J226" t="n">
-        <v>0.06723325617372297</v>
-      </c>
-      <c r="K226" t="n">
-        <v>0.1309344895891379</v>
-      </c>
       <c r="L226" t="n">
-        <v>0.07894896349386349</v>
+        <v>0.05785479684519562</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1295498997910379</v>
+        <v>0.129653790574873</v>
       </c>
       <c r="N226" t="n">
-        <v>0.02739430393323852</v>
+        <v>0.07376299461687846</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1323283489142243</v>
+        <v>0.1307227909260254</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02703312106330369</v>
+        <v>0.01773206337396575</v>
       </c>
       <c r="G227" t="n">
+        <v>0.07274603753900985</v>
+      </c>
+      <c r="J227" t="n">
+        <v>0.02579785427340855</v>
+      </c>
+      <c r="K227" t="n">
         <v>0.1331502641248717</v>
       </c>
-      <c r="J227" t="n">
-        <v>0.06726144062134687</v>
-      </c>
-      <c r="K227" t="n">
-        <v>0.1317477472884493</v>
-      </c>
       <c r="L227" t="n">
-        <v>0.07766196195656311</v>
+        <v>0.05728248217202841</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1303545575537152</v>
+        <v>0.1304590936219219</v>
       </c>
       <c r="N227" t="n">
-        <v>0.02703312106330369</v>
+        <v>0.07356600924757434</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1331502641248717</v>
+        <v>0.1315347337268082</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.02717227321420644</v>
+        <v>0.01722070120986392</v>
       </c>
       <c r="G228" t="n">
+        <v>0.07261853618736631</v>
+      </c>
+      <c r="J228" t="n">
+        <v>0.02547435283135727</v>
+      </c>
+      <c r="K228" t="n">
         <v>0.133972179335519</v>
       </c>
-      <c r="J228" t="n">
-        <v>0.06639115281700783</v>
-      </c>
-      <c r="K228" t="n">
-        <v>0.1325610049877607</v>
-      </c>
       <c r="L228" t="n">
-        <v>0.07688321285094446</v>
+        <v>0.05703283078587923</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1311592153163924</v>
+        <v>0.1312643966689708</v>
       </c>
       <c r="N228" t="n">
-        <v>0.02717227321420644</v>
+        <v>0.07350718767024078</v>
       </c>
       <c r="O228" t="n">
-        <v>0.133972179335519</v>
+        <v>0.1323466765275909</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02671176224798774</v>
+        <v>0.01671951504127133</v>
       </c>
       <c r="G229" t="n">
+        <v>0.07249103483572276</v>
+      </c>
+      <c r="J229" t="n">
+        <v>0.02514912163718244</v>
+      </c>
+      <c r="K229" t="n">
         <v>0.1347940945461664</v>
       </c>
-      <c r="J229" t="n">
-        <v>0.06582242294321367</v>
-      </c>
-      <c r="K229" t="n">
-        <v>0.1333742626870721</v>
-      </c>
       <c r="L229" t="n">
-        <v>0.07621326786042076</v>
+        <v>0.05780669799989008</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1319638730790697</v>
+        <v>0.1320696997160197</v>
       </c>
       <c r="N229" t="n">
-        <v>0.02671176224798774</v>
+        <v>0.07209367162779129</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1347940945461664</v>
+        <v>0.1331586193283737</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02645159002668851</v>
+        <v>0.01622879437270418</v>
       </c>
       <c r="G230" t="n">
+        <v>0.07236353348407921</v>
+      </c>
+      <c r="J230" t="n">
+        <v>0.02502203060593514</v>
+      </c>
+      <c r="K230" t="n">
         <v>0.1356160097568137</v>
       </c>
-      <c r="J230" t="n">
-        <v>0.06575528118247198</v>
-      </c>
-      <c r="K230" t="n">
-        <v>0.1341875203863835</v>
-      </c>
       <c r="L230" t="n">
-        <v>0.07615267866840553</v>
+        <v>0.05660482977426676</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1327685308417469</v>
+        <v>0.1328750027630686</v>
       </c>
       <c r="N230" t="n">
-        <v>0.02645159002668851</v>
+        <v>0.07323163823974921</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1356160097568137</v>
+        <v>0.1339705621291565</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02629175841234969</v>
+        <v>0.01574882870867867</v>
       </c>
       <c r="G231" t="n">
+        <v>0.07223603213243568</v>
+      </c>
+      <c r="J231" t="n">
+        <v>0.02519399050366714</v>
+      </c>
+      <c r="K231" t="n">
         <v>0.1364379249674611</v>
       </c>
-      <c r="J231" t="n">
-        <v>0.06528975771729062</v>
-      </c>
-      <c r="K231" t="n">
-        <v>0.135000778085695</v>
-      </c>
       <c r="L231" t="n">
-        <v>0.0742019969583122</v>
+        <v>0.0569137755892245</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1335731886044242</v>
+        <v>0.1336803058101175</v>
       </c>
       <c r="N231" t="n">
-        <v>0.02629175841234969</v>
+        <v>0.07303199535769012</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1364379249674611</v>
+        <v>0.1347825049299392</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02643226926701223</v>
+        <v>0.01527990755371102</v>
       </c>
       <c r="G232" t="n">
+        <v>0.07210853078079213</v>
+      </c>
+      <c r="J232" t="n">
+        <v>0.02516566886152079</v>
+      </c>
+      <c r="K232" t="n">
         <v>0.1372598401781084</v>
       </c>
-      <c r="J232" t="n">
-        <v>0.06472588273017721</v>
-      </c>
-      <c r="K232" t="n">
-        <v>0.1358140357850064</v>
-      </c>
       <c r="L232" t="n">
-        <v>0.07436177441355413</v>
+        <v>0.05692397353986972</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1343778463671014</v>
+        <v>0.1344856088571664</v>
       </c>
       <c r="N232" t="n">
-        <v>0.02643226926701223</v>
+        <v>0.07303409277426171</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1372598401781084</v>
+        <v>0.135594447730722</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02637312445271704</v>
+        <v>0.01482232041231744</v>
       </c>
       <c r="G233" t="n">
+        <v>0.07198102942914858</v>
+      </c>
+      <c r="J233" t="n">
+        <v>0.02493706726769336</v>
+      </c>
+      <c r="K233" t="n">
         <v>0.1380817553887558</v>
       </c>
-      <c r="J233" t="n">
-        <v>0.0644636864036395</v>
-      </c>
-      <c r="K233" t="n">
-        <v>0.1366272934843178</v>
-      </c>
       <c r="L233" t="n">
-        <v>0.07273256271754469</v>
+        <v>0.05633569755328049</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1351825041297787</v>
+        <v>0.1352909119042153</v>
       </c>
       <c r="N233" t="n">
-        <v>0.02637312445271704</v>
+        <v>0.07323949811378183</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1380817553887558</v>
+        <v>0.1364063905315048</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02621432583150508</v>
+        <v>0.01437635678901414</v>
       </c>
       <c r="G234" t="n">
+        <v>0.07185352807750504</v>
+      </c>
+      <c r="J234" t="n">
+        <v>0.02480818731038213</v>
+      </c>
+      <c r="K234" t="n">
         <v>0.1389036705994032</v>
       </c>
-      <c r="J234" t="n">
-        <v>0.0647031989201852</v>
-      </c>
-      <c r="K234" t="n">
-        <v>0.1374405511836292</v>
-      </c>
       <c r="L234" t="n">
-        <v>0.07351491355369738</v>
+        <v>0.05644922155653495</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1359871618924559</v>
+        <v>0.1360962149512642</v>
       </c>
       <c r="N234" t="n">
-        <v>0.02621432583150508</v>
+        <v>0.07214977900056835</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1389036705994032</v>
+        <v>0.1372183333322875</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02585587526541727</v>
+        <v>0.01394230618831731</v>
       </c>
       <c r="G235" t="n">
+        <v>0.07172602672586149</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.02457903057778436</v>
+      </c>
+      <c r="K235" t="n">
         <v>0.1397255858100505</v>
       </c>
-      <c r="J235" t="n">
-        <v>0.06384445046232204</v>
-      </c>
-      <c r="K235" t="n">
-        <v>0.1382538088829406</v>
-      </c>
       <c r="L235" t="n">
-        <v>0.07270937860542548</v>
+        <v>0.05616481947671115</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1367918196551332</v>
+        <v>0.1369015179983132</v>
       </c>
       <c r="N235" t="n">
-        <v>0.02585587526541727</v>
+        <v>0.07216650305893912</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1397255858100505</v>
+        <v>0.1380302761330703</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02549777461649459</v>
+        <v>0.01352045811474318</v>
       </c>
       <c r="G236" t="n">
+        <v>0.07159852537421794</v>
+      </c>
+      <c r="J236" t="n">
+        <v>0.02454959865809735</v>
+      </c>
+      <c r="K236" t="n">
         <v>0.1405475010206979</v>
       </c>
-      <c r="J236" t="n">
-        <v>0.06298747121255774</v>
-      </c>
-      <c r="K236" t="n">
-        <v>0.139067066582252</v>
-      </c>
       <c r="L236" t="n">
-        <v>0.07151650955614247</v>
+        <v>0.05548276524088722</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1375964774178104</v>
+        <v>0.137706821045362</v>
       </c>
       <c r="N236" t="n">
-        <v>0.02549777461649459</v>
+        <v>0.0719912379132121</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1405475010206979</v>
+        <v>0.1388422189338531</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02534002574677792</v>
+        <v>0.01311110207280795</v>
       </c>
       <c r="G237" t="n">
+        <v>0.07147102402257439</v>
+      </c>
+      <c r="J237" t="n">
+        <v>0.02421989313951836</v>
+      </c>
+      <c r="K237" t="n">
         <v>0.1413694162313452</v>
       </c>
-      <c r="J237" t="n">
-        <v>0.06263229135340004</v>
-      </c>
-      <c r="K237" t="n">
-        <v>0.1398803242815634</v>
-      </c>
       <c r="L237" t="n">
-        <v>0.07143685808926176</v>
+        <v>0.05540333277614126</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1384011351804877</v>
+        <v>0.1385121240924109</v>
       </c>
       <c r="N237" t="n">
-        <v>0.02534002574677792</v>
+        <v>0.07292555118770522</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1413694162313452</v>
+        <v>0.1396541617346359</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02518263051830821</v>
+        <v>0.01271452756702783</v>
       </c>
       <c r="G238" t="n">
+        <v>0.07134352267093086</v>
+      </c>
+      <c r="J238" t="n">
+        <v>0.02398991561024466</v>
+      </c>
+      <c r="K238" t="n">
         <v>0.1421913314419926</v>
       </c>
-      <c r="J238" t="n">
-        <v>0.06327894106735657</v>
-      </c>
-      <c r="K238" t="n">
-        <v>0.1406935819808749</v>
-      </c>
       <c r="L238" t="n">
-        <v>0.07007097588819661</v>
+        <v>0.05512679600955137</v>
       </c>
       <c r="M238" t="n">
-        <v>0.139205792943165</v>
+        <v>0.1393174271394599</v>
       </c>
       <c r="N238" t="n">
-        <v>0.02518263051830821</v>
+        <v>0.07307101050673631</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1421913314419926</v>
+        <v>0.1404661045354186</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.02502559079312643</v>
+        <v>0.01233102410191904</v>
       </c>
       <c r="G239" t="n">
+        <v>0.07121602131928731</v>
+      </c>
+      <c r="J239" t="n">
+        <v>0.02395966765847354</v>
+      </c>
+      <c r="K239" t="n">
         <v>0.14301324665264</v>
       </c>
-      <c r="J239" t="n">
-        <v>0.06252745053693515</v>
-      </c>
-      <c r="K239" t="n">
-        <v>0.1415068396801863</v>
-      </c>
       <c r="L239" t="n">
-        <v>0.06971941463636067</v>
+        <v>0.05505342886819564</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1400104507058422</v>
+        <v>0.1401227301865087</v>
       </c>
       <c r="N239" t="n">
-        <v>0.02502559079312643</v>
+        <v>0.07232918349462336</v>
       </c>
       <c r="O239" t="n">
-        <v>0.14301324665264</v>
+        <v>0.1412780473362014</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02496890843327348</v>
+        <v>0.01195969903855659</v>
       </c>
       <c r="G240" t="n">
+        <v>0.07108851996764376</v>
+      </c>
+      <c r="J240" t="n">
+        <v>0.02412915087240225</v>
+      </c>
+      <c r="K240" t="n">
         <v>0.1438351618632873</v>
       </c>
-      <c r="J240" t="n">
-        <v>0.06187784994464349</v>
-      </c>
-      <c r="K240" t="n">
-        <v>0.1423200973794977</v>
-      </c>
       <c r="L240" t="n">
-        <v>0.06998272601716715</v>
+        <v>0.05528350527915213</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1408151084685195</v>
+        <v>0.1409280332335576</v>
       </c>
       <c r="N240" t="n">
-        <v>0.02496890843327348</v>
+        <v>0.07200163777568425</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1438351618632873</v>
+        <v>0.1420899901369841</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.02481258530079031</v>
+        <v>0.01159374902080956</v>
       </c>
       <c r="G241" t="n">
+        <v>0.07096101861600022</v>
+      </c>
+      <c r="J241" t="n">
+        <v>0.02389836684022809</v>
+      </c>
+      <c r="K241" t="n">
         <v>0.1446570770739347</v>
       </c>
-      <c r="J241" t="n">
-        <v>0.06173016947298923</v>
-      </c>
-      <c r="K241" t="n">
-        <v>0.1431333550788091</v>
-      </c>
       <c r="L241" t="n">
-        <v>0.0684614617140295</v>
+        <v>0.05461729916949901</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1416197662311967</v>
+        <v>0.1417333362806066</v>
       </c>
       <c r="N241" t="n">
-        <v>0.02481258530079031</v>
+        <v>0.07368994097423681</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1446570770739347</v>
+        <v>0.1429019329377669</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.02475662325771785</v>
+        <v>0.01123228140975299</v>
       </c>
       <c r="G242" t="n">
+        <v>0.07083351726435667</v>
+      </c>
+      <c r="J242" t="n">
+        <v>0.02386731715014832</v>
+      </c>
+      <c r="K242" t="n">
         <v>0.145478992284582</v>
       </c>
-      <c r="J242" t="n">
-        <v>0.06088443930448018</v>
-      </c>
-      <c r="K242" t="n">
-        <v>0.1439466127781205</v>
-      </c>
       <c r="L242" t="n">
-        <v>0.06815617341036123</v>
+        <v>0.05485508446631437</v>
       </c>
       <c r="M242" t="n">
-        <v>0.142424423993874</v>
+        <v>0.1425386393276554</v>
       </c>
       <c r="N242" t="n">
-        <v>0.02475662325771785</v>
+        <v>0.07299566071459895</v>
       </c>
       <c r="O242" t="n">
-        <v>0.145478992284582</v>
+        <v>0.1437138757385497</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02470102416609705</v>
+        <v>0.01087558570990308</v>
       </c>
       <c r="G243" t="n">
+        <v>0.07070601591271312</v>
+      </c>
+      <c r="J243" t="n">
+        <v>0.02333600339036024</v>
+      </c>
+      <c r="K243" t="n">
         <v>0.1463009074952294</v>
       </c>
-      <c r="J243" t="n">
-        <v>0.06124068962162396</v>
-      </c>
-      <c r="K243" t="n">
-        <v>0.1447598704774319</v>
-      </c>
       <c r="L243" t="n">
-        <v>0.06846741278957558</v>
+        <v>0.05529713509667628</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1432290817565512</v>
+        <v>0.1433439423747044</v>
       </c>
       <c r="N243" t="n">
-        <v>0.02470102416609705</v>
+        <v>0.07352036462108874</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1463009074952294</v>
+        <v>0.1445258185393324</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02454578988796885</v>
+        <v>0.01052395142577604</v>
       </c>
       <c r="G244" t="n">
+        <v>0.07057851456106959</v>
+      </c>
+      <c r="J244" t="n">
+        <v>0.02350442714906109</v>
+      </c>
+      <c r="K244" t="n">
         <v>0.1471228227058767</v>
       </c>
-      <c r="J244" t="n">
-        <v>0.0603989506069284</v>
-      </c>
-      <c r="K244" t="n">
-        <v>0.1455731281767434</v>
-      </c>
       <c r="L244" t="n">
-        <v>0.06769573153508601</v>
+        <v>0.05444372498766284</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1440337395192285</v>
+        <v>0.1441492454217533</v>
       </c>
       <c r="N244" t="n">
-        <v>0.02454578988796885</v>
+        <v>0.07316562031802387</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1471228227058767</v>
+        <v>0.1453377613401152</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.02439092228537415</v>
+        <v>0.01017766806188809</v>
       </c>
       <c r="G245" t="n">
+        <v>0.07045101320942604</v>
+      </c>
+      <c r="J245" t="n">
+        <v>0.02327259001444819</v>
+      </c>
+      <c r="K245" t="n">
         <v>0.1479447379165241</v>
       </c>
-      <c r="J245" t="n">
-        <v>0.05995925244290115</v>
-      </c>
-      <c r="K245" t="n">
-        <v>0.1463863858760548</v>
-      </c>
       <c r="L245" t="n">
-        <v>0.066241681330306</v>
+        <v>0.05489512806635219</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1448383972819057</v>
+        <v>0.1449545484688021</v>
       </c>
       <c r="N245" t="n">
-        <v>0.02439092228537415</v>
+        <v>0.07373299542972239</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1479447379165241</v>
+        <v>0.146149704140898</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.02403642322035394</v>
+        <v>0.009837025122755409</v>
       </c>
       <c r="G246" t="n">
+        <v>0.07032351185778249</v>
+      </c>
+      <c r="J246" t="n">
+        <v>0.02324049357471877</v>
+      </c>
+      <c r="K246" t="n">
         <v>0.1487666531271714</v>
       </c>
-      <c r="J246" t="n">
-        <v>0.06042162531204998</v>
-      </c>
-      <c r="K246" t="n">
-        <v>0.1471996435753662</v>
-      </c>
       <c r="L246" t="n">
-        <v>0.06610581385864878</v>
+        <v>0.05455161825982238</v>
       </c>
       <c r="M246" t="n">
-        <v>0.145643055044583</v>
+        <v>0.1457598515158511</v>
       </c>
       <c r="N246" t="n">
-        <v>0.02403642322035394</v>
+        <v>0.07382405758050209</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1487666531271714</v>
+        <v>0.1469616469416807</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.02388229455494914</v>
+        <v>0.009502312112894241</v>
       </c>
       <c r="G247" t="n">
+        <v>0.07019601050613895</v>
+      </c>
+      <c r="J247" t="n">
+        <v>0.02300813941807012</v>
+      </c>
+      <c r="K247" t="n">
         <v>0.1495885683378188</v>
       </c>
-      <c r="J247" t="n">
-        <v>0.05978609939688251</v>
-      </c>
-      <c r="K247" t="n">
-        <v>0.1480129012746776</v>
-      </c>
       <c r="L247" t="n">
-        <v>0.06548868080352788</v>
+        <v>0.0544134694951515</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1464477128072602</v>
+        <v>0.1465651545629</v>
       </c>
       <c r="N247" t="n">
-        <v>0.02388229455494914</v>
+        <v>0.07464037439468096</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1495885683378188</v>
+        <v>0.1477735897424635</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.02402853815120064</v>
+        <v>0.009173818536820769</v>
       </c>
       <c r="G248" t="n">
+        <v>0.0700685091544954</v>
+      </c>
+      <c r="J248" t="n">
+        <v>0.02307552913269954</v>
+      </c>
+      <c r="K248" t="n">
         <v>0.1504104835484662</v>
       </c>
-      <c r="J248" t="n">
-        <v>0.05895270487990656</v>
-      </c>
-      <c r="K248" t="n">
-        <v>0.148826158973989</v>
-      </c>
       <c r="L248" t="n">
-        <v>0.06579083384835671</v>
+        <v>0.05448095569941772</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1472523705699375</v>
+        <v>0.1473704576099488</v>
       </c>
       <c r="N248" t="n">
-        <v>0.02402853815120064</v>
+        <v>0.07448351349657684</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1504104835484662</v>
+        <v>0.1485855325432463</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.02347515587114943</v>
+        <v>0.008851833899051219</v>
       </c>
       <c r="G249" t="n">
+        <v>0.06994100780285185</v>
+      </c>
+      <c r="J249" t="n">
+        <v>0.02294266430680428</v>
+      </c>
+      <c r="K249" t="n">
         <v>0.1512323987591135</v>
       </c>
-      <c r="J249" t="n">
-        <v>0.05952147194362978</v>
-      </c>
-      <c r="K249" t="n">
-        <v>0.1496394166733004</v>
-      </c>
       <c r="L249" t="n">
-        <v>0.06561282467654872</v>
+        <v>0.05425435079969906</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1480570283326147</v>
+        <v>0.1481757606569978</v>
       </c>
       <c r="N249" t="n">
-        <v>0.02347515587114943</v>
+        <v>0.0736550425105077</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1512323987591135</v>
+        <v>0.149397475344029</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.02342214957683644</v>
+        <v>0.008536647704101799</v>
       </c>
       <c r="G250" t="n">
+        <v>0.06981350645120832</v>
+      </c>
+      <c r="J250" t="n">
+        <v>0.02280954652858162</v>
+      </c>
+      <c r="K250" t="n">
         <v>0.1520543139697609</v>
       </c>
-      <c r="J250" t="n">
-        <v>0.05859243077055998</v>
-      </c>
-      <c r="K250" t="n">
-        <v>0.1504526743726118</v>
-      </c>
       <c r="L250" t="n">
-        <v>0.06525520497151716</v>
+        <v>0.05353392872307369</v>
       </c>
       <c r="M250" t="n">
-        <v>0.148861686095292</v>
+        <v>0.1489810637040467</v>
       </c>
       <c r="N250" t="n">
-        <v>0.02342214957683644</v>
+        <v>0.07545652906079137</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1520543139697609</v>
+        <v>0.1502094181448118</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.02356952113030257</v>
+        <v>0.008228549456488703</v>
       </c>
       <c r="G251" t="n">
+        <v>0.06968600509956477</v>
+      </c>
+      <c r="J251" t="n">
+        <v>0.02247617738622883</v>
+      </c>
+      <c r="K251" t="n">
         <v>0.1528762291804082</v>
       </c>
-      <c r="J251" t="n">
-        <v>0.05846561154320473</v>
-      </c>
-      <c r="K251" t="n">
-        <v>0.1512659320719233</v>
-      </c>
       <c r="L251" t="n">
-        <v>0.06551852641667549</v>
+        <v>0.05421996339661966</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1496663438579693</v>
+        <v>0.1497863667510956</v>
       </c>
       <c r="N251" t="n">
-        <v>0.02356952113030257</v>
+        <v>0.07498954077174574</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1528762291804082</v>
+        <v>0.1510213609455946</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.02301727239358881</v>
+        <v>0.007927828660728158</v>
       </c>
       <c r="G252" t="n">
+        <v>0.06955850374792122</v>
+      </c>
+      <c r="J252" t="n">
+        <v>0.02224255846794321</v>
+      </c>
+      <c r="K252" t="n">
         <v>0.1536981443910556</v>
       </c>
-      <c r="J252" t="n">
-        <v>0.05814104444407192</v>
-      </c>
-      <c r="K252" t="n">
-        <v>0.1520791897712347</v>
-      </c>
       <c r="L252" t="n">
-        <v>0.06390334069543713</v>
+        <v>0.05321272874741506</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1504710016206465</v>
+        <v>0.1505916697981445</v>
       </c>
       <c r="N252" t="n">
-        <v>0.02301727239358881</v>
+        <v>0.07595564526768889</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1536981443910556</v>
+        <v>0.1518333037463774</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.02326540522873605</v>
+        <v>0.007634774821336364</v>
       </c>
       <c r="G253" t="n">
+        <v>0.06943100239627768</v>
+      </c>
+      <c r="J253" t="n">
+        <v>0.02230869136192198</v>
+      </c>
+      <c r="K253" t="n">
         <v>0.1545200596017029</v>
       </c>
-      <c r="J253" t="n">
-        <v>0.0574187596556692</v>
-      </c>
-      <c r="K253" t="n">
-        <v>0.1528924474705461</v>
-      </c>
       <c r="L253" t="n">
-        <v>0.06411019949121549</v>
+        <v>0.05401249870253808</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1512756593833238</v>
+        <v>0.1513969728451934</v>
       </c>
       <c r="N253" t="n">
-        <v>0.02326540522873605</v>
+        <v>0.07645641017293847</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1545200596017029</v>
+        <v>0.1526452465471601</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.02311392149778525</v>
+        <v>0.007349677442829522</v>
       </c>
       <c r="G254" t="n">
+        <v>0.06930350104463413</v>
+      </c>
+      <c r="J254" t="n">
+        <v>0.02217457765636248</v>
+      </c>
+      <c r="K254" t="n">
         <v>0.1553419748123503</v>
       </c>
-      <c r="J254" t="n">
-        <v>0.05729878736050426</v>
-      </c>
-      <c r="K254" t="n">
-        <v>0.1537057051698575</v>
-      </c>
       <c r="L254" t="n">
-        <v>0.06323965448742402</v>
+        <v>0.05371954718906671</v>
       </c>
       <c r="M254" t="n">
-        <v>0.152080317146001</v>
+        <v>0.1522022758922423</v>
       </c>
       <c r="N254" t="n">
-        <v>0.02311392149778525</v>
+        <v>0.07649340311181257</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1553419748123503</v>
+        <v>0.1534571893479429</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.02286282306277734</v>
+        <v>0.00707282602972386</v>
       </c>
       <c r="G255" t="n">
+        <v>0.06917599969299058</v>
+      </c>
+      <c r="J255" t="n">
+        <v>0.02174021893946194</v>
+      </c>
+      <c r="K255" t="n">
         <v>0.1561638900229976</v>
       </c>
-      <c r="J255" t="n">
-        <v>0.05748115774108481</v>
-      </c>
-      <c r="K255" t="n">
-        <v>0.1545189628691689</v>
-      </c>
       <c r="L255" t="n">
-        <v>0.06339225736747606</v>
+        <v>0.05333414813407908</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1528849749086783</v>
+        <v>0.1530075789392912</v>
       </c>
       <c r="N255" t="n">
-        <v>0.02286282306277734</v>
+        <v>0.07636819170862902</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1561638900229976</v>
+        <v>0.1542691321487256</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.02261211178575326</v>
+        <v>0.00680451008653557</v>
       </c>
       <c r="G256" t="n">
+        <v>0.06904849834134703</v>
+      </c>
+      <c r="J256" t="n">
+        <v>0.02180561679941767</v>
+      </c>
+      <c r="K256" t="n">
         <v>0.156985805233645</v>
       </c>
-      <c r="J256" t="n">
-        <v>0.05726590097991863</v>
-      </c>
-      <c r="K256" t="n">
-        <v>0.1553322205684803</v>
-      </c>
       <c r="L256" t="n">
-        <v>0.06336855981478495</v>
+        <v>0.05365657546465333</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1536896326713555</v>
+        <v>0.15381288198634</v>
       </c>
       <c r="N256" t="n">
-        <v>0.02261211178575326</v>
+        <v>0.07738234358770568</v>
       </c>
       <c r="O256" t="n">
-        <v>0.156985805233645</v>
+        <v>0.1550810749495084</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.02246178952875395</v>
+        <v>0.006545019117780868</v>
       </c>
       <c r="G257" t="n">
+        <v>0.0689209969897035</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0.02157077282442692</v>
+      </c>
+      <c r="K257" t="n">
         <v>0.1578077204442923</v>
       </c>
-      <c r="J257" t="n">
-        <v>0.05615304725951334</v>
-      </c>
-      <c r="K257" t="n">
-        <v>0.1561454782677918</v>
-      </c>
       <c r="L257" t="n">
-        <v>0.06326911351276426</v>
+        <v>0.05368710310786753</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1544942904340328</v>
+        <v>0.1546181850333889</v>
       </c>
       <c r="N257" t="n">
-        <v>0.02246178952875395</v>
+        <v>0.07793742637336054</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1578077204442923</v>
+        <v>0.1558930177502912</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.02251185815382035</v>
+        <v>0.006294642627975973</v>
       </c>
       <c r="G258" t="n">
+        <v>0.06879349563805995</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0.02143568860268698</v>
+      </c>
+      <c r="K258" t="n">
         <v>0.1586296356549397</v>
       </c>
-      <c r="J258" t="n">
-        <v>0.05664262676237677</v>
-      </c>
-      <c r="K258" t="n">
-        <v>0.1569587359671032</v>
-      </c>
       <c r="L258" t="n">
-        <v>0.06229447014482725</v>
+        <v>0.05292600499079977</v>
       </c>
       <c r="M258" t="n">
-        <v>0.15529894819671</v>
+        <v>0.1554234880804378</v>
       </c>
       <c r="N258" t="n">
-        <v>0.02251185815382035</v>
+        <v>0.07893500768991146</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1586296356549397</v>
+        <v>0.1567049605510739</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.02196231952299339</v>
+        <v>0.006053670121637073</v>
       </c>
       <c r="G259" t="n">
+        <v>0.0686659942864164</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0.0216003657223951</v>
+      </c>
+      <c r="K259" t="n">
         <v>0.1594515508655871</v>
       </c>
-      <c r="J259" t="n">
-        <v>0.05593466967101657</v>
-      </c>
-      <c r="K259" t="n">
-        <v>0.1577719936664146</v>
-      </c>
       <c r="L259" t="n">
-        <v>0.06254518139438736</v>
+        <v>0.05357355504052816</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1561036059593873</v>
+        <v>0.1562287911274867</v>
       </c>
       <c r="N259" t="n">
-        <v>0.02196231952299339</v>
+        <v>0.07947665516167629</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1594515508655871</v>
+        <v>0.1575169033518567</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.02191317549831401</v>
+        <v>0.005822391103280401</v>
       </c>
       <c r="G260" t="n">
+        <v>0.06853849293477286</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0.02116480577174859</v>
+      </c>
+      <c r="K260" t="n">
         <v>0.1602734660762344</v>
       </c>
-      <c r="J260" t="n">
-        <v>0.05602920616794049</v>
-      </c>
-      <c r="K260" t="n">
-        <v>0.158585251365726</v>
-      </c>
       <c r="L260" t="n">
-        <v>0.06222179894485796</v>
+        <v>0.05313002718413079</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1569082637220645</v>
+        <v>0.1570340941745356</v>
       </c>
       <c r="N260" t="n">
-        <v>0.02191317549831401</v>
+        <v>0.0795639364129731</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1602734660762344</v>
+        <v>0.1583288461526395</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.02166442794182313</v>
+        <v>0.005601095077422139</v>
       </c>
       <c r="G261" t="n">
+        <v>0.06841099158312931</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0.0209290103389447</v>
+      </c>
+      <c r="K261" t="n">
         <v>0.1610953812868818</v>
       </c>
-      <c r="J261" t="n">
-        <v>0.05542626643565629</v>
-      </c>
-      <c r="K261" t="n">
-        <v>0.1593985090650374</v>
-      </c>
       <c r="L261" t="n">
-        <v>0.06202487447965266</v>
+        <v>0.05329569534868581</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1577129214847418</v>
+        <v>0.1578393972215845</v>
       </c>
       <c r="N261" t="n">
-        <v>0.02166442794182313</v>
+        <v>0.0805984190681196</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1610953812868818</v>
+        <v>0.1591407889534222</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.02171607871556169</v>
+        <v>0.005390071548578512</v>
       </c>
       <c r="G262" t="n">
+        <v>0.06828349023148576</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0.02109298101218074</v>
+      </c>
+      <c r="K262" t="n">
         <v>0.1619172964975291</v>
       </c>
-      <c r="J262" t="n">
-        <v>0.05492588065667162</v>
-      </c>
-      <c r="K262" t="n">
-        <v>0.1602117667643488</v>
-      </c>
       <c r="L262" t="n">
-        <v>0.06195495968218456</v>
+        <v>0.05307083346127126</v>
       </c>
       <c r="M262" t="n">
-        <v>0.158517579247419</v>
+        <v>0.1586447002686334</v>
       </c>
       <c r="N262" t="n">
-        <v>0.02171607871556169</v>
+        <v>0.08148167075143381</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1619172964975291</v>
+        <v>0.159952731754205</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.02136812968157067</v>
+        <v>0.005189610021265736</v>
       </c>
       <c r="G263" t="n">
+        <v>0.06815598887984223</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0.02105671937965392</v>
+      </c>
+      <c r="K263" t="n">
         <v>0.1627392117081765</v>
       </c>
-      <c r="J263" t="n">
-        <v>0.05442807901349414</v>
-      </c>
-      <c r="K263" t="n">
-        <v>0.1610250244636602</v>
-      </c>
       <c r="L263" t="n">
-        <v>0.06321260623586722</v>
+        <v>0.05285571544896528</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1593222370100963</v>
+        <v>0.1594500033156823</v>
       </c>
       <c r="N263" t="n">
-        <v>0.02136812968157067</v>
+        <v>0.08221525908723359</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1627392117081765</v>
+        <v>0.1607646745549877</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.02162058270189095</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
+        <v>0.06802848752819868</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0.02082022702956157</v>
+      </c>
+      <c r="K264" t="n">
         <v>0.1635611269188239</v>
       </c>
-      <c r="J264" t="n">
-        <v>0.05483289168863173</v>
-      </c>
-      <c r="K264" t="n">
-        <v>0.1618382821629717</v>
-      </c>
       <c r="L264" t="n">
-        <v>0.06169836582411403</v>
+        <v>0.05325061523884589</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1601268947727736</v>
+        <v>0.1602553063627312</v>
       </c>
       <c r="N264" t="n">
-        <v>0.02162058270189095</v>
+        <v>0.0823007516998368</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1635611269188239</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1615766173557705</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.06801532963346184</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005653185732819997</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.06801559816192584</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.006302866946701749</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.06801586669038986</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.006949005586863635</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.06801613521885388</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.007591563598439752</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.06801640374731791</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.00823050292664864</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.06801667227578191</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00886578551668063</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.06801694080424593</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.009497373313753492</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.06801720933270995</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.01012522826300257</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.06801747786117397</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.01074931230964577</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.06801774638963798</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.01136958739887345</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.068018014918102</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.01198601547590267</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.06801828344656602</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.01259855848587014</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.06801855197503004</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.01320717837399309</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.06801882050349406</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.01381183708546186</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.06801908903195807</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.01441249656549286</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.0680193575604221</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.01500911875922414</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.06801962608888611</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.01560166561187227</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.06801989461735013</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01619009906862758</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.06802016314581413</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01677438107470576</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.06802043167427817</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01735447357524628</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.06802070020274217</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01793033851546502</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.06802096873120619</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.0185019378405523</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.0680212372596702</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01906923349572306</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.06802150578813423</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01963218742611826</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.06802177431659824</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.02019091696742582</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.06802204284506226</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.02074631640767276</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.06802231137352628</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.02129850308254612</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.0680225799019903</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.02184743893718821</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.06802284843045432</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.02239308591681345</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.06802311695891833</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.02293540596661219</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.06802338548738235</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.02347436103179815</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.06802365401584637</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.02400991305751475</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.06802392254431039</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.02454202398897588</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.0680241910727744</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.02507065577137185</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.06802445960123842</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.02559577034991579</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.06802472812970244</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.02611732966975235</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.06802499665816646</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.02663529567609478</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.06802526518663048</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.02714963031413342</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.06802553371509448</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.02766029552908078</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.06802580224355852</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.02816725326608271</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.06802607077202252</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.02867046547035189</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.06802633930048654</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.02916989408707864</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.06802660782895055</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.02966550106147479</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.06802687635741458</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.03015724833868755</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.06802714488587859</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0306450978639289</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.06802741341434261</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.03112901158238918</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.06802768194280662</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.03160895143927953</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.06802795047127065</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.03208487937974853</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.06802821899973466</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.03255675734900747</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.06802848752819868</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.03255675734900748</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.06801532963346184</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.03306343403706347</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.0681433680420334</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.03356559849679976</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.06827140645060499</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.0340631388918843</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.06839944485917657</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.03455594338598522</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.06852748326774816</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.03504390014277051</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.06865552167631972</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.0355268973259083</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.06878356008489131</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.03600482309906655</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.06891159849346289</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.03647756562591341</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.06903963690203448</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0369450130701168</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.06916767531060604</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.03740705359534491</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.06929571371917763</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.03786357536526566</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.06942375212774921</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.03831446654354721</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0695517905363208</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.03875961529385755</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.06967982894489237</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.03919890977986476</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.06980786735346395</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.03963223816523684</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.06993590576203552</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.04005948861364192</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.07006394417060711</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.04048054928874796</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.07019198257917869</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.04089530835422309</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.07032002098775027</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.04130365397373531</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.07044805939632184</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.04170547431095269</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.07057609780489343</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.04210065752954324</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.07070413621346501</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.0424890917931751</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.07083217462203659</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.04287066526551622</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.07096021303060816</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.04324526611023474</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.07108825143917975</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.04361323915602076</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.07121628984775133</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.04397721255667517</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.07134432825632291</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.04433753114088808</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.07147236666489448</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.0446940830723276</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.07160040507346607</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.04504675651466171</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.07172844348203765</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.04539543963155857</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.07185648189060923</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.04574002058668611</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.0719845202991808</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.04608038754371248</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.07211255870775239</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.04641642866630563</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.07224059711632397</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.04674803211813369</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.07236863552489554</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.0470750860628647</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.07249667393346712</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.04739747866416667</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.07262471234203871</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.04771509808570767</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.07275275075061029</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.0480278324911558</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.07288078915918188</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.04833557004417903</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.07300882756775344</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.04863819890844548</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.07313686597632503</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.04893560724762312</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.07326490438489661</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.04922768322538008</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.0733929427934682</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.04951431500538435</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.07352098120203976</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.04979539075130404</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.07364901961061135</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.05007079862680713</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.07377705801918293</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.05034042679556175</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.07390509642775452</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.05060416342123586</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.07403313483632608</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.05086189666749757</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.07416117324489765</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.05111351469801495</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.07428921165346924</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.04674234313200996</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.07428921165346924</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.05121746528272089</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.07650453716411952</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.05131395027209093</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.07871986267476978</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.05140324786480385</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.08093518818542007</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.05148563625953845</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.08315051369607034</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.05156139365497346</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.08536583920672061</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.05163079824978768</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.08758116471737089</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0516941282426599</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.08979649022802116</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.05175166183226887</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.09201181573867143</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.05180367721729338</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.0942271412493217</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.0518504525964122</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.09644246675997198</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.05189226616830411</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.09865779227062225</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.05192939613164789</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.1008731177812725</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.05196212068512229</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.1030884432919228</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.05199071802740614</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.1053037688025731</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.05201546635717816</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.1075190943132233</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.05203664387311716</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.1097344198238736</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.05205452877390188</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.1119497453345239</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.05206939925821114</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.1141650708451742</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.05208153352472368</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.1163803963558244</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.0520912097721183</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.1185957218664747</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.05209870619907375</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.120811047377125</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.05210430100426884</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.1230263728877753</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.05210827238638233</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.1252416983984255</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.052110898544093</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.1274570239090758</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.05211245767607961</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.1296723494197261</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.05211322798102093</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.1318876749303763</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.05211348765759577</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.1341030004410266</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.05211250336269017</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.1363183259516769</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.05206402767472701</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.1385336514623272</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.05194663329119412</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.1407489769729774</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.05176555676800167</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1429643024836277</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.05152603466105989</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.145179627994278</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.05123330352627896</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1473949535049283</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.05089259991956907</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.05050916039684041</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1518256045262288</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.05008822151400319</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1540409300368791</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.04963501982696757</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1562562555475294</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.04915479189164379</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1584715810581796</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.04865277426394202</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1606869065688299</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.04813420349977245</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1629022320794802</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.04760431615504528</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1651175575901304</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.04706834878567069</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1673328831007807</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.04653153794755888</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.169548208611431</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.04599912019662009</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1717635341220813</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.04547633208876443</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1739788596327315</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.04496841017990215</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1761941851433818</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.04448059102594346</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1784095106540321</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.04401811118279847</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1806248361646824</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.04358620720637747</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1828401616753326</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.04319011565259059</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1850554871859829</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.04283507307734807</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1872708126966332</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.04250872119130009</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1894861382072835</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.04218834626277787</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1917014637179337</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.04187355254373144</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.193916789228584</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.04156410410625884</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1961321147392343</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.04125976502245815</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1983474402498845</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.04096029936442742</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.2005627657605348</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.04066547120426474</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.2027780912711851</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.04037504461406811</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.2049934167818354</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.04008878366593563</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.2072087422924856</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.03980645243196533</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.2094240678031359</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.03952781498425531</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.2116393933137862</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0392526353949036</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.2138547188244364</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.03898067773600829</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.2160700443350867</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.03871170607966738</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.218285369845737</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.03844548449797899</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.2205006953563873</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.03818177706304114</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.2227160208670375</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.03792034784695193</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.2249313463776879</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.03766096092180939</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.2271466718883381</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.03740338035971155</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.2293619973989884</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.03714737023275654</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.2315773229096386</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.03689269461304237</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.2337926484202889</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.03663911757266712</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.2360079739309392</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.03638640318372882</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.2382232994415895</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.03613431551832556</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.2404386249522398</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.03588261864855538</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.24265395046289</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.03563151189310687</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.2448692759735403</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.03538207426597959</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.2470846014841906</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.0351343861763711</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.2492999269948408</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.03488846341574149</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.2515152525054911</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.03464432177555078</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.2537305780161414</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.03440197704725902</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.2559459035267916</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.03416144502232629</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.2581612290374419</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.0339227414922126</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.2603765545480922</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.03368588224837801</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.2625918800587425</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.03345088308228261</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.2648072055693927</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.03321775978538642</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.267022531080043</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.03298652814914949</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.2692378565906933</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.03275720396503191</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.2714531821013436</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.03252980302449368</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.2736685076119938</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.03230434111899488</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.2758838331226441</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.03208083403999555</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.2780991586332944</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.03185929757895577</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.2803144841439447</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.03163974752733555</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.282529809654595</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.03142219967659496</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2847451351652452</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.03120666981819406</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2869604606758955</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.03099317374359289</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2891757861865458</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.03078172724425153</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.291391111697196</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.03057234611163</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2936064372078463</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF464"/>
+  <dimension ref="A1:BF264"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -8811,7 +8811,7 @@
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
       <c r="J51" s="144" t="n">
-        <v>0.08474234313200997</v>
+        <v>0.06023405440940448</v>
       </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
@@ -9258,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.03474234313200997</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02432671165346924</v>
+        <v>0.01065247798812232</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001374373069201233</v>
+        <v>0.00103183607824122</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007503960773077702</v>
+        <v>0.001635752193494335</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.00132698635888593</v>
+        <v>0.002308509523545992</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.000821915210647356</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.004460456666272927</v>
+        <v>0.00815357208910869</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0008053030470489007</v>
+        <v>0.001650778298764541</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.008026586491136189</v>
+        <v>0.01345850878236599</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0008119428007827664</v>
+        <v>0.001656551447851827</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002729991146435164</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00150079215461554</v>
+        <v>0.003550825996040773</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.003039249838487704</v>
+        <v>0.004956504560574428</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001643830421294712</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.008535985101694704</v>
+        <v>0.01633432504680646</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001610606094097801</v>
+        <v>0.003301556597529082</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01554440666533663</v>
+        <v>0.02667296747066694</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001623885601565533</v>
+        <v>0.003313102895703654</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.00406676089606306</v>
+        <v>0.004868246966506382</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.00225118823192331</v>
+        <v>0.004907256580483007</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004110420032573107</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002465745631942068</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01332828494466129</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002415909141146702</v>
+        <v>0.004547557645631065</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.02378849384128506</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002435828402348299</v>
+        <v>0.00493050986842105</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.005384588982446245</v>
+        <v>0.007025907083131611</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003001584309231081</v>
+        <v>0.006543008773977342</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005614126534909863</v>
+        <v>0.01021391754594637</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003287660842589424</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01713905583356831</v>
+        <v>0.03057109530559982</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003221212188195603</v>
+        <v>0.006603113195058164</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.03069388133766532</v>
+        <v>0.0462024274185564</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003247771203131066</v>
+        <v>0.006626205791407308</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.0142033039841631</v>
+        <v>0.003550825996040773</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006683382069946002</v>
+        <v>0.007977867639563006</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.00375198038653885</v>
+        <v>0.008178760967471678</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006923998939265721</v>
+        <v>0.01302798988092976</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.00410957605323678</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02136999740681175</v>
+        <v>0.03617195828176656</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.004026515235244504</v>
+        <v>0.008253891493822704</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.03779560247316111</v>
+        <v>0.05458842219653703</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.004059714003913832</v>
+        <v>0.008282757239259137</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.007963046822923633</v>
+        <v>0.008817342476872492</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004502376463846621</v>
+        <v>0.009814513160966013</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008113666839408416</v>
+        <v>0.01556860717409612</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004931491263884136</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02532280930278727</v>
+        <v>0.0413282938483244</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004831818282293405</v>
+        <v>0.009904669792587245</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04452869056645631</v>
+        <v>0.06299072402498984</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004871656804696599</v>
+        <v>0.009939308687110963</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.009223489905740428</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005252772541154391</v>
+        <v>0.01065247798812232</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.009056759829105726</v>
+        <v>0.01784041244763211</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005753406474531492</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.02799999999999997</v>
+        <v>0.04622516052175366</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005604767628205121</v>
+        <v>0.01155544809135179</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0518281789362347</v>
+        <v>0.0715058009355557</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005683599605479366</v>
+        <v>0.01159586013496279</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01046461798275769</v>
+        <v>0.0114441348619173</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006003168618462161</v>
+        <v>0.01308601754795468</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009999999999999995</v>
+        <v>0.0199480487237243</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006245312499999997</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03046877623624544</v>
+        <v>0.0529885601653535</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006442424376391206</v>
+        <v>0.0136426729368932</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05732910090118015</v>
+        <v>0.07783012095987557</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006495542406262132</v>
+        <v>0.01325241158281462</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01168633771833671</v>
+        <v>0.01024509276828645</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.006753564695769931</v>
+        <v>0.01472176974144902</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01093265610911549</v>
+        <v>0.02107603107429938</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007397236895826204</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03234342913512975</v>
+        <v>0.05561266165593129</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.007247727423440107</v>
+        <v>0.01485700468888087</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0617664897799764</v>
+        <v>0.0849010892564076</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007307485207044898</v>
+        <v>0.01479152960526315</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01288855577683878</v>
+        <v>0.01302824908958796</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.0075039607730777</v>
+        <v>0.01635752193494336</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01157008929289603</v>
+        <v>0.02337226235641303</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.00821915210647356</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03444518813187381</v>
+        <v>0.06023324996913487</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.008053030470489008</v>
+        <v>0.01650778298764541</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06637537889130724</v>
+        <v>0.09119503385289068</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.008119428007827664</v>
+        <v>0.01656551447851827</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01407117882262521</v>
+        <v>0.0137868816097646</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008254356850385471</v>
+        <v>0.01799327412843769</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01225536583164171</v>
+        <v>0.02526127385108372</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.009041067317120916</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.03569572406785651</v>
+        <v>0.06439027813365869</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.00885833351753791</v>
+        <v>0.01815856128640995</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06969080155385637</v>
+        <v>0.09746080597128276</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008931370808610431</v>
+        <v>0.0182220659263701</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01523411352005729</v>
+        <v>0.0135142681127591</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009004752927693241</v>
+        <v>0.01962902632193203</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01319443991200166</v>
+        <v>0.02660080892521044</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009862982527768271</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.03801670778445676</v>
+        <v>0.06784734880742627</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009663636564586809</v>
+        <v>0.01980933958517449</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07234779108630779</v>
+        <v>0.1038866272244136</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009743313609393197</v>
+        <v>0.01987861737422193</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01637726653349632</v>
+        <v>0.01420368638251424</v>
       </c>
       <c r="G78" t="n">
-        <v>0.009755149005001013</v>
+        <v>0.02126477851542636</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01379326572062504</v>
+        <v>0.02857851183639935</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01068489773841563</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03952981012305343</v>
+        <v>0.07236806464836107</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01046893961163571</v>
+        <v>0.02146011788393903</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07400000000000001</v>
+        <v>0.1108006272273216</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01015721153846154</v>
+        <v>0.02153516882207375</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01750054452730358</v>
+        <v>0.01584841420297272</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01050554508230878</v>
+        <v>0.0229005307089207</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01405779744416101</v>
+        <v>0.0299820268422567</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01150681294906298</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04105670192502545</v>
+        <v>0.07541602831438657</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01127424265868461</v>
+        <v>0.02311089618270357</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07471592523888737</v>
+        <v>0.1172309355950456</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01136719921095873</v>
+        <v>0.02319172026992558</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01860385416584039</v>
+        <v>0.01444172935807731</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01125594115961655</v>
+        <v>0.02453628290241503</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01479398926925871</v>
+        <v>0.03129899820038862</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01232872815971034</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.04221905403175169</v>
+        <v>0.07885484246342625</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01207954570573351</v>
+        <v>0.02476167448146811</v>
       </c>
       <c r="N80" t="n">
-        <v>0.07603978118618648</v>
+        <v>0.1227056819426242</v>
       </c>
       <c r="O80" t="n">
-        <v>0.0121791420117415</v>
+        <v>0.02484827171777741</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01968710211346803</v>
+        <v>0.01497690963177078</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01200633723692432</v>
+        <v>0.02617203509590937</v>
       </c>
       <c r="J81" t="n">
-        <v>0.01540779538256733</v>
+        <v>0.03241707016840137</v>
       </c>
       <c r="K81" t="n">
-        <v>0.0131506433703577</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.04333853728461098</v>
+        <v>0.08224810975340374</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01288484875278241</v>
+        <v>0.02641245278023266</v>
       </c>
       <c r="N81" t="n">
-        <v>0.07668227593677779</v>
+        <v>0.128552995885096</v>
       </c>
       <c r="O81" t="n">
-        <v>0.01299108481252426</v>
+        <v>0.02650482316562923</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.0207501950345478</v>
+        <v>0.01644723280799585</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01275673331423209</v>
+        <v>0.0278077872894037</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01570516997073594</v>
+        <v>0.03382388700390108</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01397255858100505</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.04473682252498232</v>
+        <v>0.08505943284224243</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01369015179983131</v>
+        <v>0.0280632310789972</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07869186049055038</v>
+        <v>0.1332010070374995</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01380302761330703</v>
+        <v>0.02816137461348106</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.021793039593441</v>
+        <v>0.01584597667069527</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01350712939153986</v>
+        <v>0.02944353948289804</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01639206722041378</v>
+        <v>0.03480709296449404</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01479447379165241</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04693558059424452</v>
+        <v>0.08805241438786582</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01449545484688021</v>
+        <v>0.02971400937776174</v>
       </c>
       <c r="N83" t="n">
-        <v>0.07951698584739314</v>
+        <v>0.1386778450148737</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0146149704140898</v>
+        <v>0.02981792606133289</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02274234313200997</v>
+        <v>0.01716641900381181</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0142033039841631</v>
+        <v>0.03107929167639237</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01667444131824998</v>
+        <v>0.03575433230778639</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01561638900229977</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04775648233377652</v>
+        <v>0.09109065704819744</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01530075789392912</v>
+        <v>0.03136478767652628</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07950610300719502</v>
+        <v>0.142211639432257</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01542691321487256</v>
+        <v>0.03147447750918472</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02382156243875265</v>
+        <v>0.01741836605156021</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0150079215461554</v>
+        <v>0.03271504386988671</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01695824645089368</v>
+        <v>0.03675324929138432</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01643830421294712</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04932119858495718</v>
+        <v>0.09203776348116074</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01610606094097802</v>
+        <v>0.03301556597529082</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08030766296984476</v>
+        <v>0.145930519904688</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01623885601565533</v>
+        <v>0.03313102895703655</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02481314140110361</v>
+        <v>0.01665833922070834</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01575831762346317</v>
+        <v>0.03435079606338105</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01764943680499402</v>
+        <v>0.03729148817289404</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01726021942359448</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.05045140018916536</v>
+        <v>0.0943573363446793</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01691136398802692</v>
+        <v>0.03466634427405536</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0806701167352315</v>
+        <v>0.1495626160472054</v>
       </c>
       <c r="O86" t="n">
-        <v>0.0170507988164381</v>
+        <v>0.03478758040488836</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02578912958592573</v>
+        <v>0.0188903061704528</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01650871370077094</v>
+        <v>0.03598654825687538</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01825396656720017</v>
+        <v>0.03800662938000154</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01808213463424183</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.0529885601653535</v>
+        <v>0.09533333731565419</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01767789087380792</v>
+        <v>0.0363171225728199</v>
       </c>
       <c r="N87" t="n">
-        <v>0.08194191530324402</v>
+        <v>0.1509898378836378</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01786274161722086</v>
+        <v>0.0364441318527402</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02674835835462162</v>
+        <v>0.01711266949809622</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01725910977807871</v>
+        <v>0.03762230045036972</v>
       </c>
       <c r="J88" t="n">
-        <v>0.0184777899241613</v>
+        <v>0.03850359711744937</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01890404984488919</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05388637770908344</v>
+        <v>0.09607238738267534</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01852197008212472</v>
+        <v>0.03796790087158444</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08217150967377124</v>
+        <v>0.1533203311269473</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01867468441800363</v>
+        <v>0.03810068330059203</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,6180 +10193,4780 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02768965906859387</v>
+        <v>0.01932383180094125</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01800950585538648</v>
+        <v>0.03925805264386405</v>
       </c>
       <c r="J89" t="n">
-        <v>0.01942686106252653</v>
+        <v>0.03898318665189411</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01972596505553654</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05629697931806235</v>
+        <v>0.09776599046045964</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01932727312917362</v>
+        <v>0.03961867917034898</v>
       </c>
       <c r="N89" t="n">
-        <v>0.0849010892564076</v>
+        <v>0.1562859389146091</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01942248476178235</v>
+        <v>0.03975723474844385</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02861186308924506</v>
+        <v>0.0195221956762905</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01875990193269425</v>
+        <v>0.04089380483735839</v>
       </c>
       <c r="J90" t="n">
-        <v>0.01960713416894502</v>
+        <v>0.03924200414245185</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0205478802661839</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05809084465572642</v>
+        <v>0.09930564569555095</v>
       </c>
       <c r="M90" t="n">
-        <v>0.02013257617622252</v>
+        <v>0.04126945746911352</v>
       </c>
       <c r="N90" t="n">
-        <v>0.08616979029853716</v>
+        <v>0.1573728973245485</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02029857001956916</v>
+        <v>0.04141378619629568</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02951380177797776</v>
+        <v>0.01870616372144663</v>
       </c>
       <c r="G91" t="n">
-        <v>0.01951029801000203</v>
+        <v>0.04252955703085273</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02032456343006595</v>
+        <v>0.03987665574823869</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02136979547683126</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0603582615117938</v>
+        <v>0.1003828522344932</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02093787922327142</v>
+        <v>0.04292023576787806</v>
       </c>
       <c r="N91" t="n">
-        <v>0.0881017659480568</v>
+        <v>0.1590674424346901</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02111051282035193</v>
+        <v>0.04307033764414751</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.03039430649619457</v>
+        <v>0.01987413853371223</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02026069408730979</v>
+        <v>0.04416530922434705</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02107603107429938</v>
+        <v>0.04028374762837073</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02193773338645172</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06238951767598253</v>
+        <v>0.1010891092238302</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02174318227032032</v>
+        <v>0.0445710140666426</v>
       </c>
       <c r="N92" t="n">
-        <v>0.08937342823696737</v>
+        <v>0.1609558103229591</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0219224556211347</v>
+        <v>0.04472688909199934</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.03125220860529808</v>
+        <v>0.01802452271038998</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02101109016461756</v>
+        <v>0.0458010614178414</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02181983745732055</v>
+        <v>0.04055988594196407</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02301362589812597</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06447490093801075</v>
+        <v>0.1017159158101059</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02254848531736922</v>
+        <v>0.04622179236540715</v>
       </c>
       <c r="N93" t="n">
-        <v>0.09245446026142828</v>
+        <v>0.1627242370672803</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02273439842191746</v>
+        <v>0.04638344053985116</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.03208633946669084</v>
+        <v>0.01815571884878249</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02176148624192533</v>
+        <v>0.04743681361133573</v>
       </c>
       <c r="J94" t="n">
-        <v>0.0224248597056692</v>
+        <v>0.04080167684813479</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02383554110877333</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06620469908759655</v>
+        <v>0.1026547711398642</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02335378836441812</v>
+        <v>0.04787257066417169</v>
       </c>
       <c r="N94" t="n">
-        <v>0.09551454511759888</v>
+        <v>0.1635589587455787</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02354634122270023</v>
+        <v>0.04803999198770299</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.03289553044177551</v>
+        <v>0.01826612954619239</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02251188231923311</v>
+        <v>0.04907256580483006</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02359350079649344</v>
+        <v>0.04100572650599901</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02465745631942068</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06816919991445805</v>
+        <v>0.1036971743596489</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02415909141146702</v>
+        <v>0.04952334896293623</v>
       </c>
       <c r="N95" t="n">
-        <v>0.09892336590163858</v>
+        <v>0.1658462114357791</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02435828402348299</v>
+        <v>0.04969654343555482</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.03367861289195459</v>
+        <v>0.02035415739992231</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02326227839654087</v>
+        <v>0.05070831799832441</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02451746457408285</v>
+        <v>0.04136864107467281</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02547937153006804</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.07075869120831338</v>
+        <v>0.103934624616004</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02496439445851592</v>
+        <v>0.05117412726170077</v>
       </c>
       <c r="N96" t="n">
-        <v>0.102150605709707</v>
+        <v>0.1657722312158066</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02517022682426576</v>
+        <v>0.05135309488340664</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.03474234313200997</v>
+        <v>0.0184182050072749</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02432671165346924</v>
+        <v>0.05234407019181873</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02558845488272697</v>
+        <v>0.04158702671327232</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02630128674071539</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.0724634607588806</v>
+        <v>0.1047586210554732</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02576969750556482</v>
+        <v>0.05282490556046531</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1059659476379633</v>
+        <v>0.1675232541635861</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02598216962504853</v>
+        <v>0.05300964633125847</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.03516891530739977</v>
+        <v>0.02046810881880896</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02476307055115641</v>
+        <v>0.05397982238531308</v>
       </c>
       <c r="J98" t="n">
-        <v>0.02639817556671538</v>
+        <v>0.0419574895809136</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02712320195136275</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0752737963558778</v>
+        <v>0.1047606628246007</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02657500055261372</v>
+        <v>0.05447568385922984</v>
       </c>
       <c r="N98" t="n">
-        <v>0.109039074782567</v>
+        <v>0.1683855163570425</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0267941124258313</v>
+        <v>0.05466619777911029</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.03591072449554952</v>
+        <v>0.01946804097497275</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02551346662846418</v>
+        <v>0.05561557457880741</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0276383304703376</v>
+        <v>0.04197663583671278</v>
       </c>
       <c r="K99" t="n">
-        <v>0.0279451171620101</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.07707998578902314</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02738030359966263</v>
+        <v>0.05612646215799439</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1123396702396775</v>
+        <v>0.1685452538741009</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02760605522661406</v>
+        <v>0.05632274922696213</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.03665866453287678</v>
+        <v>0.01945983332872727</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02626386270577196</v>
+        <v>0.05725132677230174</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02860062343788325</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02876703237265746</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.0788723168480347</v>
+        <v>0.1058648789380055</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02818560664671153</v>
+        <v>0.05777724045675893</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1164374171054543</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02841799802739683</v>
+        <v>0.05797930067481395</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.03740774584829276</v>
+        <v>0.0194385252238547</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02701425878307973</v>
+        <v>0.05888707896579608</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02967675831364185</v>
+        <v>0.04184981330314155</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02958894758330482</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.08184107732263049</v>
+        <v>0.1049641576328368</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02899090969376043</v>
+        <v>0.05942801875552348</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1207019984760566</v>
+        <v>0.1686021396732793</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02922994082817959</v>
+        <v>0.05963585212266578</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.03815297887070858</v>
+        <v>0.02040495853764311</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02776465486038749</v>
+        <v>0.06052283115929041</v>
       </c>
       <c r="J102" t="n">
-        <v>0.03055843894190294</v>
+        <v>0.04202429182086108</v>
       </c>
       <c r="K102" t="n">
-        <v>0.03041086279395218</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.0831765550025288</v>
+        <v>0.1053860005092821</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02979621274080933</v>
+        <v>0.06107879705428801</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1251030974476441</v>
+        <v>0.1684407331556124</v>
       </c>
       <c r="O102" t="n">
-        <v>0.03004188362896236</v>
+        <v>0.06129240357051761</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.03888937402903542</v>
+        <v>0.01935997514738053</v>
       </c>
       <c r="G103" t="n">
-        <v>0.02851505093769527</v>
+        <v>0.06215858335278475</v>
       </c>
       <c r="J103" t="n">
-        <v>0.03183736916695608</v>
+        <v>0.04207177029515824</v>
       </c>
       <c r="K103" t="n">
-        <v>0.03123277800459953</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.08576903767744759</v>
+        <v>0.1047410339849012</v>
       </c>
       <c r="M103" t="n">
-        <v>0.03060151578785823</v>
+        <v>0.06272957535305256</v>
       </c>
       <c r="N103" t="n">
-        <v>0.128010397116376</v>
+        <v>0.1679674355983971</v>
       </c>
       <c r="O103" t="n">
-        <v>0.03085382642974513</v>
+        <v>0.06294895501836943</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.03961194175218445</v>
+        <v>0.01830441693035503</v>
       </c>
       <c r="G104" t="n">
-        <v>0.02926544701500303</v>
+        <v>0.06379433554627909</v>
       </c>
       <c r="J104" t="n">
-        <v>0.03300525283309087</v>
+        <v>0.0417940373780518</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03205469321524688</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.08790881313710502</v>
+        <v>0.1047337382546165</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03140681883490713</v>
+        <v>0.06438035365181709</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1327935805784119</v>
+        <v>0.1683895009854963</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03166576923052789</v>
+        <v>0.06460550646622125</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.04031569246906681</v>
+        <v>0.01923912576385467</v>
       </c>
       <c r="G105" t="n">
-        <v>0.0300158430923108</v>
+        <v>0.06543008773977342</v>
       </c>
       <c r="J105" t="n">
-        <v>0.03375379378459682</v>
+        <v>0.04189288172156055</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03287660842589424</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.08968616917121922</v>
+        <v>0.1050685935133504</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03221212188195603</v>
+        <v>0.06603113195058163</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1365223309299111</v>
+        <v>0.1689141833007731</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03247771203131065</v>
+        <v>0.06626205791407309</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.04099563660859368</v>
+        <v>0.01816494352516748</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03076623916961857</v>
+        <v>0.06706583993326776</v>
       </c>
       <c r="J106" t="n">
-        <v>0.03477469586576352</v>
+        <v>0.04177009197770322</v>
       </c>
       <c r="K106" t="n">
-        <v>0.0336985236365416</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.0911913935695082</v>
+        <v>0.1049500799560252</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03301742492900493</v>
+        <v>0.06768191024934618</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1399663312670331</v>
+        <v>0.1680487365280905</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03328965483209342</v>
+        <v>0.06791860936192491</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.04164678459967623</v>
+        <v>0.02008271209158153</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03151663524692635</v>
+        <v>0.06870159212676209</v>
       </c>
       <c r="J107" t="n">
-        <v>0.0360596629208805</v>
+        <v>0.04132745679849859</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03452043884718895</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.09301477412169012</v>
+        <v>0.1041826777775634</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03382272797605383</v>
+        <v>0.06933268854811073</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1434952646859372</v>
+        <v>0.1670004146513119</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03410159763287619</v>
+        <v>0.06957516080977673</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.04226414687122561</v>
+        <v>0.01899327334038485</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03226703132423412</v>
+        <v>0.07033734432025643</v>
       </c>
       <c r="J108" t="n">
-        <v>0.03700039879423736</v>
+        <v>0.04116676483596539</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03534235405783631</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.09474659861748314</v>
+        <v>0.1032708671728874</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03462803102310273</v>
+        <v>0.07098346684687526</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1485788142827828</v>
+        <v>0.1660764716543</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03491354043365896</v>
+        <v>0.07123171225762857</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.04284273385215297</v>
+        <v>0.01789746914886552</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03301742740154189</v>
+        <v>0.07197309651375076</v>
       </c>
       <c r="J109" t="n">
-        <v>0.03788860733012361</v>
+        <v>0.04098980474212241</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03616426926848366</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.09707715484660523</v>
+        <v>0.1036191283369196</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03543333407015164</v>
+        <v>0.07263424514563981</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1510866631537295</v>
+        <v>0.1657841615209178</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03572548323444173</v>
+        <v>0.07288826370548039</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.04337755597136951</v>
+        <v>0.01979614139431157</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03376782347884966</v>
+        <v>0.0736088487072451</v>
       </c>
       <c r="J110" t="n">
-        <v>0.03871599237282884</v>
+        <v>0.04109836516898839</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03698618447913102</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0981967305987746</v>
+        <v>0.1030319414645822</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03623863711720053</v>
+        <v>0.07428502344440434</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1544884943949366</v>
+        <v>0.1657307382350287</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03653742603522449</v>
+        <v>0.07454481515333222</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.04386362365778636</v>
+        <v>0.01769013195401107</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03451821955615743</v>
+        <v>0.07524460090073944</v>
       </c>
       <c r="J111" t="n">
-        <v>0.03927425776664259</v>
+        <v>0.0407942347685821</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03780809968977838</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.09929561366370937</v>
+        <v>0.1022137867507978</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03704394016424944</v>
+        <v>0.07593580174316888</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1579539911025634</v>
+        <v>0.1640234557804955</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03734936883600726</v>
+        <v>0.07620136660118405</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.04429594734031468</v>
+        <v>0.01958028270525206</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03526861563346519</v>
+        <v>0.07688035309423377</v>
       </c>
       <c r="J112" t="n">
-        <v>0.03985510735585443</v>
+        <v>0.04057920219292231</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03863001490042573</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1013640918311275</v>
+        <v>0.1018691443904887</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03784924321129834</v>
+        <v>0.07758658004193342</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1596528363727696</v>
+        <v>0.1636695681411814</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03816131163679002</v>
+        <v>0.07785791804903587</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.04466953744786568</v>
+        <v>0.0174674355253226</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03601901171077296</v>
+        <v>0.07851610528772811</v>
       </c>
       <c r="J113" t="n">
-        <v>0.0405502449847539</v>
+        <v>0.04015505609402779</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03945193011107308</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1024924528907473</v>
+        <v>0.1013024945785773</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03865454625834724</v>
+        <v>0.07923735834069796</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1618547133017144</v>
+        <v>0.1631763293009496</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03897325443757279</v>
+        <v>0.0795144694968877</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.04497940440935046</v>
+        <v>0.01935243229151074</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03676940778808074</v>
+        <v>0.08015185748122244</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04095137449763059</v>
+        <v>0.04002358512391725</v>
       </c>
       <c r="K114" t="n">
-        <v>0.04027384532172044</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1030709846322867</v>
+        <v>0.1006183175099862</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03945984930539614</v>
+        <v>0.08088813663946251</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1648293049855572</v>
+        <v>0.1616509932436628</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03978519723835555</v>
+        <v>0.08117102094473953</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.04523803132029819</v>
+        <v>0.01923611488110454</v>
       </c>
       <c r="G115" t="n">
-        <v>0.0375198038653885</v>
+        <v>0.08178760967471678</v>
       </c>
       <c r="J115" t="n">
-        <v>0.04145019973877401</v>
+        <v>0.03988657793460949</v>
       </c>
       <c r="K115" t="n">
-        <v>0.0410957605323678</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1043899748454639</v>
+        <v>0.1000210933796374</v>
       </c>
       <c r="M115" t="n">
-        <v>0.04026515235244504</v>
+        <v>0.08253891493822704</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1661462945204575</v>
+        <v>0.1612008139531843</v>
       </c>
       <c r="O115" t="n">
-        <v>0.04059714003913832</v>
+        <v>0.08282757239259135</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.04549045844466426</v>
+        <v>0.01911932517139203</v>
       </c>
       <c r="G116" t="n">
-        <v>0.03827019994269628</v>
+        <v>0.0834233618682111</v>
       </c>
       <c r="J116" t="n">
-        <v>0.04163842455247375</v>
+        <v>0.03964582317812329</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04191767574301516</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1041397113199969</v>
+        <v>0.09891530238245361</v>
       </c>
       <c r="M116" t="n">
-        <v>0.04107045539949394</v>
+        <v>0.08418969323699159</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1683753650025749</v>
+        <v>0.160333045413377</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04140908283992109</v>
+        <v>0.0844841238404432</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.04573924815980959</v>
+        <v>0.01900290503966129</v>
       </c>
       <c r="G117" t="n">
-        <v>0.03902059602000405</v>
+        <v>0.08505911406170545</v>
       </c>
       <c r="J117" t="n">
-        <v>0.04215206214859875</v>
+        <v>0.03910310950647737</v>
       </c>
       <c r="K117" t="n">
-        <v>0.04273959095366251</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1053104818456039</v>
+        <v>0.09870542471335708</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04187575844654284</v>
+        <v>0.08584047153575612</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1679861995280684</v>
+        <v>0.1582549416081042</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04222102564070386</v>
+        <v>0.08614067528829501</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.04598433447287315</v>
+        <v>0.01788769636320035</v>
       </c>
       <c r="G118" t="n">
-        <v>0.03977099209731182</v>
+        <v>0.08669486625519979</v>
       </c>
       <c r="J118" t="n">
-        <v>0.04195186999107638</v>
+        <v>0.03926022557169051</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04356150616430987</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.105977120330707</v>
+        <v>0.09809594056727025</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04268106149359174</v>
+        <v>0.08749124983452067</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1698021785128152</v>
+        <v>0.1578737565212288</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04303296844148662</v>
+        <v>0.08779722673614683</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.04622565139099379</v>
+        <v>0.01776675287759889</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04052138817461959</v>
+        <v>0.08833061844869411</v>
       </c>
       <c r="J119" t="n">
-        <v>0.04194388136274554</v>
+        <v>0.03901896002578147</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04438342137495722</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1050770408690057</v>
+        <v>0.09719133013911552</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04348636454064064</v>
+        <v>0.0891420281332852</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1681937593136701</v>
+        <v>0.1567967441366138</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04384491124226939</v>
+        <v>0.08945377818399868</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.04646313292131043</v>
+        <v>0.01662889936337893</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04127178425192736</v>
+        <v>0.08996637064218845</v>
       </c>
       <c r="J120" t="n">
-        <v>0.04192445380815732</v>
+        <v>0.03837831847429835</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04520533658560458</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1055656194270313</v>
+        <v>0.0968802090022316</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04429166758768954</v>
+        <v>0.09079280643204975</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1689330765837564</v>
+        <v>0.1562310882298887</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04465685404305215</v>
+        <v>0.09111032963185049</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.04669671307096203</v>
+        <v>0.01647666257613688</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04202218032923512</v>
+        <v>0.09160212283568279</v>
       </c>
       <c r="J121" t="n">
-        <v>0.041893988792307</v>
+        <v>0.03830851944167497</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04602725179625194</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.1055352408590985</v>
+        <v>0.09588682371502186</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04509697063473844</v>
+        <v>0.09244358473081429</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1692157321263789</v>
+        <v>0.1542899367378213</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04546879684383492</v>
+        <v>0.09276688107970232</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.04692632584708746</v>
+        <v>0.01731278545271119</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0427725764065429</v>
+        <v>0.09323787502917712</v>
       </c>
       <c r="J122" t="n">
-        <v>0.04175288778018993</v>
+        <v>0.03780563188923229</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04684916700689929</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1057864501054366</v>
+        <v>0.09581305605832566</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04590227368178734</v>
+        <v>0.09409436302957884</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1683439754796248</v>
+        <v>0.1535073114945317</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04628073964461769</v>
+        <v>0.09442343252755415</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.04715190525682567</v>
+        <v>0.01814001092994032</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04352297248385067</v>
+        <v>0.09487362722267145</v>
       </c>
       <c r="J123" t="n">
-        <v>0.04190155223680136</v>
+        <v>0.03767548345905439</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04767108221754665</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1055197921062748</v>
+        <v>0.09427350304274121</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04670757672883624</v>
+        <v>0.09574514132834337</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1683200561815814</v>
+        <v>0.1528068468465525</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04709268244540046</v>
+        <v>0.09607998397540597</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.04737338530731554</v>
+        <v>0.01696108194466275</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04427336856115843</v>
+        <v>0.0965093794161658</v>
       </c>
       <c r="J124" t="n">
-        <v>0.04194038362713667</v>
+        <v>0.03752390179322525</v>
       </c>
       <c r="K124" t="n">
-        <v>0.048492997428194</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1051358118018427</v>
+        <v>0.09338276167886683</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04751287977588515</v>
+        <v>0.09739591962710792</v>
       </c>
       <c r="N124" t="n">
-        <v>0.168146223770336</v>
+        <v>0.150712177140416</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04790462524618322</v>
+        <v>0.0977365354232578</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.04759070000569601</v>
+        <v>0.01677874143371694</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04502376463846621</v>
+        <v>0.09814513160966012</v>
       </c>
       <c r="J125" t="n">
-        <v>0.04176978341619116</v>
+        <v>0.03685671453382897</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04931491263884136</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1046350541323695</v>
+        <v>0.09285542897730079</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04831818282293404</v>
+        <v>0.09904669792587245</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1680247277839759</v>
+        <v>0.1501469367226548</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04871656804696599</v>
+        <v>0.09939308687110963</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.04780378335910597</v>
+        <v>0.01559573233394135</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04577416071577398</v>
+        <v>0.09978088380315446</v>
       </c>
       <c r="J126" t="n">
-        <v>0.04179015306896008</v>
+        <v>0.03657974932294955</v>
       </c>
       <c r="K126" t="n">
-        <v>0.05013682784948872</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1046180640380844</v>
+        <v>0.09180610194864131</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04912348586998295</v>
+        <v>0.100697476224637</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1672578177605882</v>
+        <v>0.1481347599398013</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04952851084774876</v>
+        <v>0.1010496383189615</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.04801256937468433</v>
+        <v>0.01741479758217446</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04652455679308175</v>
+        <v>0.1014166359966488</v>
       </c>
       <c r="J127" t="n">
-        <v>0.04140189405043881</v>
+        <v>0.03599883380267106</v>
       </c>
       <c r="K127" t="n">
-        <v>0.05095874306013607</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.105085386459217</v>
+        <v>0.09104937760348669</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04992878891703185</v>
+        <v>0.1023482545234015</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1666477432382604</v>
+        <v>0.1461992811383879</v>
       </c>
       <c r="O127" t="n">
-        <v>0.05034045364853152</v>
+        <v>0.1027061897668133</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.04821699205957004</v>
+        <v>0.01523868011525472</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04727495287038952</v>
+        <v>0.1030523881901431</v>
       </c>
       <c r="J128" t="n">
-        <v>0.04130540782562263</v>
+        <v>0.03581979561507755</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05178065827078343</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1046375663359965</v>
+        <v>0.09029985295243514</v>
       </c>
       <c r="M128" t="n">
-        <v>0.05073409196408075</v>
+        <v>0.1039990328221661</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1660967537550795</v>
+        <v>0.1445641346649471</v>
       </c>
       <c r="O128" t="n">
-        <v>0.05115239644931429</v>
+        <v>0.1043627412146651</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.048416985420902</v>
+        <v>0.0170701228700206</v>
       </c>
       <c r="G129" t="n">
-        <v>0.04802534894769729</v>
+        <v>0.1046881403836375</v>
       </c>
       <c r="J129" t="n">
-        <v>0.04110109585950684</v>
+        <v>0.03524846240225304</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05260257348143078</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1045751486086521</v>
+        <v>0.08917212500608501</v>
       </c>
       <c r="M129" t="n">
-        <v>0.05153939501112965</v>
+        <v>0.1056498111209306</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1653070988491329</v>
+        <v>0.1431529548660113</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05196433925009705</v>
+        <v>0.1060192926625169</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.0486124834658191</v>
+        <v>0.01690256098394624</v>
       </c>
       <c r="G130" t="n">
-        <v>0.04877574502500506</v>
+        <v>0.1063238925771318</v>
       </c>
       <c r="J130" t="n">
-        <v>0.04118935961708679</v>
+        <v>0.03499066180628159</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05342448869207814</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1038986782174134</v>
+        <v>0.08788079077503447</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05234469805817855</v>
+        <v>0.1073005894196952</v>
       </c>
       <c r="N130" t="n">
-        <v>0.1661810280585079</v>
+        <v>0.142489376088113</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05277628205087983</v>
+        <v>0.1076758441103688</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.04880342020146029</v>
+        <v>0.0157193645446452</v>
       </c>
       <c r="G131" t="n">
-        <v>0.04952614110231283</v>
+        <v>0.1079596447706262</v>
       </c>
       <c r="J131" t="n">
-        <v>0.04107060056335776</v>
+        <v>0.03484728202878969</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05424640390272549</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1043087001025096</v>
+        <v>0.08691549075235508</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05315000110522745</v>
+        <v>0.1089513677184597</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1658207909212916</v>
+        <v>0.1399958573140187</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05358822485166259</v>
+        <v>0.1093323955582206</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.04898972963496447</v>
+        <v>0.01452377685242338</v>
       </c>
       <c r="G132" t="n">
-        <v>0.0502765371796206</v>
+        <v>0.1095953969641205</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0407452201633151</v>
+        <v>0.03447813840739625</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05506831911337285</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1042057592041701</v>
+        <v>0.08577503386509289</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05395530415227636</v>
+        <v>0.1106021460172242</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1638286369755715</v>
+        <v>0.1382471008012945</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05440016765244535</v>
+        <v>0.1109889470060724</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.04917134577347053</v>
+        <v>0.01531972442216858</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05102693325692836</v>
+        <v>0.1112311491576148</v>
       </c>
       <c r="J133" t="n">
-        <v>0.04061361988195407</v>
+        <v>0.03407981529631553</v>
       </c>
       <c r="K133" t="n">
-        <v>0.0558902343240202</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.1034904004626241</v>
+        <v>0.08516483390446133</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05476060719932525</v>
+        <v>0.1122529243159888</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1637068157594346</v>
+        <v>0.1379702514153183</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05521211045322812</v>
+        <v>0.1126454984539243</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.0493482026241174</v>
+        <v>0.01511113376876864</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05177732933423614</v>
+        <v>0.1128669013511091</v>
       </c>
       <c r="J134" t="n">
-        <v>0.04087620118427</v>
+        <v>0.03376065496689806</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05671214953466756</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1030631688181011</v>
+        <v>0.08370578649540791</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05556591024637415</v>
+        <v>0.1139037026147533</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1626575768109684</v>
+        <v>0.1364991417300752</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05602405325401089</v>
+        <v>0.1143020499017761</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.04952023419404401</v>
+        <v>0.01390193140711132</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05252772541154391</v>
+        <v>0.1145026535446035</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0404333655352582</v>
+        <v>0.03312899969049435</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05753406474531492</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1032246092108304</v>
+        <v>0.0835187872628804</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05637121329342306</v>
+        <v>0.1155544809135179</v>
       </c>
       <c r="N135" t="n">
-        <v>0.16198316966826</v>
+        <v>0.1336676043195498</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05683599605479366</v>
+        <v>0.1159586013496279</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.04968737449038926</v>
+        <v>0.01469604385208448</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05327812148885167</v>
+        <v>0.1161384057380978</v>
       </c>
       <c r="J136" t="n">
-        <v>0.04028551439991401</v>
+        <v>0.03249319173845495</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05835597995596228</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1029752665810412</v>
+        <v>0.08182473183182629</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05717651634047196</v>
+        <v>0.1172052592122824</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1620858438693967</v>
+        <v>0.1327094717577273</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05764793885557642</v>
+        <v>0.1176151527974797</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.04984955752029205</v>
+        <v>0.01349739761857591</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05402851756615945</v>
+        <v>0.1177741579315922</v>
       </c>
       <c r="J137" t="n">
-        <v>0.0404330492432327</v>
+        <v>0.03216157338213037</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05917789516660963</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.1028156858689629</v>
+        <v>0.0807445158271933</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05798181938752085</v>
+        <v>0.118856037511047</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1612678489524659</v>
+        <v>0.1298585766185925</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05845988165635919</v>
+        <v>0.1192717042453316</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.05000671729089133</v>
+        <v>0.01530991922147341</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05477891364346722</v>
+        <v>0.1194099101250865</v>
       </c>
       <c r="J138" t="n">
-        <v>0.04017637153020959</v>
+        <v>0.03184248689287111</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05999981037725699</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.102546412014825</v>
+        <v>0.07959903487392905</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05878712243456976</v>
+        <v>0.1205068158098115</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1611314344555546</v>
+        <v>0.1287487514761302</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05927182445714195</v>
+        <v>0.1209282556931834</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.05015878780932599</v>
+        <v>0.0141375351756648</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05552930972077499</v>
+        <v>0.1210456623185808</v>
       </c>
       <c r="J139" t="n">
-        <v>0.04011588272584003</v>
+        <v>0.03154427454202773</v>
       </c>
       <c r="K139" t="n">
-        <v>0.06082172558790435</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.1022679899588567</v>
+        <v>0.07890918459698112</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05959242548161866</v>
+        <v>0.122157594108576</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1596788499167501</v>
+        <v>0.1270138289043255</v>
       </c>
       <c r="O139" t="n">
-        <v>0.06008376725792472</v>
+        <v>0.1225848071410352</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.05030570308273492</v>
+        <v>0.01498417199603789</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05627970579808277</v>
+        <v>0.1226814145120752</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03955198429511929</v>
+        <v>0.03127527860095072</v>
       </c>
       <c r="K140" t="n">
-        <v>0.0616436407985517</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1015809646412872</v>
+        <v>0.07849586062129715</v>
       </c>
       <c r="M140" t="n">
-        <v>0.06039772852866756</v>
+        <v>0.1238083724073406</v>
       </c>
       <c r="N140" t="n">
-        <v>0.15891234487414</v>
+        <v>0.1256876414771633</v>
       </c>
       <c r="O140" t="n">
-        <v>0.06089571005870748</v>
+        <v>0.124241358588887</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.05044739711825709</v>
+        <v>0.01385375619748049</v>
       </c>
       <c r="G141" t="n">
-        <v>0.05703010187539053</v>
+        <v>0.1243171667055695</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03938507770304268</v>
+        <v>0.03094384134099062</v>
       </c>
       <c r="K141" t="n">
-        <v>0.06246555600919906</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1017858810023461</v>
+        <v>0.07757995857182476</v>
       </c>
       <c r="M141" t="n">
-        <v>0.06120303157571647</v>
+        <v>0.1254591507061051</v>
       </c>
       <c r="N141" t="n">
-        <v>0.157234168865811</v>
+        <v>0.1235040217686283</v>
       </c>
       <c r="O141" t="n">
-        <v>0.06170765285949025</v>
+        <v>0.1258979100367389</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.05058380392303138</v>
+        <v>0.01375021429488041</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0577804979526983</v>
+        <v>0.1259529188990638</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03951556441460555</v>
+        <v>0.03045830503349793</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06328747121984642</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1016832839822627</v>
+        <v>0.07608237407351157</v>
       </c>
       <c r="M142" t="n">
-        <v>0.06200833462276536</v>
+        <v>0.1271099290048696</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1566465714298509</v>
+        <v>0.1224968023527055</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06251959566027301</v>
+        <v>0.1275544614845907</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0507148575041967</v>
+        <v>0.01367747280312544</v>
       </c>
       <c r="G143" t="n">
-        <v>0.05853089403000607</v>
+        <v>0.1275886710925582</v>
       </c>
       <c r="J143" t="n">
-        <v>0.03944384589480317</v>
+        <v>0.0304270119498232</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06410938643049377</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1006737185212661</v>
+        <v>0.0759240027513052</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06281363766981425</v>
+        <v>0.1287607073036342</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1560518021043467</v>
+        <v>0.12219981580338</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06333153846105578</v>
+        <v>0.1292110129324425</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.05084049186889199</v>
+        <v>0.01363945823710343</v>
       </c>
       <c r="G144" t="n">
-        <v>0.05928129010731385</v>
+        <v>0.1292244232860525</v>
       </c>
       <c r="J144" t="n">
-        <v>0.03897032360863088</v>
+        <v>0.02995830436131695</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06493130164114112</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1003577295595858</v>
+        <v>0.07552574023015329</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06361894071686316</v>
+        <v>0.1304114856023987</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1551521104273856</v>
+        <v>0.1210468946946364</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06414348126183855</v>
+        <v>0.1308675643802943</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.05096064102425613</v>
+        <v>0.01463546590005425</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0600316861846216</v>
+        <v>0.1308601754795468</v>
       </c>
       <c r="J145" t="n">
-        <v>0.03899539902108397</v>
+        <v>0.02986052453932968</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06575321685178848</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1006358620374512</v>
+        <v>0.0755084821350035</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06442424376391206</v>
+        <v>0.1320622639011633</v>
       </c>
       <c r="N145" t="n">
-        <v>0.155449745937055</v>
+        <v>0.1204718716004599</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06495542406262131</v>
+        <v>0.1325241158281462</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.05107523897742805</v>
+        <v>0.01264129148550167</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06078208226192938</v>
+        <v>0.1324959276730412</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03851947359715777</v>
+        <v>0.03003919778311386</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06657513206243583</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1006086608950916</v>
+        <v>0.07537642388628732</v>
       </c>
       <c r="M146" t="n">
-        <v>0.06522954681096096</v>
+        <v>0.1337130421999278</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1535469581714421</v>
+        <v>0.1206085607639678</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06576736686340408</v>
+        <v>0.134180667275998</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.05118421973554667</v>
+        <v>0.01365259691458037</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06153247833923715</v>
+        <v>0.1341316798665355</v>
       </c>
       <c r="J147" t="n">
-        <v>0.03844294880184758</v>
+        <v>0.02974864650872783</v>
       </c>
       <c r="K147" t="n">
-        <v>0.0673970472730832</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.0992766710727363</v>
+        <v>0.07510452581329838</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06603484985800986</v>
+        <v>0.1353638204986924</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1534459966686343</v>
+        <v>0.1214338609727543</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06657930966418685</v>
+        <v>0.1358372187238498</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.0512875173057509</v>
+        <v>0.01266909366840672</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06228287441654492</v>
+        <v>0.1357674320600299</v>
       </c>
       <c r="J148" t="n">
-        <v>0.0385662261001487</v>
+        <v>0.02976975197834668</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06821896248373055</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.09924043751061457</v>
+        <v>0.07576163798118429</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06684015290505876</v>
+        <v>0.1370145987974569</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1522491109667186</v>
+        <v>0.1211069822834876</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06739125246496962</v>
+        <v>0.1374937701717017</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.05138506569517963</v>
+        <v>0.01369049322809707</v>
       </c>
       <c r="G149" t="n">
-        <v>0.0630332704938527</v>
+        <v>0.1374031842535242</v>
       </c>
       <c r="J149" t="n">
-        <v>0.03838970695705647</v>
+        <v>0.02980190120491044</v>
       </c>
       <c r="K149" t="n">
-        <v>0.0690408776943779</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.09910050514895585</v>
+        <v>0.0752462249870354</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06764545595210766</v>
+        <v>0.1386653770962215</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1514585506037824</v>
+        <v>0.1215254386909553</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06820319526575239</v>
+        <v>0.1391503216195535</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.05147679891097182</v>
+        <v>0.01471650707476776</v>
       </c>
       <c r="G150" t="n">
-        <v>0.06378366657116046</v>
+        <v>0.1390389364470185</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0379137928375662</v>
+        <v>0.03004448120135908</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06986279290502526</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.09895741892798948</v>
+        <v>0.0757567514279423</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06845075899915658</v>
+        <v>0.140316155394986</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1512765651179129</v>
+        <v>0.1211867441899454</v>
       </c>
       <c r="O150" t="n">
-        <v>0.06901513806653516</v>
+        <v>0.1408068730674053</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.05156265096026635</v>
+        <v>0.01274684668953514</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06453406264846824</v>
+        <v>0.1406746886405129</v>
       </c>
       <c r="J151" t="n">
-        <v>0.03773888520667316</v>
+        <v>0.0302968789806326</v>
       </c>
       <c r="K151" t="n">
-        <v>0.07068470811567262</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.09881172378794473</v>
+        <v>0.07619168190099537</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06925606204620546</v>
+        <v>0.1419669336937505</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1508054040471976</v>
+        <v>0.1211884127752452</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06982708086731793</v>
+        <v>0.1424634245152571</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.05164255585020215</v>
+        <v>0.01278122355351556</v>
       </c>
       <c r="G152" t="n">
-        <v>0.065284458725776</v>
+        <v>0.1423104408340072</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03766538552937268</v>
+        <v>0.03035848155567096</v>
       </c>
       <c r="K152" t="n">
-        <v>0.07150662332631998</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.09846396466905097</v>
+        <v>0.07574948100328513</v>
       </c>
       <c r="M152" t="n">
-        <v>0.07006136509325436</v>
+        <v>0.1436177119925151</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1485473169297234</v>
+        <v>0.1220279584416426</v>
       </c>
       <c r="O152" t="n">
-        <v>0.07063902366810068</v>
+        <v>0.144119975963109</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.05171644758791813</v>
+        <v>0.01481934914782537</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06603485480308377</v>
+        <v>0.1439461930275015</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03749369527066011</v>
+        <v>0.03042867593941416</v>
       </c>
       <c r="K153" t="n">
-        <v>0.07232853853696733</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09761468651153754</v>
+        <v>0.07642861333190193</v>
       </c>
       <c r="M153" t="n">
-        <v>0.07086666814030328</v>
+        <v>0.1452684902912796</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1485045533035779</v>
+        <v>0.1216028951839255</v>
       </c>
       <c r="O153" t="n">
-        <v>0.07145096646888345</v>
+        <v>0.1457765274109608</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0517842601805532</v>
+        <v>0.01286093495358091</v>
       </c>
       <c r="G154" t="n">
-        <v>0.06678525088039154</v>
+        <v>0.1455819452209959</v>
       </c>
       <c r="J154" t="n">
-        <v>0.03732421589553073</v>
+        <v>0.0301068491448022</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07315045374761468</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09696443425563375</v>
+        <v>0.07612754348393633</v>
       </c>
       <c r="M154" t="n">
-        <v>0.07167197118735218</v>
+        <v>0.1469192685900441</v>
       </c>
       <c r="N154" t="n">
-        <v>0.147679362706848</v>
+        <v>0.1213107369968813</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07226290926966622</v>
+        <v>0.1474330788588126</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.05184592763524626</v>
+        <v>0.01490569245189854</v>
       </c>
       <c r="G155" t="n">
-        <v>0.06753564695769931</v>
+        <v>0.1472176974144902</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03695734886897985</v>
+        <v>0.03059238818477505</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07397236895826205</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09701375284156896</v>
+        <v>0.07694473605647875</v>
       </c>
       <c r="M155" t="n">
-        <v>0.07247727423440106</v>
+        <v>0.1485700468888087</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1473739946776213</v>
+        <v>0.122648997875298</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07307485207044899</v>
+        <v>0.1490896303066644</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.05190138395913625</v>
+        <v>0.01295333312389459</v>
       </c>
       <c r="G156" t="n">
-        <v>0.06828604303500707</v>
+        <v>0.1488534496079845</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03719349565600279</v>
+        <v>0.03068468007227269</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0747942841689094</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09636318720957254</v>
+        <v>0.07717865564661966</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07328257728144998</v>
+        <v>0.1502208251875732</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1461906987539849</v>
+        <v>0.1235151918139632</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07388679487123175</v>
+        <v>0.1507461817545163</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.05195056315936208</v>
+        <v>0.01500962682524857</v>
       </c>
       <c r="G157" t="n">
-        <v>0.06903643911231486</v>
+        <v>0.1504892018014789</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03693305772159484</v>
+        <v>0.03048311182023515</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07561619937955676</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0962132822998738</v>
+        <v>0.0772277668514495</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07408788032849888</v>
+        <v>0.1518716034863378</v>
       </c>
       <c r="N157" t="n">
-        <v>0.145731724474026</v>
+        <v>0.1237068328076646</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07469873767201451</v>
+        <v>0.1524027332023681</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.05199339924306265</v>
+        <v>0.01410874757100154</v>
       </c>
       <c r="G158" t="n">
-        <v>0.06978683518962263</v>
+        <v>0.1521249539949732</v>
       </c>
       <c r="J158" t="n">
-        <v>0.0367724234407219</v>
+        <v>0.03049475351171307</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07643811459020411</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09575117652781492</v>
+        <v>0.07722529385017252</v>
       </c>
       <c r="M158" t="n">
-        <v>0.07489318337554778</v>
+        <v>0.1535223817851023</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1447914474757404</v>
+        <v>0.124225821042962</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07551068047279728</v>
+        <v>0.1540592846502199</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.05202982621737687</v>
+        <v>0.01524882307923407</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07053723126693039</v>
+        <v>0.1537607061884675</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03650513379944685</v>
+        <v>0.03079130896980466</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07726002980085146</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09525506531785685</v>
+        <v>0.0782504750505541</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07569848642259668</v>
+        <v>0.1551731600838668</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1451573935626547</v>
+        <v>0.1240242444732519</v>
       </c>
       <c r="O159" t="n">
-        <v>0.07632262327358004</v>
+        <v>0.1557158360980717</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.05205977808944369</v>
+        <v>0.01542114366121388</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07128762734423817</v>
+        <v>0.1553964583819619</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03633148927462022</v>
+        <v>0.03107574583334465</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07808194501149882</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09472630500609067</v>
+        <v>0.07878999139264953</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07650378946964558</v>
+        <v>0.1568239383826314</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1440285803673272</v>
+        <v>0.1247959550072982</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07713456607436281</v>
+        <v>0.1573723875459236</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.05208318886640198</v>
+        <v>0.01561699962820864</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07203802342154593</v>
+        <v>0.1570322105754562</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03595190729270084</v>
+        <v>0.03142955950248823</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07890386022214617</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09456665428778524</v>
+        <v>0.07989749276844674</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07730909251669447</v>
+        <v>0.1584747166813959</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1433042061449032</v>
+        <v>0.1273659061479294</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07794650887514558</v>
+        <v>0.1590289389937754</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.05209999255539068</v>
+        <v>0.01382768129148604</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0727884194988537</v>
+        <v>0.1586679627689505</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03586680528014749</v>
+        <v>0.03213424537739065</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07972577543279354</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09427787185820929</v>
+        <v>0.08002662906993371</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07811439556374337</v>
+        <v>0.1601254949801605</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1430834691505281</v>
+        <v>0.128059051397974</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07875845167592835</v>
+        <v>0.1606854904416272</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.05211012316354871</v>
+        <v>0.01504447896231379</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07353881557616147</v>
+        <v>0.1603037149624449</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03577660066341896</v>
+        <v>0.03237129885820712</v>
       </c>
       <c r="K163" t="n">
-        <v>0.08054769064344089</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09326171641263162</v>
+        <v>0.08143105018909846</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07891969861079227</v>
+        <v>0.161776273278925</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1413655676393473</v>
+        <v>0.1308003442602608</v>
       </c>
       <c r="O163" t="n">
-        <v>0.0795703944767111</v>
+        <v>0.1623420418894791</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.05211351469801495</v>
+        <v>0.01525868295195958</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07428921165346924</v>
+        <v>0.1619394671559392</v>
       </c>
       <c r="J164" t="n">
-        <v>0.0354817108689741</v>
+        <v>0.03262221534509289</v>
       </c>
       <c r="K164" t="n">
-        <v>0.08136960585408824</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09321994664632097</v>
+        <v>0.08246440601792884</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07972500165784117</v>
+        <v>0.1634270515776896</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1420496998665061</v>
+        <v>0.1312147382376185</v>
       </c>
       <c r="O164" t="n">
-        <v>0.08038233727749387</v>
+        <v>0.1639985933373309</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.05211351469801495</v>
+        <v>0.01546158357169108</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07428921165346924</v>
+        <v>0.1635752193494336</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03558255332327166</v>
+        <v>0.03326849023820312</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0821915210647356</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.09275432125454619</v>
+        <v>0.08408034644841295</v>
       </c>
       <c r="M165" t="n">
-        <v>0.08053030470489009</v>
+        <v>0.1650778298764541</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1413350640871499</v>
+        <v>0.1340271868328755</v>
       </c>
       <c r="O165" t="n">
-        <v>0.08119428007827664</v>
+        <v>0.1656551447851827</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.05124461748432679</v>
+        <v>0.014644471132776</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07428894312500522</v>
+        <v>0.1652109715429279</v>
       </c>
       <c r="J166" t="n">
-        <v>0.03527954545277047</v>
+        <v>0.0337916189376931</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08301343627538296</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09236659893257601</v>
+        <v>0.08503252137253875</v>
       </c>
       <c r="M166" t="n">
-        <v>0.08133560775193897</v>
+        <v>0.1667286081752186</v>
       </c>
       <c r="N166" t="n">
-        <v>0.140020858556424</v>
+        <v>0.1351626435488608</v>
       </c>
       <c r="O166" t="n">
-        <v>0.08200622287905941</v>
+        <v>0.1673116962330345</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.05038533782207562</v>
+        <v>0.01580218151296416</v>
       </c>
       <c r="G167" t="n">
-        <v>0.07428867459654122</v>
+        <v>0.1668467237364222</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03507310468392934</v>
+        <v>0.03407309684371798</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08383535148603032</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.09165853837567919</v>
+        <v>0.08597458068229408</v>
       </c>
       <c r="M167" t="n">
-        <v>0.08214091079898787</v>
+        <v>0.1683793864739832</v>
       </c>
       <c r="N167" t="n">
-        <v>0.140206281529474</v>
+        <v>0.1362460618884028</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08281816567984218</v>
+        <v>0.1689682476808864</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.04953610598981963</v>
+        <v>0.01595224687181961</v>
       </c>
       <c r="G168" t="n">
-        <v>0.07428840606807718</v>
+        <v>0.1684824759299166</v>
       </c>
       <c r="J168" t="n">
-        <v>0.03476364844320705</v>
+        <v>0.0345016416589627</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08465726669667767</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0910318982791245</v>
+        <v>0.0863889813109382</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08294621384603679</v>
+        <v>0.1700301647727477</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1394905312614449</v>
+        <v>0.1381108312185751</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08363010848062495</v>
+        <v>0.1706247991287382</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.04869735226622772</v>
+        <v>0.01509866126335763</v>
       </c>
       <c r="G169" t="n">
-        <v>0.07428813753961318</v>
+        <v>0.1701182281234109</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03445159415706242</v>
+        <v>0.03481389357552174</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08547918190732502</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.09038843733818078</v>
+        <v>0.0869706897438145</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08375151689308569</v>
+        <v>0.1716809430715122</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1376728060074825</v>
+        <v>0.1402784725725036</v>
       </c>
       <c r="O169" t="n">
-        <v>0.08444205128140772</v>
+        <v>0.17228135057659</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.04786950692985764</v>
+        <v>0.01524170098511909</v>
       </c>
       <c r="G170" t="n">
-        <v>0.07428786901114916</v>
+        <v>0.1717539803169052</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03423735925195426</v>
+        <v>0.03521847339640834</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08630109711797239</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08952991424811677</v>
+        <v>0.08783333128925708</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08455681994013457</v>
+        <v>0.1733317213702768</v>
       </c>
       <c r="N170" t="n">
-        <v>0.137352304022732</v>
+        <v>0.1405145616914536</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08525399408219048</v>
+        <v>0.1739379020244419</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.04705300025930435</v>
+        <v>0.01538164233464489</v>
       </c>
       <c r="G171" t="n">
-        <v>0.07428760048268515</v>
+        <v>0.1733897325103996</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03422136115434134</v>
+        <v>0.03531596814322439</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08712301232861974</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08825808770420124</v>
+        <v>0.08887837631219578</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08536212298718349</v>
+        <v>0.1749824996690413</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1368282235623386</v>
+        <v>0.1417214792761891</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08606593688297325</v>
+        <v>0.1755944534722937</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.04624826253312804</v>
+        <v>0.01651876160947584</v>
       </c>
       <c r="G172" t="n">
-        <v>0.07428733195422112</v>
+        <v>0.1750254847038939</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0338040172906825</v>
+        <v>0.03560696483757184</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08794492753926708</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08847471640170299</v>
+        <v>0.08970729517756063</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08616742603423239</v>
+        <v>0.1766332779678059</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1366997628814478</v>
+        <v>0.1427016060274739</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08687787968375602</v>
+        <v>0.1772510049201455</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.04545572402999372</v>
+        <v>0.01565333510715286</v>
       </c>
       <c r="G173" t="n">
-        <v>0.07428706342575711</v>
+        <v>0.1766612368973882</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03368574508743649</v>
+        <v>0.03569205050105259</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08876684274991445</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08718155903589075</v>
+        <v>0.09012155825028156</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08697272908128129</v>
+        <v>0.1782840562665704</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1365661202352051</v>
+        <v>0.1448573226460723</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08768982248453878</v>
+        <v>0.1789075563679974</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.04467581502846106</v>
+        <v>0.01678563912521679</v>
       </c>
       <c r="G174" t="n">
-        <v>0.07428679489729309</v>
+        <v>0.1782969890908826</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03356696197106217</v>
+        <v>0.03637181215526857</v>
       </c>
       <c r="K174" t="n">
-        <v>0.0895887579605618</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08658037430203336</v>
+        <v>0.09142263589528854</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08777803212833019</v>
+        <v>0.179934834565335</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1346264938787557</v>
+        <v>0.1447910098327482</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08850176528532154</v>
+        <v>0.1805641078158492</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.043908965807125</v>
+        <v>0.01691594996120849</v>
       </c>
       <c r="G175" t="n">
-        <v>0.07428652636882908</v>
+        <v>0.1799327412843769</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03344808536801831</v>
+        <v>0.03654683682182167</v>
       </c>
       <c r="K175" t="n">
-        <v>0.09041067317120915</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.08597292089539957</v>
+        <v>0.0915119984775114</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08858333517537909</v>
+        <v>0.1815856128640995</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1347800820672451</v>
+        <v>0.1472050482882655</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08931370808610431</v>
+        <v>0.182220659263701</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.04315560664454801</v>
+        <v>0.01604454391266886</v>
       </c>
       <c r="G176" t="n">
-        <v>0.07428625784036505</v>
+        <v>0.1815684934778712</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03322953270476374</v>
+        <v>0.03671771152231385</v>
       </c>
       <c r="K176" t="n">
-        <v>0.09123258838185651</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.08486095751125813</v>
+        <v>0.09249111636188018</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08938863822242799</v>
+        <v>0.1832363911628641</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1336260830558186</v>
+        <v>0.1484018187133881</v>
       </c>
       <c r="O176" t="n">
-        <v>0.09012565088688708</v>
+        <v>0.1838772107115528</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.04241616781939063</v>
+        <v>0.01617169727713874</v>
       </c>
       <c r="G177" t="n">
-        <v>0.07428598931190104</v>
+        <v>0.1832042456713656</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03261172140775724</v>
+        <v>0.03708502327834699</v>
       </c>
       <c r="K177" t="n">
-        <v>0.09205450359250388</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.08434624284487788</v>
+        <v>0.09306145991332473</v>
       </c>
       <c r="M177" t="n">
-        <v>0.09019394126947688</v>
+        <v>0.1848871694616286</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1339636950996215</v>
+        <v>0.1484837018088803</v>
       </c>
       <c r="O177" t="n">
-        <v>0.09093759368766985</v>
+        <v>0.1855337621594046</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.04169107961021472</v>
+        <v>0.01829793980609073</v>
       </c>
       <c r="G178" t="n">
-        <v>0.07428572078343702</v>
+        <v>0.1848399978648599</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03269506890345759</v>
+        <v>0.03734935911152304</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09287641880315123</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.08383053559152753</v>
+        <v>0.0938244994967751</v>
       </c>
       <c r="M178" t="n">
-        <v>0.09099924431652578</v>
+        <v>0.1865379477603931</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1328921164537993</v>
+        <v>0.1490530782755059</v>
       </c>
       <c r="O178" t="n">
-        <v>0.0917495364884526</v>
+        <v>0.1871903136072565</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.04098077229561523</v>
+        <v>0.01843029487942568</v>
       </c>
       <c r="G179" t="n">
-        <v>0.074285452254973</v>
+        <v>0.1864757500583542</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03217999261832367</v>
+        <v>0.03731253502511367</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09369833401379858</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.08301559444647588</v>
+        <v>0.09448713956619759</v>
       </c>
       <c r="M179" t="n">
-        <v>0.09180454736357468</v>
+        <v>0.1881887260591577</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1326105453734974</v>
+        <v>0.1501131115136988</v>
       </c>
       <c r="O179" t="n">
-        <v>0.09256147928923537</v>
+        <v>0.1888468650551083</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.04028567615415721</v>
+        <v>0.0175683344239885</v>
       </c>
       <c r="G180" t="n">
-        <v>0.07428518372650898</v>
+        <v>0.1881115022518486</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03236690997881421</v>
+        <v>0.03768984774587406</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09452024922444595</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.08220317810499173</v>
+        <v>0.09458750732588353</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0926098504106236</v>
+        <v>0.1898395043579222</v>
       </c>
       <c r="N180" t="n">
-        <v>0.131218180113861</v>
+        <v>0.152619889646626</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09337342209001814</v>
+        <v>0.1905034165029601</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.03960622146449609</v>
+        <v>0.01870731213534089</v>
       </c>
       <c r="G181" t="n">
-        <v>0.07428491519804496</v>
+        <v>0.1897472544453429</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03195623841138803</v>
+        <v>0.03817788779373769</v>
       </c>
       <c r="K181" t="n">
-        <v>0.0953421644350933</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.08189504526234387</v>
+        <v>0.09611213485330439</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09341515345767248</v>
+        <v>0.1914902826566867</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1301142189300356</v>
+        <v>0.152877782526552</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09418536489080091</v>
+        <v>0.1921599679508119</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.03894283850519627</v>
+        <v>0.01784248170904452</v>
       </c>
       <c r="G182" t="n">
-        <v>0.07428464666958096</v>
+        <v>0.1913830066388373</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03174839534250394</v>
+        <v>0.03836657117293028</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09616407964574065</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.08129295461380098</v>
+        <v>0.09663576387228801</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09422045650472138</v>
+        <v>0.1931410609554513</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1295978600771667</v>
+        <v>0.1550458939132608</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09499730769158367</v>
+        <v>0.1938165193986638</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.03829595755485268</v>
+        <v>0.01896909684066109</v>
       </c>
       <c r="G183" t="n">
-        <v>0.07428437814111694</v>
+        <v>0.1930187588323316</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03134379819862075</v>
+        <v>0.03874581388767742</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09698599485638801</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.08059866485463194</v>
+        <v>0.09703313610666237</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0950257595517703</v>
+        <v>0.1947918392542158</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1296683018103993</v>
+        <v>0.1547833275665362</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09580925049236644</v>
+        <v>0.1954730708465156</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.03766600889203323</v>
+        <v>0.01908241122575229</v>
       </c>
       <c r="G184" t="n">
-        <v>0.07428410961265292</v>
+        <v>0.1946545110258259</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03114286440619723</v>
+        <v>0.03900553194220477</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09780791006703538</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07971393468010551</v>
+        <v>0.09797899328025525</v>
       </c>
       <c r="M184" t="n">
-        <v>0.0958310625988192</v>
+        <v>0.1964426175529804</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1280247423848791</v>
+        <v>0.1557491872461622</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09662119329314922</v>
+        <v>0.1971296222943674</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.03705342279538773</v>
+        <v>0.01717767855987979</v>
       </c>
       <c r="G185" t="n">
-        <v>0.0742838410841889</v>
+        <v>0.1962902632193202</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03134601139169223</v>
+        <v>0.03923564134073801</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09862982527768273</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07894052278549046</v>
+        <v>0.09824807711689457</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09663636564586808</v>
+        <v>0.1980933958517449</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1274663800557513</v>
+        <v>0.1569025767119224</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09743313609393198</v>
+        <v>0.1987861737422193</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.03645862954348333</v>
+        <v>0.01825015253860529</v>
       </c>
       <c r="G186" t="n">
-        <v>0.07428357255572489</v>
+        <v>0.1979260154128146</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03115365658156452</v>
+        <v>0.03942605808750277</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09945174048833007</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07878018786605551</v>
+        <v>0.09941512934040825</v>
       </c>
       <c r="M186" t="n">
-        <v>0.097441668692917</v>
+        <v>0.1997441741505094</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1267924130781614</v>
+        <v>0.1587025997236008</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09824507889471475</v>
+        <v>0.2004427251900711</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.035882059414915</v>
+        <v>0.0183022311633174</v>
       </c>
       <c r="G187" t="n">
-        <v>0.07428330402726087</v>
+        <v>0.1995617676063089</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03076621740227289</v>
+        <v>0.03926669818672469</v>
       </c>
       <c r="K187" t="n">
-        <v>0.1002736556989774</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.07713468861706951</v>
+        <v>0.09915489167462416</v>
       </c>
       <c r="M187" t="n">
-        <v>0.0982469717399659</v>
+        <v>0.201394952449274</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1262020397072548</v>
+        <v>0.1587083600409813</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09905702169549752</v>
+        <v>0.2020992766379229</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.03532414268825378</v>
+        <v>0.0183520040470391</v>
       </c>
       <c r="G188" t="n">
-        <v>0.07428303549879685</v>
+        <v>0.2011975197998033</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03038411128027621</v>
+        <v>0.03967238298754606</v>
       </c>
       <c r="K188" t="n">
-        <v>0.1010955709096248</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.07720578373380124</v>
+        <v>0.09911898061133562</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0990522747870148</v>
+        <v>0.2030457307480385</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1245944581981767</v>
+        <v>0.1592441624475109</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09986896449628029</v>
+        <v>0.2037558280857747</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.03478530964214323</v>
+        <v>0.01840066940365046</v>
       </c>
       <c r="G189" t="n">
-        <v>0.07428276697033283</v>
+        <v>0.2028332719932976</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03020775564203321</v>
+        <v>0.03977547133709823</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1019174861202721</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.07689523191151942</v>
+        <v>0.09927729166998606</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0998575778340637</v>
+        <v>0.2046965090468031</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1240688668060725</v>
+        <v>0.1602619561906937</v>
       </c>
       <c r="O189" t="n">
-        <v>0.100680907297063</v>
+        <v>0.2054123795336266</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.03426423358422435</v>
+        <v>0.01844820976610887</v>
       </c>
       <c r="G190" t="n">
-        <v>0.07428249844186881</v>
+        <v>0.2044690241867919</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03043756791400275</v>
+        <v>0.03957622299459024</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1027394013309195</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.07630479184549288</v>
+        <v>0.09962973383151008</v>
       </c>
       <c r="M190" t="n">
-        <v>0.1006628808811126</v>
+        <v>0.2063472873455676</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1240244637860877</v>
+        <v>0.1607703199260277</v>
       </c>
       <c r="O190" t="n">
-        <v>0.1014928500978458</v>
+        <v>0.2070689309814784</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.0337508029675157</v>
+        <v>0.01849460766737177</v>
       </c>
       <c r="G191" t="n">
-        <v>0.0742822299134048</v>
+        <v>0.2061047763802863</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02987396552264357</v>
+        <v>0.04007460084955311</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1035613165415669</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.07533622223099032</v>
+        <v>0.1000762141420337</v>
       </c>
       <c r="M191" t="n">
-        <v>0.1014681839281615</v>
+        <v>0.2079980656443322</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1225604473933677</v>
+        <v>0.160069103149815</v>
       </c>
       <c r="O191" t="n">
-        <v>0.1023047928986286</v>
+        <v>0.2087254824293302</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.03324369109966079</v>
+        <v>0.01953984564039656</v>
       </c>
       <c r="G192" t="n">
-        <v>0.07428196138494077</v>
+        <v>0.2077405285737806</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03011736589441451</v>
+        <v>0.03977056779151786</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1043832317522142</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.0744912817632806</v>
+        <v>0.1009166396476825</v>
       </c>
       <c r="M192" t="n">
-        <v>0.1022734869752104</v>
+        <v>0.2096488439430967</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1220760158830577</v>
+        <v>0.1612581553583575</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1031167356994113</v>
+        <v>0.210382033877182</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.03274332825929868</v>
+        <v>0.01758390621814064</v>
       </c>
       <c r="G193" t="n">
-        <v>0.07428169285647676</v>
+        <v>0.2093762807672749</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02956628708289319</v>
+        <v>0.04006408671001549</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1052051469628616</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.07445726056284419</v>
+        <v>0.1004509173945825</v>
       </c>
       <c r="M193" t="n">
-        <v>0.1030787900222593</v>
+        <v>0.2112996222418612</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1209306917297092</v>
+        <v>0.1621373260479575</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1039286785001941</v>
+        <v>0.2120385853250339</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.03225014472500211</v>
+        <v>0.01962677193356143</v>
       </c>
       <c r="G194" t="n">
-        <v>0.07428142432801274</v>
+        <v>0.2110120329607693</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02941838168860479</v>
+        <v>0.04025512049457702</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1060270621735089</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.0738168880907101</v>
+        <v>0.1014789544288593</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1038840930693082</v>
+        <v>0.2129504005406258</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1201808189999212</v>
+        <v>0.1620064647149167</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1047406213009769</v>
+        <v>0.2136951367728857</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.03176457077536607</v>
+        <v>0.01766842531961634</v>
       </c>
       <c r="G195" t="n">
-        <v>0.07428115579954873</v>
+        <v>0.2126477851542636</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02967350171501788</v>
+        <v>0.04004363203473349</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1068489773841563</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07287095357191001</v>
+        <v>0.1008006577966389</v>
       </c>
       <c r="M195" t="n">
-        <v>0.1046893961163571</v>
+        <v>0.2146011788393903</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1192334325459541</v>
+        <v>0.1613654208555375</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1055525641017597</v>
+        <v>0.2153516882207376</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.03128703668896488</v>
+        <v>0.01770884890926279</v>
       </c>
       <c r="G196" t="n">
-        <v>0.0742808872710847</v>
+        <v>0.214283537347758</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02953150730410817</v>
+        <v>0.04042958422001587</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1076708925948036</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07222031231958584</v>
+        <v>0.101015934544047</v>
       </c>
       <c r="M196" t="n">
-        <v>0.105494699163406</v>
+        <v>0.2162519571381549</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1178956741107214</v>
+        <v>0.1622140439661217</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1063645069025424</v>
+        <v>0.2170082396685894</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.03081797274443508</v>
+        <v>0.01774802523545817</v>
       </c>
       <c r="G197" t="n">
-        <v>0.07428061874262069</v>
+        <v>0.2159192895412523</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02929225859785139</v>
+        <v>0.04061293993995523</v>
       </c>
       <c r="K197" t="n">
-        <v>0.108492807805451</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07216581964687951</v>
+        <v>0.1017246917172095</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1063000022104549</v>
+        <v>0.2179027354369194</v>
       </c>
       <c r="N197" t="n">
-        <v>0.116874685437137</v>
+        <v>0.1634521835429714</v>
       </c>
       <c r="O197" t="n">
-        <v>0.1071764497033252</v>
+        <v>0.2186647911164412</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.03035780922035065</v>
+        <v>0.01778593683115991</v>
       </c>
       <c r="G198" t="n">
-        <v>0.07428035021415667</v>
+        <v>0.2175550417347466</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0292556157382233</v>
+        <v>0.04059366208408251</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1093147230160983</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07100833086693298</v>
+        <v>0.1023268363622522</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1071053052575038</v>
+        <v>0.2195535137356839</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1145776082681143</v>
+        <v>0.1633796890823887</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1079883925041079</v>
+        <v>0.220321342564293</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02990697639530657</v>
+        <v>0.01882256622932542</v>
       </c>
       <c r="G199" t="n">
-        <v>0.07428008168569267</v>
+        <v>0.2191907939282409</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02872143886719959</v>
+        <v>0.04077171354192878</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1101366382267457</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07054870129288815</v>
+        <v>0.1023222755253008</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1079106083045527</v>
+        <v>0.2212042920344485</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1124115843465671</v>
+        <v>0.1639964100806757</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1088003353048907</v>
+        <v>0.2219778940121448</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02946590454787877</v>
+        <v>0.0198578959629121</v>
       </c>
       <c r="G200" t="n">
-        <v>0.07427981315722863</v>
+        <v>0.2208265461217353</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02878958812675604</v>
+        <v>0.04064705720302503</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1109585534373931</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06978778623788706</v>
+        <v>0.1018109162524812</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1087159113516016</v>
+        <v>0.222855070333213</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1120837554154087</v>
+        <v>0.1633021960341342</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1096122781056735</v>
+        <v>0.2236344454599966</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02903502395670063</v>
+        <v>0.01889190856487737</v>
       </c>
       <c r="G201" t="n">
-        <v>0.07427954462876463</v>
+        <v>0.2224622983152296</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02875992365886837</v>
+        <v>0.04061965595690231</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1117804686480404</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06922644101507158</v>
+        <v>0.1028926655899192</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1095212143986505</v>
+        <v>0.2245058486319776</v>
       </c>
       <c r="N201" t="n">
-        <v>0.110501263217553</v>
+        <v>0.1643968964390665</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1104242209064562</v>
+        <v>0.2252909969078485</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.0286147649003477</v>
+        <v>0.01892458656817865</v>
       </c>
       <c r="G202" t="n">
-        <v>0.07427927610030061</v>
+        <v>0.2240980505087239</v>
       </c>
       <c r="J202" t="n">
-        <v>0.0285323056055123</v>
+        <v>0.04088947269309157</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1126023838586878</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06946552093758362</v>
+        <v>0.1026674305837407</v>
       </c>
       <c r="M202" t="n">
-        <v>0.1103265174456994</v>
+        <v>0.2261566269307421</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1078712494959138</v>
+        <v>0.1645803607917746</v>
       </c>
       <c r="O202" t="n">
-        <v>0.111236163707239</v>
+        <v>0.2269475483557003</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02820555765741493</v>
+        <v>0.01995591250577334</v>
       </c>
       <c r="G203" t="n">
-        <v>0.07427900757183659</v>
+        <v>0.2257338027022183</v>
       </c>
       <c r="J203" t="n">
-        <v>0.0285065941086636</v>
+        <v>0.04065647030112388</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1134242990693351</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06910588131856524</v>
+        <v>0.1027351182800713</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1111318204927483</v>
+        <v>0.2278074052295066</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1073008559934043</v>
+        <v>0.1645524385885604</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1120481065080218</v>
+        <v>0.2286040998035521</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0278078325064802</v>
+        <v>0.01798586891061883</v>
       </c>
       <c r="G204" t="n">
-        <v>0.07427873904337257</v>
+        <v>0.2273695548957126</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02818264931029797</v>
+        <v>0.04092061167053022</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1142462142799825</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06784837747115829</v>
+        <v>0.103295635725037</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1119371235397972</v>
+        <v>0.2294581835282712</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1050972244529384</v>
+        <v>0.1640129793257263</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1128600493088045</v>
+        <v>0.230260651251404</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02742201972617311</v>
+        <v>0.02001443831567257</v>
       </c>
       <c r="G205" t="n">
-        <v>0.07427847051490855</v>
+        <v>0.229005307089207</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02796033135239115</v>
+        <v>0.04118185969084164</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1150681294906298</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06699386470850471</v>
+        <v>0.1034488899647635</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1127424265868461</v>
+        <v>0.2311089618270357</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1032674966174296</v>
+        <v>0.1656618324995739</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1136719921095873</v>
+        <v>0.2319172026992558</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02704854959507103</v>
+        <v>0.02004160325389195</v>
       </c>
       <c r="G206" t="n">
-        <v>0.07427820198644454</v>
+        <v>0.2306410592827013</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02813950037691888</v>
+        <v>0.04094017725158913</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1158900447012772</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06674319834374651</v>
+        <v>0.1033947880453768</v>
       </c>
       <c r="M206" t="n">
-        <v>0.113547729633895</v>
+        <v>0.2327597401258003</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1010188142297916</v>
+        <v>0.1649988476064055</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1144839349103701</v>
+        <v>0.2335737541471076</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.02668785239176893</v>
+        <v>0.01806734625823438</v>
       </c>
       <c r="G207" t="n">
-        <v>0.07427793345798052</v>
+        <v>0.2322768114761956</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02802001652585689</v>
+        <v>0.04099552724230369</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1167119599119246</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06659723369002554</v>
+        <v>0.1031332370130025</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1143530326809439</v>
+        <v>0.2344105184245648</v>
       </c>
       <c r="N207" t="n">
-        <v>0.099958319032938</v>
+        <v>0.1649238741425231</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1152958777111528</v>
+        <v>0.2352303055949595</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02634035839484693</v>
+        <v>0.02009164986165729</v>
       </c>
       <c r="G208" t="n">
-        <v>0.0742776649295165</v>
+        <v>0.23391256366969</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02770173994118094</v>
+        <v>0.04104787255251638</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1175338751225719</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06535682606048385</v>
+        <v>0.1037641439137665</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1151583357279928</v>
+        <v>0.2360612967233293</v>
       </c>
       <c r="N208" t="n">
-        <v>0.09819315276978252</v>
+        <v>0.1661367616042287</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1161078205119356</v>
+        <v>0.2368868570428113</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02600649788293023</v>
+        <v>0.01811449659711806</v>
       </c>
       <c r="G209" t="n">
-        <v>0.07427739640105248</v>
+        <v>0.2355483158631843</v>
       </c>
       <c r="J209" t="n">
-        <v>0.02788453076486674</v>
+        <v>0.04139717607175815</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1183557903332193</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06532283076826331</v>
+        <v>0.1038874157937945</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1159636387750417</v>
+        <v>0.2377120750220939</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09563045718323854</v>
+        <v>0.1653373594878245</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1169197633127184</v>
+        <v>0.2385434084906631</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02568670113459838</v>
+        <v>0.01813586899757414</v>
       </c>
       <c r="G210" t="n">
-        <v>0.07427712787258847</v>
+        <v>0.2371840680566787</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02766824913889002</v>
+        <v>0.04104340068956007</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1191777055438666</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06469610312650587</v>
+        <v>0.1042029596992124</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1167689418220906</v>
+        <v>0.2393628533208584</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09397737401621992</v>
+        <v>0.1658255172896124</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1177317061135011</v>
+        <v>0.240199959938515</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02538139842844631</v>
+        <v>0.0191557495959829</v>
       </c>
       <c r="G211" t="n">
-        <v>0.07427685934412445</v>
+        <v>0.238819820250173</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02755275520522651</v>
+        <v>0.04108650929545311</v>
       </c>
       <c r="K211" t="n">
-        <v>0.119999620754514</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06417749844835349</v>
+        <v>0.1039106826761461</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1175742448691395</v>
+        <v>0.241013631619623</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09264104501164022</v>
+        <v>0.1661010845058945</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1185436489142839</v>
+        <v>0.2418565113863668</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02509102004305669</v>
+        <v>0.02017412092530178</v>
       </c>
       <c r="G212" t="n">
-        <v>0.07427659081566043</v>
+        <v>0.2404555724436673</v>
       </c>
       <c r="J212" t="n">
-        <v>0.027137909105852</v>
+        <v>0.04152646477896833</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1208215359651613</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.0638678720469481</v>
+        <v>0.1043104917707213</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1183795479161884</v>
+        <v>0.2426644099183875</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09112861191241295</v>
+        <v>0.1671639106329728</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1193555917150667</v>
+        <v>0.2435130628342186</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02481599625704975</v>
+        <v>0.02019096551848819</v>
       </c>
       <c r="G213" t="n">
-        <v>0.07427632228719641</v>
+        <v>0.2420913246371617</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02702357098274216</v>
+        <v>0.04136323002963672</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1216434511758087</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06356807923543167</v>
+        <v>0.1042022940290638</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1191848509632373</v>
+        <v>0.244315188217152</v>
       </c>
       <c r="N213" t="n">
-        <v>0.08944721646145193</v>
+        <v>0.1670138451671494</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1201675345158494</v>
+        <v>0.2451696142820704</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02455675734900747</v>
+        <v>0.01820626590849952</v>
       </c>
       <c r="G214" t="n">
-        <v>0.0742760537587324</v>
+        <v>0.243727076830656</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02700960097787275</v>
+        <v>0.04119676793698929</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1224653663864561</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.0627789753269461</v>
+        <v>0.1036859964972996</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1199901540102862</v>
+        <v>0.2459659665159166</v>
       </c>
       <c r="N214" t="n">
-        <v>0.08700400040167067</v>
+        <v>0.1665507376047263</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1209794773166322</v>
+        <v>0.2468261657299222</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02455675734900747</v>
+        <v>0.01822000462829321</v>
       </c>
       <c r="G215" t="n">
-        <v>0.0742760537587324</v>
+        <v>0.2453628290241503</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02699585923321948</v>
+        <v>0.04152704139055706</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1232872815971034</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06190141563463339</v>
+        <v>0.1039615062215543</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1207954570573351</v>
+        <v>0.2476167448146812</v>
       </c>
       <c r="N215" t="n">
-        <v>0.08640610547598293</v>
+        <v>0.1673744374420056</v>
       </c>
       <c r="O215" t="n">
-        <v>0.121791420117415</v>
+        <v>0.2484827171777741</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02394586459105918</v>
+        <v>0.01923216421082664</v>
       </c>
       <c r="G216" t="n">
-        <v>0.07414855240708886</v>
+        <v>0.2469985812176446</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02688220589075814</v>
+        <v>0.04135401327987105</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1241091968077508</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06143625547163542</v>
+        <v>0.1043287302479536</v>
       </c>
       <c r="M216" t="n">
-        <v>0.121600760104384</v>
+        <v>0.2492675231134457</v>
       </c>
       <c r="N216" t="n">
-        <v>0.08466067342730199</v>
+        <v>0.1662847941752894</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1226033629181977</v>
+        <v>0.2501392686256259</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02334167377442564</v>
+        <v>0.02024272718905726</v>
       </c>
       <c r="G217" t="n">
-        <v>0.07402105105544531</v>
+        <v>0.248634333411139</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02666850109246442</v>
+        <v>0.04167764649446226</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1249311120183981</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.0608843501510942</v>
+        <v>0.1039875756226238</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1224060631514329</v>
+        <v>0.2509183014122102</v>
       </c>
       <c r="N217" t="n">
-        <v>0.08307484599854192</v>
+        <v>0.1672816573008795</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1234153057189805</v>
+        <v>0.2517958200734777</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.022744474403623</v>
+        <v>0.01925167609594244</v>
       </c>
       <c r="G218" t="n">
-        <v>0.07389354970380176</v>
+        <v>0.2502700856046333</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02665460498031405</v>
+        <v>0.04129790392386172</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1257530272290455</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06124655498615161</v>
+        <v>0.1043379493916902</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1232113661984818</v>
+        <v>0.2525690797109748</v>
       </c>
       <c r="N218" t="n">
-        <v>0.08135576493261609</v>
+        <v>0.1665648763150782</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1242272485197633</v>
+        <v>0.2534523715213295</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02215455598316752</v>
+        <v>0.02025899346443961</v>
       </c>
       <c r="G219" t="n">
-        <v>0.07376604835215822</v>
+        <v>0.2519058377981277</v>
       </c>
       <c r="J219" t="n">
-        <v>0.0266403776962828</v>
+        <v>0.04141474845760043</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1265749424396928</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06102372528994959</v>
+        <v>0.1047797586012789</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1240166692455307</v>
+        <v>0.2542198580097393</v>
       </c>
       <c r="N219" t="n">
-        <v>0.08021057197243808</v>
+        <v>0.1668343007141875</v>
       </c>
       <c r="O219" t="n">
-        <v>0.125039191320546</v>
+        <v>0.2551089229691814</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02157220801757539</v>
+        <v>0.02026466182750618</v>
       </c>
       <c r="G220" t="n">
-        <v>0.07363854700051467</v>
+        <v>0.253541589991622</v>
       </c>
       <c r="J220" t="n">
-        <v>0.0263256793823464</v>
+        <v>0.04172814298520941</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1273968576503402</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06031671637563016</v>
+        <v>0.1047129102975156</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1248219722925796</v>
+        <v>0.2558706363085039</v>
       </c>
       <c r="N220" t="n">
-        <v>0.07994640886092164</v>
+        <v>0.1678897799945094</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1258511341213288</v>
+        <v>0.2567654744170332</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.0209977200113628</v>
+        <v>0.02026866371809957</v>
       </c>
       <c r="G221" t="n">
-        <v>0.07351104564887112</v>
+        <v>0.2551773421851163</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02631037018048053</v>
+        <v>0.04143805039621967</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1282187728609875</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05992638355633523</v>
+        <v>0.1039373115265261</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1256272753396285</v>
+        <v>0.2575214146072684</v>
       </c>
       <c r="N221" t="n">
-        <v>0.07807041734098041</v>
+        <v>0.1668311636523459</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1266630769221116</v>
+        <v>0.258422025864885</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02043138146904599</v>
+        <v>0.02027098166917719</v>
       </c>
       <c r="G222" t="n">
-        <v>0.07338354429722758</v>
+        <v>0.2568130943786107</v>
       </c>
       <c r="J222" t="n">
-        <v>0.026094310232661</v>
+        <v>0.04174443358016224</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1290406880716349</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05915358214520666</v>
+        <v>0.1039528693344363</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1264325783866774</v>
+        <v>0.2591721929060329</v>
       </c>
       <c r="N222" t="n">
-        <v>0.07638973915552794</v>
+        <v>0.1676583011839991</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1274750197228944</v>
+        <v>0.2600785773127369</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01987348189514116</v>
+        <v>0.01827108732061853</v>
       </c>
       <c r="G223" t="n">
-        <v>0.07325604294558404</v>
+        <v>0.258448846572105</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02617735968086349</v>
+        <v>0.04144725542656812</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1298626032822822</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05939916745538651</v>
+        <v>0.1040594907673719</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1272378814337263</v>
+        <v>0.2608229712047975</v>
       </c>
       <c r="N223" t="n">
-        <v>0.0751115160474779</v>
+        <v>0.1666710420857712</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1282869625236771</v>
+        <v>0.2617351287605887</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01932431079416451</v>
+        <v>0.02023768162753118</v>
       </c>
       <c r="G224" t="n">
-        <v>0.07312854159394049</v>
+        <v>0.2600845987655993</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02575937866706376</v>
+        <v>0.04151895235806691</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1306845184929296</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05846399480001666</v>
+        <v>0.1047780406157169</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1280431844807752</v>
+        <v>0.262473749503562</v>
       </c>
       <c r="N224" t="n">
-        <v>0.07564288975974393</v>
+        <v>0.1665842359002657</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1290989053244599</v>
+        <v>0.2633916802084405</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01878415767063224</v>
+        <v>0.0181561658948174</v>
       </c>
       <c r="G225" t="n">
-        <v>0.07300104024229695</v>
+        <v>0.2617203509590937</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02574022733323754</v>
+        <v>0.04158926025569409</v>
       </c>
       <c r="K225" t="n">
-        <v>0.131506433703577</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05804891949223906</v>
+        <v>0.1037400500793489</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1288484875278241</v>
+        <v>0.2641245278023265</v>
       </c>
       <c r="N225" t="n">
-        <v>0.07469100203523954</v>
+        <v>0.1675967273558616</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1299108481252426</v>
+        <v>0.2650482316562924</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01825331202906059</v>
+        <v>0.02003198535741623</v>
       </c>
       <c r="G226" t="n">
-        <v>0.0728735388906534</v>
+        <v>0.263356103152588</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02571976582136055</v>
+        <v>0.04106519615795694</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1323283489142243</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05785479684519562</v>
+        <v>0.103066791171569</v>
       </c>
       <c r="M226" t="n">
-        <v>0.129653790574873</v>
+        <v>0.2657753061010911</v>
       </c>
       <c r="N226" t="n">
-        <v>0.07376299461687846</v>
+        <v>0.1661232410700897</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1307227909260254</v>
+        <v>0.2667047831041442</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01773206337396575</v>
+        <v>0.01987058525026669</v>
       </c>
       <c r="G227" t="n">
-        <v>0.07274603753900985</v>
+        <v>0.2649918553460823</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02579785427340855</v>
+        <v>0.04065832900798355</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1331502641248717</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05728248217202841</v>
+        <v>0.1022872416475337</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1304590936219219</v>
+        <v>0.2674260843998557</v>
       </c>
       <c r="N227" t="n">
-        <v>0.07356600924757434</v>
+        <v>0.1650106955748296</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1315347337268082</v>
+        <v>0.268361334551996</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01722070120986392</v>
+        <v>0.01967741080830781</v>
       </c>
       <c r="G228" t="n">
-        <v>0.07261853618736631</v>
+        <v>0.2666276075395767</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02547435283135727</v>
+        <v>0.04058022774890199</v>
       </c>
       <c r="K228" t="n">
-        <v>0.133972179335519</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05703283078587923</v>
+        <v>0.1018303792623994</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1312643966689708</v>
+        <v>0.2690768626986202</v>
       </c>
       <c r="N228" t="n">
-        <v>0.07350718767024078</v>
+        <v>0.1639060094019609</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1323466765275909</v>
+        <v>0.2700178859998478</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01671951504127133</v>
+        <v>0.0174579072664786</v>
       </c>
       <c r="G229" t="n">
-        <v>0.07249103483572276</v>
+        <v>0.268263359733071</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02514912163718244</v>
+        <v>0.03994246132384041</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1347940945461664</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05780669799989008</v>
+        <v>0.100925181771323</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1320696997160197</v>
+        <v>0.2707276409973847</v>
       </c>
       <c r="N229" t="n">
-        <v>0.07209367162779129</v>
+        <v>0.1612561010833636</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1331586193283737</v>
+        <v>0.2716744374476996</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01622879437270418</v>
+        <v>0.01721751985971812</v>
       </c>
       <c r="G230" t="n">
-        <v>0.07236353348407921</v>
+        <v>0.2698991119265653</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02502203060593514</v>
+        <v>0.03965659867592684</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1356160097568137</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05660482977426676</v>
+        <v>0.09900062692946074</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1328750027630686</v>
+        <v>0.2723784192961493</v>
       </c>
       <c r="N230" t="n">
-        <v>0.07323163823974921</v>
+        <v>0.1593078891509171</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1339705621291565</v>
+        <v>0.2733309888955515</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01574882870867867</v>
+        <v>0.01796169382296536</v>
       </c>
       <c r="G231" t="n">
-        <v>0.07223603213243568</v>
+        <v>0.2715348641200597</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02519399050366714</v>
+        <v>0.03913420874828943</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1364379249674611</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.0569137755892245</v>
+        <v>0.09818569249196943</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1336803058101175</v>
+        <v>0.2740291975949138</v>
       </c>
       <c r="N231" t="n">
-        <v>0.07303199535769012</v>
+        <v>0.1573082921365012</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1347825049299392</v>
+        <v>0.2749875403434033</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01527990755371102</v>
+        <v>0.01869587439115935</v>
       </c>
       <c r="G232" t="n">
-        <v>0.07210853078079213</v>
+        <v>0.273170616313554</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02516566886152079</v>
+        <v>0.03838686048405628</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1372598401781084</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05692397353986972</v>
+        <v>0.09640935621400551</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1344856088571664</v>
+        <v>0.2756799758936783</v>
       </c>
       <c r="N232" t="n">
-        <v>0.07303409277426171</v>
+        <v>0.1546042285719957</v>
       </c>
       <c r="O232" t="n">
-        <v>0.135594447730722</v>
+        <v>0.2766440917912552</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01482232041231744</v>
+        <v>0.01842550679923913</v>
       </c>
       <c r="G233" t="n">
-        <v>0.07198102942914858</v>
+        <v>0.2748063685070484</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02493706726769336</v>
+        <v>0.03792612282635544</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1380817553887558</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05633569755328049</v>
+        <v>0.09490059585072555</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1352909119042153</v>
+        <v>0.2773307541924429</v>
       </c>
       <c r="N233" t="n">
-        <v>0.07323949811378183</v>
+        <v>0.1521426169892801</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1364063905315048</v>
+        <v>0.2783006432391069</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01437635678901414</v>
+        <v>0.01615603628214372</v>
       </c>
       <c r="G234" t="n">
-        <v>0.07185352807750504</v>
+        <v>0.2764421207005427</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02480818731038213</v>
+        <v>0.03746356471831502</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1389036705994032</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05644922155653495</v>
+        <v>0.09388838915728617</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1360962149512642</v>
+        <v>0.2789815324912074</v>
       </c>
       <c r="N234" t="n">
-        <v>0.07214977900056835</v>
+        <v>0.1511703759202341</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1372183333322875</v>
+        <v>0.2799571946869588</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01394230618831731</v>
+        <v>0.01689290807481214</v>
       </c>
       <c r="G235" t="n">
-        <v>0.07172602672586149</v>
+        <v>0.278077872894037</v>
       </c>
       <c r="J235" t="n">
-        <v>0.02457903057778436</v>
+        <v>0.03661075510306314</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1397255858100505</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05616481947671115</v>
+        <v>0.09300171388884387</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1369015179983132</v>
+        <v>0.280632310789972</v>
       </c>
       <c r="N235" t="n">
-        <v>0.07216650305893912</v>
+        <v>0.1490344238967376</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1380302761330703</v>
+        <v>0.2816137461348106</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01352045811474318</v>
+        <v>0.01564156741218341</v>
       </c>
       <c r="G236" t="n">
-        <v>0.07159852537421794</v>
+        <v>0.2797136250875313</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02454959865809735</v>
+        <v>0.03627926292372785</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1405475010206979</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.05548276524088722</v>
+        <v>0.09096954780055524</v>
       </c>
       <c r="M236" t="n">
-        <v>0.137706821045362</v>
+        <v>0.2822830890887365</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0719912379132121</v>
+        <v>0.14618167945067</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1388422189338531</v>
+        <v>0.2832702975826624</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01311110207280795</v>
+        <v>0.01640745952919658</v>
       </c>
       <c r="G237" t="n">
-        <v>0.07147102402257439</v>
+        <v>0.2813493772810257</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02421989313951836</v>
+        <v>0.0358806571234373</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1413694162313452</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05540333277614126</v>
+        <v>0.09042086864757695</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1385121240924109</v>
+        <v>0.283933867387501</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07292555118770522</v>
+        <v>0.1444590611139112</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1396541617346359</v>
+        <v>0.2849268490305143</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01271452756702783</v>
+        <v>0.01519244645870019</v>
       </c>
       <c r="G238" t="n">
-        <v>0.07134352267093086</v>
+        <v>0.28298512947452</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02398991561024466</v>
+        <v>0.03522488929717373</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1421913314419926</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05512679600955137</v>
+        <v>0.08887940961802515</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1393174271394599</v>
+        <v>0.2855846456862656</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07307101050673631</v>
+        <v>0.1427097678570136</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1404661045354186</v>
+        <v>0.2865834004783661</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01233102410191904</v>
+        <v>0.01697960664600466</v>
       </c>
       <c r="G239" t="n">
-        <v>0.07121602131928731</v>
+        <v>0.2846208816680144</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02395966765847354</v>
+        <v>0.03468243328550683</v>
       </c>
       <c r="K239" t="n">
-        <v>0.14301324665264</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05505342886819564</v>
+        <v>0.08716825359867916</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1401227301865087</v>
+        <v>0.2872354239850301</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07232918349462336</v>
+        <v>0.1408237930454527</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1412780473362014</v>
+        <v>0.2882399519262179</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01195969903855659</v>
+        <v>0.01576595691263774</v>
       </c>
       <c r="G240" t="n">
-        <v>0.07108851996764376</v>
+        <v>0.2862566338615087</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02412915087240225</v>
+        <v>0.03453828138328177</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1438351618632873</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05528350527915213</v>
+        <v>0.08645284230167041</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1409280332335576</v>
+        <v>0.2888862022837946</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07200163777568425</v>
+        <v>0.1393309621140919</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1420899901369841</v>
+        <v>0.2898965033740697</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01159374902080956</v>
+        <v>0.01455148435863594</v>
       </c>
       <c r="G241" t="n">
-        <v>0.07096101861600022</v>
+        <v>0.2878923860550031</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02389836684022809</v>
+        <v>0.03409240618324327</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1446570770739347</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05461729916949901</v>
+        <v>0.08513310707762234</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1417333362806066</v>
+        <v>0.2905369805825592</v>
       </c>
       <c r="N241" t="n">
-        <v>0.07368994097423681</v>
+        <v>0.1375311639111894</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1429019329377669</v>
+        <v>0.2915530548219216</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01123228140975299</v>
+        <v>0.01433617608403576</v>
       </c>
       <c r="G242" t="n">
-        <v>0.07083351726435667</v>
+        <v>0.2895281382484974</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02386731715014832</v>
+        <v>0.03344478027813605</v>
       </c>
       <c r="K242" t="n">
-        <v>0.145478992284582</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05485508446631437</v>
+        <v>0.08430897927715844</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1425386393276554</v>
+        <v>0.2921877588813238</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07299566071459895</v>
+        <v>0.1360242872850031</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1437138757385497</v>
+        <v>0.2932096062697734</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01087558570990308</v>
+        <v>0.01612001918887371</v>
       </c>
       <c r="G243" t="n">
-        <v>0.07070601591271312</v>
+        <v>0.2911638904419918</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02333600339036024</v>
+        <v>0.03319537626070478</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1463009074952294</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05529713509667628</v>
+        <v>0.0826803902509021</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1433439423747044</v>
+        <v>0.2938385371800883</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07352036462108874</v>
+        <v>0.1338102210837911</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1445258185393324</v>
+        <v>0.2948661577176253</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01052395142577604</v>
+        <v>0.01390300077318629</v>
       </c>
       <c r="G244" t="n">
-        <v>0.07057851456106959</v>
+        <v>0.2927996426354861</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02350442714906109</v>
+        <v>0.03274416672369423</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1471228227058767</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05444372498766284</v>
+        <v>0.08234727134947675</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1441492454217533</v>
+        <v>0.2954893154788528</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07316562031802387</v>
+        <v>0.1322888541558116</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1453377613401152</v>
+        <v>0.2965227091654771</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01017766806188809</v>
+        <v>0.01468510793700999</v>
       </c>
       <c r="G245" t="n">
-        <v>0.07045101320942604</v>
+        <v>0.2944353948289804</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02327259001444819</v>
+        <v>0.03239112425984911</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1479447379165241</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05489512806635219</v>
+        <v>0.08110955392350583</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1449545484688021</v>
+        <v>0.2971400937776174</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07373299542972239</v>
+        <v>0.1292600753493225</v>
       </c>
       <c r="O245" t="n">
-        <v>0.146149704140898</v>
+        <v>0.2981792606133289</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.009837025122755409</v>
+        <v>0.01446632778038132</v>
       </c>
       <c r="G246" t="n">
-        <v>0.07032351185778249</v>
+        <v>0.2960711470224747</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02324049357471877</v>
+        <v>0.03183622146191409</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1487666531271714</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05455161825982238</v>
+        <v>0.07966716932361279</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1457598515158511</v>
+        <v>0.2987908720763819</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07382405758050209</v>
+        <v>0.1282237735125821</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1469616469416807</v>
+        <v>0.2998358120611807</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.009502312112894241</v>
+        <v>0.01524664740333678</v>
       </c>
       <c r="G247" t="n">
-        <v>0.07019601050613895</v>
+        <v>0.297706899215969</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02300813941807012</v>
+        <v>0.03107943092263389</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1495885683378188</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0544134694951515</v>
+        <v>0.0791200489004211</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1465651545629</v>
+        <v>0.3004416503751464</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07464037439468096</v>
+        <v>0.1255798374938482</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1477735897424635</v>
+        <v>0.3014923635090325</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.009173818536820769</v>
+        <v>0.01502605390591287</v>
       </c>
       <c r="G248" t="n">
-        <v>0.0700685091544954</v>
+        <v>0.2993426514094634</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02307552913269954</v>
+        <v>0.03072072523475325</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1504104835484662</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05448095569941772</v>
+        <v>0.07716812400455414</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1473704576099488</v>
+        <v>0.302092428673911</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07448351349657684</v>
+        <v>0.1237281561413792</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1485855325432463</v>
+        <v>0.3031489149568843</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.008851833899051219</v>
+        <v>0.01480453438814608</v>
       </c>
       <c r="G249" t="n">
-        <v>0.06994100780285185</v>
+        <v>0.3009784036029577</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02294266430680428</v>
+        <v>0.03046007699101687</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1512323987591135</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05425435079969906</v>
+        <v>0.07661132598663539</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1481757606569978</v>
+        <v>0.3037432069726755</v>
       </c>
       <c r="N249" t="n">
-        <v>0.0736550425105077</v>
+        <v>0.1221686183034328</v>
       </c>
       <c r="O249" t="n">
-        <v>0.149397475344029</v>
+        <v>0.3048054664047362</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.008536647704101799</v>
+        <v>0.01458207595007293</v>
       </c>
       <c r="G250" t="n">
-        <v>0.06981350645120832</v>
+        <v>0.3026141557964521</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02280954652858162</v>
+        <v>0.02979745878416948</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1520543139697609</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.05353392872307369</v>
+        <v>0.07464958619728829</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1489810637040467</v>
+        <v>0.3053939852714401</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07545652906079137</v>
+        <v>0.1206011128282675</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1502094181448118</v>
+        <v>0.306462017852588</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.008228549456488703</v>
+        <v>0.01335866569172992</v>
       </c>
       <c r="G251" t="n">
-        <v>0.06968600509956477</v>
+        <v>0.3042499079899464</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02247617738622883</v>
+        <v>0.02963284320695575</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1528762291804082</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.05421996339661966</v>
+        <v>0.0737828359871362</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1497863667510956</v>
+        <v>0.3070447635702046</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07498954077174574</v>
+        <v>0.1180255285641409</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1510213609455946</v>
+        <v>0.3081185693004398</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.007927828660728158</v>
+        <v>0.01213429071315353</v>
       </c>
       <c r="G252" t="n">
-        <v>0.06955850374792122</v>
+        <v>0.3058856601834408</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02224255846794321</v>
+        <v>0.02906620285212042</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1536981443910556</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.05321272874741506</v>
+        <v>0.07271100670680269</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1505916697981445</v>
+        <v>0.3086955418689691</v>
       </c>
       <c r="N252" t="n">
-        <v>0.07595564526768889</v>
+        <v>0.1167417543593113</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1518333037463774</v>
+        <v>0.3097751207482917</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.007634774821336364</v>
+        <v>0.01390893811438028</v>
       </c>
       <c r="G253" t="n">
-        <v>0.06943100239627768</v>
+        <v>0.3075214123769351</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02230869136192198</v>
+        <v>0.02869751031240822</v>
       </c>
       <c r="K253" t="n">
-        <v>0.1545200596017029</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.05401249870253808</v>
+        <v>0.07153402970691108</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1513969728451934</v>
+        <v>0.3103463201677337</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07645641017293847</v>
+        <v>0.114749679062037</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1526452465471601</v>
+        <v>0.3114316721961435</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.007349677442829522</v>
+        <v>0.01168259499544667</v>
       </c>
       <c r="G254" t="n">
-        <v>0.06930350104463413</v>
+        <v>0.3091571645704294</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02217457765636248</v>
+        <v>0.02822673818056383</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1553419748123503</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.05371954718906671</v>
+        <v>0.0700518363380849</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1522022758922423</v>
+        <v>0.3119970984664983</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07649340311181257</v>
+        <v>0.1122491915205758</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1534571893479429</v>
+        <v>0.3130882236439953</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.00707282602972386</v>
+        <v>0.01145524845638919</v>
       </c>
       <c r="G255" t="n">
-        <v>0.06917599969299058</v>
+        <v>0.3107929167639238</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02174021893946194</v>
+        <v>0.02745385904933201</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1561638900229976</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.05333414813407908</v>
+        <v>0.06876435795094751</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1530075789392912</v>
+        <v>0.3136478767652628</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07636819170862902</v>
+        <v>0.1113401805831857</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1542691321487256</v>
+        <v>0.3147447750918472</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.00680451008653557</v>
+        <v>0.01322688559724437</v>
       </c>
       <c r="G256" t="n">
-        <v>0.06904849834134703</v>
+        <v>0.3124286689574181</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02180561679941767</v>
+        <v>0.02697884551145739</v>
       </c>
       <c r="K256" t="n">
-        <v>0.156985805233645</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.05365657546465333</v>
+        <v>0.06767152589612238</v>
       </c>
       <c r="M256" t="n">
-        <v>0.15381288198634</v>
+        <v>0.3152986550640273</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07738234358770568</v>
+        <v>0.1088225350981251</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1550810749495084</v>
+        <v>0.316401326539699</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.006545019117780868</v>
+        <v>0.01299749351804867</v>
       </c>
       <c r="G257" t="n">
-        <v>0.0689209969897035</v>
+        <v>0.3140644211509124</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02157077282442692</v>
+        <v>0.02670167015968476</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1578077204442923</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.05368710310786753</v>
+        <v>0.06717327152423297</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1546181850333889</v>
+        <v>0.3169494333627919</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07793742637336054</v>
+        <v>0.1074961439136518</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1558930177502912</v>
+        <v>0.3180578779875508</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.006294642627975973</v>
+        <v>0.01176705931883863</v>
       </c>
       <c r="G258" t="n">
-        <v>0.06879349563805995</v>
+        <v>0.3157001733444068</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02143568860268698</v>
+        <v>0.0260223055867588</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1586296356549397</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.05292600499079977</v>
+        <v>0.06536952618590272</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1554234880804378</v>
+        <v>0.3186002116615564</v>
       </c>
       <c r="N258" t="n">
-        <v>0.07893500768991146</v>
+        <v>0.1045608958780239</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1567049605510739</v>
+        <v>0.3197144294354026</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.006053670121637073</v>
+        <v>0.01253557009965071</v>
       </c>
       <c r="G259" t="n">
-        <v>0.0686659942864164</v>
+        <v>0.3173359255379011</v>
       </c>
       <c r="J259" t="n">
-        <v>0.0216003657223951</v>
+        <v>0.02584072438542423</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1594515508655871</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.05357355504052816</v>
+        <v>0.06446022123175502</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1562287911274867</v>
+        <v>0.320250989960321</v>
       </c>
       <c r="N259" t="n">
-        <v>0.07947665516167629</v>
+        <v>0.1037166798394996</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1575169033518567</v>
+        <v>0.3213709808832544</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.005822391103280401</v>
+        <v>0.01130301296052145</v>
       </c>
       <c r="G260" t="n">
-        <v>0.06853849293477286</v>
+        <v>0.3189716777313954</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02116480577174859</v>
+        <v>0.02535689914842576</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1602734660762344</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.05313002718413079</v>
+        <v>0.06304528801241333</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1570340941745356</v>
+        <v>0.3219017682590855</v>
       </c>
       <c r="N260" t="n">
-        <v>0.0795639364129731</v>
+        <v>0.1011633846463369</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1583288461526395</v>
+        <v>0.3230275323311063</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.005601095077422139</v>
+        <v>0.01206937500148733</v>
       </c>
       <c r="G261" t="n">
-        <v>0.06841099158312931</v>
+        <v>0.3206074299248898</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0209290103389447</v>
+        <v>0.0247708024685081</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1610953812868818</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.05329569534868581</v>
+        <v>0.06222465787850109</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1578393972215845</v>
+        <v>0.32355254655785</v>
       </c>
       <c r="N261" t="n">
-        <v>0.0805984190681196</v>
+        <v>0.09980089914679391</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1591407889534222</v>
+        <v>0.3246840837789581</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.005390071548578512</v>
+        <v>0.01083464332258486</v>
       </c>
       <c r="G262" t="n">
-        <v>0.06828349023148576</v>
+        <v>0.3222431821183841</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02109298101218074</v>
+        <v>0.02398240693841598</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1619172964975291</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.05307083346127126</v>
+        <v>0.0608982621806417</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1586447002686334</v>
+        <v>0.3252033248566146</v>
       </c>
       <c r="N262" t="n">
-        <v>0.08148167075143381</v>
+        <v>0.09802911218912869</v>
       </c>
       <c r="O262" t="n">
-        <v>0.159952731754205</v>
+        <v>0.3263406352268099</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.005189610021265736</v>
+        <v>0.01159880502385053</v>
       </c>
       <c r="G263" t="n">
-        <v>0.06815598887984223</v>
+        <v>0.3238789343118784</v>
       </c>
       <c r="J263" t="n">
-        <v>0.02105671937965392</v>
+        <v>0.0238916851508941</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1627392117081765</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05285571544896528</v>
+        <v>0.05926603226945876</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1594500033156823</v>
+        <v>0.3268541031553791</v>
       </c>
       <c r="N263" t="n">
-        <v>0.08221525908723359</v>
+        <v>0.09504791262159923</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1607646745549877</v>
+        <v>0.3279971866746618</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.009361847205320857</v>
       </c>
       <c r="G264" t="n">
-        <v>0.06802848752819868</v>
+        <v>0.3255146865053728</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02082022702956157</v>
+        <v>0.02299860969868717</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1635611269188239</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05325061523884589</v>
+        <v>0.05842789949557547</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1602553063627312</v>
+        <v>0.3285048814541436</v>
       </c>
       <c r="N264" t="n">
-        <v>0.0823007516998368</v>
+        <v>0.09295718929246372</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1615766173557705</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1">
-      <c r="F265" t="n">
-        <v>0.004999999999999998</v>
-      </c>
-      <c r="G265" t="n">
-        <v>0.06801532963346184</v>
-      </c>
-    </row>
-    <row r="266" ht="15" customHeight="1">
-      <c r="F266" t="n">
-        <v>0.005653185732819997</v>
-      </c>
-      <c r="G266" t="n">
-        <v>0.06801559816192584</v>
-      </c>
-    </row>
-    <row r="267" ht="15" customHeight="1">
-      <c r="F267" t="n">
-        <v>0.006302866946701749</v>
-      </c>
-      <c r="G267" t="n">
-        <v>0.06801586669038986</v>
-      </c>
-    </row>
-    <row r="268" ht="15" customHeight="1">
-      <c r="F268" t="n">
-        <v>0.006949005586863635</v>
-      </c>
-      <c r="G268" t="n">
-        <v>0.06801613521885388</v>
-      </c>
-    </row>
-    <row r="269" ht="15" customHeight="1">
-      <c r="F269" t="n">
-        <v>0.007591563598439752</v>
-      </c>
-      <c r="G269" t="n">
-        <v>0.06801640374731791</v>
-      </c>
-    </row>
-    <row r="270" ht="15" customHeight="1">
-      <c r="F270" t="n">
-        <v>0.00823050292664864</v>
-      </c>
-      <c r="G270" t="n">
-        <v>0.06801667227578191</v>
-      </c>
-    </row>
-    <row r="271" ht="15" customHeight="1">
-      <c r="F271" t="n">
-        <v>0.00886578551668063</v>
-      </c>
-      <c r="G271" t="n">
-        <v>0.06801694080424593</v>
-      </c>
-    </row>
-    <row r="272" ht="15" customHeight="1">
-      <c r="F272" t="n">
-        <v>0.009497373313753492</v>
-      </c>
-      <c r="G272" t="n">
-        <v>0.06801720933270995</v>
-      </c>
-    </row>
-    <row r="273" ht="15" customHeight="1">
-      <c r="F273" t="n">
-        <v>0.01012522826300257</v>
-      </c>
-      <c r="G273" t="n">
-        <v>0.06801747786117397</v>
-      </c>
-    </row>
-    <row r="274" ht="15" customHeight="1">
-      <c r="F274" t="n">
-        <v>0.01074931230964577</v>
-      </c>
-      <c r="G274" t="n">
-        <v>0.06801774638963798</v>
-      </c>
-    </row>
-    <row r="275" ht="15" customHeight="1">
-      <c r="F275" t="n">
-        <v>0.01136958739887345</v>
-      </c>
-      <c r="G275" t="n">
-        <v>0.068018014918102</v>
-      </c>
-    </row>
-    <row r="276" ht="15" customHeight="1">
-      <c r="F276" t="n">
-        <v>0.01198601547590267</v>
-      </c>
-      <c r="G276" t="n">
-        <v>0.06801828344656602</v>
-      </c>
-    </row>
-    <row r="277" ht="15" customHeight="1">
-      <c r="F277" t="n">
-        <v>0.01259855848587014</v>
-      </c>
-      <c r="G277" t="n">
-        <v>0.06801855197503004</v>
-      </c>
-    </row>
-    <row r="278" ht="15" customHeight="1">
-      <c r="F278" t="n">
-        <v>0.01320717837399309</v>
-      </c>
-      <c r="G278" t="n">
-        <v>0.06801882050349406</v>
-      </c>
-    </row>
-    <row r="279" ht="15" customHeight="1">
-      <c r="F279" t="n">
-        <v>0.01381183708546186</v>
-      </c>
-      <c r="G279" t="n">
-        <v>0.06801908903195807</v>
-      </c>
-    </row>
-    <row r="280" ht="15" customHeight="1">
-      <c r="F280" t="n">
-        <v>0.01441249656549286</v>
-      </c>
-      <c r="G280" t="n">
-        <v>0.0680193575604221</v>
-      </c>
-    </row>
-    <row r="281" ht="15" customHeight="1">
-      <c r="F281" t="n">
-        <v>0.01500911875922414</v>
-      </c>
-      <c r="G281" t="n">
-        <v>0.06801962608888611</v>
-      </c>
-    </row>
-    <row r="282" ht="15" customHeight="1">
-      <c r="F282" t="n">
-        <v>0.01560166561187227</v>
-      </c>
-      <c r="G282" t="n">
-        <v>0.06801989461735013</v>
-      </c>
-    </row>
-    <row r="283" ht="15" customHeight="1">
-      <c r="F283" t="n">
-        <v>0.01619009906862758</v>
-      </c>
-      <c r="G283" t="n">
-        <v>0.06802016314581413</v>
-      </c>
-    </row>
-    <row r="284" ht="15" customHeight="1">
-      <c r="F284" t="n">
-        <v>0.01677438107470576</v>
-      </c>
-      <c r="G284" t="n">
-        <v>0.06802043167427817</v>
-      </c>
-    </row>
-    <row r="285" ht="15" customHeight="1">
-      <c r="F285" t="n">
-        <v>0.01735447357524628</v>
-      </c>
-      <c r="G285" t="n">
-        <v>0.06802070020274217</v>
-      </c>
-    </row>
-    <row r="286" ht="15" customHeight="1">
-      <c r="F286" t="n">
-        <v>0.01793033851546502</v>
-      </c>
-      <c r="G286" t="n">
-        <v>0.06802096873120619</v>
-      </c>
-    </row>
-    <row r="287" ht="15" customHeight="1">
-      <c r="F287" t="n">
-        <v>0.0185019378405523</v>
-      </c>
-      <c r="G287" t="n">
-        <v>0.0680212372596702</v>
-      </c>
-    </row>
-    <row r="288" ht="15" customHeight="1">
-      <c r="F288" t="n">
-        <v>0.01906923349572306</v>
-      </c>
-      <c r="G288" t="n">
-        <v>0.06802150578813423</v>
-      </c>
-    </row>
-    <row r="289" ht="15" customHeight="1">
-      <c r="F289" t="n">
-        <v>0.01963218742611826</v>
-      </c>
-      <c r="G289" t="n">
-        <v>0.06802177431659824</v>
-      </c>
-    </row>
-    <row r="290" ht="15" customHeight="1">
-      <c r="F290" t="n">
-        <v>0.02019091696742582</v>
-      </c>
-      <c r="G290" t="n">
-        <v>0.06802204284506226</v>
-      </c>
-    </row>
-    <row r="291" ht="15" customHeight="1">
-      <c r="F291" t="n">
-        <v>0.02074631640767276</v>
-      </c>
-      <c r="G291" t="n">
-        <v>0.06802231137352628</v>
-      </c>
-    </row>
-    <row r="292" ht="15" customHeight="1">
-      <c r="F292" t="n">
-        <v>0.02129850308254612</v>
-      </c>
-      <c r="G292" t="n">
-        <v>0.0680225799019903</v>
-      </c>
-    </row>
-    <row r="293" ht="15" customHeight="1">
-      <c r="F293" t="n">
-        <v>0.02184743893718821</v>
-      </c>
-      <c r="G293" t="n">
-        <v>0.06802284843045432</v>
-      </c>
-    </row>
-    <row r="294" ht="15" customHeight="1">
-      <c r="F294" t="n">
-        <v>0.02239308591681345</v>
-      </c>
-      <c r="G294" t="n">
-        <v>0.06802311695891833</v>
-      </c>
-    </row>
-    <row r="295" ht="15" customHeight="1">
-      <c r="F295" t="n">
-        <v>0.02293540596661219</v>
-      </c>
-      <c r="G295" t="n">
-        <v>0.06802338548738235</v>
-      </c>
-    </row>
-    <row r="296" ht="15" customHeight="1">
-      <c r="F296" t="n">
-        <v>0.02347436103179815</v>
-      </c>
-      <c r="G296" t="n">
-        <v>0.06802365401584637</v>
-      </c>
-    </row>
-    <row r="297" ht="15" customHeight="1">
-      <c r="F297" t="n">
-        <v>0.02400991305751475</v>
-      </c>
-      <c r="G297" t="n">
-        <v>0.06802392254431039</v>
-      </c>
-    </row>
-    <row r="298" ht="15" customHeight="1">
-      <c r="F298" t="n">
-        <v>0.02454202398897588</v>
-      </c>
-      <c r="G298" t="n">
-        <v>0.0680241910727744</v>
-      </c>
-    </row>
-    <row r="299" ht="15" customHeight="1">
-      <c r="F299" t="n">
-        <v>0.02507065577137185</v>
-      </c>
-      <c r="G299" t="n">
-        <v>0.06802445960123842</v>
-      </c>
-    </row>
-    <row r="300" ht="15" customHeight="1">
-      <c r="F300" t="n">
-        <v>0.02559577034991579</v>
-      </c>
-      <c r="G300" t="n">
-        <v>0.06802472812970244</v>
-      </c>
-    </row>
-    <row r="301" ht="15" customHeight="1">
-      <c r="F301" t="n">
-        <v>0.02611732966975235</v>
-      </c>
-      <c r="G301" t="n">
-        <v>0.06802499665816646</v>
-      </c>
-    </row>
-    <row r="302" ht="15" customHeight="1">
-      <c r="F302" t="n">
-        <v>0.02663529567609478</v>
-      </c>
-      <c r="G302" t="n">
-        <v>0.06802526518663048</v>
-      </c>
-    </row>
-    <row r="303" ht="15" customHeight="1">
-      <c r="F303" t="n">
-        <v>0.02714963031413342</v>
-      </c>
-      <c r="G303" t="n">
-        <v>0.06802553371509448</v>
-      </c>
-    </row>
-    <row r="304" ht="15" customHeight="1">
-      <c r="F304" t="n">
-        <v>0.02766029552908078</v>
-      </c>
-      <c r="G304" t="n">
-        <v>0.06802580224355852</v>
-      </c>
-    </row>
-    <row r="305" ht="15" customHeight="1">
-      <c r="F305" t="n">
-        <v>0.02816725326608271</v>
-      </c>
-      <c r="G305" t="n">
-        <v>0.06802607077202252</v>
-      </c>
-    </row>
-    <row r="306" ht="15" customHeight="1">
-      <c r="F306" t="n">
-        <v>0.02867046547035189</v>
-      </c>
-      <c r="G306" t="n">
-        <v>0.06802633930048654</v>
-      </c>
-    </row>
-    <row r="307" ht="15" customHeight="1">
-      <c r="F307" t="n">
-        <v>0.02916989408707864</v>
-      </c>
-      <c r="G307" t="n">
-        <v>0.06802660782895055</v>
-      </c>
-    </row>
-    <row r="308" ht="15" customHeight="1">
-      <c r="F308" t="n">
-        <v>0.02966550106147479</v>
-      </c>
-      <c r="G308" t="n">
-        <v>0.06802687635741458</v>
-      </c>
-    </row>
-    <row r="309" ht="15" customHeight="1">
-      <c r="F309" t="n">
-        <v>0.03015724833868755</v>
-      </c>
-      <c r="G309" t="n">
-        <v>0.06802714488587859</v>
-      </c>
-    </row>
-    <row r="310" ht="15" customHeight="1">
-      <c r="F310" t="n">
-        <v>0.0306450978639289</v>
-      </c>
-      <c r="G310" t="n">
-        <v>0.06802741341434261</v>
-      </c>
-    </row>
-    <row r="311" ht="15" customHeight="1">
-      <c r="F311" t="n">
-        <v>0.03112901158238918</v>
-      </c>
-      <c r="G311" t="n">
-        <v>0.06802768194280662</v>
-      </c>
-    </row>
-    <row r="312" ht="15" customHeight="1">
-      <c r="F312" t="n">
-        <v>0.03160895143927953</v>
-      </c>
-      <c r="G312" t="n">
-        <v>0.06802795047127065</v>
-      </c>
-    </row>
-    <row r="313" ht="15" customHeight="1">
-      <c r="F313" t="n">
-        <v>0.03208487937974853</v>
-      </c>
-      <c r="G313" t="n">
-        <v>0.06802821899973466</v>
-      </c>
-    </row>
-    <row r="314" ht="15" customHeight="1">
-      <c r="F314" t="n">
-        <v>0.03255675734900747</v>
-      </c>
-      <c r="G314" t="n">
-        <v>0.06802848752819868</v>
-      </c>
-    </row>
-    <row r="315" ht="15" customHeight="1">
-      <c r="F315" t="n">
-        <v>0.03255675734900748</v>
-      </c>
-      <c r="G315" t="n">
-        <v>0.06801532963346184</v>
-      </c>
-    </row>
-    <row r="316" ht="15" customHeight="1">
-      <c r="F316" t="n">
-        <v>0.03306343403706347</v>
-      </c>
-      <c r="G316" t="n">
-        <v>0.0681433680420334</v>
-      </c>
-    </row>
-    <row r="317" ht="15" customHeight="1">
-      <c r="F317" t="n">
-        <v>0.03356559849679976</v>
-      </c>
-      <c r="G317" t="n">
-        <v>0.06827140645060499</v>
-      </c>
-    </row>
-    <row r="318" ht="15" customHeight="1">
-      <c r="F318" t="n">
-        <v>0.0340631388918843</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.06839944485917657</v>
-      </c>
-    </row>
-    <row r="319" ht="15" customHeight="1">
-      <c r="F319" t="n">
-        <v>0.03455594338598522</v>
-      </c>
-      <c r="G319" t="n">
-        <v>0.06852748326774816</v>
-      </c>
-    </row>
-    <row r="320" ht="15" customHeight="1">
-      <c r="F320" t="n">
-        <v>0.03504390014277051</v>
-      </c>
-      <c r="G320" t="n">
-        <v>0.06865552167631972</v>
-      </c>
-    </row>
-    <row r="321" ht="15" customHeight="1">
-      <c r="F321" t="n">
-        <v>0.0355268973259083</v>
-      </c>
-      <c r="G321" t="n">
-        <v>0.06878356008489131</v>
-      </c>
-    </row>
-    <row r="322" ht="15" customHeight="1">
-      <c r="F322" t="n">
-        <v>0.03600482309906655</v>
-      </c>
-      <c r="G322" t="n">
-        <v>0.06891159849346289</v>
-      </c>
-    </row>
-    <row r="323" ht="15" customHeight="1">
-      <c r="F323" t="n">
-        <v>0.03647756562591341</v>
-      </c>
-      <c r="G323" t="n">
-        <v>0.06903963690203448</v>
-      </c>
-    </row>
-    <row r="324" ht="15" customHeight="1">
-      <c r="F324" t="n">
-        <v>0.0369450130701168</v>
-      </c>
-      <c r="G324" t="n">
-        <v>0.06916767531060604</v>
-      </c>
-    </row>
-    <row r="325" ht="15" customHeight="1">
-      <c r="F325" t="n">
-        <v>0.03740705359534491</v>
-      </c>
-      <c r="G325" t="n">
-        <v>0.06929571371917763</v>
-      </c>
-    </row>
-    <row r="326" ht="15" customHeight="1">
-      <c r="F326" t="n">
-        <v>0.03786357536526566</v>
-      </c>
-      <c r="G326" t="n">
-        <v>0.06942375212774921</v>
-      </c>
-    </row>
-    <row r="327" ht="15" customHeight="1">
-      <c r="F327" t="n">
-        <v>0.03831446654354721</v>
-      </c>
-      <c r="G327" t="n">
-        <v>0.0695517905363208</v>
-      </c>
-    </row>
-    <row r="328" ht="15" customHeight="1">
-      <c r="F328" t="n">
-        <v>0.03875961529385755</v>
-      </c>
-      <c r="G328" t="n">
-        <v>0.06967982894489237</v>
-      </c>
-    </row>
-    <row r="329" ht="15" customHeight="1">
-      <c r="F329" t="n">
-        <v>0.03919890977986476</v>
-      </c>
-      <c r="G329" t="n">
-        <v>0.06980786735346395</v>
-      </c>
-    </row>
-    <row r="330" ht="15" customHeight="1">
-      <c r="F330" t="n">
-        <v>0.03963223816523684</v>
-      </c>
-      <c r="G330" t="n">
-        <v>0.06993590576203552</v>
-      </c>
-    </row>
-    <row r="331" ht="15" customHeight="1">
-      <c r="F331" t="n">
-        <v>0.04005948861364192</v>
-      </c>
-      <c r="G331" t="n">
-        <v>0.07006394417060711</v>
-      </c>
-    </row>
-    <row r="332" ht="15" customHeight="1">
-      <c r="F332" t="n">
-        <v>0.04048054928874796</v>
-      </c>
-      <c r="G332" t="n">
-        <v>0.07019198257917869</v>
-      </c>
-    </row>
-    <row r="333" ht="15" customHeight="1">
-      <c r="F333" t="n">
-        <v>0.04089530835422309</v>
-      </c>
-      <c r="G333" t="n">
-        <v>0.07032002098775027</v>
-      </c>
-    </row>
-    <row r="334" ht="15" customHeight="1">
-      <c r="F334" t="n">
-        <v>0.04130365397373531</v>
-      </c>
-      <c r="G334" t="n">
-        <v>0.07044805939632184</v>
-      </c>
-    </row>
-    <row r="335" ht="15" customHeight="1">
-      <c r="F335" t="n">
-        <v>0.04170547431095269</v>
-      </c>
-      <c r="G335" t="n">
-        <v>0.07057609780489343</v>
-      </c>
-    </row>
-    <row r="336" ht="15" customHeight="1">
-      <c r="F336" t="n">
-        <v>0.04210065752954324</v>
-      </c>
-      <c r="G336" t="n">
-        <v>0.07070413621346501</v>
-      </c>
-    </row>
-    <row r="337" ht="15" customHeight="1">
-      <c r="F337" t="n">
-        <v>0.0424890917931751</v>
-      </c>
-      <c r="G337" t="n">
-        <v>0.07083217462203659</v>
-      </c>
-    </row>
-    <row r="338" ht="15" customHeight="1">
-      <c r="F338" t="n">
-        <v>0.04287066526551622</v>
-      </c>
-      <c r="G338" t="n">
-        <v>0.07096021303060816</v>
-      </c>
-    </row>
-    <row r="339" ht="15" customHeight="1">
-      <c r="F339" t="n">
-        <v>0.04324526611023474</v>
-      </c>
-      <c r="G339" t="n">
-        <v>0.07108825143917975</v>
-      </c>
-    </row>
-    <row r="340" ht="15" customHeight="1">
-      <c r="F340" t="n">
-        <v>0.04361323915602076</v>
-      </c>
-      <c r="G340" t="n">
-        <v>0.07121628984775133</v>
-      </c>
-    </row>
-    <row r="341" ht="15" customHeight="1">
-      <c r="F341" t="n">
-        <v>0.04397721255667517</v>
-      </c>
-      <c r="G341" t="n">
-        <v>0.07134432825632291</v>
-      </c>
-    </row>
-    <row r="342" ht="15" customHeight="1">
-      <c r="F342" t="n">
-        <v>0.04433753114088808</v>
-      </c>
-      <c r="G342" t="n">
-        <v>0.07147236666489448</v>
-      </c>
-    </row>
-    <row r="343" ht="15" customHeight="1">
-      <c r="F343" t="n">
-        <v>0.0446940830723276</v>
-      </c>
-      <c r="G343" t="n">
-        <v>0.07160040507346607</v>
-      </c>
-    </row>
-    <row r="344" ht="15" customHeight="1">
-      <c r="F344" t="n">
-        <v>0.04504675651466171</v>
-      </c>
-      <c r="G344" t="n">
-        <v>0.07172844348203765</v>
-      </c>
-    </row>
-    <row r="345" ht="15" customHeight="1">
-      <c r="F345" t="n">
-        <v>0.04539543963155857</v>
-      </c>
-      <c r="G345" t="n">
-        <v>0.07185648189060923</v>
-      </c>
-    </row>
-    <row r="346" ht="15" customHeight="1">
-      <c r="F346" t="n">
-        <v>0.04574002058668611</v>
-      </c>
-      <c r="G346" t="n">
-        <v>0.0719845202991808</v>
-      </c>
-    </row>
-    <row r="347" ht="15" customHeight="1">
-      <c r="F347" t="n">
-        <v>0.04608038754371248</v>
-      </c>
-      <c r="G347" t="n">
-        <v>0.07211255870775239</v>
-      </c>
-    </row>
-    <row r="348" ht="15" customHeight="1">
-      <c r="F348" t="n">
-        <v>0.04641642866630563</v>
-      </c>
-      <c r="G348" t="n">
-        <v>0.07224059711632397</v>
-      </c>
-    </row>
-    <row r="349" ht="15" customHeight="1">
-      <c r="F349" t="n">
-        <v>0.04674803211813369</v>
-      </c>
-      <c r="G349" t="n">
-        <v>0.07236863552489554</v>
-      </c>
-    </row>
-    <row r="350" ht="15" customHeight="1">
-      <c r="F350" t="n">
-        <v>0.0470750860628647</v>
-      </c>
-      <c r="G350" t="n">
-        <v>0.07249667393346712</v>
-      </c>
-    </row>
-    <row r="351" ht="15" customHeight="1">
-      <c r="F351" t="n">
-        <v>0.04739747866416667</v>
-      </c>
-      <c r="G351" t="n">
-        <v>0.07262471234203871</v>
-      </c>
-    </row>
-    <row r="352" ht="15" customHeight="1">
-      <c r="F352" t="n">
-        <v>0.04771509808570767</v>
-      </c>
-      <c r="G352" t="n">
-        <v>0.07275275075061029</v>
-      </c>
-    </row>
-    <row r="353" ht="15" customHeight="1">
-      <c r="F353" t="n">
-        <v>0.0480278324911558</v>
-      </c>
-      <c r="G353" t="n">
-        <v>0.07288078915918188</v>
-      </c>
-    </row>
-    <row r="354" ht="15" customHeight="1">
-      <c r="F354" t="n">
-        <v>0.04833557004417903</v>
-      </c>
-      <c r="G354" t="n">
-        <v>0.07300882756775344</v>
-      </c>
-    </row>
-    <row r="355" ht="15" customHeight="1">
-      <c r="F355" t="n">
-        <v>0.04863819890844548</v>
-      </c>
-      <c r="G355" t="n">
-        <v>0.07313686597632503</v>
-      </c>
-    </row>
-    <row r="356" ht="15" customHeight="1">
-      <c r="F356" t="n">
-        <v>0.04893560724762312</v>
-      </c>
-      <c r="G356" t="n">
-        <v>0.07326490438489661</v>
-      </c>
-    </row>
-    <row r="357" ht="15" customHeight="1">
-      <c r="F357" t="n">
-        <v>0.04922768322538008</v>
-      </c>
-      <c r="G357" t="n">
-        <v>0.0733929427934682</v>
-      </c>
-    </row>
-    <row r="358" ht="15" customHeight="1">
-      <c r="F358" t="n">
-        <v>0.04951431500538435</v>
-      </c>
-      <c r="G358" t="n">
-        <v>0.07352098120203976</v>
-      </c>
-    </row>
-    <row r="359" ht="15" customHeight="1">
-      <c r="F359" t="n">
-        <v>0.04979539075130404</v>
-      </c>
-      <c r="G359" t="n">
-        <v>0.07364901961061135</v>
-      </c>
-    </row>
-    <row r="360" ht="15" customHeight="1">
-      <c r="F360" t="n">
-        <v>0.05007079862680713</v>
-      </c>
-      <c r="G360" t="n">
-        <v>0.07377705801918293</v>
-      </c>
-    </row>
-    <row r="361" ht="15" customHeight="1">
-      <c r="F361" t="n">
-        <v>0.05034042679556175</v>
-      </c>
-      <c r="G361" t="n">
-        <v>0.07390509642775452</v>
-      </c>
-    </row>
-    <row r="362" ht="15" customHeight="1">
-      <c r="F362" t="n">
-        <v>0.05060416342123586</v>
-      </c>
-      <c r="G362" t="n">
-        <v>0.07403313483632608</v>
-      </c>
-    </row>
-    <row r="363" ht="15" customHeight="1">
-      <c r="F363" t="n">
-        <v>0.05086189666749757</v>
-      </c>
-      <c r="G363" t="n">
-        <v>0.07416117324489765</v>
-      </c>
-    </row>
-    <row r="364" ht="15" customHeight="1">
-      <c r="F364" t="n">
-        <v>0.05111351469801495</v>
-      </c>
-      <c r="G364" t="n">
-        <v>0.07428921165346924</v>
-      </c>
-    </row>
-    <row r="365" ht="15" customHeight="1">
-      <c r="F365" t="n">
-        <v>0.04674234313200996</v>
-      </c>
-      <c r="G365" t="n">
-        <v>0.07428921165346924</v>
-      </c>
-    </row>
-    <row r="366" ht="15" customHeight="1">
-      <c r="F366" t="n">
-        <v>0.05121746528272089</v>
-      </c>
-      <c r="G366" t="n">
-        <v>0.07650453716411952</v>
-      </c>
-    </row>
-    <row r="367" ht="15" customHeight="1">
-      <c r="F367" t="n">
-        <v>0.05131395027209093</v>
-      </c>
-      <c r="G367" t="n">
-        <v>0.07871986267476978</v>
-      </c>
-    </row>
-    <row r="368" ht="15" customHeight="1">
-      <c r="F368" t="n">
-        <v>0.05140324786480385</v>
-      </c>
-      <c r="G368" t="n">
-        <v>0.08093518818542007</v>
-      </c>
-    </row>
-    <row r="369" ht="15" customHeight="1">
-      <c r="F369" t="n">
-        <v>0.05148563625953845</v>
-      </c>
-      <c r="G369" t="n">
-        <v>0.08315051369607034</v>
-      </c>
-    </row>
-    <row r="370" ht="15" customHeight="1">
-      <c r="F370" t="n">
-        <v>0.05156139365497346</v>
-      </c>
-      <c r="G370" t="n">
-        <v>0.08536583920672061</v>
-      </c>
-    </row>
-    <row r="371" ht="15" customHeight="1">
-      <c r="F371" t="n">
-        <v>0.05163079824978768</v>
-      </c>
-      <c r="G371" t="n">
-        <v>0.08758116471737089</v>
-      </c>
-    </row>
-    <row r="372" ht="15" customHeight="1">
-      <c r="F372" t="n">
-        <v>0.0516941282426599</v>
-      </c>
-      <c r="G372" t="n">
-        <v>0.08979649022802116</v>
-      </c>
-    </row>
-    <row r="373" ht="15" customHeight="1">
-      <c r="F373" t="n">
-        <v>0.05175166183226887</v>
-      </c>
-      <c r="G373" t="n">
-        <v>0.09201181573867143</v>
-      </c>
-    </row>
-    <row r="374" ht="15" customHeight="1">
-      <c r="F374" t="n">
-        <v>0.05180367721729338</v>
-      </c>
-      <c r="G374" t="n">
-        <v>0.0942271412493217</v>
-      </c>
-    </row>
-    <row r="375" ht="15" customHeight="1">
-      <c r="F375" t="n">
-        <v>0.0518504525964122</v>
-      </c>
-      <c r="G375" t="n">
-        <v>0.09644246675997198</v>
-      </c>
-    </row>
-    <row r="376" ht="15" customHeight="1">
-      <c r="F376" t="n">
-        <v>0.05189226616830411</v>
-      </c>
-      <c r="G376" t="n">
-        <v>0.09865779227062225</v>
-      </c>
-    </row>
-    <row r="377" ht="15" customHeight="1">
-      <c r="F377" t="n">
-        <v>0.05192939613164789</v>
-      </c>
-      <c r="G377" t="n">
-        <v>0.1008731177812725</v>
-      </c>
-    </row>
-    <row r="378" ht="15" customHeight="1">
-      <c r="F378" t="n">
-        <v>0.05196212068512229</v>
-      </c>
-      <c r="G378" t="n">
-        <v>0.1030884432919228</v>
-      </c>
-    </row>
-    <row r="379" ht="15" customHeight="1">
-      <c r="F379" t="n">
-        <v>0.05199071802740614</v>
-      </c>
-      <c r="G379" t="n">
-        <v>0.1053037688025731</v>
-      </c>
-    </row>
-    <row r="380" ht="15" customHeight="1">
-      <c r="F380" t="n">
-        <v>0.05201546635717816</v>
-      </c>
-      <c r="G380" t="n">
-        <v>0.1075190943132233</v>
-      </c>
-    </row>
-    <row r="381" ht="15" customHeight="1">
-      <c r="F381" t="n">
-        <v>0.05203664387311716</v>
-      </c>
-      <c r="G381" t="n">
-        <v>0.1097344198238736</v>
-      </c>
-    </row>
-    <row r="382" ht="15" customHeight="1">
-      <c r="F382" t="n">
-        <v>0.05205452877390188</v>
-      </c>
-      <c r="G382" t="n">
-        <v>0.1119497453345239</v>
-      </c>
-    </row>
-    <row r="383" ht="15" customHeight="1">
-      <c r="F383" t="n">
-        <v>0.05206939925821114</v>
-      </c>
-      <c r="G383" t="n">
-        <v>0.1141650708451742</v>
-      </c>
-    </row>
-    <row r="384" ht="15" customHeight="1">
-      <c r="F384" t="n">
-        <v>0.05208153352472368</v>
-      </c>
-      <c r="G384" t="n">
-        <v>0.1163803963558244</v>
-      </c>
-    </row>
-    <row r="385" ht="15" customHeight="1">
-      <c r="F385" t="n">
-        <v>0.0520912097721183</v>
-      </c>
-      <c r="G385" t="n">
-        <v>0.1185957218664747</v>
-      </c>
-    </row>
-    <row r="386" ht="15" customHeight="1">
-      <c r="F386" t="n">
-        <v>0.05209870619907375</v>
-      </c>
-      <c r="G386" t="n">
-        <v>0.120811047377125</v>
-      </c>
-    </row>
-    <row r="387" ht="15" customHeight="1">
-      <c r="F387" t="n">
-        <v>0.05210430100426884</v>
-      </c>
-      <c r="G387" t="n">
-        <v>0.1230263728877753</v>
-      </c>
-    </row>
-    <row r="388" ht="15" customHeight="1">
-      <c r="F388" t="n">
-        <v>0.05210827238638233</v>
-      </c>
-      <c r="G388" t="n">
-        <v>0.1252416983984255</v>
-      </c>
-    </row>
-    <row r="389" ht="15" customHeight="1">
-      <c r="F389" t="n">
-        <v>0.052110898544093</v>
-      </c>
-      <c r="G389" t="n">
-        <v>0.1274570239090758</v>
-      </c>
-    </row>
-    <row r="390" ht="15" customHeight="1">
-      <c r="F390" t="n">
-        <v>0.05211245767607961</v>
-      </c>
-      <c r="G390" t="n">
-        <v>0.1296723494197261</v>
-      </c>
-    </row>
-    <row r="391" ht="15" customHeight="1">
-      <c r="F391" t="n">
-        <v>0.05211322798102093</v>
-      </c>
-      <c r="G391" t="n">
-        <v>0.1318876749303763</v>
-      </c>
-    </row>
-    <row r="392" ht="15" customHeight="1">
-      <c r="F392" t="n">
-        <v>0.05211348765759577</v>
-      </c>
-      <c r="G392" t="n">
-        <v>0.1341030004410266</v>
-      </c>
-    </row>
-    <row r="393" ht="15" customHeight="1">
-      <c r="F393" t="n">
-        <v>0.05211250336269017</v>
-      </c>
-      <c r="G393" t="n">
-        <v>0.1363183259516769</v>
-      </c>
-    </row>
-    <row r="394" ht="15" customHeight="1">
-      <c r="F394" t="n">
-        <v>0.05206402767472701</v>
-      </c>
-      <c r="G394" t="n">
-        <v>0.1385336514623272</v>
-      </c>
-    </row>
-    <row r="395" ht="15" customHeight="1">
-      <c r="F395" t="n">
-        <v>0.05194663329119412</v>
-      </c>
-      <c r="G395" t="n">
-        <v>0.1407489769729774</v>
-      </c>
-    </row>
-    <row r="396" ht="15" customHeight="1">
-      <c r="F396" t="n">
-        <v>0.05176555676800167</v>
-      </c>
-      <c r="G396" t="n">
-        <v>0.1429643024836277</v>
-      </c>
-    </row>
-    <row r="397" ht="15" customHeight="1">
-      <c r="F397" t="n">
-        <v>0.05152603466105989</v>
-      </c>
-      <c r="G397" t="n">
-        <v>0.145179627994278</v>
-      </c>
-    </row>
-    <row r="398" ht="15" customHeight="1">
-      <c r="F398" t="n">
-        <v>0.05123330352627896</v>
-      </c>
-      <c r="G398" t="n">
-        <v>0.1473949535049283</v>
-      </c>
-    </row>
-    <row r="399" ht="15" customHeight="1">
-      <c r="F399" t="n">
-        <v>0.05089259991956907</v>
-      </c>
-      <c r="G399" t="n">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="400" ht="15" customHeight="1">
-      <c r="F400" t="n">
-        <v>0.05050916039684041</v>
-      </c>
-      <c r="G400" t="n">
-        <v>0.1518256045262288</v>
-      </c>
-    </row>
-    <row r="401" ht="15" customHeight="1">
-      <c r="F401" t="n">
-        <v>0.05008822151400319</v>
-      </c>
-      <c r="G401" t="n">
-        <v>0.1540409300368791</v>
-      </c>
-    </row>
-    <row r="402" ht="15" customHeight="1">
-      <c r="F402" t="n">
-        <v>0.04963501982696757</v>
-      </c>
-      <c r="G402" t="n">
-        <v>0.1562562555475294</v>
-      </c>
-    </row>
-    <row r="403" ht="15" customHeight="1">
-      <c r="F403" t="n">
-        <v>0.04915479189164379</v>
-      </c>
-      <c r="G403" t="n">
-        <v>0.1584715810581796</v>
-      </c>
-    </row>
-    <row r="404" ht="15" customHeight="1">
-      <c r="F404" t="n">
-        <v>0.04865277426394202</v>
-      </c>
-      <c r="G404" t="n">
-        <v>0.1606869065688299</v>
-      </c>
-    </row>
-    <row r="405" ht="15" customHeight="1">
-      <c r="F405" t="n">
-        <v>0.04813420349977245</v>
-      </c>
-      <c r="G405" t="n">
-        <v>0.1629022320794802</v>
-      </c>
-    </row>
-    <row r="406" ht="15" customHeight="1">
-      <c r="F406" t="n">
-        <v>0.04760431615504528</v>
-      </c>
-      <c r="G406" t="n">
-        <v>0.1651175575901304</v>
-      </c>
-    </row>
-    <row r="407" ht="15" customHeight="1">
-      <c r="F407" t="n">
-        <v>0.04706834878567069</v>
-      </c>
-      <c r="G407" t="n">
-        <v>0.1673328831007807</v>
-      </c>
-    </row>
-    <row r="408" ht="15" customHeight="1">
-      <c r="F408" t="n">
-        <v>0.04653153794755888</v>
-      </c>
-      <c r="G408" t="n">
-        <v>0.169548208611431</v>
-      </c>
-    </row>
-    <row r="409" ht="15" customHeight="1">
-      <c r="F409" t="n">
-        <v>0.04599912019662009</v>
-      </c>
-      <c r="G409" t="n">
-        <v>0.1717635341220813</v>
-      </c>
-    </row>
-    <row r="410" ht="15" customHeight="1">
-      <c r="F410" t="n">
-        <v>0.04547633208876443</v>
-      </c>
-      <c r="G410" t="n">
-        <v>0.1739788596327315</v>
-      </c>
-    </row>
-    <row r="411" ht="15" customHeight="1">
-      <c r="F411" t="n">
-        <v>0.04496841017990215</v>
-      </c>
-      <c r="G411" t="n">
-        <v>0.1761941851433818</v>
-      </c>
-    </row>
-    <row r="412" ht="15" customHeight="1">
-      <c r="F412" t="n">
-        <v>0.04448059102594346</v>
-      </c>
-      <c r="G412" t="n">
-        <v>0.1784095106540321</v>
-      </c>
-    </row>
-    <row r="413" ht="15" customHeight="1">
-      <c r="F413" t="n">
-        <v>0.04401811118279847</v>
-      </c>
-      <c r="G413" t="n">
-        <v>0.1806248361646824</v>
-      </c>
-    </row>
-    <row r="414" ht="15" customHeight="1">
-      <c r="F414" t="n">
-        <v>0.04358620720637747</v>
-      </c>
-      <c r="G414" t="n">
-        <v>0.1828401616753326</v>
-      </c>
-    </row>
-    <row r="415" ht="15" customHeight="1">
-      <c r="F415" t="n">
-        <v>0.04319011565259059</v>
-      </c>
-      <c r="G415" t="n">
-        <v>0.1850554871859829</v>
-      </c>
-    </row>
-    <row r="416" ht="15" customHeight="1">
-      <c r="F416" t="n">
-        <v>0.04283507307734807</v>
-      </c>
-      <c r="G416" t="n">
-        <v>0.1872708126966332</v>
-      </c>
-    </row>
-    <row r="417" ht="15" customHeight="1">
-      <c r="F417" t="n">
-        <v>0.04250872119130009</v>
-      </c>
-      <c r="G417" t="n">
-        <v>0.1894861382072835</v>
-      </c>
-    </row>
-    <row r="418" ht="15" customHeight="1">
-      <c r="F418" t="n">
-        <v>0.04218834626277787</v>
-      </c>
-      <c r="G418" t="n">
-        <v>0.1917014637179337</v>
-      </c>
-    </row>
-    <row r="419" ht="15" customHeight="1">
-      <c r="F419" t="n">
-        <v>0.04187355254373144</v>
-      </c>
-      <c r="G419" t="n">
-        <v>0.193916789228584</v>
-      </c>
-    </row>
-    <row r="420" ht="15" customHeight="1">
-      <c r="F420" t="n">
-        <v>0.04156410410625884</v>
-      </c>
-      <c r="G420" t="n">
-        <v>0.1961321147392343</v>
-      </c>
-    </row>
-    <row r="421" ht="15" customHeight="1">
-      <c r="F421" t="n">
-        <v>0.04125976502245815</v>
-      </c>
-      <c r="G421" t="n">
-        <v>0.1983474402498845</v>
-      </c>
-    </row>
-    <row r="422" ht="15" customHeight="1">
-      <c r="F422" t="n">
-        <v>0.04096029936442742</v>
-      </c>
-      <c r="G422" t="n">
-        <v>0.2005627657605348</v>
-      </c>
-    </row>
-    <row r="423" ht="15" customHeight="1">
-      <c r="F423" t="n">
-        <v>0.04066547120426474</v>
-      </c>
-      <c r="G423" t="n">
-        <v>0.2027780912711851</v>
-      </c>
-    </row>
-    <row r="424" ht="15" customHeight="1">
-      <c r="F424" t="n">
-        <v>0.04037504461406811</v>
-      </c>
-      <c r="G424" t="n">
-        <v>0.2049934167818354</v>
-      </c>
-    </row>
-    <row r="425" ht="15" customHeight="1">
-      <c r="F425" t="n">
-        <v>0.04008878366593563</v>
-      </c>
-      <c r="G425" t="n">
-        <v>0.2072087422924856</v>
-      </c>
-    </row>
-    <row r="426" ht="15" customHeight="1">
-      <c r="F426" t="n">
-        <v>0.03980645243196533</v>
-      </c>
-      <c r="G426" t="n">
-        <v>0.2094240678031359</v>
-      </c>
-    </row>
-    <row r="427" ht="15" customHeight="1">
-      <c r="F427" t="n">
-        <v>0.03952781498425531</v>
-      </c>
-      <c r="G427" t="n">
-        <v>0.2116393933137862</v>
-      </c>
-    </row>
-    <row r="428" ht="15" customHeight="1">
-      <c r="F428" t="n">
-        <v>0.0392526353949036</v>
-      </c>
-      <c r="G428" t="n">
-        <v>0.2138547188244364</v>
-      </c>
-    </row>
-    <row r="429" ht="15" customHeight="1">
-      <c r="F429" t="n">
-        <v>0.03898067773600829</v>
-      </c>
-      <c r="G429" t="n">
-        <v>0.2160700443350867</v>
-      </c>
-    </row>
-    <row r="430" ht="15" customHeight="1">
-      <c r="F430" t="n">
-        <v>0.03871170607966738</v>
-      </c>
-      <c r="G430" t="n">
-        <v>0.218285369845737</v>
-      </c>
-    </row>
-    <row r="431" ht="15" customHeight="1">
-      <c r="F431" t="n">
-        <v>0.03844548449797899</v>
-      </c>
-      <c r="G431" t="n">
-        <v>0.2205006953563873</v>
-      </c>
-    </row>
-    <row r="432" ht="15" customHeight="1">
-      <c r="F432" t="n">
-        <v>0.03818177706304114</v>
-      </c>
-      <c r="G432" t="n">
-        <v>0.2227160208670375</v>
-      </c>
-    </row>
-    <row r="433" ht="15" customHeight="1">
-      <c r="F433" t="n">
-        <v>0.03792034784695193</v>
-      </c>
-      <c r="G433" t="n">
-        <v>0.2249313463776879</v>
-      </c>
-    </row>
-    <row r="434" ht="15" customHeight="1">
-      <c r="F434" t="n">
-        <v>0.03766096092180939</v>
-      </c>
-      <c r="G434" t="n">
-        <v>0.2271466718883381</v>
-      </c>
-    </row>
-    <row r="435" ht="15" customHeight="1">
-      <c r="F435" t="n">
-        <v>0.03740338035971155</v>
-      </c>
-      <c r="G435" t="n">
-        <v>0.2293619973989884</v>
-      </c>
-    </row>
-    <row r="436" ht="15" customHeight="1">
-      <c r="F436" t="n">
-        <v>0.03714737023275654</v>
-      </c>
-      <c r="G436" t="n">
-        <v>0.2315773229096386</v>
-      </c>
-    </row>
-    <row r="437" ht="15" customHeight="1">
-      <c r="F437" t="n">
-        <v>0.03689269461304237</v>
-      </c>
-      <c r="G437" t="n">
-        <v>0.2337926484202889</v>
-      </c>
-    </row>
-    <row r="438" ht="15" customHeight="1">
-      <c r="F438" t="n">
-        <v>0.03663911757266712</v>
-      </c>
-      <c r="G438" t="n">
-        <v>0.2360079739309392</v>
-      </c>
-    </row>
-    <row r="439" ht="15" customHeight="1">
-      <c r="F439" t="n">
-        <v>0.03638640318372882</v>
-      </c>
-      <c r="G439" t="n">
-        <v>0.2382232994415895</v>
-      </c>
-    </row>
-    <row r="440" ht="15" customHeight="1">
-      <c r="F440" t="n">
-        <v>0.03613431551832556</v>
-      </c>
-      <c r="G440" t="n">
-        <v>0.2404386249522398</v>
-      </c>
-    </row>
-    <row r="441" ht="15" customHeight="1">
-      <c r="F441" t="n">
-        <v>0.03588261864855538</v>
-      </c>
-      <c r="G441" t="n">
-        <v>0.24265395046289</v>
-      </c>
-    </row>
-    <row r="442" ht="15" customHeight="1">
-      <c r="F442" t="n">
-        <v>0.03563151189310687</v>
-      </c>
-      <c r="G442" t="n">
-        <v>0.2448692759735403</v>
-      </c>
-    </row>
-    <row r="443" ht="15" customHeight="1">
-      <c r="F443" t="n">
-        <v>0.03538207426597959</v>
-      </c>
-      <c r="G443" t="n">
-        <v>0.2470846014841906</v>
-      </c>
-    </row>
-    <row r="444" ht="15" customHeight="1">
-      <c r="F444" t="n">
-        <v>0.0351343861763711</v>
-      </c>
-      <c r="G444" t="n">
-        <v>0.2492999269948408</v>
-      </c>
-    </row>
-    <row r="445" ht="15" customHeight="1">
-      <c r="F445" t="n">
-        <v>0.03488846341574149</v>
-      </c>
-      <c r="G445" t="n">
-        <v>0.2515152525054911</v>
-      </c>
-    </row>
-    <row r="446" ht="15" customHeight="1">
-      <c r="F446" t="n">
-        <v>0.03464432177555078</v>
-      </c>
-      <c r="G446" t="n">
-        <v>0.2537305780161414</v>
-      </c>
-    </row>
-    <row r="447" ht="15" customHeight="1">
-      <c r="F447" t="n">
-        <v>0.03440197704725902</v>
-      </c>
-      <c r="G447" t="n">
-        <v>0.2559459035267916</v>
-      </c>
-    </row>
-    <row r="448" ht="15" customHeight="1">
-      <c r="F448" t="n">
-        <v>0.03416144502232629</v>
-      </c>
-      <c r="G448" t="n">
-        <v>0.2581612290374419</v>
-      </c>
-    </row>
-    <row r="449" ht="15" customHeight="1">
-      <c r="F449" t="n">
-        <v>0.0339227414922126</v>
-      </c>
-      <c r="G449" t="n">
-        <v>0.2603765545480922</v>
-      </c>
-    </row>
-    <row r="450" ht="15" customHeight="1">
-      <c r="F450" t="n">
-        <v>0.03368588224837801</v>
-      </c>
-      <c r="G450" t="n">
-        <v>0.2625918800587425</v>
-      </c>
-    </row>
-    <row r="451" ht="15" customHeight="1">
-      <c r="F451" t="n">
-        <v>0.03345088308228261</v>
-      </c>
-      <c r="G451" t="n">
-        <v>0.2648072055693927</v>
-      </c>
-    </row>
-    <row r="452" ht="15" customHeight="1">
-      <c r="F452" t="n">
-        <v>0.03321775978538642</v>
-      </c>
-      <c r="G452" t="n">
-        <v>0.267022531080043</v>
-      </c>
-    </row>
-    <row r="453" ht="15" customHeight="1">
-      <c r="F453" t="n">
-        <v>0.03298652814914949</v>
-      </c>
-      <c r="G453" t="n">
-        <v>0.2692378565906933</v>
-      </c>
-    </row>
-    <row r="454" ht="15" customHeight="1">
-      <c r="F454" t="n">
-        <v>0.03275720396503191</v>
-      </c>
-      <c r="G454" t="n">
-        <v>0.2714531821013436</v>
-      </c>
-    </row>
-    <row r="455" ht="15" customHeight="1">
-      <c r="F455" t="n">
-        <v>0.03252980302449368</v>
-      </c>
-      <c r="G455" t="n">
-        <v>0.2736685076119938</v>
-      </c>
-    </row>
-    <row r="456" ht="15" customHeight="1">
-      <c r="F456" t="n">
-        <v>0.03230434111899488</v>
-      </c>
-      <c r="G456" t="n">
-        <v>0.2758838331226441</v>
-      </c>
-    </row>
-    <row r="457" ht="15" customHeight="1">
-      <c r="F457" t="n">
-        <v>0.03208083403999555</v>
-      </c>
-      <c r="G457" t="n">
-        <v>0.2780991586332944</v>
-      </c>
-    </row>
-    <row r="458" ht="15" customHeight="1">
-      <c r="F458" t="n">
-        <v>0.03185929757895577</v>
-      </c>
-      <c r="G458" t="n">
-        <v>0.2803144841439447</v>
-      </c>
-    </row>
-    <row r="459" ht="15" customHeight="1">
-      <c r="F459" t="n">
-        <v>0.03163974752733555</v>
-      </c>
-      <c r="G459" t="n">
-        <v>0.282529809654595</v>
-      </c>
-    </row>
-    <row r="460" ht="15" customHeight="1">
-      <c r="F460" t="n">
-        <v>0.03142219967659496</v>
-      </c>
-      <c r="G460" t="n">
-        <v>0.2847451351652452</v>
-      </c>
-    </row>
-    <row r="461" ht="15" customHeight="1">
-      <c r="F461" t="n">
-        <v>0.03120666981819406</v>
-      </c>
-      <c r="G461" t="n">
-        <v>0.2869604606758955</v>
-      </c>
-    </row>
-    <row r="462" ht="15" customHeight="1">
-      <c r="F462" t="n">
-        <v>0.03099317374359289</v>
-      </c>
-      <c r="G462" t="n">
-        <v>0.2891757861865458</v>
-      </c>
-    </row>
-    <row r="463" ht="15" customHeight="1">
-      <c r="F463" t="n">
-        <v>0.03078172724425153</v>
-      </c>
-      <c r="G463" t="n">
-        <v>0.291391111697196</v>
-      </c>
-    </row>
-    <row r="464" ht="15" customHeight="1">
-      <c r="F464" t="n">
-        <v>0.03057234611163</v>
-      </c>
-      <c r="G464" t="n">
-        <v>0.2936064372078463</v>
-      </c>
-    </row>
+        <v>0.3296537381225136</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1"/>
+    <row r="266" ht="15" customHeight="1"/>
+    <row r="267" ht="15" customHeight="1"/>
+    <row r="268" ht="15" customHeight="1"/>
+    <row r="269" ht="15" customHeight="1"/>
+    <row r="270" ht="15" customHeight="1"/>
+    <row r="271" ht="15" customHeight="1"/>
+    <row r="272" ht="15" customHeight="1"/>
+    <row r="273" ht="15" customHeight="1"/>
+    <row r="274" ht="15" customHeight="1"/>
+    <row r="275" ht="15" customHeight="1"/>
+    <row r="276" ht="15" customHeight="1"/>
+    <row r="277" ht="15" customHeight="1"/>
+    <row r="278" ht="15" customHeight="1"/>
+    <row r="279" ht="15" customHeight="1"/>
+    <row r="280" ht="15" customHeight="1"/>
+    <row r="281" ht="15" customHeight="1"/>
+    <row r="282" ht="15" customHeight="1"/>
+    <row r="283" ht="15" customHeight="1"/>
+    <row r="284" ht="15" customHeight="1"/>
+    <row r="285" ht="15" customHeight="1"/>
+    <row r="286" ht="15" customHeight="1"/>
+    <row r="287" ht="15" customHeight="1"/>
+    <row r="288" ht="15" customHeight="1"/>
+    <row r="289" ht="15" customHeight="1"/>
+    <row r="290" ht="15" customHeight="1"/>
+    <row r="291" ht="15" customHeight="1"/>
+    <row r="292" ht="15" customHeight="1"/>
+    <row r="293" ht="15" customHeight="1"/>
+    <row r="294" ht="15" customHeight="1"/>
+    <row r="295" ht="15" customHeight="1"/>
+    <row r="296" ht="15" customHeight="1"/>
+    <row r="297" ht="15" customHeight="1"/>
+    <row r="298" ht="15" customHeight="1"/>
+    <row r="299" ht="15" customHeight="1"/>
+    <row r="300" ht="15" customHeight="1"/>
+    <row r="301" ht="15" customHeight="1"/>
+    <row r="302" ht="15" customHeight="1"/>
+    <row r="303" ht="15" customHeight="1"/>
+    <row r="304" ht="15" customHeight="1"/>
+    <row r="305" ht="15" customHeight="1"/>
+    <row r="306" ht="15" customHeight="1"/>
+    <row r="307" ht="15" customHeight="1"/>
+    <row r="308" ht="15" customHeight="1"/>
+    <row r="309" ht="15" customHeight="1"/>
+    <row r="310" ht="15" customHeight="1"/>
+    <row r="311" ht="15" customHeight="1"/>
+    <row r="312" ht="15" customHeight="1"/>
+    <row r="313" ht="15" customHeight="1"/>
+    <row r="314" ht="15" customHeight="1"/>
+    <row r="315" ht="15" customHeight="1"/>
+    <row r="316" ht="15" customHeight="1"/>
+    <row r="317" ht="15" customHeight="1"/>
+    <row r="318" ht="15" customHeight="1"/>
+    <row r="319" ht="15" customHeight="1"/>
+    <row r="320" ht="15" customHeight="1"/>
+    <row r="321" ht="15" customHeight="1"/>
+    <row r="322" ht="15" customHeight="1"/>
+    <row r="323" ht="15" customHeight="1"/>
+    <row r="324" ht="15" customHeight="1"/>
+    <row r="325" ht="15" customHeight="1"/>
+    <row r="326" ht="15" customHeight="1"/>
+    <row r="327" ht="15" customHeight="1"/>
+    <row r="328" ht="15" customHeight="1"/>
+    <row r="329" ht="15" customHeight="1"/>
+    <row r="330" ht="15" customHeight="1"/>
+    <row r="331" ht="15" customHeight="1"/>
+    <row r="332" ht="15" customHeight="1"/>
+    <row r="333" ht="15" customHeight="1"/>
+    <row r="334" ht="15" customHeight="1"/>
+    <row r="335" ht="15" customHeight="1"/>
+    <row r="336" ht="15" customHeight="1"/>
+    <row r="337" ht="15" customHeight="1"/>
+    <row r="338" ht="15" customHeight="1"/>
+    <row r="339" ht="15" customHeight="1"/>
+    <row r="340" ht="15" customHeight="1"/>
+    <row r="341" ht="15" customHeight="1"/>
+    <row r="342" ht="15" customHeight="1"/>
+    <row r="343" ht="15" customHeight="1"/>
+    <row r="344" ht="15" customHeight="1"/>
+    <row r="345" ht="15" customHeight="1"/>
+    <row r="346" ht="15" customHeight="1"/>
+    <row r="347" ht="15" customHeight="1"/>
+    <row r="348" ht="15" customHeight="1"/>
+    <row r="349" ht="15" customHeight="1"/>
+    <row r="350" ht="15" customHeight="1"/>
+    <row r="351" ht="15" customHeight="1"/>
+    <row r="352" ht="15" customHeight="1"/>
+    <row r="353" ht="15" customHeight="1"/>
+    <row r="354" ht="15" customHeight="1"/>
+    <row r="355" ht="15" customHeight="1"/>
+    <row r="356" ht="15" customHeight="1"/>
+    <row r="357" ht="15" customHeight="1"/>
+    <row r="358" ht="15" customHeight="1"/>
+    <row r="359" ht="15" customHeight="1"/>
+    <row r="360" ht="15" customHeight="1"/>
+    <row r="361" ht="15" customHeight="1"/>
+    <row r="362" ht="15" customHeight="1"/>
+    <row r="363" ht="15" customHeight="1"/>
+    <row r="364" ht="15" customHeight="1"/>
+    <row r="365" ht="15" customHeight="1"/>
+    <row r="366" ht="15" customHeight="1"/>
+    <row r="367" ht="15" customHeight="1"/>
+    <row r="368" ht="15" customHeight="1"/>
+    <row r="369" ht="15" customHeight="1"/>
+    <row r="370" ht="15" customHeight="1"/>
+    <row r="371" ht="15" customHeight="1"/>
+    <row r="372" ht="15" customHeight="1"/>
+    <row r="373" ht="15" customHeight="1"/>
+    <row r="374" ht="15" customHeight="1"/>
+    <row r="375" ht="15" customHeight="1"/>
+    <row r="376" ht="15" customHeight="1"/>
+    <row r="377" ht="15" customHeight="1"/>
+    <row r="378" ht="15" customHeight="1"/>
+    <row r="379" ht="15" customHeight="1"/>
+    <row r="380" ht="15" customHeight="1"/>
+    <row r="381" ht="15" customHeight="1"/>
+    <row r="382" ht="15" customHeight="1"/>
+    <row r="383" ht="15" customHeight="1"/>
+    <row r="384" ht="15" customHeight="1"/>
+    <row r="385" ht="15" customHeight="1"/>
+    <row r="386" ht="15" customHeight="1"/>
+    <row r="387" ht="15" customHeight="1"/>
+    <row r="388" ht="15" customHeight="1"/>
+    <row r="389" ht="15" customHeight="1"/>
+    <row r="390" ht="15" customHeight="1"/>
+    <row r="391" ht="15" customHeight="1"/>
+    <row r="392" ht="15" customHeight="1"/>
+    <row r="393" ht="15" customHeight="1"/>
+    <row r="394" ht="15" customHeight="1"/>
+    <row r="395" ht="15" customHeight="1"/>
+    <row r="396" ht="15" customHeight="1"/>
+    <row r="397" ht="15" customHeight="1"/>
+    <row r="398" ht="15" customHeight="1"/>
+    <row r="399" ht="15" customHeight="1"/>
+    <row r="400" ht="15" customHeight="1"/>
+    <row r="401" ht="15" customHeight="1"/>
+    <row r="402" ht="15" customHeight="1"/>
+    <row r="403" ht="15" customHeight="1"/>
+    <row r="404" ht="15" customHeight="1"/>
+    <row r="405" ht="15" customHeight="1"/>
+    <row r="406" ht="15" customHeight="1"/>
+    <row r="407" ht="15" customHeight="1"/>
+    <row r="408" ht="15" customHeight="1"/>
+    <row r="409" ht="15" customHeight="1"/>
+    <row r="410" ht="15" customHeight="1"/>
+    <row r="411" ht="15" customHeight="1"/>
+    <row r="412" ht="15" customHeight="1"/>
+    <row r="413" ht="15" customHeight="1"/>
+    <row r="414" ht="15" customHeight="1"/>
+    <row r="415" ht="15" customHeight="1"/>
+    <row r="416" ht="15" customHeight="1"/>
+    <row r="417" ht="15" customHeight="1"/>
+    <row r="418" ht="15" customHeight="1"/>
+    <row r="419" ht="15" customHeight="1"/>
+    <row r="420" ht="15" customHeight="1"/>
+    <row r="421" ht="15" customHeight="1"/>
+    <row r="422" ht="15" customHeight="1"/>
+    <row r="423" ht="15" customHeight="1"/>
+    <row r="424" ht="15" customHeight="1"/>
+    <row r="425" ht="15" customHeight="1"/>
+    <row r="426" ht="15" customHeight="1"/>
+    <row r="427" ht="15" customHeight="1"/>
+    <row r="428" ht="15" customHeight="1"/>
+    <row r="429" ht="15" customHeight="1"/>
+    <row r="430" ht="15" customHeight="1"/>
+    <row r="431" ht="15" customHeight="1"/>
+    <row r="432" ht="15" customHeight="1"/>
+    <row r="433" ht="15" customHeight="1"/>
+    <row r="434" ht="15" customHeight="1"/>
+    <row r="435" ht="15" customHeight="1"/>
+    <row r="436" ht="15" customHeight="1"/>
+    <row r="437" ht="15" customHeight="1"/>
+    <row r="438" ht="15" customHeight="1"/>
+    <row r="439" ht="15" customHeight="1"/>
+    <row r="440" ht="15" customHeight="1"/>
+    <row r="441" ht="15" customHeight="1"/>
+    <row r="442" ht="15" customHeight="1"/>
+    <row r="443" ht="15" customHeight="1"/>
+    <row r="444" ht="15" customHeight="1"/>
+    <row r="445" ht="15" customHeight="1"/>
+    <row r="446" ht="15" customHeight="1"/>
+    <row r="447" ht="15" customHeight="1"/>
+    <row r="448" ht="15" customHeight="1"/>
+    <row r="449" ht="15" customHeight="1"/>
+    <row r="450" ht="15" customHeight="1"/>
+    <row r="451" ht="15" customHeight="1"/>
+    <row r="452" ht="15" customHeight="1"/>
+    <row r="453" ht="15" customHeight="1"/>
+    <row r="454" ht="15" customHeight="1"/>
+    <row r="455" ht="15" customHeight="1"/>
+    <row r="456" ht="15" customHeight="1"/>
+    <row r="457" ht="15" customHeight="1"/>
+    <row r="458" ht="15" customHeight="1"/>
+    <row r="459" ht="15" customHeight="1"/>
+    <row r="460" ht="15" customHeight="1"/>
+    <row r="461" ht="15" customHeight="1"/>
+    <row r="462" ht="15" customHeight="1"/>
+    <row r="463" ht="15" customHeight="1"/>
+    <row r="464" ht="15" customHeight="1"/>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1155.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.00103183607824122</v>
+        <v>0.0009791103531820861</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001635752193494335</v>
+        <v>0.000511338161496185</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002308509523545992</v>
+        <v>0.001204632752486882</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008974363769295182</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.00815357208910869</v>
+        <v>0.004417357761387797</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001650778298764541</v>
+        <v>0.0008735394708348247</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01345850878236599</v>
+        <v>0.007295103301242389</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001656551447851827</v>
+        <v>0.0008778254776089319</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.005685585783002489</v>
+        <v>0.001937845927347047</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003550825996040773</v>
+        <v>0.00102267632299237</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.004956504560574428</v>
+        <v>0.002793140750228323</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001794872753859036</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01633432504680646</v>
+        <v>0.0100260876370506</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.003301556597529082</v>
+        <v>0.001747078941669649</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.02667296747066694</v>
+        <v>0.01524190909160106</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.003313102895703654</v>
+        <v>0.001755650955217864</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.004868246966506382</v>
+        <v>0.002855831943477757</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004907256580483007</v>
+        <v>0.001534014484488555</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.00430649234400008</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.002692309130788555</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02249999999999999</v>
+        <v>0.01482271978447403</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004547557645631065</v>
+        <v>0.002620618412504474</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03749999999999998</v>
+        <v>0.02257465006562048</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.00493050986842105</v>
+        <v>0.002633476432826796</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.007025907083131611</v>
+        <v>0.003712693622557092</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006543008773977342</v>
+        <v>0.00204535264598474</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01021391754594637</v>
+        <v>0.005985655884577924</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003589745507718073</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.03057109530559982</v>
+        <v>0.01850378436114383</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006603113195058164</v>
+        <v>0.003494157883339299</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.0462024274185564</v>
+        <v>0.02952755891784498</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006626205791407308</v>
+        <v>0.003511301910435728</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.005685585783002489</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.007977867639563006</v>
+        <v>0.004488056185567933</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008178760967471678</v>
+        <v>0.002556690807480925</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01302798988092976</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.03617195828176656</v>
+        <v>0.02249999999999999</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008253891493822704</v>
+        <v>0.004377555490654203</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.05458842219653703</v>
+        <v>0.03749999999999998</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008282757239259137</v>
+        <v>0.004779575892857139</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.008817342476872492</v>
+        <v>0.005161544853493148</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009814513160966013</v>
+        <v>0.00306802896897711</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01556860717409612</v>
+        <v>0.007869252541886723</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.00538461826157711</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.0413282938483244</v>
+        <v>0.02486510893776833</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009904669792587245</v>
+        <v>0.005241236825008948</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.06299072402498984</v>
+        <v>0.03928211249349323</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009939308687110963</v>
+        <v>0.005266952865653591</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01023405440940448</v>
+        <v>0.005685585783002489</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01065247798812232</v>
+        <v>0.003550825996040773</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01784041244763211</v>
+        <v>0.008994983046314339</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.006282054638506628</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.04622516052175366</v>
+        <v>0.02772694116034224</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01155544809135179</v>
+        <v>0.006114776295843772</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.0715058009355557</v>
+        <v>0.04346104810680546</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01159586013496279</v>
+        <v>0.006144778343262523</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.0114441348619173</v>
+        <v>0.006193680733684835</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01308601754795468</v>
+        <v>0.00409070529196948</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.0199480487237243</v>
+        <v>0.009859619533783753</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.007179491015436146</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.0529885601653535</v>
+        <v>0.02997920939889781</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.0136426729368932</v>
+        <v>0.006988315766678597</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.07783012095987557</v>
+        <v>0.04710113344499145</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01325241158281462</v>
+        <v>0.007022603820871456</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.01024509276828645</v>
+        <v>0.006654648700021762</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01472176974144902</v>
+        <v>0.004602043453465665</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.02107603107429938</v>
+        <v>0.01076946748571535</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.008076927392365665</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.05561266165593129</v>
+        <v>0.03214977289798002</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01485700468888087</v>
+        <v>0.007861855237513421</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.0849010892564076</v>
+        <v>0.05024488713140762</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01479152960526315</v>
+        <v>0.007900429298480388</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01302824908958796</v>
+        <v>0.007094804769389493</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01635752193494336</v>
+        <v>0.00511338161496185</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.02337226235641303</v>
+        <v>0.01163083238352949</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008974363769295182</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.06023324996913487</v>
+        <v>0.03476649090213371</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01650778298764541</v>
+        <v>0.008735394708348247</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.09119503385289068</v>
+        <v>0.05403482778941004</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01656551447851827</v>
+        <v>0.008778254776089321</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.0137868816097646</v>
+        <v>0.007513072980159984</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01799327412843769</v>
+        <v>0.005624719776458034</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.02526127385108372</v>
+        <v>0.0119500197086466</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.009871800146224701</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.06439027813365869</v>
+        <v>0.03605722265590383</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01815856128640995</v>
+        <v>0.009608934179183071</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.09746080597128276</v>
+        <v>0.05741347404235492</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.0182220659263701</v>
+        <v>0.009656080253698253</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.0135142681127591</v>
+        <v>0.007908377370705232</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01962902632193203</v>
+        <v>0.006136057937954221</v>
       </c>
       <c r="J77" t="n">
-        <v>0.02660080892521044</v>
+        <v>0.01263333494248702</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01076923652315422</v>
       </c>
       <c r="L77" t="n">
-        <v>0.06784734880742627</v>
+        <v>0.03814982740383532</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01980933958517449</v>
+        <v>0.0104824736500179</v>
       </c>
       <c r="N77" t="n">
-        <v>0.1038866272244136</v>
+        <v>0.06022334451359834</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01987861737422193</v>
+        <v>0.01053390573130718</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01420368638251424</v>
+        <v>0.008279641979397213</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02126477851542636</v>
+        <v>0.006647396099450405</v>
       </c>
       <c r="J78" t="n">
-        <v>0.02857851183639935</v>
+        <v>0.01358708356647113</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.01166667290008374</v>
       </c>
       <c r="L78" t="n">
-        <v>0.07236806464836107</v>
+        <v>0.03977216439047304</v>
       </c>
       <c r="M78" t="n">
-        <v>0.02146011788393903</v>
+        <v>0.01135601312085272</v>
       </c>
       <c r="N78" t="n">
-        <v>0.1108006272273216</v>
+        <v>0.06210695782649661</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02153516882207375</v>
+        <v>0.01141173120891611</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01584841420297272</v>
+        <v>0.008625790844607913</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0229005307089207</v>
+        <v>0.007158734260946591</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0299820268422567</v>
+        <v>0.01411757106201936</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.01256410927701326</v>
       </c>
       <c r="L79" t="n">
-        <v>0.07541602831438657</v>
+        <v>0.04185209286036198</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02311089618270357</v>
+        <v>0.01222955259168754</v>
       </c>
       <c r="N79" t="n">
-        <v>0.1172309355950456</v>
+        <v>0.06500683260440576</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02319172026992558</v>
+        <v>0.01228955668652505</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01444172935807731</v>
+        <v>0.008945748004709306</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02453628290241503</v>
+        <v>0.007670072422442775</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03129899820038862</v>
+        <v>0.01463110291055206</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.01346154565394278</v>
       </c>
       <c r="L80" t="n">
-        <v>0.07885484246342625</v>
+        <v>0.04311747205804703</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02476167448146811</v>
+        <v>0.01310309206252237</v>
       </c>
       <c r="N80" t="n">
-        <v>0.1227056819426242</v>
+        <v>0.0685654874706822</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02484827171777741</v>
+        <v>0.01316738216413398</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01497690963177078</v>
+        <v>0.009238437498073369</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02617203509590937</v>
+        <v>0.00818141058393896</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03241707016840137</v>
+        <v>0.01513398459348958</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01435898203087229</v>
       </c>
       <c r="L81" t="n">
-        <v>0.08224810975340374</v>
+        <v>0.04509616122807311</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02641245278023266</v>
+        <v>0.01397663153335719</v>
       </c>
       <c r="N81" t="n">
-        <v>0.128552995885096</v>
+        <v>0.07062544104868185</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02650482316562923</v>
+        <v>0.01404520764174291</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01644723280799585</v>
+        <v>0.009502783363072101</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0278077872894037</v>
+        <v>0.008692748745435144</v>
       </c>
       <c r="J82" t="n">
-        <v>0.03382388700390108</v>
+        <v>0.01573252159225236</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01525641840780181</v>
       </c>
       <c r="L82" t="n">
-        <v>0.08505943284224243</v>
+        <v>0.04751601961498506</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0280632310789972</v>
+        <v>0.01485017100419202</v>
       </c>
       <c r="N82" t="n">
-        <v>0.1332010070374995</v>
+        <v>0.07372921196176119</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02816137461348106</v>
+        <v>0.01492303311935184</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01584597667069527</v>
+        <v>0.009737709638077456</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02944353948289804</v>
+        <v>0.009204086906931331</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03480709296449404</v>
+        <v>0.01643301938826076</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01615385478473133</v>
       </c>
       <c r="L83" t="n">
-        <v>0.08805241438786582</v>
+        <v>0.04920490646332795</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02971400937776174</v>
+        <v>0.01572371047502684</v>
       </c>
       <c r="N83" t="n">
-        <v>0.1386778450148737</v>
+        <v>0.07661931883327616</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02981792606133289</v>
+        <v>0.01580085859696078</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01716641900381181</v>
+        <v>0.009942140361461439</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03107929167639237</v>
+        <v>0.009715425068427515</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03575433230778639</v>
+        <v>0.01724178346293515</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01705129116166085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.09109065704819744</v>
+        <v>0.05069068101764654</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03136478767652628</v>
+        <v>0.01659724994586167</v>
       </c>
       <c r="N84" t="n">
-        <v>0.142211639432257</v>
+        <v>0.07863828028658298</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03147447750918472</v>
+        <v>0.01667868407456971</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01741836605156021</v>
+        <v>0.01011499957159601</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03271504386988671</v>
+        <v>0.0102267632299237</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03675324929138432</v>
+        <v>0.01776511929769591</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01794872753859036</v>
       </c>
       <c r="L85" t="n">
-        <v>0.09203776348116074</v>
+        <v>0.0529885601653535</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03301556597529082</v>
+        <v>0.01718224907360769</v>
       </c>
       <c r="N85" t="n">
-        <v>0.145930519904688</v>
+        <v>0.08232861494503785</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03313102895703655</v>
+        <v>0.01755650955217864</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01665833922070834</v>
+        <v>0.01023405440940448</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03435079606338105</v>
+        <v>0.01065247798812232</v>
       </c>
       <c r="J86" t="n">
-        <v>0.03729148817289404</v>
+        <v>0.01850933237396345</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01884616391551988</v>
       </c>
       <c r="L86" t="n">
-        <v>0.0943573363446793</v>
+        <v>0.05568866886212268</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03466634427405536</v>
+        <v>0.01834432888753132</v>
       </c>
       <c r="N86" t="n">
-        <v>0.1495626160472054</v>
+        <v>0.0849010892564076</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03478758040488836</v>
+        <v>0.01803516442165503</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0188903061704528</v>
+        <v>0.01038376328002957</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03598654825687538</v>
+        <v>0.01124943955291607</v>
       </c>
       <c r="J87" t="n">
-        <v>0.03800662938000154</v>
+        <v>0.01918072817315815</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.0197436002924494</v>
       </c>
       <c r="L87" t="n">
-        <v>0.09533333731565419</v>
+        <v>0.05743618530558872</v>
       </c>
       <c r="M87" t="n">
-        <v>0.0363171225728199</v>
+        <v>0.01921786835836614</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1509898378836378</v>
+        <v>0.08955364080637973</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0364441318527402</v>
+        <v>0.01931216050739651</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01711266949809622</v>
+        <v>0.01051027965767826</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03762230045036972</v>
+        <v>0.01176077771441226</v>
       </c>
       <c r="J88" t="n">
-        <v>0.03850359711744937</v>
+        <v>0.01968561217670037</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.02064103666937892</v>
       </c>
       <c r="L88" t="n">
-        <v>0.09607238738267534</v>
+        <v>0.06092275442884051</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03796790087158444</v>
+        <v>0.02009140782920097</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1533203311269473</v>
+        <v>0.09344211199091679</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03810068330059203</v>
+        <v>0.02018998598500544</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01932383180094125</v>
+        <v>0.01063520759828116</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03925805264386405</v>
+        <v>0.01227211587590844</v>
       </c>
       <c r="J89" t="n">
-        <v>0.03898318665189411</v>
+        <v>0.02107603107429938</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02193773338645172</v>
       </c>
       <c r="L89" t="n">
-        <v>0.09776599046045964</v>
+        <v>0.06322494563243322</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03961867917034898</v>
+        <v>0.02096494730003579</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1562859389146091</v>
+        <v>0.09726758766115617</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03975723474844385</v>
+        <v>0.02106781146261437</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.0195221956762905</v>
+        <v>0.01075854537010962</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04089380483735839</v>
+        <v>0.01278345403740463</v>
       </c>
       <c r="J90" t="n">
-        <v>0.03924200414245185</v>
+        <v>0.02132776914218237</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02243590942323796</v>
       </c>
       <c r="L90" t="n">
-        <v>0.09930564569555095</v>
+        <v>0.06631932831692214</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04126945746911352</v>
+        <v>0.02183848677087061</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1573728973245485</v>
+        <v>0.1009907000061543</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04141378619629568</v>
+        <v>0.0219456369402233</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01870616372144663</v>
+        <v>0.01088029124143502</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04252955703085273</v>
+        <v>0.01329479219890081</v>
       </c>
       <c r="J91" t="n">
-        <v>0.03987665574823869</v>
+        <v>0.02200986572234735</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.02333334580016748</v>
       </c>
       <c r="L91" t="n">
-        <v>0.1003828522344932</v>
+        <v>0.06878247188286254</v>
       </c>
       <c r="M91" t="n">
-        <v>0.04292023576787806</v>
+        <v>0.02271202624170544</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1590674424346901</v>
+        <v>0.1056720812149673</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04307033764414751</v>
+        <v>0.02282346241783223</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01987413853371223</v>
+        <v>0.01100044348052875</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04416530922434705</v>
+        <v>0.013806130360397</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04028374762837073</v>
+        <v>0.02297043506361539</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.024230782177097</v>
       </c>
       <c r="L92" t="n">
-        <v>0.1010891092238302</v>
+        <v>0.07229094573080955</v>
       </c>
       <c r="M92" t="n">
-        <v>0.0445710140666426</v>
+        <v>0.02358556571254027</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1609558103229591</v>
+        <v>0.1101723634766516</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04472688909199934</v>
+        <v>0.02370128789544116</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.01802452271038998</v>
+        <v>0.01111900035566216</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0458010614178414</v>
+        <v>0.01431746852189318</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04055988594196407</v>
+        <v>0.02419845600375735</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.02512821855402651</v>
       </c>
       <c r="L93" t="n">
-        <v>0.1017159158101059</v>
+        <v>0.07492131926131851</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04622179236540715</v>
+        <v>0.02445910518337509</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1627242370672803</v>
+        <v>0.1159521789802636</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04638344053985116</v>
+        <v>0.02457911337305009</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.01815571884878249</v>
+        <v>0.01123596013510664</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04743681361133573</v>
+        <v>0.01482880668338936</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04080167684813479</v>
+        <v>0.02518290738054423</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02602565493095603</v>
       </c>
       <c r="L94" t="n">
-        <v>0.1026547711398642</v>
+        <v>0.0777501618749446</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04787257066417169</v>
+        <v>0.02533264465420991</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1635589587455787</v>
+        <v>0.1202721599148595</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04803999198770299</v>
+        <v>0.02545693885065903</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.01826612954619239</v>
+        <v>0.0113513210871336</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04907256580483006</v>
+        <v>0.01534014484488555</v>
       </c>
       <c r="J95" t="n">
-        <v>0.04100572650599901</v>
+        <v>0.02621276803174684</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02692309130788555</v>
       </c>
       <c r="L95" t="n">
-        <v>0.1036971743596489</v>
+        <v>0.08045404297224307</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04952334896293623</v>
+        <v>0.02620618412504474</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1658462114357791</v>
+        <v>0.1249929384694955</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04969654343555482</v>
+        <v>0.02633476432826796</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02035415739992231</v>
+        <v>0.01146508148001436</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05070831799832441</v>
+        <v>0.01585148300638173</v>
       </c>
       <c r="J96" t="n">
-        <v>0.04136864107467281</v>
+        <v>0.02767701679513614</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02782052768481507</v>
       </c>
       <c r="L96" t="n">
-        <v>0.103934624616004</v>
+        <v>0.08330953195376917</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05117412726170077</v>
+        <v>0.02707972359587956</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1657722312158066</v>
+        <v>0.1292751468332282</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05135309488340664</v>
+        <v>0.02721258980587689</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.0184182050072749</v>
+        <v>0.01157723958202032</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05234407019181873</v>
+        <v>0.01636282116787792</v>
       </c>
       <c r="J97" t="n">
-        <v>0.04158702671327232</v>
+        <v>0.02876463250848302</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02871796406174458</v>
       </c>
       <c r="L97" t="n">
-        <v>0.1047586210554732</v>
+        <v>0.0865931982200781</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05282490556046531</v>
+        <v>0.02795326306671439</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1675232541635861</v>
+        <v>0.1340794171951137</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05300964633125847</v>
+        <v>0.02809041528348582</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02046810881880896</v>
+        <v>0.01168779366142286</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05397982238531308</v>
+        <v>0.01687415932937411</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0419574895809136</v>
+        <v>0.03016459400955837</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.0296154004386741</v>
       </c>
       <c r="L98" t="n">
-        <v>0.1047606628246007</v>
+        <v>0.08878161117172512</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05447568385922984</v>
+        <v>0.02882680253754921</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1683855163570425</v>
+        <v>0.1388663817442085</v>
       </c>
       <c r="O98" t="n">
-        <v>0.05466619777911029</v>
+        <v>0.02896824076109476</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.01946804097497275</v>
+        <v>0.01179674198649336</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05561557457880741</v>
+        <v>0.01738549749087029</v>
       </c>
       <c r="J99" t="n">
-        <v>0.04197663583671278</v>
+        <v>0.03106588013613314</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.03051283681560362</v>
       </c>
       <c r="L99" t="n">
-        <v>0.105977120330707</v>
+        <v>0.09105134020926547</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05612646215799439</v>
+        <v>0.02970034200838403</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1685452538741009</v>
+        <v>0.1420966726695689</v>
       </c>
       <c r="O99" t="n">
-        <v>0.05632274922696213</v>
+        <v>0.02984606623870368</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.01945983332872727</v>
+        <v>0.01190408282550318</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05725132677230174</v>
+        <v>0.01789683565236648</v>
       </c>
       <c r="J100" t="n">
-        <v>0.04215206214859875</v>
+        <v>0.03225746972597822</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.03141027319253314</v>
       </c>
       <c r="L100" t="n">
-        <v>0.1058648789380055</v>
+        <v>0.09347895473325446</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05777724045675893</v>
+        <v>0.03057388147921887</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1698021785128152</v>
+        <v>0.147830922160251</v>
       </c>
       <c r="O100" t="n">
-        <v>0.05797930067481395</v>
+        <v>0.03072389171631262</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.0194385252238547</v>
+        <v>0.01200981444672371</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05888707896579608</v>
+        <v>0.01840817381386266</v>
       </c>
       <c r="J101" t="n">
-        <v>0.04184981330314155</v>
+        <v>0.03332834161686449</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03230770956946266</v>
       </c>
       <c r="L101" t="n">
-        <v>0.1049641576328368</v>
+        <v>0.09654102414424717</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05942801875552348</v>
+        <v>0.03144742095005369</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1686021396732793</v>
+        <v>0.1512297624053113</v>
       </c>
       <c r="O101" t="n">
-        <v>0.05963585212266578</v>
+        <v>0.03160171719392155</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02040495853764311</v>
+        <v>0.01211393511842632</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06052283115929041</v>
+        <v>0.01891951197535885</v>
       </c>
       <c r="J102" t="n">
-        <v>0.04202429182086108</v>
+        <v>0.0345674746465629</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03320514594639218</v>
       </c>
       <c r="L102" t="n">
-        <v>0.1053860005092821</v>
+        <v>0.09841411784279894</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06107879705428801</v>
+        <v>0.03232096042088851</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1684407331556124</v>
+        <v>0.1553538255938061</v>
       </c>
       <c r="O102" t="n">
-        <v>0.06129240357051761</v>
+        <v>0.03247954267153048</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.01935997514738053</v>
+        <v>0.01221644310888239</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06215858335278475</v>
+        <v>0.01943085013685503</v>
       </c>
       <c r="J103" t="n">
-        <v>0.04207177029515824</v>
+        <v>0.03576384765284434</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.0341025823233217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1047410339849012</v>
+        <v>0.1002748052294649</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06272957535305256</v>
+        <v>0.03319449989172334</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1679674355983971</v>
+        <v>0.1570637439147917</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06294895501836943</v>
+        <v>0.03335736814913941</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.01830441693035503</v>
+        <v>0.01231733668636329</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06379433554627909</v>
+        <v>0.01994218829835121</v>
       </c>
       <c r="J104" t="n">
-        <v>0.0417940373780518</v>
+        <v>0.0369064394734797</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.03500001870025121</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1047337382546165</v>
+        <v>0.1020996557048006</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06438035365181709</v>
+        <v>0.03406803936255816</v>
       </c>
       <c r="N104" t="n">
-        <v>0.1683895009854963</v>
+        <v>0.1609201495573245</v>
       </c>
       <c r="O104" t="n">
-        <v>0.06460550646622125</v>
+        <v>0.03423519362674834</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.01923912576385467</v>
+        <v>0.0124166141191404</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06543008773977342</v>
+        <v>0.0204535264598474</v>
       </c>
       <c r="J105" t="n">
-        <v>0.04189288172156055</v>
+        <v>0.0375842289462399</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03589745507718073</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1050685935133504</v>
+        <v>0.1025652386693609</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06603113195058163</v>
+        <v>0.03494157883339299</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1689141833007731</v>
+        <v>0.1635836747104607</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06626205791407309</v>
+        <v>0.03511301910435728</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.01816494352516748</v>
+        <v>0.0125142736754851</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06706583993326776</v>
+        <v>0.02096486462134359</v>
       </c>
       <c r="J106" t="n">
-        <v>0.04177009197770322</v>
+        <v>0.03848619490889585</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03679489145411025</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1049500799560252</v>
+        <v>0.1040481235237012</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06768191024934618</v>
+        <v>0.03581511830422781</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1680487365280905</v>
+        <v>0.1648149515632566</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06791860936192491</v>
+        <v>0.03599084458196621</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02008271209158153</v>
+        <v>0.01261031362366875</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06870159212676209</v>
+        <v>0.02147620278283977</v>
       </c>
       <c r="J107" t="n">
-        <v>0.04132745679849859</v>
+        <v>0.03930131619921846</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03769232783103976</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1041826777775634</v>
+        <v>0.1050248796683767</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06933268854811073</v>
+        <v>0.03668865777506264</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1670004146513119</v>
+        <v>0.1672746123047686</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06957516080977673</v>
+        <v>0.03686867005957514</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.01899327334038485</v>
+        <v>0.01270473223196275</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07033734432025643</v>
+        <v>0.02198754094433596</v>
       </c>
       <c r="J108" t="n">
-        <v>0.04116676483596539</v>
+        <v>0.04021857165497862</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03858976420796929</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1032708671728874</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07098346684687526</v>
+        <v>0.03756219724589746</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1660764716543</v>
+        <v>0.167723289124053</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07123171225762857</v>
+        <v>0.03774649553718407</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.01789746914886552</v>
+        <v>0.01279752776863846</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07197309651375076</v>
+        <v>0.02249887910583214</v>
       </c>
       <c r="J109" t="n">
-        <v>0.04098980474212241</v>
+        <v>0.04082694011394726</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.0394872005848988</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1036191283369196</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07263424514563981</v>
+        <v>0.03843573671673228</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1657841615209178</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07288826370548039</v>
+        <v>0.03862432101479301</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.01979614139431157</v>
+        <v>0.01288869850196726</v>
       </c>
       <c r="G110" t="n">
-        <v>0.0736088487072451</v>
+        <v>0.02301021726732833</v>
       </c>
       <c r="J110" t="n">
-        <v>0.04109836516898839</v>
+        <v>0.04151540041389529</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.04038463696182832</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1030319414645822</v>
+        <v>0.105277120330707</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07428502344440434</v>
+        <v>0.0393092761875671</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1657307382350287</v>
+        <v>0.1691021785128152</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07454481515333222</v>
+        <v>0.03950214649240193</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.01769013195401107</v>
+        <v>0.01297824270022052</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07524460090073944</v>
+        <v>0.02352155542882451</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0407942347685821</v>
+        <v>0.04147293139259359</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.04128207333875784</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1022137867507978</v>
+        <v>0.105877120330707</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07593580174316888</v>
+        <v>0.04018281565840193</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1640234557804955</v>
+        <v>0.1692021785128152</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07620136660118405</v>
+        <v>0.04037997197001087</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.01958028270525206</v>
+        <v>0.01306615863166963</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07688035309423377</v>
+        <v>0.02403289359032069</v>
       </c>
       <c r="J112" t="n">
-        <v>0.04057920219292231</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.04217950971568736</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1018691443904887</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07758658004193342</v>
+        <v>0.04105635512923676</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1636695681411814</v>
+        <v>0.1682021785128152</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07785791804903587</v>
+        <v>0.0412577974476198</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.0174674355253226</v>
+        <v>0.01315244456458596</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07851610528772811</v>
+        <v>0.02454423175181688</v>
       </c>
       <c r="J113" t="n">
-        <v>0.04015505609402779</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04307694609261688</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1013024945785773</v>
+        <v>0.105177120330707</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07923735834069796</v>
+        <v>0.04192989460007158</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1631763293009496</v>
+        <v>0.1696021785128152</v>
       </c>
       <c r="O113" t="n">
-        <v>0.0795144694968877</v>
+        <v>0.04213562292522873</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.01935243229151074</v>
+        <v>0.01323709876724088</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08015185748122244</v>
+        <v>0.02505556991331306</v>
       </c>
       <c r="J114" t="n">
-        <v>0.04002358512391725</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04397438246954639</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1006183175099862</v>
+        <v>0.104977120330707</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08088813663946251</v>
+        <v>0.04280343407090641</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1616509932436628</v>
+        <v>0.1683021785128152</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08117102094473953</v>
+        <v>0.04301344840283766</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01923611488110454</v>
+        <v>0.01332011950790577</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08178760967471678</v>
+        <v>0.02556690807480925</v>
       </c>
       <c r="J115" t="n">
-        <v>0.03988657793460949</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04487181884647591</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1000210933796374</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08253891493822704</v>
+        <v>0.04367697354174123</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1612008139531843</v>
+        <v>0.1688021785128152</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08282757239259135</v>
+        <v>0.0438912738804466</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.01911932517139203</v>
+        <v>0.01340150505485201</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0834233618682111</v>
+        <v>0.02607824623630544</v>
       </c>
       <c r="J116" t="n">
-        <v>0.03964582317812329</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.04576925522340543</v>
       </c>
       <c r="L116" t="n">
-        <v>0.09891530238245361</v>
+        <v>0.104977120330707</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08418969323699159</v>
+        <v>0.04455051301257606</v>
       </c>
       <c r="N116" t="n">
-        <v>0.160333045413377</v>
+        <v>0.1694021785128152</v>
       </c>
       <c r="O116" t="n">
-        <v>0.0844841238404432</v>
+        <v>0.04476909935805553</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.01900290503966129</v>
+        <v>0.01348125367635097</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08505911406170545</v>
+        <v>0.02658958439780162</v>
       </c>
       <c r="J117" t="n">
-        <v>0.03910310950647737</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04666669160033495</v>
       </c>
       <c r="L117" t="n">
-        <v>0.09870542471335708</v>
+        <v>0.105277120330707</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08584047153575612</v>
+        <v>0.04542405248341088</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1582549416081042</v>
+        <v>0.1686021785128152</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08614067528829501</v>
+        <v>0.04564692483566446</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.01788769636320035</v>
+        <v>0.01355936364067403</v>
       </c>
       <c r="G118" t="n">
-        <v>0.08669486625519979</v>
+        <v>0.02710092255929781</v>
       </c>
       <c r="J118" t="n">
-        <v>0.03926022557169051</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04756412797726447</v>
       </c>
       <c r="L118" t="n">
-        <v>0.09809594056727025</v>
+        <v>0.105877120330707</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08749124983452067</v>
+        <v>0.04629759195424571</v>
       </c>
       <c r="N118" t="n">
-        <v>0.1578737565212288</v>
+        <v>0.1694021785128152</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08779722673614683</v>
+        <v>0.04652475031327339</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.01776675287759889</v>
+        <v>0.01363583321609256</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08833061844869411</v>
+        <v>0.02761226072079399</v>
       </c>
       <c r="J119" t="n">
-        <v>0.03901896002578147</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04846156435419399</v>
       </c>
       <c r="L119" t="n">
-        <v>0.09719133013911552</v>
+        <v>0.105177120330707</v>
       </c>
       <c r="M119" t="n">
-        <v>0.0891420281332852</v>
+        <v>0.04717113142508053</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1567967441366138</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08945377818399868</v>
+        <v>0.04740257579088233</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.01662889936337893</v>
+        <v>0.01371066067087795</v>
       </c>
       <c r="G120" t="n">
-        <v>0.08996637064218845</v>
+        <v>0.02812359888229018</v>
       </c>
       <c r="J120" t="n">
-        <v>0.03837831847429835</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.04935900073112351</v>
       </c>
       <c r="L120" t="n">
-        <v>0.0968802090022316</v>
+        <v>0.104977120330707</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09079280643204975</v>
+        <v>0.04804467089591535</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1562310882298887</v>
+        <v>0.1696021785128152</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09111032963185049</v>
+        <v>0.04828040126849126</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01647666257613688</v>
+        <v>0.01378384427330156</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09160212283568279</v>
+        <v>0.02863493704378636</v>
       </c>
       <c r="J121" t="n">
-        <v>0.03830851944167497</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.05025643710805303</v>
       </c>
       <c r="L121" t="n">
-        <v>0.09588682371502186</v>
+        <v>0.105477120330707</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09244358473081429</v>
+        <v>0.04891821036675018</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1542899367378213</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09276688107970232</v>
+        <v>0.04915822674610019</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.01731278545271119</v>
+        <v>0.01385538229163478</v>
       </c>
       <c r="G122" t="n">
-        <v>0.09323787502917712</v>
+        <v>0.02914627520528254</v>
       </c>
       <c r="J122" t="n">
-        <v>0.03780563188923229</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.05115387348498254</v>
       </c>
       <c r="L122" t="n">
-        <v>0.09581305605832566</v>
+        <v>0.105077120330707</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09409436302957884</v>
+        <v>0.049791749837585</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1535073114945317</v>
+        <v>0.1697021785128152</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09442343252755415</v>
+        <v>0.05003605222370913</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.01814001092994032</v>
+        <v>0.01392527299414898</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09487362722267145</v>
+        <v>0.02965761336677873</v>
       </c>
       <c r="J123" t="n">
-        <v>0.03767548345905439</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.05205130986191206</v>
       </c>
       <c r="L123" t="n">
-        <v>0.09427350304274121</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09574514132834337</v>
+        <v>0.05066528930841983</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1528068468465525</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09607998397540597</v>
+        <v>0.05091387770131806</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.01696108194466275</v>
+        <v>0.01399351464911552</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0965093794161658</v>
+        <v>0.03016895152827492</v>
       </c>
       <c r="J124" t="n">
-        <v>0.03752390179322525</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.05294874623884158</v>
       </c>
       <c r="L124" t="n">
-        <v>0.09338276167886683</v>
+        <v>0.105077120330707</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09739591962710792</v>
+        <v>0.05153882877925466</v>
       </c>
       <c r="N124" t="n">
-        <v>0.150712177140416</v>
+        <v>0.1682021785128152</v>
       </c>
       <c r="O124" t="n">
-        <v>0.0977365354232578</v>
+        <v>0.05179170317892699</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.01677874143371694</v>
+        <v>0.01406010552480581</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09814513160966012</v>
+        <v>0.0306802896897711</v>
       </c>
       <c r="J125" t="n">
-        <v>0.03685671453382897</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.0538461826157711</v>
       </c>
       <c r="L125" t="n">
-        <v>0.09285542897730079</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09904669792587245</v>
+        <v>0.05241236825008948</v>
       </c>
       <c r="N125" t="n">
-        <v>0.1501469367226548</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09939308687110963</v>
+        <v>0.05266952865653592</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.01559573233394135</v>
+        <v>0.0141250438894912</v>
       </c>
       <c r="G126" t="n">
-        <v>0.09978088380315446</v>
+        <v>0.03119162785126729</v>
       </c>
       <c r="J126" t="n">
-        <v>0.03657974932294955</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.05474361899270062</v>
       </c>
       <c r="L126" t="n">
-        <v>0.09180610194864131</v>
+        <v>0.105177120330707</v>
       </c>
       <c r="M126" t="n">
-        <v>0.100697476224637</v>
+        <v>0.0532859077209243</v>
       </c>
       <c r="N126" t="n">
-        <v>0.1481347599398013</v>
+        <v>0.1688021785128152</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1010496383189615</v>
+        <v>0.05354735413414485</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.01741479758217446</v>
+        <v>0.01418832801144307</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1014166359966488</v>
+        <v>0.03170296601276347</v>
       </c>
       <c r="J127" t="n">
-        <v>0.03599883380267106</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05564105536963013</v>
       </c>
       <c r="L127" t="n">
-        <v>0.09104937760348669</v>
+        <v>0.105377120330707</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1023482545234015</v>
+        <v>0.05415944719175913</v>
       </c>
       <c r="N127" t="n">
-        <v>0.1461992811383879</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1027061897668133</v>
+        <v>0.05442517961175378</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.01523868011525472</v>
+        <v>0.01424995615893281</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1030523881901431</v>
+        <v>0.03221430417425965</v>
       </c>
       <c r="J128" t="n">
-        <v>0.03581979561507755</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05653849174655965</v>
       </c>
       <c r="L128" t="n">
-        <v>0.09029985295243514</v>
+        <v>0.105577120330707</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1039990328221661</v>
+        <v>0.05503298666259395</v>
       </c>
       <c r="N128" t="n">
-        <v>0.1445641346649471</v>
+        <v>0.1684021785128152</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1043627412146651</v>
+        <v>0.05530300508936272</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.0170701228700206</v>
+        <v>0.01430992660023177</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1046881403836375</v>
+        <v>0.03272564233575584</v>
       </c>
       <c r="J129" t="n">
-        <v>0.03524846240225304</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05743592812348917</v>
       </c>
       <c r="L129" t="n">
-        <v>0.08917212500608501</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1056498111209306</v>
+        <v>0.05590652613342878</v>
       </c>
       <c r="N129" t="n">
-        <v>0.1431529548660113</v>
+        <v>0.1694021785128152</v>
       </c>
       <c r="O129" t="n">
-        <v>0.1060192926625169</v>
+        <v>0.05618083056697164</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01690256098394624</v>
+        <v>0.01436823760361135</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1063238925771318</v>
+        <v>0.03323698049725202</v>
       </c>
       <c r="J130" t="n">
-        <v>0.03499066180628159</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.05833336450041869</v>
       </c>
       <c r="L130" t="n">
-        <v>0.08788079077503447</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M130" t="n">
-        <v>0.1073005894196952</v>
+        <v>0.05678006560426361</v>
       </c>
       <c r="N130" t="n">
-        <v>0.142489376088113</v>
+        <v>0.1683021785128152</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1076758441103688</v>
+        <v>0.05705865604458057</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.0157193645446452</v>
+        <v>0.01442488743734293</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1079596447706262</v>
+        <v>0.03374831865874822</v>
       </c>
       <c r="J131" t="n">
-        <v>0.03484728202878969</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.0592308008773482</v>
       </c>
       <c r="L131" t="n">
-        <v>0.08691549075235508</v>
+        <v>0.105477120330707</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1089513677184597</v>
+        <v>0.05765360507509842</v>
       </c>
       <c r="N131" t="n">
-        <v>0.1399958573140187</v>
+        <v>0.1692021785128152</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1093323955582206</v>
+        <v>0.05793648152218951</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.01452377685242338</v>
+        <v>0.01447987436969786</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1095953969641205</v>
+        <v>0.0342596568202444</v>
       </c>
       <c r="J132" t="n">
-        <v>0.03447813840739625</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.06012823725427772</v>
       </c>
       <c r="L132" t="n">
-        <v>0.08577503386509289</v>
+        <v>0.105877120330707</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1106021460172242</v>
+        <v>0.05852714454593325</v>
       </c>
       <c r="N132" t="n">
-        <v>0.1382471008012945</v>
+        <v>0.1693021785128152</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1109889470060724</v>
+        <v>0.05881430699979844</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01531972442216858</v>
+        <v>0.01453319666894753</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1112311491576148</v>
+        <v>0.03477099498174058</v>
       </c>
       <c r="J133" t="n">
-        <v>0.03407981529631553</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.06102567363120723</v>
       </c>
       <c r="L133" t="n">
-        <v>0.08516483390446133</v>
+        <v>0.105177120330707</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1122529243159888</v>
+        <v>0.05940068401676807</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1379702514153183</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1126454984539243</v>
+        <v>0.05969213247740737</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01511113376876864</v>
+        <v>0.01458485260336333</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1128669013511091</v>
+        <v>0.03528233314323676</v>
       </c>
       <c r="J134" t="n">
-        <v>0.03376065496689806</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.06192311000813676</v>
       </c>
       <c r="L134" t="n">
-        <v>0.08370578649540791</v>
+        <v>0.105077120330707</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1139037026147533</v>
+        <v>0.0602742234876029</v>
       </c>
       <c r="N134" t="n">
-        <v>0.1364991417300752</v>
+        <v>0.1686021785128152</v>
       </c>
       <c r="O134" t="n">
-        <v>0.1143020499017761</v>
+        <v>0.06056995795501631</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01390193140711132</v>
+        <v>0.01463484044121661</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1145026535446035</v>
+        <v>0.03579367130473295</v>
       </c>
       <c r="J135" t="n">
-        <v>0.03312899969049435</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.06282054638506629</v>
       </c>
       <c r="L135" t="n">
-        <v>0.0835187872628804</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1155544809135179</v>
+        <v>0.06114776295843773</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1336676043195498</v>
+        <v>0.1690021785128152</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1159586013496279</v>
+        <v>0.06144778343262523</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.01469604385208448</v>
+        <v>0.01468315845077877</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1161384057380978</v>
+        <v>0.03630500946622914</v>
       </c>
       <c r="J136" t="n">
-        <v>0.03249319173845495</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.06371798276199579</v>
       </c>
       <c r="L136" t="n">
-        <v>0.08182473183182629</v>
+        <v>0.104977120330707</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1172052592122824</v>
+        <v>0.06202130242927255</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1327094717577273</v>
+        <v>0.1687021785128152</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1176151527974797</v>
+        <v>0.06232560891023418</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01349739761857591</v>
+        <v>0.01472980490032116</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1177741579315922</v>
+        <v>0.03681634762772532</v>
       </c>
       <c r="J137" t="n">
-        <v>0.03216157338213037</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06461541913892532</v>
       </c>
       <c r="L137" t="n">
-        <v>0.0807445158271933</v>
+        <v>0.105277120330707</v>
       </c>
       <c r="M137" t="n">
-        <v>0.118856037511047</v>
+        <v>0.06289484190010737</v>
       </c>
       <c r="N137" t="n">
-        <v>0.1298585766185925</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1192717042453316</v>
+        <v>0.06320343438784311</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01530991922147341</v>
+        <v>0.01477477805811517</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1194099101250865</v>
+        <v>0.0373276857892215</v>
       </c>
       <c r="J138" t="n">
-        <v>0.03184248689287111</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06551285551585484</v>
       </c>
       <c r="L138" t="n">
-        <v>0.07959903487392905</v>
+        <v>0.105377120330707</v>
       </c>
       <c r="M138" t="n">
-        <v>0.1205068158098115</v>
+        <v>0.06376838137094219</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1287487514761302</v>
+        <v>0.1694021785128152</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1209282556931834</v>
+        <v>0.06408125986545203</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.0141375351756648</v>
+        <v>0.0148180761924322</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1210456623185808</v>
+        <v>0.03783902395071769</v>
       </c>
       <c r="J139" t="n">
-        <v>0.03154427454202773</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06641029189278436</v>
       </c>
       <c r="L139" t="n">
-        <v>0.07890918459698112</v>
+        <v>0.104977120330707</v>
       </c>
       <c r="M139" t="n">
-        <v>0.122157594108576</v>
+        <v>0.06464192084177703</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1270138289043255</v>
+        <v>0.1689021785128152</v>
       </c>
       <c r="O139" t="n">
-        <v>0.1225848071410352</v>
+        <v>0.06495908534306097</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01498417199603789</v>
+        <v>0.01485969757154359</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1226814145120752</v>
+        <v>0.03835036211221388</v>
       </c>
       <c r="J140" t="n">
-        <v>0.03127527860095072</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06730772826971387</v>
       </c>
       <c r="L140" t="n">
-        <v>0.07849586062129715</v>
+        <v>0.105777120330707</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1238083724073406</v>
+        <v>0.06551546031261185</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1256876414771633</v>
+        <v>0.1685021785128152</v>
       </c>
       <c r="O140" t="n">
-        <v>0.124241358588887</v>
+        <v>0.06583691082066989</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01385375619748049</v>
+        <v>0.01489964046372072</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1243171667055695</v>
+        <v>0.03886170027371006</v>
       </c>
       <c r="J141" t="n">
-        <v>0.03094384134099062</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06820516464664339</v>
       </c>
       <c r="L141" t="n">
-        <v>0.07757995857182476</v>
+        <v>0.105377120330707</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1254591507061051</v>
+        <v>0.06638899978344667</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1235040217686283</v>
+        <v>0.1696021785128152</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1258979100367389</v>
+        <v>0.06671473629827883</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01375021429488041</v>
+        <v>0.01493790313723499</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1259529188990638</v>
+        <v>0.03937303843520625</v>
       </c>
       <c r="J142" t="n">
-        <v>0.03045830503349793</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06910260102357291</v>
       </c>
       <c r="L142" t="n">
-        <v>0.07608237407351157</v>
+        <v>0.105177120330707</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1271099290048696</v>
+        <v>0.06726253925428149</v>
       </c>
       <c r="N142" t="n">
-        <v>0.1224968023527055</v>
+        <v>0.1695021785128152</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1275544614845907</v>
+        <v>0.06759256177588777</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.01367747280312544</v>
+        <v>0.01497448386035775</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1275886710925582</v>
+        <v>0.03988437659670243</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0304270119498232</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.07000003740050242</v>
       </c>
       <c r="L143" t="n">
-        <v>0.0759240027513052</v>
+        <v>0.105577120330707</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1287607073036342</v>
+        <v>0.06813607872511632</v>
       </c>
       <c r="N143" t="n">
-        <v>0.12219981580338</v>
+        <v>0.1682021785128152</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1292110129324425</v>
+        <v>0.06847038725349669</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01363945823710343</v>
+        <v>0.0150093809013604</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1292244232860525</v>
+        <v>0.04039571475819861</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02995830436131695</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.07089747377743194</v>
       </c>
       <c r="L144" t="n">
-        <v>0.07552574023015329</v>
+        <v>0.105077120330707</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1304114856023987</v>
+        <v>0.06900961819595115</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1210468946946364</v>
+        <v>0.1691021785128152</v>
       </c>
       <c r="O144" t="n">
-        <v>0.1308675643802943</v>
+        <v>0.06934821273110563</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.01463546590005425</v>
+        <v>0.0150425925285143</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1308601754795468</v>
+        <v>0.0409070529196948</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02986052453932968</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.07179491015436146</v>
       </c>
       <c r="L145" t="n">
-        <v>0.0755084821350035</v>
+        <v>0.105677120330707</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1320622639011633</v>
+        <v>0.06988315766678597</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1204718716004599</v>
+        <v>0.1697021785128152</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1325241158281462</v>
+        <v>0.07022603820871456</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01264129148550167</v>
+        <v>0.01507411701009082</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1324959276730412</v>
+        <v>0.04141839108119099</v>
       </c>
       <c r="J146" t="n">
-        <v>0.03003919778311386</v>
+        <v>0.04175206214859875</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.07269234653129099</v>
       </c>
       <c r="L146" t="n">
-        <v>0.07537642388628732</v>
+        <v>0.105877120330707</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1337130421999278</v>
+        <v>0.0707566971376208</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1206085607639678</v>
+        <v>0.1698021785128152</v>
       </c>
       <c r="O146" t="n">
-        <v>0.134180667275998</v>
+        <v>0.07110386368632349</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01365259691458037</v>
+        <v>0.01510395261436135</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1341316798665355</v>
+        <v>0.04192972924268717</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02974864650872783</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.07358978290822049</v>
       </c>
       <c r="L147" t="n">
-        <v>0.07510452581329838</v>
+        <v>0.105277120330707</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1353638204986924</v>
+        <v>0.07163023660845562</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1214338609727543</v>
+        <v>0.1692021785128152</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1358372187238498</v>
+        <v>0.07198168916393241</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01266909366840672</v>
+        <v>0.01513209760959726</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1357674320600299</v>
+        <v>0.04244106740418335</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02976975197834668</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.07448721928515002</v>
       </c>
       <c r="L148" t="n">
-        <v>0.07576163798118429</v>
+        <v>0.105477120330707</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1370145987974569</v>
+        <v>0.07250377607929044</v>
       </c>
       <c r="N148" t="n">
-        <v>0.1211069822834876</v>
+        <v>0.1687021785128152</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1374937701717017</v>
+        <v>0.07285951464154135</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01369049322809707</v>
+        <v>0.01515855026406993</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1374031842535242</v>
+        <v>0.04295240556567954</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02980190120491044</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07538465566207952</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0752462249870354</v>
+        <v>0.105277120330707</v>
       </c>
       <c r="M149" t="n">
-        <v>0.1386653770962215</v>
+        <v>0.07337731555012528</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1215254386909553</v>
+        <v>0.1696021785128152</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1391503216195535</v>
+        <v>0.07373734011915029</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01471650707476776</v>
+        <v>0.01518330884605074</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1390389364470185</v>
+        <v>0.04346374372717573</v>
       </c>
       <c r="J150" t="n">
-        <v>0.03004448120135908</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07628209203900906</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0757567514279423</v>
+        <v>0.105977120330707</v>
       </c>
       <c r="M150" t="n">
-        <v>0.140316155394986</v>
+        <v>0.07425085502096009</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1211867441899454</v>
+        <v>0.1686021785128152</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1408068730674053</v>
+        <v>0.07461516559675922</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01274684668953514</v>
+        <v>0.01520637162381106</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1406746886405129</v>
+        <v>0.04397508188867191</v>
       </c>
       <c r="J151" t="n">
-        <v>0.0302968789806326</v>
+        <v>0.04185206214859875</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07717952841593857</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07619168190099537</v>
+        <v>0.105677120330707</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1419669336937505</v>
+        <v>0.07512439449179492</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1211884127752452</v>
+        <v>0.1692021785128152</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1424634245152571</v>
+        <v>0.07549299107436815</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01278122355351556</v>
+        <v>0.01522773686562227</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1423104408340072</v>
+        <v>0.0444864200501681</v>
       </c>
       <c r="J152" t="n">
-        <v>0.03035848155567096</v>
+        <v>0.04205206214859875</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07807696479286809</v>
       </c>
       <c r="L152" t="n">
-        <v>0.07574948100328513</v>
+        <v>0.1058763753207618</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1436177119925151</v>
+        <v>0.07599793396262974</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1220279584416426</v>
+        <v>0.1687021785128152</v>
       </c>
       <c r="O152" t="n">
-        <v>0.144119975963109</v>
+        <v>0.07637081655197708</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01481934914782537</v>
+        <v>0.01524740283975572</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1439461930275015</v>
+        <v>0.04499775821166428</v>
       </c>
       <c r="J153" t="n">
-        <v>0.03042867593941416</v>
+        <v>0.04195206214859874</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07897440116979761</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07642861333190193</v>
+        <v>0.1050694732707502</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1452684902912796</v>
+        <v>0.07687147343346457</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1216028951839255</v>
+        <v>0.1688973694040339</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1457765274109608</v>
+        <v>0.07724864202958602</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.01286093495358091</v>
+        <v>0.01526536781448282</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1455819452209959</v>
+        <v>0.04550909637316047</v>
       </c>
       <c r="J154" t="n">
-        <v>0.0301068491448022</v>
+        <v>0.04215206214859875</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07987183754672714</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07612754348393633</v>
+        <v>0.1053555694927039</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1469192685900441</v>
+        <v>0.0777450129042994</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1213107369968813</v>
+        <v>0.1692810376250874</v>
       </c>
       <c r="O154" t="n">
-        <v>0.1474330788588126</v>
+        <v>0.07812646750719494</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01490569245189854</v>
+        <v>0.01528163005807495</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1472176974144902</v>
+        <v>0.04602043453465665</v>
       </c>
       <c r="J155" t="n">
-        <v>0.03059238818477505</v>
+        <v>0.04215174148272263</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.08076927392365664</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07694473605647875</v>
+        <v>0.1058349514830041</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1485700468888087</v>
+        <v>0.07861855237513421</v>
       </c>
       <c r="N155" t="n">
-        <v>0.122648997875298</v>
+        <v>0.1685535910610352</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1490896303066644</v>
+        <v>0.07900429298480387</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01295333312389459</v>
+        <v>0.01529618783880346</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1488534496079845</v>
+        <v>0.04653177269615284</v>
       </c>
       <c r="J156" t="n">
-        <v>0.03068468007227269</v>
+        <v>0.04214882850830812</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.08166671030058617</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07717865564661966</v>
+        <v>0.1059079067380319</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1502208251875732</v>
+        <v>0.07949209184596905</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1235151918139632</v>
+        <v>0.1684154971675883</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1507461817545163</v>
+        <v>0.07988211846241282</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01500962682524857</v>
+        <v>0.01530903942493973</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1504892018014789</v>
+        <v>0.04704311085764902</v>
       </c>
       <c r="J157" t="n">
-        <v>0.03048311182023515</v>
+        <v>0.04174298165656033</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.08256414667751569</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0772277668514495</v>
+        <v>0.1053747227541685</v>
       </c>
       <c r="M157" t="n">
-        <v>0.1518716034863378</v>
+        <v>0.08036563131680387</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1237068328076646</v>
+        <v>0.1682672234004581</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1524027332023681</v>
+        <v>0.08075994394002174</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01410874757100154</v>
+        <v>0.01532018308475516</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1521249539949732</v>
+        <v>0.0475544490191452</v>
       </c>
       <c r="J158" t="n">
-        <v>0.03049475351171307</v>
+        <v>0.04173432492200223</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.0834615830544452</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07722529385017252</v>
+        <v>0.1058356870277952</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1535223817851023</v>
+        <v>0.08123917078763869</v>
       </c>
       <c r="N158" t="n">
-        <v>0.124225821042962</v>
+        <v>0.1681092372153555</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1540592846502199</v>
+        <v>0.08163776941763067</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01524882307923407</v>
+        <v>0.01532961708652109</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1537607061884675</v>
+        <v>0.04806578718064139</v>
       </c>
       <c r="J159" t="n">
-        <v>0.03079130896980466</v>
+        <v>0.04172298229915672</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.08435901943137472</v>
       </c>
       <c r="L159" t="n">
-        <v>0.0782504750505541</v>
+        <v>0.1047910870552929</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1551731600838668</v>
+        <v>0.08211271025847351</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1240242444732519</v>
+        <v>0.1693420060679919</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1557158360980717</v>
+        <v>0.0825155948952396</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01542114366121388</v>
+        <v>0.01533733969850892</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1553964583819619</v>
+        <v>0.04857712534213757</v>
       </c>
       <c r="J160" t="n">
-        <v>0.03107574583334465</v>
+        <v>0.04210907778254667</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.08525645580830424</v>
       </c>
       <c r="L160" t="n">
-        <v>0.07878999139264953</v>
+        <v>0.1057412103330428</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1568239383826314</v>
+        <v>0.08298624972930833</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1247959550072982</v>
+        <v>0.1683659974140782</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1573723875459236</v>
+        <v>0.08339342037284854</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01561699962820864</v>
+        <v>0.01534334918899003</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1570322105754562</v>
+        <v>0.04908846350363377</v>
       </c>
       <c r="J161" t="n">
-        <v>0.03142955950248823</v>
+        <v>0.04199273536669508</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08615389218523375</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07989749276844674</v>
+        <v>0.1049863443574263</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1584747166813959</v>
+        <v>0.08385978920014317</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1273659061479294</v>
+        <v>0.1689816787093256</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1590289389937754</v>
+        <v>0.08427124585045746</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.01382768129148604</v>
+        <v>0.01534764382623578</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1586679627689505</v>
+        <v>0.04959980166512995</v>
       </c>
       <c r="J162" t="n">
-        <v>0.03213424537739065</v>
+        <v>0.0416740790461248</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08705132856216329</v>
       </c>
       <c r="L162" t="n">
-        <v>0.08002662906993371</v>
+        <v>0.1052267766248243</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1601254949801605</v>
+        <v>0.08473332867097799</v>
       </c>
       <c r="N162" t="n">
-        <v>0.128059051397974</v>
+        <v>0.1681895174094453</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1606854904416272</v>
+        <v>0.0851490713280664</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01504447896231379</v>
+        <v>0.01535022187851756</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1603037149624449</v>
+        <v>0.05011113982662613</v>
       </c>
       <c r="J163" t="n">
-        <v>0.03237129885820712</v>
+        <v>0.04185323281535873</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08794876493909279</v>
       </c>
       <c r="L163" t="n">
-        <v>0.08143105018909846</v>
+        <v>0.1053627946316181</v>
       </c>
       <c r="M163" t="n">
-        <v>0.161776273278925</v>
+        <v>0.08560686814181281</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1308003442602608</v>
+        <v>0.1680899809701485</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1623420418894791</v>
+        <v>0.08602689680567532</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01525868295195958</v>
+        <v>0.01535108161410673</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1619394671559392</v>
+        <v>0.05062247798812232</v>
       </c>
       <c r="J164" t="n">
-        <v>0.03262221534509289</v>
+        <v>0.04163032066891986</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08884620131602232</v>
       </c>
       <c r="L164" t="n">
-        <v>0.08246440601792884</v>
+        <v>0.1044946858741888</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1634270515776896</v>
+        <v>0.08648040761264764</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1312147382376185</v>
+        <v>0.1674835368471462</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1639985933373309</v>
+        <v>0.08690472228328427</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01546158357169108</v>
+        <v>0.01535108161410673</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1635752193494336</v>
+        <v>0.05062247798812232</v>
       </c>
       <c r="J165" t="n">
-        <v>0.03326849023820312</v>
+        <v>0.04170546660133105</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08974363769295182</v>
       </c>
       <c r="L165" t="n">
-        <v>0.08408034644841295</v>
+        <v>0.1050227378489175</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1650778298764541</v>
+        <v>0.08735394708348246</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1340271868328755</v>
+        <v>0.1677706524961497</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1656551447851827</v>
+        <v>0.0877825477608932</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.014644471132776</v>
+        <v>0.01496717545353549</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1652109715429279</v>
+        <v>0.05062220945965831</v>
       </c>
       <c r="J166" t="n">
-        <v>0.0337916189376931</v>
+        <v>0.04197879460711522</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.09064107406988135</v>
       </c>
       <c r="L166" t="n">
-        <v>0.08503252137253875</v>
+        <v>0.1052472380521856</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1667286081752186</v>
+        <v>0.08822748655431729</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1351626435488608</v>
+        <v>0.1686517953728701</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1673116962330345</v>
+        <v>0.08866037323850212</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.01580218151296416</v>
+        <v>0.01458760329423527</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1668467237364222</v>
+        <v>0.05062194093119429</v>
       </c>
       <c r="J167" t="n">
-        <v>0.03407309684371798</v>
+        <v>0.04185042868079529</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.09153851044681087</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08597458068229408</v>
+        <v>0.104368473980374</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1683793864739832</v>
+        <v>0.08910102602515212</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1362460618884028</v>
+        <v>0.1678274329330183</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1689682476808864</v>
+        <v>0.08953819871611106</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.01595224687181961</v>
+        <v>0.01421289171620384</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1684824759299166</v>
+        <v>0.05062167240273027</v>
       </c>
       <c r="J168" t="n">
-        <v>0.0345016416589627</v>
+        <v>0.0416204928168942</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.09243594682374039</v>
       </c>
       <c r="L168" t="n">
-        <v>0.0863889813109382</v>
+        <v>0.104486733129864</v>
       </c>
       <c r="M168" t="n">
-        <v>0.1700301647727477</v>
+        <v>0.08997456549598694</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1381108312185751</v>
+        <v>0.1680980326323059</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1706247991287382</v>
+        <v>0.09041602419372</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.01509866126335763</v>
+        <v>0.01384356729940611</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1701182281234109</v>
+        <v>0.05062140387426625</v>
       </c>
       <c r="J169" t="n">
-        <v>0.03481389357552174</v>
+        <v>0.04178911100993481</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.0933333832006699</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0869706897438145</v>
+        <v>0.1049023029970366</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1716809430715122</v>
+        <v>0.09084810496682176</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1402784725725036</v>
+        <v>0.1677640619264437</v>
       </c>
       <c r="O169" t="n">
-        <v>0.17228135057659</v>
+        <v>0.09129384967132892</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.01524170098511909</v>
+        <v>0.0134801566238394</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1717539803169052</v>
+        <v>0.05062113534580224</v>
       </c>
       <c r="J170" t="n">
-        <v>0.03521847339640834</v>
+        <v>0.04155640725444007</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.09423081957759942</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08783333128925708</v>
+        <v>0.1046154710782732</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1733317213702768</v>
+        <v>0.09172164443765658</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1405145616914536</v>
+        <v>0.1672259882711429</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1739379020244419</v>
+        <v>0.09217167514893786</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.01538164233464489</v>
+        <v>0.01312318626946916</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1733897325103996</v>
+        <v>0.05062086681733822</v>
       </c>
       <c r="J171" t="n">
-        <v>0.03531596814322439</v>
+        <v>0.04152250554493291</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.09512825595452894</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08887837631219578</v>
+        <v>0.1045265248699548</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1749824996690413</v>
+        <v>0.09259518390849142</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1417214792761891</v>
+        <v>0.1668842791221147</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1755944534722937</v>
+        <v>0.09304950062654678</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.01651876160947584</v>
+        <v>0.01277318281629215</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1750254847038939</v>
+        <v>0.0506205982888742</v>
       </c>
       <c r="J172" t="n">
-        <v>0.03560696483757184</v>
+        <v>0.0417875298759362</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.09602569233145845</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08970729517756063</v>
+        <v>0.1047357518684626</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1766332779678059</v>
+        <v>0.09346872337932624</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1427016060274739</v>
+        <v>0.1674394019350703</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1772510049201455</v>
+        <v>0.09392732610415572</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.01565333510715286</v>
+        <v>0.01243067284427438</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1766612368973882</v>
+        <v>0.05062032976041018</v>
       </c>
       <c r="J173" t="n">
-        <v>0.03569205050105259</v>
+        <v>0.0413516042419729</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.09692312870838798</v>
       </c>
       <c r="L173" t="n">
-        <v>0.09012155825028156</v>
+        <v>0.1039434395701777</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1782840562665704</v>
+        <v>0.09434226285016106</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1448573226460723</v>
+        <v>0.1678918241657207</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1789075563679974</v>
+        <v>0.09480515158176465</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.01678563912521679</v>
+        <v>0.01209618293341202</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1782969890908826</v>
+        <v>0.05062006123194616</v>
       </c>
       <c r="J174" t="n">
-        <v>0.03637181215526857</v>
+        <v>0.04161485263756588</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09782056508531749</v>
       </c>
       <c r="L174" t="n">
-        <v>0.09142263589528854</v>
+        <v>0.1041498754714814</v>
       </c>
       <c r="M174" t="n">
-        <v>0.179934834565335</v>
+        <v>0.09521580232099588</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1447910098327482</v>
+        <v>0.1677420132697772</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1805641078158492</v>
+        <v>0.09568297705937358</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.01691594996120849</v>
+        <v>0.01177023966367174</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1799327412843769</v>
+        <v>0.05061979270348214</v>
       </c>
       <c r="J175" t="n">
-        <v>0.03654683682182167</v>
+        <v>0.04167739905723809</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09871800146224702</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0915119984775114</v>
+        <v>0.1045553470687548</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1815856128640995</v>
+        <v>0.09608934179183071</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1472050482882655</v>
+        <v>0.1671904367029508</v>
       </c>
       <c r="O175" t="n">
-        <v>0.182220659263701</v>
+        <v>0.09656080253698252</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.01604454391266886</v>
+        <v>0.01145336961504897</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1815684934778712</v>
+        <v>0.05061952417501813</v>
       </c>
       <c r="J176" t="n">
-        <v>0.03671771152231385</v>
+        <v>0.04153936749551244</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09961543783917652</v>
       </c>
       <c r="L176" t="n">
-        <v>0.09249111636188018</v>
+        <v>0.104260141858379</v>
       </c>
       <c r="M176" t="n">
-        <v>0.1832363911628641</v>
+        <v>0.09696288126266554</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1484018187133881</v>
+        <v>0.1662375619209528</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1838772107115528</v>
+        <v>0.09743862801459145</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.01617169727713874</v>
+        <v>0.01114609936751117</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1832042456713656</v>
+        <v>0.05061925564655411</v>
       </c>
       <c r="J177" t="n">
-        <v>0.03708502327834699</v>
+        <v>0.04140088194691183</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.1005128742161061</v>
       </c>
       <c r="L177" t="n">
-        <v>0.09306145991332473</v>
+        <v>0.1040637678805538</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1848871694616286</v>
+        <v>0.09783642073350035</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1484837018088803</v>
+        <v>0.1668838563794941</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1855337621594046</v>
+        <v>0.09831645349220038</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.01829793980609073</v>
+        <v>0.01084895550105295</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1848399978648599</v>
+        <v>0.0506189871180901</v>
       </c>
       <c r="J178" t="n">
-        <v>0.03734935911152304</v>
+        <v>0.04156206640595919</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.1014103105930356</v>
       </c>
       <c r="L178" t="n">
-        <v>0.0938244994967751</v>
+        <v>0.1032486676490386</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1865379477603931</v>
+        <v>0.09870996020433519</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1490530782755059</v>
+        <v>0.166415515175087</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1871903136072565</v>
+        <v>0.09919427896980931</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.01843029487942568</v>
+        <v>0.01056246459564261</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1864757500583542</v>
+        <v>0.05061871858962608</v>
       </c>
       <c r="J179" t="n">
-        <v>0.03731253502511367</v>
+        <v>0.04142304486717742</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.1023077469699651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.09448713956619759</v>
+        <v>0.1031097129781673</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1881887260591577</v>
+        <v>0.09958349967517001</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1501131115136988</v>
+        <v>0.1666073104077326</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1888468650551083</v>
+        <v>0.1000721044474183</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0175683344239885</v>
+        <v>0.0102871532312739</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1881115022518486</v>
+        <v>0.05061845006116206</v>
       </c>
       <c r="J180" t="n">
-        <v>0.03768984774587406</v>
+        <v>0.04127926158547417</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.1032051833468946</v>
       </c>
       <c r="L180" t="n">
-        <v>0.09458750732588353</v>
+        <v>0.1030498943442784</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1898395043579222</v>
+        <v>0.1004570391460048</v>
       </c>
       <c r="N180" t="n">
-        <v>0.152619889646626</v>
+        <v>0.1653633294856425</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1905034165029601</v>
+        <v>0.1009499299250272</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.01870731213534089</v>
+        <v>0.01002354798791604</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1897472544453429</v>
+        <v>0.05061818153269804</v>
       </c>
       <c r="J181" t="n">
-        <v>0.03817788779373769</v>
+        <v>0.04132513021799865</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.1041026197238241</v>
       </c>
       <c r="L181" t="n">
-        <v>0.09611213485330439</v>
+        <v>0.1031722022237095</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1914902826566867</v>
+        <v>0.1013305786168397</v>
       </c>
       <c r="N181" t="n">
-        <v>0.152877782526552</v>
+        <v>0.1647884347839099</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1921599679508119</v>
+        <v>0.1018277554026361</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.01784248170904452</v>
+        <v>0.009772175445561769</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1913830066388373</v>
+        <v>0.05061791300423403</v>
       </c>
       <c r="J182" t="n">
-        <v>0.03836657117293028</v>
+        <v>0.0409619003321692</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.1050000561007536</v>
       </c>
       <c r="L182" t="n">
-        <v>0.09663576387228801</v>
+        <v>0.1025796270927989</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1931410609554513</v>
+        <v>0.1022041180876745</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1550458939132608</v>
+        <v>0.1657874886776289</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1938165193986638</v>
+        <v>0.102705580880245</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.01896909684066109</v>
+        <v>0.009533562184186432</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1930187588323316</v>
+        <v>0.05061764447577002</v>
       </c>
       <c r="J183" t="n">
-        <v>0.03874581388767742</v>
+        <v>0.04119086169269635</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.1058974924776832</v>
       </c>
       <c r="L183" t="n">
-        <v>0.09703313610666237</v>
+        <v>0.1029751594278848</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1947918392542158</v>
+        <v>0.1030776575585093</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1547833275665362</v>
+        <v>0.1655653535418929</v>
       </c>
       <c r="O183" t="n">
-        <v>0.1954730708465156</v>
+        <v>0.103583406357854</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.01908241122575229</v>
+        <v>0.009308234783766529</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1946545110258259</v>
+        <v>0.050617375947306</v>
       </c>
       <c r="J184" t="n">
-        <v>0.03900553194220477</v>
+        <v>0.04091330406429065</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.1067949288546127</v>
       </c>
       <c r="L184" t="n">
-        <v>0.09797899328025525</v>
+        <v>0.103161789705305</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1964426175529804</v>
+        <v>0.1039511970293441</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1557491872461622</v>
+        <v>0.1644268917517957</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1971296222943674</v>
+        <v>0.1044612318354629</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.01717767855987979</v>
+        <v>0.009096719824293061</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1962902632193202</v>
+        <v>0.05061710741884198</v>
       </c>
       <c r="J185" t="n">
-        <v>0.03923564134073801</v>
+        <v>0.04113051721166262</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1076923652315422</v>
       </c>
       <c r="L185" t="n">
-        <v>0.09824807711689457</v>
+        <v>0.1029425084013978</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1980933958517449</v>
+        <v>0.104824736500179</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1569025767119224</v>
+        <v>0.164476965682431</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1987861737422193</v>
+        <v>0.1053390573130718</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.01825015253860529</v>
+        <v>0.008899543885738097</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1979260154128146</v>
+        <v>0.05061683889037796</v>
       </c>
       <c r="J186" t="n">
-        <v>0.03942605808750277</v>
+        <v>0.04104379089952279</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1085898016084717</v>
       </c>
       <c r="L186" t="n">
-        <v>0.09941512934040825</v>
+        <v>0.1017203059925012</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1997441741505094</v>
+        <v>0.1056982759710138</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1587025997236008</v>
+        <v>0.1640204377088924</v>
       </c>
       <c r="O186" t="n">
-        <v>0.2004427251900711</v>
+        <v>0.1062168827906808</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.0183022311633174</v>
+        <v>0.008717233548091445</v>
       </c>
       <c r="G187" t="n">
-        <v>0.1995617676063089</v>
+        <v>0.05061657036191394</v>
       </c>
       <c r="J187" t="n">
-        <v>0.03926669818672469</v>
+        <v>0.04085441489258171</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1094872379854012</v>
       </c>
       <c r="L187" t="n">
-        <v>0.09915489167462416</v>
+        <v>0.1014981729549531</v>
       </c>
       <c r="M187" t="n">
-        <v>0.201394952449274</v>
+        <v>0.1065718154418486</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1587083600409813</v>
+        <v>0.1635621702062735</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2020992766379229</v>
+        <v>0.1070947082682897</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.0183520040470391</v>
+        <v>0.008550315391326446</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2011975197998033</v>
+        <v>0.05061630183344992</v>
       </c>
       <c r="J188" t="n">
-        <v>0.03967238298754606</v>
+        <v>0.04046367895554993</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1103846743623308</v>
       </c>
       <c r="L188" t="n">
-        <v>0.09911898061133562</v>
+        <v>0.1016790997650919</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2030457307480385</v>
+        <v>0.1074453549126834</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1592441624475109</v>
+        <v>0.1624070255496682</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2037558280857747</v>
+        <v>0.1079725337458986</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01840066940365046</v>
+        <v>0.008399315995431568</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2028332719932976</v>
+        <v>0.05061603330498591</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03977547133709823</v>
+        <v>0.04077287285313796</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1112821107392603</v>
       </c>
       <c r="L189" t="n">
-        <v>0.09927729166998606</v>
+        <v>0.1010660768992555</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2046965090468031</v>
+        <v>0.1083188943835183</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1602619561906937</v>
+        <v>0.1625598661141701</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2054123795336266</v>
+        <v>0.1088503592235076</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01844820976610887</v>
+        <v>0.008262725549019335</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2044690241867919</v>
+        <v>0.05061576477652189</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03957622299459024</v>
+        <v>0.04068328635005636</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1121795471161898</v>
       </c>
       <c r="L190" t="n">
-        <v>0.09962973383151008</v>
+        <v>0.1015620948337818</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2063472873455676</v>
+        <v>0.1091924338543531</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1607703199260277</v>
+        <v>0.1627255542748728</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2070689309814784</v>
+        <v>0.1097281847011165</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01849460766737177</v>
+        <v>0.008128809605068336</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2061047763802863</v>
+        <v>0.05061549624805788</v>
       </c>
       <c r="J191" t="n">
-        <v>0.04007460084955311</v>
+        <v>0.04029620921101565</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1130769834931193</v>
       </c>
       <c r="L191" t="n">
-        <v>0.1000762141420337</v>
+        <v>0.1014701440450093</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2079980656443322</v>
+        <v>0.1100659733251879</v>
       </c>
       <c r="N191" t="n">
-        <v>0.160069103149815</v>
+        <v>0.16290895240687</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2087254824293302</v>
+        <v>0.1106060101787254</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01953984564039656</v>
+        <v>0.007995949284056614</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2077405285737806</v>
+        <v>0.05061522771959386</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03977056779151786</v>
+        <v>0.04041293120072637</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1139744198700488</v>
       </c>
       <c r="L192" t="n">
-        <v>0.1009166396476825</v>
+        <v>0.1011932150092755</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2096488439430967</v>
+        <v>0.1109395127960227</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1612581553583575</v>
+        <v>0.1611149228852555</v>
       </c>
       <c r="O192" t="n">
-        <v>0.210382033877182</v>
+        <v>0.1114838356563344</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01758390621814064</v>
+        <v>0.007864557355743325</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2093762807672749</v>
+        <v>0.05061495919112984</v>
       </c>
       <c r="J193" t="n">
-        <v>0.04006408671001549</v>
+        <v>0.04003474208389905</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1148718562469783</v>
       </c>
       <c r="L193" t="n">
-        <v>0.1004509173945825</v>
+        <v>0.1008342982029191</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2112996222418612</v>
+        <v>0.1118130522668576</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1621373260479575</v>
+        <v>0.1610483280851228</v>
       </c>
       <c r="O193" t="n">
-        <v>0.2120385853250339</v>
+        <v>0.1123616611339433</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.01962677193356143</v>
+        <v>0.007735046589876143</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2110120329607693</v>
+        <v>0.05061469066266582</v>
       </c>
       <c r="J194" t="n">
-        <v>0.04025512049457702</v>
+        <v>0.04036293162524426</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1157692926239079</v>
       </c>
       <c r="L194" t="n">
-        <v>0.1014789544288593</v>
+        <v>0.1009963841022777</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2129504005406258</v>
+        <v>0.1126865917376924</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1620064647149167</v>
+        <v>0.1616140303815657</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2136951367728857</v>
+        <v>0.1132394866115522</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01766842531961634</v>
+        <v>0.007607829756214088</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2126477851542636</v>
+        <v>0.05061442213420181</v>
       </c>
       <c r="J195" t="n">
-        <v>0.04004363203473349</v>
+        <v>0.04029878958947253</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.1166667290008374</v>
       </c>
       <c r="L195" t="n">
-        <v>0.1008006577966389</v>
+        <v>0.1008824631836896</v>
       </c>
       <c r="M195" t="n">
-        <v>0.2146011788393903</v>
+        <v>0.1135601312085272</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1613654208555375</v>
+        <v>0.1615168921496778</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2153516882207376</v>
+        <v>0.1141173120891611</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01770884890926279</v>
+        <v>0.007483319624505012</v>
       </c>
       <c r="G196" t="n">
-        <v>0.214283537347758</v>
+        <v>0.05061415360573779</v>
       </c>
       <c r="J196" t="n">
-        <v>0.04042958422001587</v>
+        <v>0.03994360574129435</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1175641653777669</v>
       </c>
       <c r="L196" t="n">
-        <v>0.101015934544047</v>
+        <v>0.1002900417356682</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2162519571381549</v>
+        <v>0.114433670679362</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1622140439661217</v>
+        <v>0.1618596951020869</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2170082396685894</v>
+        <v>0.1149951375667701</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01774802523545817</v>
+        <v>0.007361928964507707</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2159192895412523</v>
+        <v>0.05061388507727377</v>
       </c>
       <c r="J197" t="n">
-        <v>0.04061293993995523</v>
+        <v>0.04019866984542031</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1184616017546964</v>
       </c>
       <c r="L197" t="n">
-        <v>0.1017246917172095</v>
+        <v>0.1003020823920133</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2179027354369194</v>
+        <v>0.1153072101501968</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1634521835429714</v>
+        <v>0.1603164933148672</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2186647911164412</v>
+        <v>0.115872963044379</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01778593683115991</v>
+        <v>0.007244070545972814</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2175550417347466</v>
+        <v>0.05061361654880975</v>
       </c>
       <c r="J198" t="n">
-        <v>0.04059366208408251</v>
+        <v>0.04016157169084944</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1193590381316259</v>
       </c>
       <c r="L198" t="n">
-        <v>0.1023268363622522</v>
+        <v>0.1004170167902532</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2195535137356839</v>
+        <v>0.1161807496210317</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1633796890823887</v>
+        <v>0.1603780246141514</v>
       </c>
       <c r="O198" t="n">
-        <v>0.220321342564293</v>
+        <v>0.1167507885219879</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01882256622932542</v>
+        <v>0.007130157138651269</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2191907939282409</v>
+        <v>0.05061334802034573</v>
       </c>
       <c r="J199" t="n">
-        <v>0.04077171354192878</v>
+        <v>0.03972587833510026</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1202564745085554</v>
       </c>
       <c r="L199" t="n">
-        <v>0.1023222755253008</v>
+        <v>0.1001347491038856</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2212042920344485</v>
+        <v>0.1170542890918665</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1639964100806757</v>
+        <v>0.1600441331905147</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2219778940121448</v>
+        <v>0.1176286139995969</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.0198578959629121</v>
+        <v>0.007020601512301404</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2208265461217353</v>
+        <v>0.05061307949188172</v>
       </c>
       <c r="J200" t="n">
-        <v>0.04064705720302503</v>
+        <v>0.04009139086648557</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.121153910885485</v>
       </c>
       <c r="L200" t="n">
-        <v>0.1018109162524812</v>
+        <v>0.1004551835064084</v>
       </c>
       <c r="M200" t="n">
-        <v>0.222855070333213</v>
+        <v>0.1179278285627013</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1633021960341342</v>
+        <v>0.1611146632345323</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2236344454599966</v>
+        <v>0.1185064394772058</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01889190856487737</v>
+        <v>0.006915816436671843</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2224622983152296</v>
+        <v>0.0506128109634177</v>
       </c>
       <c r="J201" t="n">
-        <v>0.04061965595690231</v>
+        <v>0.03965806795592361</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1220513472624145</v>
       </c>
       <c r="L201" t="n">
-        <v>0.1028926655899192</v>
+        <v>0.100278224171319</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2245058486319776</v>
+        <v>0.1188013680335361</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1643968964390665</v>
+        <v>0.1607894589367794</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2252909969078485</v>
+        <v>0.1193842649548147</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01892458656817865</v>
+        <v>0.006816214681520542</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2240980505087239</v>
+        <v>0.05061254243495369</v>
       </c>
       <c r="J202" t="n">
-        <v>0.04088947269309157</v>
+        <v>0.03972586827433269</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.122948783639344</v>
       </c>
       <c r="L202" t="n">
-        <v>0.1026674305837407</v>
+        <v>0.09990377527211536</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2261566269307421</v>
+        <v>0.119674907504371</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1645803607917746</v>
+        <v>0.1607683644878311</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2269475483557003</v>
+        <v>0.1202620904324237</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01995591250577334</v>
+        <v>0.00672220901659653</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2257338027022183</v>
+        <v>0.05061227390648967</v>
       </c>
       <c r="J203" t="n">
-        <v>0.04065647030112388</v>
+        <v>0.03989475049263103</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.1238462200162735</v>
       </c>
       <c r="L203" t="n">
-        <v>0.1027351182800713</v>
+        <v>0.09973174098229495</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2278074052295066</v>
+        <v>0.1205484469752058</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1645524385885604</v>
+        <v>0.1593512240782628</v>
       </c>
       <c r="O203" t="n">
-        <v>0.2286040998035521</v>
+        <v>0.1211399159100326</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.01798586891061883</v>
+        <v>0.006634212211657296</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2273695548957126</v>
+        <v>0.05061200537802565</v>
       </c>
       <c r="J204" t="n">
-        <v>0.04092061167053022</v>
+        <v>0.0397646732817369</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.124743656393203</v>
       </c>
       <c r="L204" t="n">
-        <v>0.103295635725037</v>
+        <v>0.09936202547535561</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2294581835282712</v>
+        <v>0.1214219864460406</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1640129793257263</v>
+        <v>0.1596378818986495</v>
       </c>
       <c r="O204" t="n">
-        <v>0.230260651251404</v>
+        <v>0.1220177413876415</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02001443831567257</v>
+        <v>0.006552637036452404</v>
       </c>
       <c r="G205" t="n">
-        <v>0.229005307089207</v>
+        <v>0.05061173684956163</v>
       </c>
       <c r="J205" t="n">
-        <v>0.04118185969084164</v>
+        <v>0.03993559531256856</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.1256410927701326</v>
       </c>
       <c r="L205" t="n">
-        <v>0.1034488899647635</v>
+        <v>0.100294532924795</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2311089618270357</v>
+        <v>0.1222955259168755</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1656618324995739</v>
+        <v>0.1603281821395664</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2319172026992558</v>
+        <v>0.1228955668652505</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02004160325389195</v>
+        <v>0.006477896260738768</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2306410592827013</v>
+        <v>0.05061146832109762</v>
       </c>
       <c r="J206" t="n">
-        <v>0.04094017725158913</v>
+        <v>0.03990747525604428</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1265385291470621</v>
       </c>
       <c r="L206" t="n">
-        <v>0.1033947880453768</v>
+        <v>0.09992916750411071</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2327597401258003</v>
+        <v>0.1231690653877103</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1649988476064055</v>
+        <v>0.1593219689915887</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2335737541471076</v>
+        <v>0.1237733923428594</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01806734625823438</v>
+        <v>0.006410402654266539</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2322768114761956</v>
+        <v>0.0506111997926336</v>
       </c>
       <c r="J207" t="n">
-        <v>0.04099552724230369</v>
+        <v>0.03948027178308229</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1274359655239916</v>
       </c>
       <c r="L207" t="n">
-        <v>0.1031332370130025</v>
+        <v>0.09966583338680046</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2344105184245648</v>
+        <v>0.1240426048585451</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1649238741425231</v>
+        <v>0.1590190866452917</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2352303055949595</v>
+        <v>0.1246512178204684</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02009164986165729</v>
+        <v>0.006350568986792024</v>
       </c>
       <c r="G208" t="n">
-        <v>0.23391256366969</v>
+        <v>0.05061093126416958</v>
       </c>
       <c r="J208" t="n">
-        <v>0.04104787255251638</v>
+        <v>0.03975394356460091</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1283334019009211</v>
       </c>
       <c r="L208" t="n">
-        <v>0.1037641439137665</v>
+        <v>0.09990443474636204</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2360612967233293</v>
+        <v>0.1249161443293799</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1661367616042287</v>
+        <v>0.1590193792912505</v>
       </c>
       <c r="O208" t="n">
-        <v>0.2368868570428113</v>
+        <v>0.1255290432980773</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01811449659711806</v>
+        <v>0.006298808028066018</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2355483158631843</v>
+        <v>0.05061066273570556</v>
       </c>
       <c r="J209" t="n">
-        <v>0.04139717607175815</v>
+        <v>0.03942844927151834</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1292308382778506</v>
       </c>
       <c r="L209" t="n">
-        <v>0.1038874157937945</v>
+        <v>0.09964487575629299</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2377120750220939</v>
+        <v>0.1257896838002147</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1653373594878245</v>
+        <v>0.1591226911200403</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2385434084906631</v>
+        <v>0.1264068687756862</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01813586899757414</v>
+        <v>0.00625553254784416</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2371840680566787</v>
+        <v>0.05061039420724155</v>
       </c>
       <c r="J210" t="n">
-        <v>0.04104340068956007</v>
+        <v>0.0398037475747529</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1301282746547802</v>
       </c>
       <c r="L210" t="n">
-        <v>0.1042029596992124</v>
+        <v>0.09968706059009116</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2393628533208584</v>
+        <v>0.1266632232710496</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1658255172896124</v>
+        <v>0.1597288663222362</v>
       </c>
       <c r="O210" t="n">
-        <v>0.240199959938515</v>
+        <v>0.1272846942532951</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.0191557495959829</v>
+        <v>0.006221155315877941</v>
       </c>
       <c r="G211" t="n">
-        <v>0.238819820250173</v>
+        <v>0.05061012567877753</v>
       </c>
       <c r="J211" t="n">
-        <v>0.04108650929545311</v>
+        <v>0.03937979714522279</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1310257110317097</v>
       </c>
       <c r="L211" t="n">
-        <v>0.1039106826761461</v>
+        <v>0.09913089342125417</v>
       </c>
       <c r="M211" t="n">
-        <v>0.241013631619623</v>
+        <v>0.1275367627418844</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1661010845058945</v>
+        <v>0.1593377490884135</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2418565113863668</v>
+        <v>0.1281625197309041</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02017412092530178</v>
+        <v>0.006196089101922236</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2404555724436673</v>
+        <v>0.05060985715031351</v>
       </c>
       <c r="J212" t="n">
-        <v>0.04152646477896833</v>
+        <v>0.03965655665384631</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1319231474086392</v>
       </c>
       <c r="L212" t="n">
-        <v>0.1043104917707213</v>
+        <v>0.09967627842327967</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2426644099183875</v>
+        <v>0.1284103022127192</v>
       </c>
       <c r="N212" t="n">
-        <v>0.1671639106329728</v>
+        <v>0.1588491836091473</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2435130628342186</v>
+        <v>0.129040345208513</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02019096551848819</v>
+        <v>0.006180746675729362</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2420913246371617</v>
+        <v>0.05060958862184949</v>
       </c>
       <c r="J213" t="n">
-        <v>0.04136323002963672</v>
+        <v>0.03933398477154171</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1328205837855687</v>
       </c>
       <c r="L213" t="n">
-        <v>0.1042022940290638</v>
+        <v>0.09932311976966535</v>
       </c>
       <c r="M213" t="n">
-        <v>0.244315188217152</v>
+        <v>0.1292838416835541</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1670138451671494</v>
+        <v>0.1590630140750128</v>
       </c>
       <c r="O213" t="n">
-        <v>0.2451696142820704</v>
+        <v>0.1299181706861219</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01820626590849952</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G214" t="n">
-        <v>0.243727076830656</v>
+        <v>0.05060932009338548</v>
       </c>
       <c r="J214" t="n">
-        <v>0.04119676793698929</v>
+        <v>0.03971204016922725</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1337180201624982</v>
       </c>
       <c r="L214" t="n">
-        <v>0.1036859964972996</v>
+        <v>0.09887132163390897</v>
       </c>
       <c r="M214" t="n">
-        <v>0.2459659665159166</v>
+        <v>0.1301573811543889</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1665507376047263</v>
+        <v>0.1585790846765853</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2468261657299222</v>
+        <v>0.1307959961637309</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.01822000462829321</v>
+        <v>0.006175540807053362</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2453628290241503</v>
+        <v>0.05060932009338548</v>
       </c>
       <c r="J215" t="n">
-        <v>0.04152704139055706</v>
+        <v>0.03929068151782117</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1346154565394277</v>
       </c>
       <c r="L215" t="n">
-        <v>0.1039615062215543</v>
+        <v>0.09882078818950818</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2476167448146812</v>
+        <v>0.1310309206252237</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1673744374420056</v>
+        <v>0.15959723960444</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2484827171777741</v>
+        <v>0.1316738216413398</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01923216421082664</v>
+        <v>0.005976716690172523</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2469985812176446</v>
+        <v>0.05058867905260742</v>
       </c>
       <c r="J216" t="n">
-        <v>0.04135401327987105</v>
+        <v>0.03956986748824178</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1355128929163573</v>
       </c>
       <c r="L216" t="n">
-        <v>0.1043287302479536</v>
+        <v>0.09967142360996067</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2492675231134457</v>
+        <v>0.1319044600960585</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1662847941752894</v>
+        <v>0.1587173230491518</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2501392686256259</v>
+        <v>0.1325516471189487</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02024272718905726</v>
+        <v>0.005783419554595465</v>
       </c>
       <c r="G217" t="n">
-        <v>0.248634333411139</v>
+        <v>0.05056803801182937</v>
       </c>
       <c r="J217" t="n">
-        <v>0.04167764649446226</v>
+        <v>0.03944955675140729</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1364103292932868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.1039875756226238</v>
+        <v>0.0992231320687641</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2509183014122102</v>
+        <v>0.1327779995668933</v>
       </c>
       <c r="N217" t="n">
-        <v>0.1672816573008795</v>
+        <v>0.1585391792012962</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2517958200734777</v>
+        <v>0.1334294725965577</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01925167609594244</v>
+        <v>0.005595889206690026</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2502700856046333</v>
+        <v>0.05054739697105132</v>
       </c>
       <c r="J218" t="n">
-        <v>0.04129790392386172</v>
+        <v>0.03942970797823601</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1373077656702163</v>
       </c>
       <c r="L218" t="n">
-        <v>0.1043379493916902</v>
+        <v>0.09877581773941618</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2525690797109748</v>
+        <v>0.1336515390377282</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1665648763150782</v>
+        <v>0.1593626522514483</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2534523715213295</v>
+        <v>0.1343072980741666</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02025899346443961</v>
+        <v>0.005414365452824033</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2519058377981277</v>
+        <v>0.05052675593027327</v>
       </c>
       <c r="J219" t="n">
-        <v>0.04141474845760043</v>
+        <v>0.03921027983964617</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1382052020471458</v>
       </c>
       <c r="L219" t="n">
-        <v>0.1047797586012789</v>
+        <v>0.09862938479541461</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2542198580097393</v>
+        <v>0.134525078508563</v>
       </c>
       <c r="N219" t="n">
-        <v>0.1668343007141875</v>
+        <v>0.1583875863901831</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2551089229691814</v>
+        <v>0.1351851235517755</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02026466182750618</v>
+        <v>0.005239088099365317</v>
       </c>
       <c r="G220" t="n">
-        <v>0.253541589991622</v>
+        <v>0.05050611488949521</v>
       </c>
       <c r="J220" t="n">
-        <v>0.04172814298520941</v>
+        <v>0.03939123100655603</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1391026384240753</v>
       </c>
       <c r="L220" t="n">
-        <v>0.1047129102975156</v>
+        <v>0.0986837374102571</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2558706363085039</v>
+        <v>0.1353986179793978</v>
       </c>
       <c r="N220" t="n">
-        <v>0.1678897799945094</v>
+        <v>0.1585138258080761</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2567654744170332</v>
+        <v>0.1360629490293845</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02026866371809957</v>
+        <v>0.00507029695268172</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2551773421851163</v>
+        <v>0.05048547384871716</v>
       </c>
       <c r="J221" t="n">
-        <v>0.04143805039621967</v>
+        <v>0.03947252014988387</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1400000748010048</v>
       </c>
       <c r="L221" t="n">
-        <v>0.1039373115265261</v>
+        <v>0.09913877975744129</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2575214146072684</v>
+        <v>0.1362721574502326</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1668311636523459</v>
+        <v>0.1586412146957022</v>
       </c>
       <c r="O221" t="n">
-        <v>0.258422025864885</v>
+        <v>0.1369407745069934</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02027098166917719</v>
+        <v>0.004908231819141066</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2568130943786107</v>
+        <v>0.05046483280793911</v>
       </c>
       <c r="J222" t="n">
-        <v>0.04174443358016224</v>
+        <v>0.03915410594054793</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.1408975111779344</v>
       </c>
       <c r="L222" t="n">
-        <v>0.1039528693344363</v>
+        <v>0.09839441601046484</v>
       </c>
       <c r="M222" t="n">
-        <v>0.2591721929060329</v>
+        <v>0.1371456969210675</v>
       </c>
       <c r="N222" t="n">
-        <v>0.1676583011839991</v>
+        <v>0.1580695972436369</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2600785773127369</v>
+        <v>0.1378185999846023</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01827108732061853</v>
+        <v>0.004753132505111196</v>
       </c>
       <c r="G223" t="n">
-        <v>0.258448846572105</v>
+        <v>0.05044419176716106</v>
       </c>
       <c r="J223" t="n">
-        <v>0.04144725542656812</v>
+        <v>0.03933594704946647</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.1417949475548639</v>
       </c>
       <c r="L223" t="n">
-        <v>0.1040594907673719</v>
+        <v>0.09845055034282554</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2608229712047975</v>
+        <v>0.1380192363919023</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1666710420857712</v>
+        <v>0.157598817642455</v>
       </c>
       <c r="O223" t="n">
-        <v>0.2617351287605887</v>
+        <v>0.1386964254622113</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02023768162753118</v>
+        <v>0.004605238816959976</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2600845987655993</v>
+        <v>0.05042355072638301</v>
       </c>
       <c r="J224" t="n">
-        <v>0.04151895235806691</v>
+        <v>0.03911800214755777</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1426923839317934</v>
       </c>
       <c r="L224" t="n">
-        <v>0.1047780406157169</v>
+        <v>0.09880708692802104</v>
       </c>
       <c r="M224" t="n">
-        <v>0.262473749503562</v>
+        <v>0.1388927758627371</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1665842359002657</v>
+        <v>0.1579287200827321</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2633916802084405</v>
+        <v>0.1395742509398202</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.0181561658948174</v>
+        <v>0.004464790561055171</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2617203509590937</v>
+        <v>0.05040290968560496</v>
       </c>
       <c r="J225" t="n">
-        <v>0.04158926025569409</v>
+        <v>0.03930022990574007</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1435898203087229</v>
       </c>
       <c r="L225" t="n">
-        <v>0.1037400500793489</v>
+        <v>0.09886392993954898</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2641245278023265</v>
+        <v>0.1397663153335719</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1675967273558616</v>
+        <v>0.158459148755043</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2650482316562924</v>
+        <v>0.1404520764174291</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02003198535741623</v>
+        <v>0.00433202754376464</v>
       </c>
       <c r="G226" t="n">
-        <v>0.263356103152588</v>
+        <v>0.0503822686448269</v>
       </c>
       <c r="J226" t="n">
-        <v>0.04106519615795694</v>
+        <v>0.03948258899493165</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1444872566856525</v>
       </c>
       <c r="L226" t="n">
-        <v>0.103066791171569</v>
+        <v>0.09822098355090708</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2657753061010911</v>
+        <v>0.1406398548044068</v>
       </c>
       <c r="N226" t="n">
-        <v>0.1661232410700897</v>
+        <v>0.1579899478499631</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2667047831041442</v>
+        <v>0.1413299018950381</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01987058525026669</v>
+        <v>0.004207189571456237</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2649918553460823</v>
+        <v>0.05036162760404885</v>
       </c>
       <c r="J227" t="n">
-        <v>0.04065832900798355</v>
+        <v>0.03906503808605077</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.145384693062582</v>
       </c>
       <c r="L227" t="n">
-        <v>0.1022872416475337</v>
+        <v>0.09877815193559306</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2674260843998557</v>
+        <v>0.1415133942752416</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1650106955748296</v>
+        <v>0.1583209615580676</v>
       </c>
       <c r="O227" t="n">
-        <v>0.268361334551996</v>
+        <v>0.142207727372647</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01967741080830781</v>
+        <v>0.00409051645049778</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2666276075395767</v>
+        <v>0.0503409865632708</v>
       </c>
       <c r="J228" t="n">
-        <v>0.04058022774890199</v>
+        <v>0.03924753585001566</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1462821294395115</v>
       </c>
       <c r="L228" t="n">
-        <v>0.1018303792623994</v>
+        <v>0.0986353392671046</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2690768626986202</v>
+        <v>0.1423869337460764</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1639060094019609</v>
+        <v>0.1586520340699317</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2700178859998478</v>
+        <v>0.1430855528502559</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.0174579072664786</v>
+        <v>0.003982247987257111</v>
       </c>
       <c r="G229" t="n">
-        <v>0.268263359733071</v>
+        <v>0.05032034552249274</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03994246132384041</v>
+        <v>0.03933004095774463</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.147179565816441</v>
       </c>
       <c r="L229" t="n">
-        <v>0.100925181771323</v>
+        <v>0.09889244971893935</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2707276409973847</v>
+        <v>0.1432604732169112</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1612561010833636</v>
+        <v>0.1572830095761305</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2716744374476996</v>
+        <v>0.1439633783278648</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01721751985971812</v>
+        <v>0.003882623988102053</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2698991119265653</v>
+        <v>0.05029970448171469</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03965659867592684</v>
+        <v>0.03911251208015591</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1480770021933705</v>
       </c>
       <c r="L230" t="n">
-        <v>0.09900062692946074</v>
+        <v>0.09844938746459503</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2723784192961493</v>
+        <v>0.1441340126877461</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1593078891509171</v>
+        <v>0.1572137322672391</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2733309888955515</v>
+        <v>0.1448412038054738</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01796169382296536</v>
+        <v>0.003791884259400455</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2715348641200597</v>
+        <v>0.05027906344093663</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03913420874828943</v>
+        <v>0.03939490788816777</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1489744385703</v>
       </c>
       <c r="L231" t="n">
-        <v>0.09818569249196943</v>
+        <v>0.09800605667756926</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2740291975949138</v>
+        <v>0.1450075521585809</v>
       </c>
       <c r="N231" t="n">
-        <v>0.1573082921365012</v>
+        <v>0.1580440463338329</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2749875403434033</v>
+        <v>0.1457190292830827</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01869587439115935</v>
+        <v>0.003710268607520148</v>
       </c>
       <c r="G232" t="n">
-        <v>0.273170616313554</v>
+        <v>0.05025842240015858</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03838686048405628</v>
+        <v>0.03937718705269845</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1498718749472296</v>
       </c>
       <c r="L232" t="n">
-        <v>0.09640935621400551</v>
+        <v>0.09846236153135984</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2756799758936783</v>
+        <v>0.1458810916294157</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1546042285719957</v>
+        <v>0.1574737959664869</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2766440917912552</v>
+        <v>0.1465968547606916</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01842550679923913</v>
+        <v>0.003638016838828952</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2748063685070484</v>
+        <v>0.05023778135938053</v>
       </c>
       <c r="J233" t="n">
-        <v>0.03792612282635544</v>
+        <v>0.03915930824466624</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.150769311324159</v>
       </c>
       <c r="L233" t="n">
-        <v>0.09490059585072555</v>
+        <v>0.0979182061994644</v>
       </c>
       <c r="M233" t="n">
-        <v>0.2773307541924429</v>
+        <v>0.1467546311002506</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1521426169892801</v>
+        <v>0.1571028253557765</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2783006432391069</v>
+        <v>0.1474746802383006</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01615603628214372</v>
+        <v>0.003575368759694705</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2764421207005427</v>
+        <v>0.05021714031860248</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03746356471831502</v>
+        <v>0.03924123013498937</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1516667477010886</v>
       </c>
       <c r="L234" t="n">
-        <v>0.09388838915728617</v>
+        <v>0.09807379855081805</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2789815324912074</v>
+        <v>0.1476281705710854</v>
       </c>
       <c r="N234" t="n">
-        <v>0.1511703759202341</v>
+        <v>0.1582312974332722</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2799571946869588</v>
+        <v>0.1483525057159095</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01689290807481214</v>
+        <v>0.003522564176485256</v>
       </c>
       <c r="G235" t="n">
-        <v>0.278077872894037</v>
+        <v>0.05019649927782442</v>
       </c>
       <c r="J235" t="n">
-        <v>0.03661075510306314</v>
+        <v>0.03902310600874273</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.1525641840780181</v>
       </c>
       <c r="L235" t="n">
-        <v>0.09300171388884387</v>
+        <v>0.09802976696389598</v>
       </c>
       <c r="M235" t="n">
-        <v>0.280632310789972</v>
+        <v>0.1485017100419202</v>
       </c>
       <c r="N235" t="n">
-        <v>0.1490344238967376</v>
+        <v>0.1570603076692937</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2816137461348106</v>
+        <v>0.1492303311935184</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01564156741218341</v>
+        <v>0.003479842895568422</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2797136250875313</v>
+        <v>0.05017585823704637</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03627926292372785</v>
+        <v>0.03910514989085759</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1534616204549476</v>
       </c>
       <c r="L236" t="n">
-        <v>0.09096954780055524</v>
+        <v>0.09788614291701925</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2822830890887365</v>
+        <v>0.149375249512755</v>
       </c>
       <c r="N236" t="n">
-        <v>0.14618167945067</v>
+        <v>0.1582899753965387</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2832702975826624</v>
+        <v>0.1501081566711274</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01640745952919658</v>
+        <v>0.00344744472331205</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2813493772810257</v>
+        <v>0.05015521719626832</v>
       </c>
       <c r="J237" t="n">
-        <v>0.0358806571234373</v>
+        <v>0.03908736567784685</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1543590568318771</v>
       </c>
       <c r="L237" t="n">
-        <v>0.09042086864757695</v>
+        <v>0.09874293472610962</v>
       </c>
       <c r="M237" t="n">
-        <v>0.283933867387501</v>
+        <v>0.1502487889835898</v>
       </c>
       <c r="N237" t="n">
-        <v>0.1444590611139112</v>
+        <v>0.157920314136308</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2849268490305143</v>
+        <v>0.1509859821487363</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01519244645870019</v>
+        <v>0.003425609466083959</v>
       </c>
       <c r="G238" t="n">
-        <v>0.28298512947452</v>
+        <v>0.05013457615549027</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03522488929717373</v>
+        <v>0.03886975695629039</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1552564932088067</v>
       </c>
       <c r="L238" t="n">
-        <v>0.08887940961802515</v>
+        <v>0.09840015070708885</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2855846456862656</v>
+        <v>0.1511223284544247</v>
       </c>
       <c r="N238" t="n">
-        <v>0.1427097678570136</v>
+        <v>0.1566513374099026</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2865834004783661</v>
+        <v>0.1518638076263452</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01697960664600466</v>
+        <v>0.003414576930252003</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2846208816680144</v>
+        <v>0.05011393511471221</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03468243328550683</v>
+        <v>0.03895232731276815</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1561539295857362</v>
       </c>
       <c r="L239" t="n">
-        <v>0.08716825359867916</v>
+        <v>0.09865779917587858</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2872354239850301</v>
+        <v>0.1519958679252595</v>
       </c>
       <c r="N239" t="n">
-        <v>0.1408237930454527</v>
+        <v>0.1564830587386236</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2882399519262179</v>
+        <v>0.1527416331039542</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01576595691263774</v>
+        <v>0.003413607712848675</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2862566338615087</v>
+        <v>0.05009329407393417</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03453828138328177</v>
+        <v>0.03913508033386004</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1570513659626657</v>
       </c>
       <c r="L240" t="n">
-        <v>0.08645284230167041</v>
+        <v>0.09771588844840057</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2888862022837946</v>
+        <v>0.1528694073960943</v>
       </c>
       <c r="N240" t="n">
-        <v>0.1393309621140919</v>
+        <v>0.1578154916437717</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2898965033740697</v>
+        <v>0.1536194585815631</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01455148435863594</v>
+        <v>0.003417066364229886</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2878923860550031</v>
+        <v>0.05007265303315611</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03409240618324327</v>
+        <v>0.03901801960614597</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.1579488023395952</v>
       </c>
       <c r="L241" t="n">
-        <v>0.08513310707762234</v>
+        <v>0.09847442684057658</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2905369805825592</v>
+        <v>0.1537429468669291</v>
       </c>
       <c r="N241" t="n">
-        <v>0.1375311639111894</v>
+        <v>0.1569486496466482</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2915530548219216</v>
+        <v>0.154497284059172</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01433617608403576</v>
+        <v>0.003424213481428143</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2895281382484974</v>
+        <v>0.05005201199237806</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03344478027813605</v>
+        <v>0.03890114871620588</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.1588462387165247</v>
       </c>
       <c r="L242" t="n">
-        <v>0.08430897927715844</v>
+        <v>0.09793342266832825</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2921877588813238</v>
+        <v>0.154616486337764</v>
       </c>
       <c r="N242" t="n">
-        <v>0.1360242872850031</v>
+        <v>0.157282546268554</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2932096062697734</v>
+        <v>0.155375109536781</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01612001918887371</v>
+        <v>0.003435288870811293</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2911638904419918</v>
+        <v>0.05003137095160001</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03319537626070478</v>
+        <v>0.03878447125061964</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.1597436750934543</v>
       </c>
       <c r="L243" t="n">
-        <v>0.0826803902509021</v>
+        <v>0.09839288424757736</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2938385371800883</v>
+        <v>0.1554900258085988</v>
       </c>
       <c r="N243" t="n">
-        <v>0.1338102210837911</v>
+        <v>0.15721719503079</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2948661577176253</v>
+        <v>0.1562529350143899</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01390300077318629</v>
+        <v>0.003450532338747168</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2927996426354861</v>
+        <v>0.05001072991082195</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03274416672369423</v>
+        <v>0.03906799079596719</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1606411114703838</v>
       </c>
       <c r="L244" t="n">
-        <v>0.08234727134947675</v>
+        <v>0.09765281989424557</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2954893154788528</v>
+        <v>0.1563635652794336</v>
       </c>
       <c r="N244" t="n">
-        <v>0.1322888541558116</v>
+        <v>0.1564526094546571</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2965227091654771</v>
+        <v>0.1571307604919988</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01468510793700999</v>
+        <v>0.003470183691603596</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2944353948289804</v>
+        <v>0.0499900888700439</v>
       </c>
       <c r="J245" t="n">
-        <v>0.03239112425984911</v>
+        <v>0.03895171093882846</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.1615385478473133</v>
       </c>
       <c r="L245" t="n">
-        <v>0.08110955392350583</v>
+        <v>0.09751323792425465</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2971400937776174</v>
+        <v>0.1572371047502684</v>
       </c>
       <c r="N245" t="n">
-        <v>0.1292600753493225</v>
+        <v>0.1571888030614566</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2981792606133289</v>
+        <v>0.1580085859696077</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01446632778038132</v>
+        <v>0.003494482735748414</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2960711470224747</v>
+        <v>0.04996944782926584</v>
       </c>
       <c r="J246" t="n">
-        <v>0.03183622146191409</v>
+        <v>0.03873563526578334</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1624359842242428</v>
       </c>
       <c r="L246" t="n">
-        <v>0.07966716932361279</v>
+        <v>0.09787414665352637</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2987908720763819</v>
+        <v>0.1581106442211032</v>
       </c>
       <c r="N246" t="n">
-        <v>0.1282237735125821</v>
+        <v>0.1567257893724892</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2998358120611807</v>
+        <v>0.1588864114472167</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01524664740333678</v>
+        <v>0.003523669277549449</v>
       </c>
       <c r="G247" t="n">
-        <v>0.297706899215969</v>
+        <v>0.04994880678848779</v>
       </c>
       <c r="J247" t="n">
-        <v>0.03107943092263389</v>
+        <v>0.03871976736341175</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1633334206011723</v>
       </c>
       <c r="L247" t="n">
-        <v>0.0791200489004211</v>
+        <v>0.09733555439798233</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3004416503751464</v>
+        <v>0.1589841836919381</v>
       </c>
       <c r="N247" t="n">
-        <v>0.1255798374938482</v>
+        <v>0.1566635819090559</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3014923635090325</v>
+        <v>0.1597642369248256</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01502605390591287</v>
+        <v>0.00355798312337454</v>
       </c>
       <c r="G248" t="n">
-        <v>0.2993426514094634</v>
+        <v>0.04992816574770974</v>
       </c>
       <c r="J248" t="n">
-        <v>0.03072072523475325</v>
+        <v>0.03890411081829361</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1642308569781019</v>
       </c>
       <c r="L248" t="n">
-        <v>0.07716812400455414</v>
+        <v>0.09829746947354429</v>
       </c>
       <c r="M248" t="n">
-        <v>0.302092428673911</v>
+        <v>0.1598577231627729</v>
       </c>
       <c r="N248" t="n">
-        <v>0.1237281561413792</v>
+        <v>0.1568021941924579</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3031489149568843</v>
+        <v>0.1606420624024346</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01480453438814608</v>
+        <v>0.003597664079591521</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3009784036029577</v>
+        <v>0.04990752470693169</v>
       </c>
       <c r="J249" t="n">
-        <v>0.03046007699101687</v>
+        <v>0.03868866921700882</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1651282933550314</v>
       </c>
       <c r="L249" t="n">
-        <v>0.07661132598663539</v>
+        <v>0.09825990019613404</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3037432069726755</v>
+        <v>0.1607312626336077</v>
       </c>
       <c r="N249" t="n">
-        <v>0.1221686183034328</v>
+        <v>0.1558416397439959</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3048054664047362</v>
+        <v>0.1615198878800435</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01458207595007293</v>
+        <v>0.003642951952568231</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3026141557964521</v>
+        <v>0.04988688366615363</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02979745878416948</v>
+        <v>0.03867344614613731</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1660257297319609</v>
       </c>
       <c r="L250" t="n">
-        <v>0.07464958619728829</v>
+        <v>0.0980228548816732</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3053939852714401</v>
+        <v>0.1616048021044426</v>
       </c>
       <c r="N250" t="n">
-        <v>0.1206011128282675</v>
+        <v>0.1573819320849711</v>
       </c>
       <c r="O250" t="n">
-        <v>0.306462017852588</v>
+        <v>0.1623977133576524</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01335866569172992</v>
+        <v>0.003694086548672496</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3042499079899464</v>
+        <v>0.04986624262537558</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02963284320695575</v>
+        <v>0.03885844519225898</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1669231661088904</v>
       </c>
       <c r="L251" t="n">
-        <v>0.0737828359871362</v>
+        <v>0.09728634184608353</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3070447635702046</v>
+        <v>0.1624783415752774</v>
       </c>
       <c r="N251" t="n">
-        <v>0.1180255285641409</v>
+        <v>0.1563230847366844</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3081185693004398</v>
+        <v>0.1632755388352613</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01213429071315353</v>
+        <v>0.003751307674272147</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3058856601834408</v>
+        <v>0.04984560158459753</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02906620285212042</v>
+        <v>0.03904366994195378</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1678206024858199</v>
       </c>
       <c r="L252" t="n">
-        <v>0.07271100670680269</v>
+        <v>0.09735036940528677</v>
       </c>
       <c r="M252" t="n">
-        <v>0.3086955418689691</v>
+        <v>0.1633518810461122</v>
       </c>
       <c r="N252" t="n">
-        <v>0.1167417543593113</v>
+        <v>0.1569651112204368</v>
       </c>
       <c r="O252" t="n">
-        <v>0.3097751207482917</v>
+        <v>0.1641533643128703</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01390893811438028</v>
+        <v>0.003814855135735033</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3075214123769351</v>
+        <v>0.04982496054381948</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02869751031240822</v>
+        <v>0.03872912398180159</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1687180388627494</v>
       </c>
       <c r="L253" t="n">
-        <v>0.07153402970691108</v>
+        <v>0.09751494587520462</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3103463201677337</v>
+        <v>0.164225420516947</v>
       </c>
       <c r="N253" t="n">
-        <v>0.114749679062037</v>
+        <v>0.1556080250575293</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3114316721961435</v>
+        <v>0.1650311897904792</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01168259499544667</v>
+        <v>0.003884968739428965</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3091571645704294</v>
+        <v>0.04980431950304142</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02822673818056383</v>
+        <v>0.03901481089838234</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.169615475239679</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0700518363380849</v>
+        <v>0.0977800795717588</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3119970984664983</v>
+        <v>0.1650989599877819</v>
       </c>
       <c r="N254" t="n">
-        <v>0.1122491915205758</v>
+        <v>0.1563518397692628</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3130882236439953</v>
+        <v>0.1659090152680881</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01145524845638919</v>
+        <v>0.003961888291721796</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3107929167639238</v>
+        <v>0.04978367846226337</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02745385904933201</v>
+        <v>0.03900073427827593</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1705129116166085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.06876435795094751</v>
+        <v>0.09794577881087102</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3136478767652628</v>
+        <v>0.1659724994586167</v>
       </c>
       <c r="N255" t="n">
-        <v>0.1113401805831857</v>
+        <v>0.1561965688769383</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3147447750918472</v>
+        <v>0.1667868407456971</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01322688559724437</v>
+        <v>0.004045853598981332</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3124286689574181</v>
+        <v>0.04976303742148532</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02697884551145739</v>
+        <v>0.03858689770806226</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.171410347993538</v>
       </c>
       <c r="L256" t="n">
-        <v>0.06767152589612238</v>
+        <v>0.09711205190846303</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3152986550640273</v>
+        <v>0.1668460389294515</v>
       </c>
       <c r="N256" t="n">
-        <v>0.1088225350981251</v>
+        <v>0.1560422259018569</v>
       </c>
       <c r="O256" t="n">
-        <v>0.316401326539699</v>
+        <v>0.167664666223306</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01299749351804867</v>
+        <v>0.004137104467575453</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3140644211509124</v>
+        <v>0.04974239638070727</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02670167015968476</v>
+        <v>0.03897330477432129</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1723077843704675</v>
       </c>
       <c r="L257" t="n">
-        <v>0.06717327152423297</v>
+        <v>0.09797890718045651</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3169494333627919</v>
+        <v>0.1677195784002863</v>
       </c>
       <c r="N257" t="n">
-        <v>0.1074961439136518</v>
+        <v>0.1568888243653194</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3180578779875508</v>
+        <v>0.1685424917009149</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01176705931883863</v>
+        <v>0.004235880703871958</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3157001733444068</v>
+        <v>0.04972175533992922</v>
       </c>
       <c r="J258" t="n">
-        <v>0.0260223055867588</v>
+        <v>0.03885995906363292</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.173205220747397</v>
       </c>
       <c r="L258" t="n">
-        <v>0.06536952618590272</v>
+        <v>0.09794635294277323</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3186002116615564</v>
+        <v>0.1685931178711212</v>
       </c>
       <c r="N258" t="n">
-        <v>0.1045608958780239</v>
+        <v>0.156436377788627</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3197144294354026</v>
+        <v>0.1694203171785239</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01253557009965071</v>
+        <v>0.004342422114238693</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3173359255379011</v>
+        <v>0.04970111429915116</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02584072438542423</v>
+        <v>0.03864686416257705</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1741026571243266</v>
       </c>
       <c r="L259" t="n">
-        <v>0.06446022123175502</v>
+        <v>0.0969143975113349</v>
       </c>
       <c r="M259" t="n">
-        <v>0.320250989960321</v>
+        <v>0.169466657341956</v>
       </c>
       <c r="N259" t="n">
-        <v>0.1037166798394996</v>
+        <v>0.1557848996930805</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3213709808832544</v>
+        <v>0.1702981426561328</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01130301296052145</v>
+        <v>0.004456968505043506</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3189716777313954</v>
+        <v>0.04968047325837311</v>
       </c>
       <c r="J260" t="n">
-        <v>0.02535689914842576</v>
+        <v>0.0385340236577336</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1750000935012561</v>
       </c>
       <c r="L260" t="n">
-        <v>0.06304528801241333</v>
+        <v>0.09778304920206318</v>
       </c>
       <c r="M260" t="n">
-        <v>0.3219017682590855</v>
+        <v>0.1703401968127908</v>
       </c>
       <c r="N260" t="n">
-        <v>0.1011633846463369</v>
+        <v>0.156434403599981</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3230275323311063</v>
+        <v>0.1711759681337417</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01206937500148733</v>
+        <v>0.004579759682654193</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3206074299248898</v>
+        <v>0.04965983221759505</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0247708024685081</v>
+        <v>0.03882144113568249</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.1758975298781856</v>
       </c>
       <c r="L261" t="n">
-        <v>0.06222465787850109</v>
+        <v>0.09755231633087982</v>
       </c>
       <c r="M261" t="n">
-        <v>0.32355254655785</v>
+        <v>0.1712137362836256</v>
       </c>
       <c r="N261" t="n">
-        <v>0.09980089914679391</v>
+        <v>0.1564849030306294</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3246840837789581</v>
+        <v>0.1720537936113506</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01083464332258486</v>
+        <v>0.004711035453438615</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3222431821183841</v>
+        <v>0.049639191176817</v>
       </c>
       <c r="J262" t="n">
-        <v>0.02398240693841598</v>
+        <v>0.03890912018300365</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.1767949662551151</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0608982621806417</v>
+        <v>0.09782220721370657</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3252033248566146</v>
+        <v>0.1720872757544605</v>
       </c>
       <c r="N262" t="n">
-        <v>0.09802911218912869</v>
+        <v>0.1561364115063267</v>
       </c>
       <c r="O262" t="n">
-        <v>0.3263406352268099</v>
+        <v>0.1729316190889596</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01159880502385053</v>
+        <v>0.004851035623764613</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3238789343118784</v>
+        <v>0.04961855013603895</v>
       </c>
       <c r="J263" t="n">
-        <v>0.0238916851508941</v>
+        <v>0.03859706438627696</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1776924026320446</v>
       </c>
       <c r="L263" t="n">
-        <v>0.05926603226945876</v>
+        <v>0.09769273016646512</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3268541031553791</v>
+        <v>0.1729608152252953</v>
       </c>
       <c r="N263" t="n">
-        <v>0.09504791262159923</v>
+        <v>0.1562889425483739</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3279971866746618</v>
+        <v>0.1738094445665685</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.009361847205320857</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3255146865053728</v>
+        <v>0.0495979090952609</v>
       </c>
       <c r="J264" t="n">
-        <v>0.02299860969868717</v>
+        <v>0.03888527733208234</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1785898390089742</v>
       </c>
       <c r="L264" t="n">
-        <v>0.05842789949557547</v>
+        <v>0.0969638935050772</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3285048814541436</v>
+        <v>0.1738343546961301</v>
       </c>
       <c r="N264" t="n">
-        <v>0.09295718929246372</v>
+        <v>0.155042509678072</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3296537381225136</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1746872700441775</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04958475120052406</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.005263525208947878</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04958501972898807</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005524460619110147</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04958528825745209</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005782725998719207</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04958555678591611</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006038241116030046</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04958582531438013</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006290925739275283</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04958609384284414</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.006540699636709654</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04958636237130816</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.006787482576566028</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04958663089977217</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.007031194327098901</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04958689942823619</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007271754656541389</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04958716795670021</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007509083333147731</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04958743648516423</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.00774310012515133</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.04958770501362825</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.007973724800806097</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04958797354209227</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008200877128345753</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04958824207055628</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.008424476876023927</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.0495885105990203</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.008644443812074638</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04958877912748431</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.008860697704751189</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04958904765594833</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009073158322287916</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.04958931618441235</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.009281745432933308</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04958958471287636</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.009486378804935525</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04958985324134038</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.009686978206529404</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04959012176980439</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.009883463405967421</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04959039029826841</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01007575417148476</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04959065882673244</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01026377027133354</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04959092735519646</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01044743147374931</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04959119588366047</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01062698515998856</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04959146441212449</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01080431677631546</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.0495917329405885</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01097967370398623</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04959200146905252</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01115297571123691</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04959226999751654</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01132414256631884</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04959253852598056</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01149309403746829</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04959280705444457</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01165974989293637</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04959307558290859</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01182402990095956</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.0495933441113726</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.01198585382978525</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04959361263983662</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01214514144766064</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04959388116830064</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.01230181252282254</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04959414969676466</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.0124557868235215</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04959441822522868</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01260698411799457</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04959468675369269</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01275532417449208</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04959495528215671</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.0129007267612513</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04959522381062072</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01304311164652232</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04959549233908474</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01318239859854266</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04959576086754876</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01331850738556214</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04959602939601278</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.0134513577758186</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04959629792447679</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01358086953756154</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04959656645294081</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.01370696243902907</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04959683498140482</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01382955624847042</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.04959710350986885</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01394857073412401</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04959737203833287</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01406392566423875</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04959764056679689</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.0495979090952609</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01417554080705337</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04958475120052406</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.0142626963099236</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.04960592929823014</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01434663208327634</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.04962710739593623</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01442731231737782</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.04964828549364232</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01450470120249425</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.0496694635913484</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01457876292889185</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.04969064168905449</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01464946168683686</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.04971181978676058</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.0147167616665955</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.04973299788446667</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01478062705843398</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.04975417598217275</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.01484102205261854</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.04977535407987884</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01489791083941537</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.04979653217758493</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01495125760909072</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.04981771027529101</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.0150010265519108</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.0498388883729971</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01504718185814181</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.04986006647070319</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01508968771805002</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.04988124456840928</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01512850832190162</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.04990242266611536</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01516360785996283</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.04992360076382145</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.0151949505224999</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.04994477886152754</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01522250049977902</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.04996595695923362</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01524622198206642</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.04998713505693971</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01526607915962832</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0500083131546458</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01528203622273096</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05002949125235188</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01529405736164054</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05005066935005797</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.0153021067666233</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05007184744776406</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01530614862794544</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05009302554547015</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01530629335895279</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.05011420364317623</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.01530338248838914</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05013538174088232</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01529752642960031</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05015655983858841</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01528868937285251</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05017773793629449</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.01527683550841197</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05019891603400058</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.01526192902654491</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05022009413170667</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01524393411751755</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05024127222941275</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01522281497159612</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05026245032711884</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01519853577904682</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05028362842482493</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01517106073013589</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05030480652253102</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01514035401512955</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.0503259846202371</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.01510637982429402</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05034716271794319</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01506910234789553</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05036834081564927</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01502848577620029</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05038951891335536</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01498449429947452</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05041069701106145</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01493709210798445</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05043187510876754</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01488624339199629</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05045305320647362</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01483191234177628</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05047423130417971</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01477406314759062</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.0504954094018858</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01471265999970555</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05051658749959189</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01464766708838729</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05053776559729797</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01457904860390206</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05055894369500406</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01450676873651607</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05058012179271015</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01443079167649555</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05060129989041623</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01435108161410673</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05062247798812232</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01435108161410673</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05062247798812232</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.0146501796464294</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05220482248935993</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01494335198316611</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05378716699059752</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01523046952277035</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05536951149183512</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01551140316369564</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05695185599307272</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01578602380439547</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05853420049431032</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01605420234332335</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06011654499554792</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.01631580967893277</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06169888949678552</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.01657071670967726</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06328123399802313</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.0168187943340103</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06486357849926072</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.01705991345038542</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06644592300049831</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.01729394495725611</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06802826750173592</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.01752075975307586</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.06961061200297353</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.0177402287362982</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07119295650421113</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.01795222280537662</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07277530100544871</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.01815661285876462</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07435764550668632</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.01835326979491572</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07593999000792392</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.01854206451228341</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07752233450916153</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.01872286790932121</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.07910467901039912</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.0188955508844826</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08068702351163672</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.01905998433622111</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08226936801287432</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.01921603916299023</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08385171251411193</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.01936358626324346</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08543405701534952</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.01950249653543432</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08701640151658713</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.01963264087801631</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08859874601782472</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.0197538901894429</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09018109051906233</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.01986611536816766</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09176343502029993</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.01996918731264404</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09334577952153751</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02006297692132557</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09492812402277513</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02014735509266574</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09651046852401272</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02022219272511807</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09809281302525033</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02028736071713604</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.09967515752648792</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02034272996717319</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1012575020277255</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02038817137368299</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1028398465289631</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02042355583511897</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.1044221910302007</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02044875424993461</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1060045355314383</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02046810881880896</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1075868800326759</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02046809448079803</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1091692245339135</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02046544525024407</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1107515690351511</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02045845057452862</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.1123339135363887</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02044744048372182</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1139162580376263</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02043274500789388</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1154986025388639</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02041469417711493</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1170809470401015</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02039361802145516</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1186632915413391</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02036984657098473</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.1202456360425767</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02034370985577381</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1218279805438143</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02031553790589258</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1234103250450519</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02028566075141119</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1249926695462895</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02025440842239983</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1265750140475271</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02022211094892866</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.1281573585487647</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02018909836106784</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1297397030500023</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02015547811355835</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1313220475512399</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02011136012829409</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1329043920524775</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02005376117276572</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1344867365537151</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.01998611414971699</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.1360690810549527</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0199118519618916</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1376514255561903</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.01983440751203326</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1392337700574279</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.01975721370288572</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1408161145586655</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.01968370343719269</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1423984590599031</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.01961730961769789</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.1439808035611407</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.01956146514714504</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1455631480623783</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.01951960292827785</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1471454925636159</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.01948830595394455</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.1487278370648535</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.01945892154071034</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.01943126233072824</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1518925260673287</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.01940521832043175</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1534748705685663</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.01938067950625437</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1550572150698039</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.01935753588462961</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1566395595710415</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.01933567745199097</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1582219040722792</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.01931499420477197</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.1598042485735167</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.01929537613940611</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1613865930747543</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.01927671325232688</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.162968937575992</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.0192588955399678</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1645512820772295</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.01924181299876237</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1661336265784671</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.0192253556251441</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1677159710797047</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.0192094134155465</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1692983155809423</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.01919387636640306</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1708806600821799</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.0191786344741473</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1724630045834175</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.01916357773521273</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1740453490846551</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.01914859614603284</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.1756276935858928</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.01913357970304114</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1772100380871303</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.01911841840267114</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1787923825883679</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.01910300224135634</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1803747270896055</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.01908754341405631</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1819570715908431</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.01907234293031993</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1835394160920807</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.01905741035347402</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1851217605933183</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.01904275522974037</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.186704105094556</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.01902838710534085</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1882864495957935</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.01901431552649725</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1898687940970311</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.01900055003943141</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.1914511385982688</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.01898710019036515</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1930334830995063</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.0189739755255203</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1946158276007439</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.01896118559111868</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1961981721019815</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.01894873993338213</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1977805166032191</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.01893664809853245</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.1993628611044568</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.01892491963279149</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2009452056056943</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.01891356408238107</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.202527550106932</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.01890259099352301</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2041098946081696</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.01889200991243913</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2056922391094071</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.01888183038535127</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.2072745836106447</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
